--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7E786D7F-4D99-4370-901D-521762E645B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CB4AD99C-26B5-4D49-92BB-E3B120EE0DF1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="12735" windowWidth="14355" windowHeight="9780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="14535" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">index.scoring!$A$1:$R$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$I$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$I$107</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="172">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -390,9 +390,6 @@
     <t>INDEX_REGION</t>
   </si>
   <si>
-    <t>METRICNAME</t>
-  </si>
-  <si>
     <t>Thresh_Lo</t>
   </si>
   <si>
@@ -496,6 +493,90 @@
   </si>
   <si>
     <t>ScoreValue</t>
+  </si>
+  <si>
+    <t>MBISQ.2015</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>SouthBluff</t>
+  </si>
+  <si>
+    <t>Southeast</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>pi_COC2Chi</t>
+  </si>
+  <si>
+    <t>pi_ffg_collect</t>
+  </si>
+  <si>
+    <t>pi_hab_cling</t>
+  </si>
+  <si>
+    <t>pt_nonIns</t>
+  </si>
+  <si>
+    <t>pi_Colesens</t>
+  </si>
+  <si>
+    <t>pi_hab_burrow</t>
+  </si>
+  <si>
+    <t>pi_ffg_pred</t>
+  </si>
+  <si>
+    <t>nt_hab_climb</t>
+  </si>
+  <si>
+    <t>pi_Pleco</t>
+  </si>
+  <si>
+    <t>x_HBI</t>
+  </si>
+  <si>
+    <t>nt_Pleco</t>
+  </si>
+  <si>
+    <t>pi_Tanyp</t>
+  </si>
+  <si>
+    <t>pt_tv_intol</t>
+  </si>
+  <si>
+    <t>MBISQ</t>
+  </si>
+  <si>
+    <t>impaired</t>
+  </si>
+  <si>
+    <t>non-impaired</t>
+  </si>
+  <si>
+    <t>NMSCI.2006</t>
+  </si>
+  <si>
+    <t>LowSmall</t>
+  </si>
+  <si>
+    <t>LowLarge</t>
+  </si>
+  <si>
+    <t>HighSmall</t>
+  </si>
+  <si>
+    <t>NMSCI</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t>METRIC_NAME</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1156,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/[MetricScoring.xlsx]</v>
+        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\[MetricScoring.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1172,11 +1253,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A70181-B22C-4671-9C22-4B8DA5FE66AB}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I71" sqref="I71:I82"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1267,7 @@
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
@@ -1200,25 +1281,25 @@
         <v>108</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>112</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3183,7 +3264,7 @@
         <v>91</v>
       </c>
       <c r="I70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3209,7 +3290,7 @@
         <v>60</v>
       </c>
       <c r="H71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3235,7 +3316,7 @@
         <v>30</v>
       </c>
       <c r="H72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3261,7 +3342,7 @@
         <v>9</v>
       </c>
       <c r="H73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3287,7 +3368,7 @@
         <v>3.25</v>
       </c>
       <c r="H74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3313,7 +3394,7 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3339,7 +3420,7 @@
         <v>5</v>
       </c>
       <c r="H76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3365,7 +3446,7 @@
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3391,7 +3472,7 @@
         <v>5</v>
       </c>
       <c r="H78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3417,7 +3498,7 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3443,7 +3524,7 @@
         <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3469,7 +3550,7 @@
         <v>16</v>
       </c>
       <c r="H81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3480,37 +3561,612 @@
         <v>92</v>
       </c>
       <c r="C82" t="s">
+        <v>142</v>
+      </c>
+      <c r="D82" t="s">
         <v>143</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
+        <v>89</v>
+      </c>
+      <c r="F82" t="s">
+        <v>89</v>
+      </c>
+      <c r="G82" t="s">
+        <v>89</v>
+      </c>
+      <c r="H82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>144</v>
       </c>
-      <c r="E82" t="s">
-        <v>89</v>
-      </c>
-      <c r="F82" t="s">
-        <v>89</v>
-      </c>
-      <c r="G82" t="s">
-        <v>89</v>
-      </c>
-      <c r="H82" t="s">
-        <v>142</v>
+      <c r="B83" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" t="s">
+        <v>149</v>
+      </c>
+      <c r="D84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>50</v>
+      </c>
+      <c r="H84" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D85" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85">
+        <v>10.5</v>
+      </c>
+      <c r="G85">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="H85" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" t="s">
+        <v>151</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="H86" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" t="s">
+        <v>152</v>
+      </c>
+      <c r="D87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87">
+        <v>4.8</v>
+      </c>
+      <c r="G87">
+        <v>37.6</v>
+      </c>
+      <c r="H87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88">
+        <v>1.9</v>
+      </c>
+      <c r="G88">
+        <v>30.4</v>
+      </c>
+      <c r="H88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" t="s">
+        <v>74</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>30</v>
+      </c>
+      <c r="H89" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" t="s">
+        <v>146</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>10.9</v>
+      </c>
+      <c r="H90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>144</v>
+      </c>
+      <c r="B91" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" t="s">
+        <v>81</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>6</v>
+      </c>
+      <c r="H91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>4.2</v>
+      </c>
+      <c r="H92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" t="s">
+        <v>154</v>
+      </c>
+      <c r="D93" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93">
+        <v>1.4</v>
+      </c>
+      <c r="G93">
+        <v>43.5</v>
+      </c>
+      <c r="H93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" t="s">
+        <v>146</v>
+      </c>
+      <c r="C94" t="s">
+        <v>74</v>
+      </c>
+      <c r="D94" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>15</v>
+      </c>
+      <c r="H94" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" t="s">
+        <v>147</v>
+      </c>
+      <c r="C95" t="s">
+        <v>155</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>24.7</v>
+      </c>
+      <c r="H95" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96" t="s">
+        <v>147</v>
+      </c>
+      <c r="C96" t="s">
+        <v>156</v>
+      </c>
+      <c r="D96" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>6</v>
+      </c>
+      <c r="H96" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97" t="s">
+        <v>147</v>
+      </c>
+      <c r="C97" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>79.8</v>
+      </c>
+      <c r="H97" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" t="s">
+        <v>147</v>
+      </c>
+      <c r="C98" t="s">
+        <v>149</v>
+      </c>
+      <c r="D98" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>26.5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>144</v>
+      </c>
+      <c r="B99" t="s">
+        <v>147</v>
+      </c>
+      <c r="C99" t="s">
+        <v>157</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>10.9</v>
+      </c>
+      <c r="H99" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" t="s">
+        <v>147</v>
+      </c>
+      <c r="C100" t="s">
+        <v>158</v>
+      </c>
+      <c r="D100" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100">
+        <v>3.1</v>
+      </c>
+      <c r="G100">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H100" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>144</v>
+      </c>
+      <c r="B101" t="s">
+        <v>148</v>
+      </c>
+      <c r="C101" t="s">
+        <v>101</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>144</v>
+      </c>
+      <c r="B102" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" t="s">
+        <v>159</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>4</v>
+      </c>
+      <c r="H102" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>144</v>
+      </c>
+      <c r="B103" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" t="s">
+        <v>153</v>
+      </c>
+      <c r="D103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>7.5</v>
+      </c>
+      <c r="H103" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" t="s">
+        <v>157</v>
+      </c>
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>11.9</v>
+      </c>
+      <c r="H104" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>144</v>
+      </c>
+      <c r="B105" t="s">
+        <v>148</v>
+      </c>
+      <c r="C105" t="s">
+        <v>160</v>
+      </c>
+      <c r="D105" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H105" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>144</v>
+      </c>
+      <c r="B106" t="s">
+        <v>148</v>
+      </c>
+      <c r="C106" t="s">
+        <v>161</v>
+      </c>
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>30.7</v>
+      </c>
+      <c r="H106" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>144</v>
+      </c>
+      <c r="B107" t="s">
+        <v>148</v>
+      </c>
+      <c r="C107" t="s">
+        <v>158</v>
+      </c>
+      <c r="D107" t="s">
+        <v>33</v>
+      </c>
+      <c r="E107">
+        <v>3.7</v>
+      </c>
+      <c r="G107">
+        <v>7.5</v>
+      </c>
+      <c r="H107" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I81" xr:uid="{93B62030-188A-4EBD-91A5-26CC545690A4}"/>
+  <autoFilter ref="A1:I107" xr:uid="{93B62030-188A-4EBD-91A5-26CC545690A4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544F088F-E018-4AF1-A817-C6B9859D0A47}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3525,7 +4181,8 @@
     <col min="8" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -3536,52 +4193,52 @@
         <v>108</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="L1" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -3592,16 +4249,16 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3622,16 +4279,16 @@
         <v>5</v>
       </c>
       <c r="N2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" t="s">
         <v>135</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>136</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>137</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3642,16 +4299,16 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3672,16 +4329,16 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O3" t="s">
         <v>135</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>136</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>137</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3692,16 +4349,16 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3722,16 +4379,16 @@
         <v>5</v>
       </c>
       <c r="N4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O4" t="s">
         <v>135</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>136</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>137</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3742,16 +4399,16 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3772,16 +4429,16 @@
         <v>5</v>
       </c>
       <c r="N5" t="s">
+        <v>134</v>
+      </c>
+      <c r="O5" t="s">
         <v>135</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>136</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>137</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3792,16 +4449,16 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3822,16 +4479,16 @@
         <v>5</v>
       </c>
       <c r="N6" t="s">
+        <v>134</v>
+      </c>
+      <c r="O6" t="s">
         <v>135</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>136</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>137</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3842,16 +4499,16 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -3872,16 +4529,16 @@
         <v>5</v>
       </c>
       <c r="N7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" t="s">
         <v>135</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>136</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3892,16 +4549,16 @@
         <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3922,16 +4579,16 @@
         <v>5</v>
       </c>
       <c r="N8" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" t="s">
         <v>135</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>136</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>137</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3942,16 +4599,16 @@
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -3972,16 +4629,16 @@
         <v>5</v>
       </c>
       <c r="N9" t="s">
+        <v>134</v>
+      </c>
+      <c r="O9" t="s">
         <v>135</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>136</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>137</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -3992,16 +4649,16 @@
         <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -4022,16 +4679,16 @@
         <v>5</v>
       </c>
       <c r="N10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10" t="s">
         <v>135</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>136</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>137</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -4042,16 +4699,16 @@
         <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -4069,13 +4726,333 @@
         <v>999</v>
       </c>
       <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
         <v>132</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>133</v>
       </c>
-      <c r="P11" t="s">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="N12" t="s">
+        <v>163</v>
+      </c>
+      <c r="O12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>43.7</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="N13" t="s">
+        <v>163</v>
+      </c>
+      <c r="O13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>56.8</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="N14" t="s">
+        <v>163</v>
+      </c>
+      <c r="O14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>55.7</v>
+      </c>
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="N15" t="s">
+        <v>163</v>
+      </c>
+      <c r="O15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>14.52</v>
+      </c>
+      <c r="J16">
+        <v>29.03</v>
+      </c>
+      <c r="K16">
+        <v>43.55</v>
+      </c>
+      <c r="L16">
+        <v>56.45</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16" t="s">
         <v>134</v>
+      </c>
+      <c r="O16" t="s">
+        <v>135</v>
+      </c>
+      <c r="P16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>137</v>
+      </c>
+      <c r="R16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>17.21</v>
+      </c>
+      <c r="J17">
+        <v>34.43</v>
+      </c>
+      <c r="K17">
+        <v>51.64</v>
+      </c>
+      <c r="L17">
+        <v>75.819999999999993</v>
+      </c>
+      <c r="M17">
+        <v>100</v>
+      </c>
+      <c r="N17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" t="s">
+        <v>135</v>
+      </c>
+      <c r="P17" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>137</v>
+      </c>
+      <c r="R17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J18">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="K18">
+        <v>56.7</v>
+      </c>
+      <c r="L18">
+        <v>78.349999999999994</v>
+      </c>
+      <c r="M18">
+        <v>100</v>
+      </c>
+      <c r="N18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" t="s">
+        <v>135</v>
+      </c>
+      <c r="P18" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>137</v>
+      </c>
+      <c r="R18" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CB4AD99C-26B5-4D49-92BB-E3B120EE0DF1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2D3BFAD-2BC8-4064-8072-3B750533A73D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="14535" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="15135" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">index.scoring!$A$1:$R$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$I$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$I$149</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="188">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -577,6 +577,54 @@
   </si>
   <si>
     <t>METRIC_NAME</t>
+  </si>
+  <si>
+    <t>pt_ept</t>
+  </si>
+  <si>
+    <t>NAP</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>pi_ept</t>
+  </si>
+  <si>
+    <t>TPL</t>
+  </si>
+  <si>
+    <t>SPL</t>
+  </si>
+  <si>
+    <t>XER</t>
+  </si>
+  <si>
+    <t>UMW</t>
+  </si>
+  <si>
+    <t>pt_Chiro</t>
+  </si>
+  <si>
+    <t>pi_dom05</t>
+  </si>
+  <si>
+    <t>nt_habit_cling</t>
+  </si>
+  <si>
+    <t>Cont_010</t>
+  </si>
+  <si>
+    <t>nt_tv_ptv059</t>
+  </si>
+  <si>
+    <t>pt_tv_ptv059</t>
+  </si>
+  <si>
+    <t>pt_tv_ptv810</t>
   </si>
 </sst>
 </file>
@@ -1253,11 +1301,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A70181-B22C-4671-9C22-4B8DA5FE66AB}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2975,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="I59" t="s">
         <v>79</v>
@@ -3001,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="I60" t="s">
         <v>80</v>
@@ -3027,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="I61" t="s">
         <v>81</v>
@@ -3053,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="I62" t="s">
         <v>82</v>
@@ -3079,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="I63" t="s">
         <v>20</v>
@@ -3105,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="I64" t="s">
         <v>83</v>
@@ -3131,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="I65" t="s">
         <v>85</v>
@@ -3157,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="I66" t="s">
         <v>80</v>
@@ -3183,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="I67" t="s">
         <v>28</v>
@@ -3209,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="I68" t="s">
         <v>86</v>
@@ -3235,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="I69" t="s">
         <v>20</v>
@@ -3261,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="I70" t="s">
         <v>140</v>
@@ -3901,7 +3949,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>144</v>
       </c>
@@ -3924,7 +3972,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>144</v>
       </c>
@@ -3947,7 +3995,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>144</v>
       </c>
@@ -3970,7 +4018,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>144</v>
       </c>
@@ -3993,7 +4041,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>144</v>
       </c>
@@ -4016,7 +4064,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>144</v>
       </c>
@@ -4039,7 +4087,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>144</v>
       </c>
@@ -4062,7 +4110,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>144</v>
       </c>
@@ -4085,7 +4133,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>144</v>
       </c>
@@ -4108,7 +4156,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>144</v>
       </c>
@@ -4131,7 +4179,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>144</v>
       </c>
@@ -4154,8 +4202,1100 @@
         <v>91</v>
       </c>
     </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>77</v>
+      </c>
+      <c r="B108" t="s">
+        <v>173</v>
+      </c>
+      <c r="C108" t="s">
+        <v>172</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>89</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>184</v>
+      </c>
+      <c r="I108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B109" t="s">
+        <v>174</v>
+      </c>
+      <c r="C109" t="s">
+        <v>172</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>89</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>184</v>
+      </c>
+      <c r="I109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>77</v>
+      </c>
+      <c r="B110" t="s">
+        <v>175</v>
+      </c>
+      <c r="C110" t="s">
+        <v>172</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>89</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>184</v>
+      </c>
+      <c r="I110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>77</v>
+      </c>
+      <c r="B111" t="s">
+        <v>177</v>
+      </c>
+      <c r="C111" t="s">
+        <v>176</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>89</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>184</v>
+      </c>
+      <c r="I111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>77</v>
+      </c>
+      <c r="B112" t="s">
+        <v>178</v>
+      </c>
+      <c r="C112" t="s">
+        <v>176</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>89</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112" t="s">
+        <v>184</v>
+      </c>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>77</v>
+      </c>
+      <c r="B113" t="s">
+        <v>179</v>
+      </c>
+      <c r="C113" t="s">
+        <v>79</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>89</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113" t="s">
+        <v>184</v>
+      </c>
+      <c r="I113" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>77</v>
+      </c>
+      <c r="B114" t="s">
+        <v>180</v>
+      </c>
+      <c r="C114" t="s">
+        <v>181</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114" t="s">
+        <v>89</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114" t="s">
+        <v>184</v>
+      </c>
+      <c r="I114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>77</v>
+      </c>
+      <c r="B115" t="s">
+        <v>180</v>
+      </c>
+      <c r="C115" t="s">
+        <v>80</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>89</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115" t="s">
+        <v>184</v>
+      </c>
+      <c r="I115" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>77</v>
+      </c>
+      <c r="B116" t="s">
+        <v>177</v>
+      </c>
+      <c r="C116" t="s">
+        <v>80</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116" t="s">
+        <v>89</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>184</v>
+      </c>
+      <c r="I116" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>77</v>
+      </c>
+      <c r="B117" t="s">
+        <v>174</v>
+      </c>
+      <c r="C117" t="s">
+        <v>80</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117" t="s">
+        <v>89</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>184</v>
+      </c>
+      <c r="I117" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>77</v>
+      </c>
+      <c r="B118" t="s">
+        <v>178</v>
+      </c>
+      <c r="C118" t="s">
+        <v>80</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118" t="s">
+        <v>89</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>184</v>
+      </c>
+      <c r="I118" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>77</v>
+      </c>
+      <c r="B119" t="s">
+        <v>173</v>
+      </c>
+      <c r="C119" t="s">
+        <v>182</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119" t="s">
+        <v>89</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119" t="s">
+        <v>184</v>
+      </c>
+      <c r="I119" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>77</v>
+      </c>
+      <c r="B120" t="s">
+        <v>175</v>
+      </c>
+      <c r="C120" t="s">
+        <v>182</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120" t="s">
+        <v>89</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120" t="s">
+        <v>184</v>
+      </c>
+      <c r="I120" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>77</v>
+      </c>
+      <c r="B121" t="s">
+        <v>179</v>
+      </c>
+      <c r="C121" t="s">
+        <v>182</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121" t="s">
+        <v>89</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121" t="s">
+        <v>184</v>
+      </c>
+      <c r="I121" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>77</v>
+      </c>
+      <c r="B122" t="s">
+        <v>173</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122" t="s">
+        <v>89</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>184</v>
+      </c>
+      <c r="I122" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>77</v>
+      </c>
+      <c r="B123" t="s">
+        <v>177</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123" t="s">
+        <v>89</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>184</v>
+      </c>
+      <c r="I123" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>77</v>
+      </c>
+      <c r="B124" t="s">
+        <v>174</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124" t="s">
+        <v>89</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124" t="s">
+        <v>184</v>
+      </c>
+      <c r="I124" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>77</v>
+      </c>
+      <c r="B125" t="s">
+        <v>178</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125" t="s">
+        <v>89</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125" t="s">
+        <v>184</v>
+      </c>
+      <c r="I125" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" t="s">
+        <v>175</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126" t="s">
+        <v>89</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>184</v>
+      </c>
+      <c r="I126" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>77</v>
+      </c>
+      <c r="B127" t="s">
+        <v>179</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127" t="s">
+        <v>89</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>184</v>
+      </c>
+      <c r="I127" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>77</v>
+      </c>
+      <c r="B128" t="s">
+        <v>180</v>
+      </c>
+      <c r="C128" t="s">
+        <v>81</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128" t="s">
+        <v>89</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128" t="s">
+        <v>184</v>
+      </c>
+      <c r="I128" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>77</v>
+      </c>
+      <c r="B129" t="s">
+        <v>180</v>
+      </c>
+      <c r="C129" t="s">
+        <v>100</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129" t="s">
+        <v>89</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129" t="s">
+        <v>184</v>
+      </c>
+      <c r="I129" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>77</v>
+      </c>
+      <c r="B130" t="s">
+        <v>174</v>
+      </c>
+      <c r="C130" t="s">
+        <v>100</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130" t="s">
+        <v>89</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130" t="s">
+        <v>184</v>
+      </c>
+      <c r="I130" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>77</v>
+      </c>
+      <c r="B131" t="s">
+        <v>178</v>
+      </c>
+      <c r="C131" t="s">
+        <v>100</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131" t="s">
+        <v>89</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131" t="s">
+        <v>184</v>
+      </c>
+      <c r="I131" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>77</v>
+      </c>
+      <c r="B132" t="s">
+        <v>173</v>
+      </c>
+      <c r="C132" t="s">
+        <v>99</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132" t="s">
+        <v>89</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132" t="s">
+        <v>184</v>
+      </c>
+      <c r="I132" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>77</v>
+      </c>
+      <c r="B133" t="s">
+        <v>175</v>
+      </c>
+      <c r="C133" t="s">
+        <v>99</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133" t="s">
+        <v>89</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133" t="s">
+        <v>184</v>
+      </c>
+      <c r="I133" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>77</v>
+      </c>
+      <c r="B134" t="s">
+        <v>179</v>
+      </c>
+      <c r="C134" t="s">
+        <v>99</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134" t="s">
+        <v>89</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134" t="s">
+        <v>184</v>
+      </c>
+      <c r="I134" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>77</v>
+      </c>
+      <c r="B135" t="s">
+        <v>177</v>
+      </c>
+      <c r="C135" t="s">
+        <v>183</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135" t="s">
+        <v>89</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135" t="s">
+        <v>184</v>
+      </c>
+      <c r="I135" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>77</v>
+      </c>
+      <c r="B136" t="s">
+        <v>177</v>
+      </c>
+      <c r="C136" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136" t="s">
+        <v>89</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136" t="s">
+        <v>184</v>
+      </c>
+      <c r="I136" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>77</v>
+      </c>
+      <c r="B137" t="s">
+        <v>174</v>
+      </c>
+      <c r="C137" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137" t="s">
+        <v>89</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>184</v>
+      </c>
+      <c r="I137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>77</v>
+      </c>
+      <c r="B138" t="s">
+        <v>173</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138" t="s">
+        <v>89</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>184</v>
+      </c>
+      <c r="I138" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>77</v>
+      </c>
+      <c r="B139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C139" t="s">
+        <v>20</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139" t="s">
+        <v>89</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>184</v>
+      </c>
+      <c r="I139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>77</v>
+      </c>
+      <c r="B140" t="s">
+        <v>178</v>
+      </c>
+      <c r="C140" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140" t="s">
+        <v>89</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>184</v>
+      </c>
+      <c r="I140" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>77</v>
+      </c>
+      <c r="B141" t="s">
+        <v>175</v>
+      </c>
+      <c r="C141" t="s">
+        <v>20</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141" t="s">
+        <v>89</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141" t="s">
+        <v>184</v>
+      </c>
+      <c r="I141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>77</v>
+      </c>
+      <c r="B142" t="s">
+        <v>179</v>
+      </c>
+      <c r="C142" t="s">
+        <v>20</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142" t="s">
+        <v>89</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142" t="s">
+        <v>184</v>
+      </c>
+      <c r="I142" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>77</v>
+      </c>
+      <c r="B143" t="s">
+        <v>178</v>
+      </c>
+      <c r="C143" t="s">
+        <v>72</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143" t="s">
+        <v>89</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>184</v>
+      </c>
+      <c r="I143" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>77</v>
+      </c>
+      <c r="B144" t="s">
+        <v>175</v>
+      </c>
+      <c r="C144" t="s">
+        <v>83</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144" t="s">
+        <v>89</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144" t="s">
+        <v>184</v>
+      </c>
+      <c r="I144" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>77</v>
+      </c>
+      <c r="B145" t="s">
+        <v>179</v>
+      </c>
+      <c r="C145" t="s">
+        <v>83</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145" t="s">
+        <v>89</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145" t="s">
+        <v>184</v>
+      </c>
+      <c r="I145" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>77</v>
+      </c>
+      <c r="B146" t="s">
+        <v>174</v>
+      </c>
+      <c r="C146" t="s">
+        <v>185</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146" t="s">
+        <v>89</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146" t="s">
+        <v>184</v>
+      </c>
+      <c r="I146" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>77</v>
+      </c>
+      <c r="B147" t="s">
+        <v>173</v>
+      </c>
+      <c r="C147" t="s">
+        <v>186</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147" t="s">
+        <v>89</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147" t="s">
+        <v>184</v>
+      </c>
+      <c r="I147" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>77</v>
+      </c>
+      <c r="B148" t="s">
+        <v>180</v>
+      </c>
+      <c r="C148" t="s">
+        <v>187</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148" t="s">
+        <v>89</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148" t="s">
+        <v>184</v>
+      </c>
+      <c r="I148" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>77</v>
+      </c>
+      <c r="B149" t="s">
+        <v>177</v>
+      </c>
+      <c r="C149" t="s">
+        <v>187</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149" t="s">
+        <v>89</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149" t="s">
+        <v>184</v>
+      </c>
+      <c r="I149" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I107" xr:uid="{93B62030-188A-4EBD-91A5-26CC545690A4}"/>
+  <autoFilter ref="A1:I149" xr:uid="{93B62030-188A-4EBD-91A5-26CC545690A4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2D3BFAD-2BC8-4064-8072-3B750533A73D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{42287E5E-EC47-4B6A-B6C0-555057043870}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15135" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="15735" windowWidth="14355" windowHeight="9780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -618,13 +618,13 @@
     <t>Cont_010</t>
   </si>
   <si>
-    <t>nt_tv_ptv059</t>
-  </si>
-  <si>
-    <t>pt_tv_ptv059</t>
-  </si>
-  <si>
-    <t>pt_tv_ptv810</t>
+    <t>nt_tv_ntol</t>
+  </si>
+  <si>
+    <t>pt_tv_ntol</t>
+  </si>
+  <si>
+    <t>pt_tv_stol</t>
   </si>
 </sst>
 </file>
@@ -1303,9 +1303,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5304,7 +5304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544F088F-E018-4AF1-A817-C6B9859D0A47}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{42287E5E-EC47-4B6A-B6C0-555057043870}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="10_ncr:100000_{42287E5E-EC47-4B6A-B6C0-555057043870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{109F1272-A55F-4D18-A9A1-174960E56140}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15735" windowWidth="14355" windowHeight="9780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="16935" windowWidth="14355" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$I$149</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="192">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -84,15 +91,6 @@
     <t>Description of Work</t>
   </si>
   <si>
-    <t>Sheet2</t>
-  </si>
-  <si>
-    <t>Sheet3</t>
-  </si>
-  <si>
-    <t>blah, blah, blah</t>
-  </si>
-  <si>
     <t>Worksheet</t>
   </si>
   <si>
@@ -327,9 +325,6 @@
     <t>BioMonTools</t>
   </si>
   <si>
-    <t>Metric Scoring</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -625,6 +620,30 @@
   </si>
   <si>
     <t>pt_tv_stol</t>
+  </si>
+  <si>
+    <t>metric.scroing</t>
+  </si>
+  <si>
+    <t>index.scoring</t>
+  </si>
+  <si>
+    <t>Scoring thresholds, metrics</t>
+  </si>
+  <si>
+    <t>Scoring thresholds, indices</t>
+  </si>
+  <si>
+    <t>Scoring thresholds for metrics and indices.</t>
+  </si>
+  <si>
+    <t>Used for R package BioMonTools.</t>
+  </si>
+  <si>
+    <t>https://github.com/leppott/BioMonTools</t>
+  </si>
+  <si>
+    <t>Scoring Thresholds - Metrics and Indices</t>
   </si>
 </sst>
 </file>
@@ -827,13 +846,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A15:C18" totalsRowShown="0">
-  <autoFilter ref="A15:C18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A16:C19" totalsRowShown="0">
+  <autoFilter ref="A16:C19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="0">
-      <calculatedColumnFormula>HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</calculatedColumnFormula>
+      <calculatedColumnFormula>HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1164,27 +1183,27 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="71.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1214,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>43441</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1232,48 +1251,64 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="11" t="str">
-        <f ca="1">HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</f>
-        <v>NOTES</v>
+        <v>4</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="9" t="str">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>
-        <v>Sheet2</v>
+        <v>NOTES</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>184</v>
+      </c>
+      <c r="B18" t="s">
+        <v>186</v>
       </c>
       <c r="C18" s="9" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A18&amp;"!A1",A18)</f>
-        <v>Sheet3</v>
+        <v>metric.scroing</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="9" t="str">
+        <f ca="1">HYPERLINK(FileName&amp;A19&amp;"!A1",A19)</f>
+        <v>index.scoring</v>
       </c>
     </row>
   </sheetData>
@@ -1284,16 +1319,17 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A14" r:id="rId2" xr:uid="{A063C72F-FB96-4B4B-A8FE-D5AD5AC77C8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="91" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="91" orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;L&amp;D&amp;CPage &amp;P of &amp;N&amp;R&amp;F</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1303,9 +1339,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,2010 +1359,2010 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>111</v>
-      </c>
       <c r="H1" s="13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G2">
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G5">
-        <v>0.28000000000000003</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>8.0000000000000002E-3</v>
+        <v>0.8</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G6">
-        <v>0.11</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>9.0000000000000011E-3</v>
+        <v>0.9</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G8">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G9">
         <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G10">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>0.12</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G12">
-        <v>0.51</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13">
-        <v>0.24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13">
-        <v>0.63</v>
-      </c>
-      <c r="H13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14">
-        <v>0.31</v>
-      </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G14">
-        <v>0.74</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G15">
         <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G16">
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>0.38</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G18">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E19">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G19">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G20">
-        <v>0.13</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21">
         <v>18</v>
       </c>
-      <c r="E21">
-        <v>0.03</v>
-      </c>
-      <c r="F21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21">
-        <v>0.18</v>
-      </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E22">
-        <v>0.26</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G22">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0.45</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G23">
         <v>0.72</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0.01</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G24">
         <v>0.21</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E25">
-        <v>0.68</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G25">
-        <v>0.97</v>
+        <v>97</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E26">
-        <v>0.92</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G26">
-        <v>0.99999999900000003</v>
+        <v>99.999999900000006</v>
       </c>
       <c r="H26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>1.0000000000000001E-11</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G27">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E28">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G28">
-        <v>0.69000000000000006</v>
+        <v>69</v>
       </c>
       <c r="H28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>0.25</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G29">
         <v>1.25</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0.09</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G30">
         <v>0.26</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E31">
-        <v>0.45</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G31">
-        <v>0.68</v>
+        <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E32">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G32">
-        <v>0.99999999900000003</v>
+        <v>99.999999900000006</v>
       </c>
       <c r="H32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G33">
         <v>8.6</v>
       </c>
       <c r="H33" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E34">
-        <v>0.32</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G34">
-        <v>0.61</v>
+        <v>61</v>
       </c>
       <c r="H34" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>0.31</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G35">
         <v>0.65</v>
       </c>
       <c r="H35" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
         <v>44</v>
       </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>47</v>
-      </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>0.11</v>
       </c>
       <c r="F36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G36">
         <v>0.25</v>
       </c>
       <c r="H36" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E37">
-        <v>0.39</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G37">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="H37" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E38">
-        <v>0.61</v>
+        <v>61</v>
       </c>
       <c r="F38" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G38">
-        <v>0.96</v>
+        <v>96</v>
       </c>
       <c r="H38" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E39">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G39">
-        <v>0.33</v>
+        <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E40">
-        <v>0.38</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40">
         <v>89</v>
       </c>
-      <c r="G40">
-        <v>0.89</v>
-      </c>
       <c r="H40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I40" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E41">
         <v>0.88</v>
       </c>
       <c r="F41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G41">
         <v>2.2400000000000002</v>
       </c>
       <c r="H41" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E42">
-        <v>0.22</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G42">
-        <v>0.81</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E43">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G43">
-        <v>0.14000000000000001</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44">
-        <v>0.01</v>
-      </c>
-      <c r="F44" t="s">
-        <v>89</v>
-      </c>
-      <c r="G44">
-        <v>0.44</v>
-      </c>
       <c r="H44" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G45">
         <v>16</v>
       </c>
       <c r="H45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I45" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G46">
         <v>6</v>
       </c>
       <c r="H46" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I46" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I47" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G48">
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G49">
         <v>11.4</v>
       </c>
       <c r="H49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I49" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
         <v>69</v>
       </c>
-      <c r="C50" t="s">
-        <v>72</v>
-      </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G50">
         <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I50" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G51">
         <v>9</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G52">
         <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I52" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G53">
         <v>10</v>
       </c>
       <c r="H53" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I53" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G54">
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E55">
         <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G55">
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I55" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E56">
         <v>5.7</v>
       </c>
       <c r="F56" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G56">
         <v>20.3</v>
       </c>
       <c r="H56" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I56" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G57">
         <v>8</v>
       </c>
       <c r="H57" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I57" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G58">
         <v>12.5</v>
       </c>
       <c r="H58" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I58" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I59" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" t="s">
         <v>77</v>
       </c>
-      <c r="B60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" t="s">
-        <v>80</v>
-      </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I60" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
         <v>78</v>
       </c>
-      <c r="C61" t="s">
-        <v>81</v>
-      </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I61" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I62" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I63" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I64" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" t="s">
         <v>77</v>
       </c>
-      <c r="B66" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" t="s">
-        <v>80</v>
-      </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I66" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I68" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I69" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I70" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E71">
         <v>40</v>
@@ -3338,21 +3374,21 @@
         <v>60</v>
       </c>
       <c r="H71" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E72">
         <v>20</v>
@@ -3364,21 +3400,21 @@
         <v>30</v>
       </c>
       <c r="H72" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -3390,21 +3426,21 @@
         <v>9</v>
       </c>
       <c r="H73" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <v>2.75</v>
@@ -3416,21 +3452,21 @@
         <v>3.25</v>
       </c>
       <c r="H74" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E75">
         <v>6</v>
@@ -3442,21 +3478,21 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -3468,21 +3504,21 @@
         <v>5</v>
       </c>
       <c r="H76" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E77">
         <v>3</v>
@@ -3494,21 +3530,21 @@
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E78">
         <v>3</v>
@@ -3520,21 +3556,21 @@
         <v>5</v>
       </c>
       <c r="H78" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3546,21 +3582,21 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E80">
         <v>3</v>
@@ -3572,21 +3608,21 @@
         <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E81">
         <v>10</v>
@@ -3598,47 +3634,47 @@
         <v>16</v>
       </c>
       <c r="H81" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D82" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E82" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F82" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G82" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H82" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C83" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3647,21 +3683,21 @@
         <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B84" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" t="s">
         <v>145</v>
       </c>
-      <c r="C84" t="s">
-        <v>149</v>
-      </c>
       <c r="D84" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3670,21 +3706,21 @@
         <v>50</v>
       </c>
       <c r="H84" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B85" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C85" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D85" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E85">
         <v>10.5</v>
@@ -3693,21 +3729,21 @@
         <v>76.900000000000006</v>
       </c>
       <c r="H85" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B86" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C86" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3716,21 +3752,21 @@
         <v>73.900000000000006</v>
       </c>
       <c r="H86" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C87" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D87" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E87">
         <v>4.8</v>
@@ -3739,21 +3775,21 @@
         <v>37.6</v>
       </c>
       <c r="H87" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C88" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D88" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E88">
         <v>1.9</v>
@@ -3762,21 +3798,21 @@
         <v>30.4</v>
       </c>
       <c r="H88" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B89" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C89" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3785,21 +3821,21 @@
         <v>30</v>
       </c>
       <c r="H89" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B90" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3808,21 +3844,21 @@
         <v>10.9</v>
       </c>
       <c r="H90" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B91" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C91" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3831,21 +3867,21 @@
         <v>6</v>
       </c>
       <c r="H91" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B92" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C92" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3854,21 +3890,21 @@
         <v>4.2</v>
       </c>
       <c r="H92" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B93" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C93" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D93" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E93">
         <v>1.4</v>
@@ -3877,21 +3913,21 @@
         <v>43.5</v>
       </c>
       <c r="H93" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C94" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3900,21 +3936,21 @@
         <v>15</v>
       </c>
       <c r="H94" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B95" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C95" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3923,21 +3959,21 @@
         <v>24.7</v>
       </c>
       <c r="H95" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B96" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C96" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D96" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3946,21 +3982,21 @@
         <v>6</v>
       </c>
       <c r="H96" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B97" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" t="s">
         <v>147</v>
       </c>
-      <c r="C97" t="s">
-        <v>151</v>
-      </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -3969,21 +4005,21 @@
         <v>79.8</v>
       </c>
       <c r="H97" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B98" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C98" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D98" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3992,21 +4028,21 @@
         <v>26.5</v>
       </c>
       <c r="H98" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C99" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4015,21 +4051,21 @@
         <v>10.9</v>
       </c>
       <c r="H99" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B100" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C100" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D100" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E100">
         <v>3.1</v>
@@ -4038,21 +4074,21 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="H100" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101" t="s">
         <v>144</v>
       </c>
-      <c r="B101" t="s">
-        <v>148</v>
-      </c>
       <c r="C101" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4061,21 +4097,21 @@
         <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" t="s">
         <v>144</v>
       </c>
-      <c r="B102" t="s">
-        <v>148</v>
-      </c>
       <c r="C102" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4084,21 +4120,21 @@
         <v>4</v>
       </c>
       <c r="H102" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" t="s">
         <v>144</v>
       </c>
-      <c r="B103" t="s">
-        <v>148</v>
-      </c>
       <c r="C103" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4107,21 +4143,21 @@
         <v>7.5</v>
       </c>
       <c r="H103" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104" t="s">
         <v>144</v>
       </c>
-      <c r="B104" t="s">
-        <v>148</v>
-      </c>
       <c r="C104" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4130,21 +4166,21 @@
         <v>11.9</v>
       </c>
       <c r="H104" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>140</v>
+      </c>
+      <c r="B105" t="s">
         <v>144</v>
       </c>
-      <c r="B105" t="s">
-        <v>148</v>
-      </c>
       <c r="C105" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D105" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4153,21 +4189,21 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="H105" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106" t="s">
         <v>144</v>
       </c>
-      <c r="B106" t="s">
-        <v>148</v>
-      </c>
       <c r="C106" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4176,21 +4212,21 @@
         <v>30.7</v>
       </c>
       <c r="H106" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107" t="s">
         <v>144</v>
       </c>
-      <c r="B107" t="s">
-        <v>148</v>
-      </c>
       <c r="C107" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D107" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E107">
         <v>3.7</v>
@@ -4199,1099 +4235,1099 @@
         <v>7.5</v>
       </c>
       <c r="H107" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B108" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C108" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I108" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B109" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C109" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I109" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B110" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C110" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I110" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B111" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C111" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I111" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B112" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C112" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I112" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B113" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C113" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I113" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B114" t="s">
+        <v>176</v>
+      </c>
+      <c r="C114" t="s">
+        <v>177</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114" t="s">
+        <v>85</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114" t="s">
         <v>180</v>
       </c>
-      <c r="C114" t="s">
-        <v>181</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114" t="s">
-        <v>89</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114" t="s">
-        <v>184</v>
-      </c>
       <c r="I114" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>74</v>
+      </c>
+      <c r="B115" t="s">
+        <v>176</v>
+      </c>
+      <c r="C115" t="s">
         <v>77</v>
       </c>
-      <c r="B115" t="s">
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>85</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115" t="s">
         <v>180</v>
       </c>
-      <c r="C115" t="s">
-        <v>80</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115" t="s">
-        <v>89</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115" t="s">
-        <v>184</v>
-      </c>
       <c r="I115" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>74</v>
+      </c>
+      <c r="B116" t="s">
+        <v>173</v>
+      </c>
+      <c r="C116" t="s">
         <v>77</v>
       </c>
-      <c r="B116" t="s">
-        <v>177</v>
-      </c>
-      <c r="C116" t="s">
-        <v>80</v>
-      </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I116" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>74</v>
+      </c>
+      <c r="B117" t="s">
+        <v>170</v>
+      </c>
+      <c r="C117" t="s">
         <v>77</v>
       </c>
-      <c r="B117" t="s">
-        <v>174</v>
-      </c>
-      <c r="C117" t="s">
-        <v>80</v>
-      </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I117" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>74</v>
+      </c>
+      <c r="B118" t="s">
+        <v>174</v>
+      </c>
+      <c r="C118" t="s">
         <v>77</v>
       </c>
-      <c r="B118" t="s">
-        <v>178</v>
-      </c>
-      <c r="C118" t="s">
-        <v>80</v>
-      </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="F118" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I118" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B119" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C119" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I119" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B120" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C120" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I120" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B121" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C121" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I121" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B122" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I122" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B123" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I123" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B124" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I124" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B125" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I125" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B126" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I126" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B127" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I127" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B128" t="s">
+        <v>176</v>
+      </c>
+      <c r="C128" t="s">
+        <v>78</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128" t="s">
+        <v>85</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128" t="s">
         <v>180</v>
       </c>
-      <c r="C128" t="s">
-        <v>81</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128" t="s">
-        <v>89</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128" t="s">
-        <v>184</v>
-      </c>
       <c r="I128" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B129" t="s">
+        <v>176</v>
+      </c>
+      <c r="C129" t="s">
+        <v>96</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129" t="s">
+        <v>85</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129" t="s">
         <v>180</v>
       </c>
-      <c r="C129" t="s">
-        <v>100</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129" t="s">
-        <v>89</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129" t="s">
-        <v>184</v>
-      </c>
       <c r="I129" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B130" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C130" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I130" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B131" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C131" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E131">
         <v>0</v>
       </c>
       <c r="F131" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I131" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B132" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C132" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I132" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B133" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C133" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I133" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B134" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C134" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I134" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B135" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C135" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I135" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B136" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C136" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I136" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B137" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C137" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E137">
         <v>0</v>
       </c>
       <c r="F137" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I137" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B138" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C138" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E138">
         <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I138" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B139" t="s">
+        <v>176</v>
+      </c>
+      <c r="C139" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139" t="s">
+        <v>85</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
         <v>180</v>
       </c>
-      <c r="C139" t="s">
-        <v>20</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139" t="s">
-        <v>89</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139" t="s">
-        <v>184</v>
-      </c>
       <c r="I139" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B140" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C140" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E140">
         <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I140" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B141" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C141" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E141">
         <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I141" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B142" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I142" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B143" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C143" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I143" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B144" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C144" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I144" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B145" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C145" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I145" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B146" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C146" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I146" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B147" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C147" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I147" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B148" t="s">
+        <v>176</v>
+      </c>
+      <c r="C148" t="s">
+        <v>183</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148" t="s">
+        <v>85</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148" t="s">
         <v>180</v>
       </c>
-      <c r="C148" t="s">
-        <v>187</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148" t="s">
-        <v>89</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148" t="s">
-        <v>184</v>
-      </c>
       <c r="I148" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B149" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C149" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G149">
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I149" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5327,78 +5363,78 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="K1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="N1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -5419,36 +5455,36 @@
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -5469,36 +5505,36 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -5519,36 +5555,36 @@
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -5569,36 +5605,36 @@
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -5619,36 +5655,36 @@
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -5669,36 +5705,36 @@
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -5719,36 +5755,36 @@
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -5769,36 +5805,36 @@
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D10">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -5819,36 +5855,36 @@
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -5866,33 +5902,33 @@
         <v>999</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D12">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5907,30 +5943,30 @@
         <v>100</v>
       </c>
       <c r="N12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -5945,30 +5981,30 @@
         <v>100</v>
       </c>
       <c r="N13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -5983,30 +6019,30 @@
         <v>100</v>
       </c>
       <c r="N14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" t="s">
         <v>144</v>
       </c>
-      <c r="B15" t="s">
-        <v>148</v>
-      </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -6021,30 +6057,30 @@
         <v>100</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -6068,39 +6104,39 @@
         <v>100</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -6124,39 +6160,39 @@
         <v>100</v>
       </c>
       <c r="N17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D18">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -6180,19 +6216,19 @@
         <v>100</v>
       </c>
       <c r="N18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="78" documentId="10_ncr:100000_{42287E5E-EC47-4B6A-B6C0-555057043870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{109F1272-A55F-4D18-A9A1-174960E56140}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="16935" windowWidth="14355" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="17535" windowWidth="14355" windowHeight="9780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -1185,7 +1185,7 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1339,8 +1339,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="78" documentId="10_ncr:100000_{42287E5E-EC47-4B6A-B6C0-555057043870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{109F1272-A55F-4D18-A9A1-174960E56140}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="17535" windowWidth="14355" windowHeight="9780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="18135" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -1339,7 +1339,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
@@ -5340,9 +5340,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544F088F-E018-4AF1-A817-C6B9859D0A47}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="10_ncr:100000_{42287E5E-EC47-4B6A-B6C0-555057043870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{109F1272-A55F-4D18-A9A1-174960E56140}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="10_ncr:100000_{42287E5E-EC47-4B6A-B6C0-555057043870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EC0A0DA9-3F33-4AE3-99A3-262844F1DDAA}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="18135" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="19335" windowWidth="14355" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="202">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -644,6 +644,36 @@
   </si>
   <si>
     <t>Scoring Thresholds - Metrics and Indices</t>
+  </si>
+  <si>
+    <t>45a</t>
+  </si>
+  <si>
+    <t>pi_Trich</t>
+  </si>
+  <si>
+    <t>nt_toler</t>
+  </si>
+  <si>
+    <t>pi_scrape</t>
+  </si>
+  <si>
+    <t>nt_clinger</t>
+  </si>
+  <si>
+    <t>pi_ChCr2Chi</t>
+  </si>
+  <si>
+    <t>GADNR.2006</t>
+  </si>
+  <si>
+    <t>SiteIndexScore</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>Added 45a metrics for GADNR.2006</t>
   </si>
 </sst>
 </file>
@@ -1183,10 +1213,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1244,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>43481</v>
+        <v>43592</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1309,6 +1339,19 @@
       <c r="C19" s="9" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A19&amp;"!A1",A19)</f>
         <v>index.scoring</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>43592</v>
+      </c>
+      <c r="B26" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1337,11 +1380,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A70181-B22C-4671-9C22-4B8DA5FE66AB}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3679,6 +3722,9 @@
       <c r="E83">
         <v>0</v>
       </c>
+      <c r="F83" t="s">
+        <v>85</v>
+      </c>
       <c r="G83">
         <v>14</v>
       </c>
@@ -3702,6 +3748,9 @@
       <c r="E84">
         <v>0</v>
       </c>
+      <c r="F84" t="s">
+        <v>85</v>
+      </c>
       <c r="G84">
         <v>50</v>
       </c>
@@ -3725,6 +3774,9 @@
       <c r="E85">
         <v>10.5</v>
       </c>
+      <c r="F85" t="s">
+        <v>85</v>
+      </c>
       <c r="G85">
         <v>76.900000000000006</v>
       </c>
@@ -3748,6 +3800,9 @@
       <c r="E86">
         <v>0</v>
       </c>
+      <c r="F86" t="s">
+        <v>85</v>
+      </c>
       <c r="G86">
         <v>73.900000000000006</v>
       </c>
@@ -3771,6 +3826,9 @@
       <c r="E87">
         <v>4.8</v>
       </c>
+      <c r="F87" t="s">
+        <v>85</v>
+      </c>
       <c r="G87">
         <v>37.6</v>
       </c>
@@ -3794,6 +3852,9 @@
       <c r="E88">
         <v>1.9</v>
       </c>
+      <c r="F88" t="s">
+        <v>85</v>
+      </c>
       <c r="G88">
         <v>30.4</v>
       </c>
@@ -3817,6 +3878,9 @@
       <c r="E89">
         <v>0</v>
       </c>
+      <c r="F89" t="s">
+        <v>85</v>
+      </c>
       <c r="G89">
         <v>30</v>
       </c>
@@ -3840,6 +3904,9 @@
       <c r="E90">
         <v>0</v>
       </c>
+      <c r="F90" t="s">
+        <v>85</v>
+      </c>
       <c r="G90">
         <v>10.9</v>
       </c>
@@ -3863,6 +3930,9 @@
       <c r="E91">
         <v>0</v>
       </c>
+      <c r="F91" t="s">
+        <v>85</v>
+      </c>
       <c r="G91">
         <v>6</v>
       </c>
@@ -3886,6 +3956,9 @@
       <c r="E92">
         <v>0</v>
       </c>
+      <c r="F92" t="s">
+        <v>85</v>
+      </c>
       <c r="G92">
         <v>4.2</v>
       </c>
@@ -3909,6 +3982,9 @@
       <c r="E93">
         <v>1.4</v>
       </c>
+      <c r="F93" t="s">
+        <v>85</v>
+      </c>
       <c r="G93">
         <v>43.5</v>
       </c>
@@ -3932,6 +4008,9 @@
       <c r="E94">
         <v>0</v>
       </c>
+      <c r="F94" t="s">
+        <v>85</v>
+      </c>
       <c r="G94">
         <v>15</v>
       </c>
@@ -3955,6 +4034,9 @@
       <c r="E95">
         <v>0</v>
       </c>
+      <c r="F95" t="s">
+        <v>85</v>
+      </c>
       <c r="G95">
         <v>24.7</v>
       </c>
@@ -3978,6 +4060,9 @@
       <c r="E96">
         <v>1</v>
       </c>
+      <c r="F96" t="s">
+        <v>85</v>
+      </c>
       <c r="G96">
         <v>6</v>
       </c>
@@ -4001,6 +4086,9 @@
       <c r="E97">
         <v>0</v>
       </c>
+      <c r="F97" t="s">
+        <v>85</v>
+      </c>
       <c r="G97">
         <v>79.8</v>
       </c>
@@ -4024,6 +4112,9 @@
       <c r="E98">
         <v>0</v>
       </c>
+      <c r="F98" t="s">
+        <v>85</v>
+      </c>
       <c r="G98">
         <v>26.5</v>
       </c>
@@ -4047,6 +4138,9 @@
       <c r="E99">
         <v>0</v>
       </c>
+      <c r="F99" t="s">
+        <v>85</v>
+      </c>
       <c r="G99">
         <v>10.9</v>
       </c>
@@ -4070,6 +4164,9 @@
       <c r="E100">
         <v>3.1</v>
       </c>
+      <c r="F100" t="s">
+        <v>85</v>
+      </c>
       <c r="G100">
         <v>5.0999999999999996</v>
       </c>
@@ -4093,6 +4190,9 @@
       <c r="E101">
         <v>0</v>
       </c>
+      <c r="F101" t="s">
+        <v>85</v>
+      </c>
       <c r="G101">
         <v>14</v>
       </c>
@@ -4116,6 +4216,9 @@
       <c r="E102">
         <v>0</v>
       </c>
+      <c r="F102" t="s">
+        <v>85</v>
+      </c>
       <c r="G102">
         <v>4</v>
       </c>
@@ -4139,6 +4242,9 @@
       <c r="E103">
         <v>0</v>
       </c>
+      <c r="F103" t="s">
+        <v>85</v>
+      </c>
       <c r="G103">
         <v>7.5</v>
       </c>
@@ -4162,6 +4268,9 @@
       <c r="E104">
         <v>0</v>
       </c>
+      <c r="F104" t="s">
+        <v>85</v>
+      </c>
       <c r="G104">
         <v>11.9</v>
       </c>
@@ -4185,6 +4294,9 @@
       <c r="E105">
         <v>0</v>
       </c>
+      <c r="F105" t="s">
+        <v>85</v>
+      </c>
       <c r="G105">
         <v>8.3000000000000007</v>
       </c>
@@ -4208,6 +4320,9 @@
       <c r="E106">
         <v>0</v>
       </c>
+      <c r="F106" t="s">
+        <v>85</v>
+      </c>
       <c r="G106">
         <v>30.7</v>
       </c>
@@ -4231,6 +4346,9 @@
       <c r="E107">
         <v>3.7</v>
       </c>
+      <c r="F107" t="s">
+        <v>85</v>
+      </c>
       <c r="G107">
         <v>7.5</v>
       </c>
@@ -5328,6 +5446,162 @@
       </c>
       <c r="I149" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>198</v>
+      </c>
+      <c r="B150" t="s">
+        <v>192</v>
+      </c>
+      <c r="C150" t="s">
+        <v>155</v>
+      </c>
+      <c r="D150" t="s">
+        <v>30</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150" t="s">
+        <v>85</v>
+      </c>
+      <c r="G150">
+        <v>5.6</v>
+      </c>
+      <c r="H150" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>198</v>
+      </c>
+      <c r="B151" t="s">
+        <v>192</v>
+      </c>
+      <c r="C151" t="s">
+        <v>193</v>
+      </c>
+      <c r="D151" t="s">
+        <v>30</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151" t="s">
+        <v>85</v>
+      </c>
+      <c r="G151">
+        <v>31.77</v>
+      </c>
+      <c r="H151" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>198</v>
+      </c>
+      <c r="B152" t="s">
+        <v>192</v>
+      </c>
+      <c r="C152" t="s">
+        <v>197</v>
+      </c>
+      <c r="D152" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152" t="s">
+        <v>85</v>
+      </c>
+      <c r="G152">
+        <v>36.36</v>
+      </c>
+      <c r="H152" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>198</v>
+      </c>
+      <c r="B153" t="s">
+        <v>192</v>
+      </c>
+      <c r="C153" t="s">
+        <v>194</v>
+      </c>
+      <c r="D153" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153">
+        <v>7</v>
+      </c>
+      <c r="F153" t="s">
+        <v>85</v>
+      </c>
+      <c r="G153">
+        <v>23</v>
+      </c>
+      <c r="H153" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>198</v>
+      </c>
+      <c r="B154" t="s">
+        <v>192</v>
+      </c>
+      <c r="C154" t="s">
+        <v>195</v>
+      </c>
+      <c r="D154" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154" t="s">
+        <v>85</v>
+      </c>
+      <c r="G154">
+        <v>39.9</v>
+      </c>
+      <c r="H154" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>198</v>
+      </c>
+      <c r="B155" t="s">
+        <v>192</v>
+      </c>
+      <c r="C155" t="s">
+        <v>196</v>
+      </c>
+      <c r="D155" t="s">
+        <v>30</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155" t="s">
+        <v>85</v>
+      </c>
+      <c r="G155">
+        <v>19.8</v>
+      </c>
+      <c r="H155" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -5338,11 +5612,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544F088F-E018-4AF1-A817-C6B9859D0A47}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6231,6 +6505,44 @@
         <v>166</v>
       </c>
     </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>80</v>
+      </c>
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="N19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O19" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R11" xr:uid="{7FDDCD90-E9AF-4CC8-BB74-04964D99DE13}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="10_ncr:100000_{42287E5E-EC47-4B6A-B6C0-555057043870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EC0A0DA9-3F33-4AE3-99A3-262844F1DDAA}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="10_ncr:100000_{42287E5E-EC47-4B6A-B6C0-555057043870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3DEF12D2-38BF-4681-8B54-1B7726B551A1}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="19335" windowWidth="14355" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="24735" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">index.scoring!$A$1:$R$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$I$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$I$155</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="207">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -652,28 +652,43 @@
     <t>pi_Trich</t>
   </si>
   <si>
-    <t>nt_toler</t>
-  </si>
-  <si>
-    <t>pi_scrape</t>
-  </si>
-  <si>
-    <t>nt_clinger</t>
-  </si>
-  <si>
     <t>pi_ChCr2Chi</t>
   </si>
   <si>
-    <t>GADNR.2006</t>
-  </si>
-  <si>
     <t>SiteIndexScore</t>
   </si>
   <si>
-    <t>hi</t>
-  </si>
-  <si>
     <t>Added 45a metrics for GADNR.2006</t>
+  </si>
+  <si>
+    <t>nt_tv_toler</t>
+  </si>
+  <si>
+    <t>45b</t>
+  </si>
+  <si>
+    <t>45d</t>
+  </si>
+  <si>
+    <t>nt_Coleo</t>
+  </si>
+  <si>
+    <t>pi_Oligo</t>
+  </si>
+  <si>
+    <t>nt_habit_swim</t>
+  </si>
+  <si>
+    <t>pi_Tanyp2Chi</t>
+  </si>
+  <si>
+    <t>pi_Odon</t>
+  </si>
+  <si>
+    <t>x_NCBI</t>
+  </si>
+  <si>
+    <t>GADNR.2009</t>
   </si>
 </sst>
 </file>
@@ -858,7 +873,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -881,7 +906,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="1">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1215,7 +1240,7 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1253,7 +1278,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\[MetricScoring.xlsx]</v>
+        <v>https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/[MetricScoring.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1351,7 +1376,7 @@
         <v>43592</v>
       </c>
       <c r="B26" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1380,11 +1405,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A70181-B22C-4671-9C22-4B8DA5FE66AB}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
+      <selection pane="bottomLeft" activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5450,7 +5475,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B150" t="s">
         <v>192</v>
@@ -5459,7 +5484,7 @@
         <v>155</v>
       </c>
       <c r="D150" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -5473,10 +5498,13 @@
       <c r="H150" t="s">
         <v>87</v>
       </c>
+      <c r="I150" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B151" t="s">
         <v>192</v>
@@ -5485,7 +5513,7 @@
         <v>193</v>
       </c>
       <c r="D151" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -5499,19 +5527,22 @@
       <c r="H151" t="s">
         <v>87</v>
       </c>
+      <c r="I151" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B152" t="s">
         <v>192</v>
       </c>
       <c r="C152" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D152" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -5525,19 +5556,22 @@
       <c r="H152" t="s">
         <v>87</v>
       </c>
+      <c r="I152" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B153" t="s">
         <v>192</v>
       </c>
       <c r="C153" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D153" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E153">
         <v>7</v>
@@ -5551,19 +5585,22 @@
       <c r="H153" t="s">
         <v>87</v>
       </c>
+      <c r="I153" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B154" t="s">
         <v>192</v>
       </c>
       <c r="C154" t="s">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="D154" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -5577,19 +5614,22 @@
       <c r="H154" t="s">
         <v>87</v>
       </c>
+      <c r="I154" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B155" t="s">
         <v>192</v>
       </c>
       <c r="C155" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="D155" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -5603,20 +5643,376 @@
       <c r="H155" t="s">
         <v>87</v>
       </c>
+      <c r="I155" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>206</v>
+      </c>
+      <c r="B156" t="s">
+        <v>198</v>
+      </c>
+      <c r="C156" t="s">
+        <v>200</v>
+      </c>
+      <c r="D156" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156" t="s">
+        <v>85</v>
+      </c>
+      <c r="G156">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H156" t="s">
+        <v>87</v>
+      </c>
+      <c r="I156" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>206</v>
+      </c>
+      <c r="B157" t="s">
+        <v>198</v>
+      </c>
+      <c r="C157" t="s">
+        <v>201</v>
+      </c>
+      <c r="D157" t="s">
+        <v>30</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157" t="s">
+        <v>85</v>
+      </c>
+      <c r="G157">
+        <v>84.43</v>
+      </c>
+      <c r="H157" t="s">
+        <v>87</v>
+      </c>
+      <c r="I157" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>206</v>
+      </c>
+      <c r="B158" t="s">
+        <v>198</v>
+      </c>
+      <c r="C158" t="s">
+        <v>153</v>
+      </c>
+      <c r="D158" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158" t="s">
+        <v>85</v>
+      </c>
+      <c r="G158">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="H158" t="s">
+        <v>87</v>
+      </c>
+      <c r="I158" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>206</v>
+      </c>
+      <c r="B159" t="s">
+        <v>198</v>
+      </c>
+      <c r="C159" t="s">
+        <v>78</v>
+      </c>
+      <c r="D159" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159" t="s">
+        <v>85</v>
+      </c>
+      <c r="G159">
+        <v>11</v>
+      </c>
+      <c r="H159" t="s">
+        <v>87</v>
+      </c>
+      <c r="I159" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>206</v>
+      </c>
+      <c r="B160" t="s">
+        <v>198</v>
+      </c>
+      <c r="C160" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160" t="s">
+        <v>85</v>
+      </c>
+      <c r="G160">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H160" t="s">
+        <v>87</v>
+      </c>
+      <c r="I160" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>206</v>
+      </c>
+      <c r="B161" t="s">
+        <v>198</v>
+      </c>
+      <c r="C161" t="s">
+        <v>202</v>
+      </c>
+      <c r="D161" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161" t="s">
+        <v>85</v>
+      </c>
+      <c r="G161">
+        <v>3.8</v>
+      </c>
+      <c r="H161" t="s">
+        <v>87</v>
+      </c>
+      <c r="I161" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>206</v>
+      </c>
+      <c r="B162" t="s">
+        <v>199</v>
+      </c>
+      <c r="C162" t="s">
+        <v>200</v>
+      </c>
+      <c r="D162" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162" t="s">
+        <v>85</v>
+      </c>
+      <c r="G162">
+        <v>8.85</v>
+      </c>
+      <c r="H162" t="s">
+        <v>87</v>
+      </c>
+      <c r="I162" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>206</v>
+      </c>
+      <c r="B163" t="s">
+        <v>199</v>
+      </c>
+      <c r="C163" t="s">
+        <v>203</v>
+      </c>
+      <c r="D163" t="s">
+        <v>30</v>
+      </c>
+      <c r="E163">
+        <v>1.6</v>
+      </c>
+      <c r="F163" t="s">
+        <v>85</v>
+      </c>
+      <c r="G163">
+        <v>21.52</v>
+      </c>
+      <c r="H163" t="s">
+        <v>87</v>
+      </c>
+      <c r="I163" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>206</v>
+      </c>
+      <c r="B164" t="s">
+        <v>199</v>
+      </c>
+      <c r="C164" t="s">
+        <v>204</v>
+      </c>
+      <c r="D164" t="s">
+        <v>30</v>
+      </c>
+      <c r="E164">
+        <v>0.21</v>
+      </c>
+      <c r="F164" t="s">
+        <v>85</v>
+      </c>
+      <c r="G164">
+        <v>6.25</v>
+      </c>
+      <c r="H164" t="s">
+        <v>87</v>
+      </c>
+      <c r="I164" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>206</v>
+      </c>
+      <c r="B165" t="s">
+        <v>199</v>
+      </c>
+      <c r="C165" t="s">
+        <v>205</v>
+      </c>
+      <c r="D165" t="s">
+        <v>30</v>
+      </c>
+      <c r="E165">
+        <v>2.33</v>
+      </c>
+      <c r="F165" t="s">
+        <v>85</v>
+      </c>
+      <c r="G165">
+        <v>6.02</v>
+      </c>
+      <c r="H165" t="s">
+        <v>87</v>
+      </c>
+      <c r="I165" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>206</v>
+      </c>
+      <c r="B166" t="s">
+        <v>199</v>
+      </c>
+      <c r="C166" t="s">
+        <v>46</v>
+      </c>
+      <c r="D166" t="s">
+        <v>30</v>
+      </c>
+      <c r="E166">
+        <v>6.36</v>
+      </c>
+      <c r="F166" t="s">
+        <v>85</v>
+      </c>
+      <c r="G166">
+        <v>23.75</v>
+      </c>
+      <c r="H166" t="s">
+        <v>87</v>
+      </c>
+      <c r="I166" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>206</v>
+      </c>
+      <c r="B167" t="s">
+        <v>199</v>
+      </c>
+      <c r="C167" t="s">
+        <v>78</v>
+      </c>
+      <c r="D167" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167" t="s">
+        <v>85</v>
+      </c>
+      <c r="G167">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="H167" t="s">
+        <v>87</v>
+      </c>
+      <c r="I167" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I149" xr:uid="{93B62030-188A-4EBD-91A5-26CC545690A4}"/>
+  <autoFilter ref="A1:I155" xr:uid="{93B62030-188A-4EBD-91A5-26CC545690A4}"/>
+  <conditionalFormatting sqref="D2:D167">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544F088F-E018-4AF1-A817-C6B9859D0A47}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6507,7 +6903,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s">
         <v>192</v>
@@ -6522,25 +6918,155 @@
         <v>115</v>
       </c>
       <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>19</v>
+      </c>
+      <c r="J19">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>71</v>
+      </c>
+      <c r="L19">
+        <v>75</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>133</v>
+      </c>
+      <c r="R19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>32</v>
+      </c>
+      <c r="K20">
+        <v>56</v>
+      </c>
+      <c r="L20">
+        <v>84</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+      <c r="N20" t="s">
+        <v>130</v>
+      </c>
+      <c r="O20" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>133</v>
+      </c>
+      <c r="R20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" t="s">
         <v>199</v>
       </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>80</v>
-      </c>
-      <c r="J19">
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>38</v>
+      </c>
+      <c r="J21">
+        <v>44</v>
+      </c>
+      <c r="K21">
+        <v>78</v>
+      </c>
+      <c r="L21">
+        <v>82</v>
+      </c>
+      <c r="M21">
         <v>100</v>
       </c>
-      <c r="N19" t="s">
-        <v>136</v>
-      </c>
-      <c r="O19" t="s">
-        <v>200</v>
+      <c r="N21" t="s">
+        <v>130</v>
+      </c>
+      <c r="O21" t="s">
+        <v>131</v>
+      </c>
+      <c r="P21" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>133</v>
+      </c>
+      <c r="R21" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="10_ncr:100000_{42287E5E-EC47-4B6A-B6C0-555057043870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3DEF12D2-38BF-4681-8B54-1B7726B551A1}"/>
+  <xr:revisionPtr revIDLastSave="303" documentId="10_ncr:100000_{42287E5E-EC47-4B6A-B6C0-555057043870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{817463C3-C980-403B-B52E-CF02680D94D9}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="24735" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="26535" windowWidth="14355" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="index.scoring" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">index.scoring!$A$1:$R$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$I$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">index.scoring!$A$1:$R$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$I$167</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="207">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -493,42 +493,15 @@
     <t>MBISQ.2015</t>
   </si>
   <si>
-    <t>East</t>
-  </si>
-  <si>
-    <t>SouthBluff</t>
-  </si>
-  <si>
-    <t>Southeast</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
     <t>pi_COC2Chi</t>
   </si>
   <si>
-    <t>pi_ffg_collect</t>
-  </si>
-  <si>
-    <t>pi_hab_cling</t>
-  </si>
-  <si>
-    <t>pt_nonIns</t>
-  </si>
-  <si>
     <t>pi_Colesens</t>
   </si>
   <si>
-    <t>pi_hab_burrow</t>
-  </si>
-  <si>
     <t>pi_ffg_pred</t>
   </si>
   <si>
-    <t>nt_hab_climb</t>
-  </si>
-  <si>
     <t>pi_Pleco</t>
   </si>
   <si>
@@ -689,6 +662,33 @@
   </si>
   <si>
     <t>GADNR.2009</t>
+  </si>
+  <si>
+    <t>pi_ffg_col</t>
+  </si>
+  <si>
+    <t>pi_habit_burrow</t>
+  </si>
+  <si>
+    <t>nt_habit_climb</t>
+  </si>
+  <si>
+    <t>pt_NonIns</t>
+  </si>
+  <si>
+    <t>Update metric names for MBISQ.2015</t>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t>southbluff</t>
+  </si>
+  <si>
+    <t>southeast</t>
+  </si>
+  <si>
+    <t>west</t>
   </si>
 </sst>
 </file>
@@ -1238,10 +1238,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>43592</v>
+        <v>43609</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/[MetricScoring.xlsx]</v>
+        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\[MetricScoring.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1306,17 +1306,17 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1344,10 +1344,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C18" s="9" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A18&amp;"!A1",A18)</f>
@@ -1356,27 +1356,35 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C19" s="9" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A19&amp;"!A1",A19)</f>
         <v>index.scoring</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>43481</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>43592</v>
       </c>
-      <c r="B26" t="s">
-        <v>196</v>
+      <c r="B22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>43609</v>
+      </c>
+      <c r="B23" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1408,8 +1416,8 @@
   <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A167" sqref="A167"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,7 +1441,7 @@
         <v>104</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>10</v>
@@ -3127,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I59" t="s">
         <v>76</v>
@@ -3153,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I60" t="s">
         <v>77</v>
@@ -3179,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I61" t="s">
         <v>78</v>
@@ -3205,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I62" t="s">
         <v>79</v>
@@ -3231,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I63" t="s">
         <v>17</v>
@@ -3257,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I64" t="s">
         <v>80</v>
@@ -3283,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I65" t="s">
         <v>82</v>
@@ -3309,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I66" t="s">
         <v>77</v>
@@ -3335,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I67" t="s">
         <v>25</v>
@@ -3361,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I68" t="s">
         <v>83</v>
@@ -3387,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I69" t="s">
         <v>17</v>
@@ -3413,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I70" t="s">
         <v>136</v>
@@ -3736,7 +3744,7 @@
         <v>140</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="C83" t="s">
         <v>97</v>
@@ -3762,10 +3770,10 @@
         <v>140</v>
       </c>
       <c r="B84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" t="s">
         <v>141</v>
-      </c>
-      <c r="C84" t="s">
-        <v>145</v>
       </c>
       <c r="D84" t="s">
         <v>30</v>
@@ -3788,10 +3796,10 @@
         <v>140</v>
       </c>
       <c r="B85" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="C85" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="D85" t="s">
         <v>30</v>
@@ -3814,10 +3822,10 @@
         <v>140</v>
       </c>
       <c r="B86" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="C86" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D86" t="s">
         <v>15</v>
@@ -3840,10 +3848,10 @@
         <v>140</v>
       </c>
       <c r="B87" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="D87" t="s">
         <v>30</v>
@@ -3866,7 +3874,7 @@
         <v>140</v>
       </c>
       <c r="B88" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="C88" t="s">
         <v>80</v>
@@ -3892,7 +3900,7 @@
         <v>140</v>
       </c>
       <c r="B89" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="C89" t="s">
         <v>71</v>
@@ -3918,7 +3926,7 @@
         <v>140</v>
       </c>
       <c r="B90" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
@@ -3944,7 +3952,7 @@
         <v>140</v>
       </c>
       <c r="B91" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="C91" t="s">
         <v>78</v>
@@ -3970,10 +3978,10 @@
         <v>140</v>
       </c>
       <c r="B92" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" t="s">
         <v>142</v>
-      </c>
-      <c r="C92" t="s">
-        <v>149</v>
       </c>
       <c r="D92" t="s">
         <v>15</v>
@@ -3996,10 +4004,10 @@
         <v>140</v>
       </c>
       <c r="B93" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="D93" t="s">
         <v>30</v>
@@ -4022,7 +4030,7 @@
         <v>140</v>
       </c>
       <c r="B94" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="C94" t="s">
         <v>71</v>
@@ -4048,10 +4056,10 @@
         <v>140</v>
       </c>
       <c r="B95" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95" t="s">
         <v>143</v>
-      </c>
-      <c r="C95" t="s">
-        <v>151</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
@@ -4074,10 +4082,10 @@
         <v>140</v>
       </c>
       <c r="B96" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="C96" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="D96" t="s">
         <v>30</v>
@@ -4100,10 +4108,10 @@
         <v>140</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="C97" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D97" t="s">
         <v>15</v>
@@ -4126,10 +4134,10 @@
         <v>140</v>
       </c>
       <c r="B98" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="C98" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D98" t="s">
         <v>30</v>
@@ -4152,10 +4160,10 @@
         <v>140</v>
       </c>
       <c r="B99" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="C99" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
@@ -4178,10 +4186,10 @@
         <v>140</v>
       </c>
       <c r="B100" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="C100" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D100" t="s">
         <v>30</v>
@@ -4204,7 +4212,7 @@
         <v>140</v>
       </c>
       <c r="B101" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="C101" t="s">
         <v>97</v>
@@ -4230,10 +4238,10 @@
         <v>140</v>
       </c>
       <c r="B102" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="C102" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D102" t="s">
         <v>15</v>
@@ -4256,10 +4264,10 @@
         <v>140</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="C103" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
@@ -4282,10 +4290,10 @@
         <v>140</v>
       </c>
       <c r="B104" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" t="s">
         <v>144</v>
-      </c>
-      <c r="C104" t="s">
-        <v>153</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
@@ -4308,10 +4316,10 @@
         <v>140</v>
       </c>
       <c r="B105" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="C105" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D105" t="s">
         <v>30</v>
@@ -4334,10 +4342,10 @@
         <v>140</v>
       </c>
       <c r="B106" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="C106" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
@@ -4360,10 +4368,10 @@
         <v>140</v>
       </c>
       <c r="B107" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="C107" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D107" t="s">
         <v>30</v>
@@ -4386,10 +4394,10 @@
         <v>74</v>
       </c>
       <c r="B108" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C108" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -4401,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I108" t="s">
         <v>136</v>
@@ -4412,10 +4420,10 @@
         <v>74</v>
       </c>
       <c r="B109" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C109" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4427,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I109" t="s">
         <v>136</v>
@@ -4438,22 +4446,22 @@
         <v>74</v>
       </c>
       <c r="B110" t="s">
+        <v>162</v>
+      </c>
+      <c r="C110" t="s">
+        <v>159</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>85</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
         <v>171</v>
-      </c>
-      <c r="C110" t="s">
-        <v>168</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110" t="s">
-        <v>85</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110" t="s">
-        <v>180</v>
       </c>
       <c r="I110" t="s">
         <v>136</v>
@@ -4464,10 +4472,10 @@
         <v>74</v>
       </c>
       <c r="B111" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C111" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -4479,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I111" t="s">
         <v>136</v>
@@ -4490,10 +4498,10 @@
         <v>74</v>
       </c>
       <c r="B112" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C112" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -4505,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I112" t="s">
         <v>136</v>
@@ -4516,7 +4524,7 @@
         <v>74</v>
       </c>
       <c r="B113" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C113" t="s">
         <v>76</v>
@@ -4531,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I113" t="s">
         <v>136</v>
@@ -4542,10 +4550,10 @@
         <v>74</v>
       </c>
       <c r="B114" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C114" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -4557,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I114" t="s">
         <v>136</v>
@@ -4568,7 +4576,7 @@
         <v>74</v>
       </c>
       <c r="B115" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C115" t="s">
         <v>77</v>
@@ -4583,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I115" t="s">
         <v>136</v>
@@ -4594,7 +4602,7 @@
         <v>74</v>
       </c>
       <c r="B116" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C116" t="s">
         <v>77</v>
@@ -4609,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I116" t="s">
         <v>136</v>
@@ -4620,7 +4628,7 @@
         <v>74</v>
       </c>
       <c r="B117" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C117" t="s">
         <v>77</v>
@@ -4635,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I117" t="s">
         <v>136</v>
@@ -4646,7 +4654,7 @@
         <v>74</v>
       </c>
       <c r="B118" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C118" t="s">
         <v>77</v>
@@ -4661,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I118" t="s">
         <v>136</v>
@@ -4672,11 +4680,11 @@
         <v>74</v>
       </c>
       <c r="B119" t="s">
+        <v>160</v>
+      </c>
+      <c r="C119" t="s">
         <v>169</v>
       </c>
-      <c r="C119" t="s">
-        <v>178</v>
-      </c>
       <c r="E119">
         <v>0</v>
       </c>
@@ -4687,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I119" t="s">
         <v>136</v>
@@ -4698,22 +4706,22 @@
         <v>74</v>
       </c>
       <c r="B120" t="s">
+        <v>162</v>
+      </c>
+      <c r="C120" t="s">
+        <v>169</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120" t="s">
+        <v>85</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120" t="s">
         <v>171</v>
-      </c>
-      <c r="C120" t="s">
-        <v>178</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120" t="s">
-        <v>85</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120" t="s">
-        <v>180</v>
       </c>
       <c r="I120" t="s">
         <v>136</v>
@@ -4724,10 +4732,10 @@
         <v>74</v>
       </c>
       <c r="B121" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C121" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -4739,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I121" t="s">
         <v>136</v>
@@ -4750,7 +4758,7 @@
         <v>74</v>
       </c>
       <c r="B122" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C122" t="s">
         <v>25</v>
@@ -4765,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I122" t="s">
         <v>136</v>
@@ -4776,7 +4784,7 @@
         <v>74</v>
       </c>
       <c r="B123" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C123" t="s">
         <v>25</v>
@@ -4791,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I123" t="s">
         <v>136</v>
@@ -4802,7 +4810,7 @@
         <v>74</v>
       </c>
       <c r="B124" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C124" t="s">
         <v>25</v>
@@ -4817,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I124" t="s">
         <v>136</v>
@@ -4828,7 +4836,7 @@
         <v>74</v>
       </c>
       <c r="B125" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C125" t="s">
         <v>25</v>
@@ -4843,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I125" t="s">
         <v>136</v>
@@ -4854,7 +4862,7 @@
         <v>74</v>
       </c>
       <c r="B126" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C126" t="s">
         <v>25</v>
@@ -4869,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I126" t="s">
         <v>136</v>
@@ -4880,7 +4888,7 @@
         <v>74</v>
       </c>
       <c r="B127" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C127" t="s">
         <v>25</v>
@@ -4895,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I127" t="s">
         <v>136</v>
@@ -4906,7 +4914,7 @@
         <v>74</v>
       </c>
       <c r="B128" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C128" t="s">
         <v>78</v>
@@ -4921,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I128" t="s">
         <v>136</v>
@@ -4932,7 +4940,7 @@
         <v>74</v>
       </c>
       <c r="B129" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C129" t="s">
         <v>96</v>
@@ -4947,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I129" t="s">
         <v>136</v>
@@ -4958,7 +4966,7 @@
         <v>74</v>
       </c>
       <c r="B130" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C130" t="s">
         <v>96</v>
@@ -4973,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I130" t="s">
         <v>136</v>
@@ -4984,7 +4992,7 @@
         <v>74</v>
       </c>
       <c r="B131" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C131" t="s">
         <v>96</v>
@@ -4999,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I131" t="s">
         <v>136</v>
@@ -5010,7 +5018,7 @@
         <v>74</v>
       </c>
       <c r="B132" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C132" t="s">
         <v>95</v>
@@ -5025,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I132" t="s">
         <v>136</v>
@@ -5036,7 +5044,7 @@
         <v>74</v>
       </c>
       <c r="B133" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C133" t="s">
         <v>95</v>
@@ -5051,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I133" t="s">
         <v>136</v>
@@ -5062,7 +5070,7 @@
         <v>74</v>
       </c>
       <c r="B134" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C134" t="s">
         <v>95</v>
@@ -5077,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I134" t="s">
         <v>136</v>
@@ -5088,10 +5096,10 @@
         <v>74</v>
       </c>
       <c r="B135" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C135" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -5103,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I135" t="s">
         <v>136</v>
@@ -5114,7 +5122,7 @@
         <v>74</v>
       </c>
       <c r="B136" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C136" t="s">
         <v>19</v>
@@ -5129,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I136" t="s">
         <v>136</v>
@@ -5140,7 +5148,7 @@
         <v>74</v>
       </c>
       <c r="B137" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C137" t="s">
         <v>19</v>
@@ -5155,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I137" t="s">
         <v>136</v>
@@ -5166,7 +5174,7 @@
         <v>74</v>
       </c>
       <c r="B138" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C138" t="s">
         <v>17</v>
@@ -5181,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I138" t="s">
         <v>136</v>
@@ -5192,7 +5200,7 @@
         <v>74</v>
       </c>
       <c r="B139" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C139" t="s">
         <v>17</v>
@@ -5207,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I139" t="s">
         <v>136</v>
@@ -5218,7 +5226,7 @@
         <v>74</v>
       </c>
       <c r="B140" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C140" t="s">
         <v>17</v>
@@ -5233,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I140" t="s">
         <v>136</v>
@@ -5244,7 +5252,7 @@
         <v>74</v>
       </c>
       <c r="B141" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C141" t="s">
         <v>17</v>
@@ -5259,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I141" t="s">
         <v>136</v>
@@ -5270,7 +5278,7 @@
         <v>74</v>
       </c>
       <c r="B142" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C142" t="s">
         <v>17</v>
@@ -5285,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I142" t="s">
         <v>136</v>
@@ -5296,7 +5304,7 @@
         <v>74</v>
       </c>
       <c r="B143" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C143" t="s">
         <v>69</v>
@@ -5311,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I143" t="s">
         <v>136</v>
@@ -5322,7 +5330,7 @@
         <v>74</v>
       </c>
       <c r="B144" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C144" t="s">
         <v>80</v>
@@ -5337,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I144" t="s">
         <v>136</v>
@@ -5348,7 +5356,7 @@
         <v>74</v>
       </c>
       <c r="B145" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C145" t="s">
         <v>80</v>
@@ -5363,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I145" t="s">
         <v>136</v>
@@ -5374,10 +5382,10 @@
         <v>74</v>
       </c>
       <c r="B146" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C146" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -5389,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I146" t="s">
         <v>136</v>
@@ -5400,10 +5408,10 @@
         <v>74</v>
       </c>
       <c r="B147" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C147" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -5415,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I147" t="s">
         <v>136</v>
@@ -5426,10 +5434,10 @@
         <v>74</v>
       </c>
       <c r="B148" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C148" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -5441,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I148" t="s">
         <v>136</v>
@@ -5452,10 +5460,10 @@
         <v>74</v>
       </c>
       <c r="B149" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C149" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -5467,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I149" t="s">
         <v>136</v>
@@ -5475,13 +5483,13 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B150" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C150" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D150" t="s">
         <v>15</v>
@@ -5504,13 +5512,13 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B151" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C151" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
@@ -5533,13 +5541,13 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B152" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C152" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D152" t="s">
         <v>30</v>
@@ -5562,13 +5570,13 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B153" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C153" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D153" t="s">
         <v>30</v>
@@ -5591,10 +5599,10 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B154" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C154" t="s">
         <v>36</v>
@@ -5620,13 +5628,13 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B155" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C155" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D155" t="s">
         <v>15</v>
@@ -5649,13 +5657,13 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B156" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C156" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D156" t="s">
         <v>15</v>
@@ -5678,13 +5686,13 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B157" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C157" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D157" t="s">
         <v>30</v>
@@ -5707,13 +5715,13 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B158" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C158" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D158" t="s">
         <v>15</v>
@@ -5736,10 +5744,10 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B159" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C159" t="s">
         <v>78</v>
@@ -5765,10 +5773,10 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B160" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C160" t="s">
         <v>25</v>
@@ -5794,13 +5802,13 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B161" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C161" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D161" t="s">
         <v>15</v>
@@ -5823,13 +5831,13 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B162" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C162" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D162" t="s">
         <v>15</v>
@@ -5852,13 +5860,13 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B163" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C163" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D163" t="s">
         <v>30</v>
@@ -5881,13 +5889,13 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B164" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C164" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D164" t="s">
         <v>30</v>
@@ -5910,13 +5918,13 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B165" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C165" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D165" t="s">
         <v>30</v>
@@ -5939,10 +5947,10 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B166" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C166" t="s">
         <v>46</v>
@@ -5968,10 +5976,10 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B167" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C167" t="s">
         <v>78</v>
@@ -5996,7 +6004,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I155" xr:uid="{93B62030-188A-4EBD-91A5-26CC545690A4}"/>
+  <autoFilter ref="A1:I167" xr:uid="{93B62030-188A-4EBD-91A5-26CC545690A4}"/>
   <conditionalFormatting sqref="D2:D167">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Increase"</formula>
@@ -6010,9 +6018,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544F088F-E018-4AF1-A817-C6B9859D0A47}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:A21"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6039,7 +6047,7 @@
         <v>104</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>111</v>
@@ -6586,7 +6594,7 @@
         <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
         <v>109</v>
@@ -6598,7 +6606,7 @@
         <v>115</v>
       </c>
       <c r="F12" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6613,10 +6621,10 @@
         <v>100</v>
       </c>
       <c r="N12" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="O12" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -6624,7 +6632,7 @@
         <v>140</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
         <v>109</v>
@@ -6636,7 +6644,7 @@
         <v>115</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -6651,10 +6659,10 @@
         <v>100</v>
       </c>
       <c r="N13" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -6662,7 +6670,7 @@
         <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
         <v>109</v>
@@ -6674,7 +6682,7 @@
         <v>115</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -6689,10 +6697,10 @@
         <v>100</v>
       </c>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -6700,7 +6708,7 @@
         <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
         <v>109</v>
@@ -6712,7 +6720,7 @@
         <v>115</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -6727,18 +6735,18 @@
         <v>100</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
         <v>109</v>
@@ -6750,7 +6758,7 @@
         <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -6786,15 +6794,15 @@
         <v>133</v>
       </c>
       <c r="R16" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
         <v>109</v>
@@ -6806,7 +6814,7 @@
         <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -6842,15 +6850,15 @@
         <v>133</v>
       </c>
       <c r="R17" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
         <v>109</v>
@@ -6862,7 +6870,7 @@
         <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -6898,15 +6906,15 @@
         <v>133</v>
       </c>
       <c r="R18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
         <v>109</v>
@@ -6918,7 +6926,7 @@
         <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -6954,15 +6962,15 @@
         <v>133</v>
       </c>
       <c r="R19" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s">
         <v>109</v>
@@ -6974,7 +6982,7 @@
         <v>115</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -7010,15 +7018,15 @@
         <v>133</v>
       </c>
       <c r="R20" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
         <v>109</v>
@@ -7030,7 +7038,7 @@
         <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -7066,11 +7074,11 @@
         <v>133</v>
       </c>
       <c r="R21" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R11" xr:uid="{7FDDCD90-E9AF-4CC8-BB74-04964D99DE13}"/>
+  <autoFilter ref="A1:R21" xr:uid="{7FDDCD90-E9AF-4CC8-BB74-04964D99DE13}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="303" documentId="10_ncr:100000_{42287E5E-EC47-4B6A-B6C0-555057043870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{817463C3-C980-403B-B52E-CF02680D94D9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7318BEE-DA3B-4A52-8C73-DF90A2D9F92B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="26535" windowWidth="14355" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="28935" windowWidth="14355" windowHeight="9780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
     <sheet name="metric.scoring" sheetId="4" r:id="rId2"/>
     <sheet name="index.scoring" sheetId="5" r:id="rId3"/>
+    <sheet name="ToDo" sheetId="6" r:id="rId4"/>
+    <sheet name="References" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">index.scoring!$A$1:$R$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$I$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$J$185</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="274">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -319,9 +321,6 @@
     <t>pt_Ephem</t>
   </si>
   <si>
-    <t>pt_habit_brrwr</t>
-  </si>
-  <si>
     <t>BioMonTools</t>
   </si>
   <si>
@@ -689,13 +688,217 @@
   </si>
   <si>
     <t>west</t>
+  </si>
+  <si>
+    <t>CO.2005</t>
+  </si>
+  <si>
+    <t>ToDo</t>
+  </si>
+  <si>
+    <t>Data to add but need to QC first.</t>
+  </si>
+  <si>
+    <t>Added "to do" list.</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>References for metrics and indices.</t>
+  </si>
+  <si>
+    <t>Mountains</t>
+  </si>
+  <si>
+    <t>Plains</t>
+  </si>
+  <si>
+    <t>Xeric</t>
+  </si>
+  <si>
+    <t>pi_Hydro2Trich</t>
+  </si>
+  <si>
+    <t>pi_Habit_burrow</t>
+  </si>
+  <si>
+    <t>pi_Habit_climb</t>
+  </si>
+  <si>
+    <t>pi_FFG_pred</t>
+  </si>
+  <si>
+    <t>pi_Coleo</t>
+  </si>
+  <si>
+    <t>nt_FFG_pred</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NJ.BCG</t>
+  </si>
+  <si>
+    <t>MN.BCG</t>
+  </si>
+  <si>
+    <t>IL.BCG</t>
+  </si>
+  <si>
+    <t>IN.BCG</t>
+  </si>
+  <si>
+    <t>OTHERS TO ADD</t>
+  </si>
+  <si>
+    <t>AL.BCG</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Least-Disturbed</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Most-Disturbed</t>
+  </si>
+  <si>
+    <t>BURRPTAX</t>
+  </si>
+  <si>
+    <t>CHIRPTAX</t>
+  </si>
+  <si>
+    <t>HPRIME</t>
+  </si>
+  <si>
+    <t>DOM5PIND</t>
+  </si>
+  <si>
+    <t>SCRPRICH</t>
+  </si>
+  <si>
+    <t>Added MassDEP.2019.Bugs metrics and index.</t>
+  </si>
+  <si>
+    <t>MassDEP.2019.Bugs</t>
+  </si>
+  <si>
+    <t>CentralHills</t>
+  </si>
+  <si>
+    <t>IBI</t>
+  </si>
+  <si>
+    <t>WestHighlands</t>
+  </si>
+  <si>
+    <t>pt_EPT</t>
+  </si>
+  <si>
+    <t>pi_Ephem NoCaeBae</t>
+  </si>
+  <si>
+    <t>pi_ffg_filt</t>
+  </si>
+  <si>
+    <t>pt_ffg_pred</t>
+  </si>
+  <si>
+    <t>pi_ffg_shred</t>
+  </si>
+  <si>
+    <t>pi_tv_intol</t>
+  </si>
+  <si>
+    <t>Add "Scoring Formula" to metric.scoring worksheet.</t>
+  </si>
+  <si>
+    <t>100*(metric-11)/ 23.9</t>
+  </si>
+  <si>
+    <t>100*(metric-10.6)/ 43.9</t>
+  </si>
+  <si>
+    <t>100*(metric-0)/ 13.9</t>
+  </si>
+  <si>
+    <t>100*(metric-0)/ 28.5</t>
+  </si>
+  <si>
+    <t>100*(metric-0)/ 39.1</t>
+  </si>
+  <si>
+    <t>100*(metric-21)/ 17.8</t>
+  </si>
+  <si>
+    <t>100*(metric)/ 18.3</t>
+  </si>
+  <si>
+    <t>100*(50.5-metric)/ 40.7</t>
+  </si>
+  <si>
+    <t>100*(metric-1.17)/ 21.8</t>
+  </si>
+  <si>
+    <t>100*(metric-6.09)/ 45.4</t>
+  </si>
+  <si>
+    <t>100*(metric-12)/ 24.8</t>
+  </si>
+  <si>
+    <t>100*(79.9-metric)/ 66.9</t>
+  </si>
+  <si>
+    <t>Scoring_Formula</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,8 +984,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -798,6 +1024,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -828,7 +1064,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -838,8 +1074,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -864,16 +1102,22 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
+    <cellStyle name="Bad" xfId="6" builtinId="27"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="7" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -881,6 +1125,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -901,12 +1155,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A16:C19" totalsRowShown="0">
-  <autoFilter ref="A16:C19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A16:C21" totalsRowShown="0">
+  <autoFilter ref="A16:C21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="2">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1238,10 +1492,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,12 +1507,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1306,17 +1560,17 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1344,10 +1598,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="9" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A18&amp;"!A1",A18)</f>
@@ -1356,35 +1610,80 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="9" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A19&amp;"!A1",A19)</f>
         <v>index.scoring</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="9" t="str">
+        <f ca="1">HYPERLINK(FileName&amp;A20&amp;"!A1",A20)</f>
+        <v>ToDo</v>
+      </c>
+    </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>43592</v>
-      </c>
-      <c r="B22" t="s">
-        <v>187</v>
+      <c r="A21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="9" t="str">
+        <f ca="1">HYPERLINK(FileName&amp;A21&amp;"!A1",A21)</f>
+        <v>References</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>43592</v>
+      </c>
+      <c r="B24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>43609</v>
       </c>
-      <c r="B23" t="s">
-        <v>202</v>
+      <c r="B25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>43616</v>
+      </c>
+      <c r="B26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>43643</v>
+      </c>
+      <c r="B27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -1413,16 +1712,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A70181-B22C-4671-9C22-4B8DA5FE66AB}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -1431,38 +1730,42 @@
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1479,19 +1782,19 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2">
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1508,19 +1811,19 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1537,19 +1840,19 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1566,19 +1869,19 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5">
         <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1595,19 +1898,19 @@
         <v>0.8</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1624,19 +1927,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1644,7 +1947,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1653,19 +1956,19 @@
         <v>0.9</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8">
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1682,19 +1985,19 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9">
         <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1711,19 +2014,19 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1740,19 +2043,19 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1769,19 +2072,19 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12">
         <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1798,19 +2101,19 @@
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13">
         <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1818,7 +2121,7 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1827,19 +2130,19 @@
         <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14">
         <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1856,19 +2159,19 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15">
         <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1885,13 +2188,13 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16">
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -1914,13 +2217,13 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s">
         <v>20</v>
@@ -1943,13 +2246,13 @@
         <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18">
         <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
@@ -1972,13 +2275,13 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G19">
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" t="s">
         <v>35</v>
@@ -2001,13 +2304,13 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20">
         <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s">
         <v>37</v>
@@ -2021,7 +2324,7 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -2030,13 +2333,13 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21">
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I21" t="s">
         <v>38</v>
@@ -2059,13 +2362,13 @@
         <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s">
         <v>40</v>
@@ -2088,13 +2391,13 @@
         <v>0.45</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G23">
         <v>0.72</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s">
         <v>43</v>
@@ -2117,13 +2420,13 @@
         <v>0.01</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24">
         <v>0.21</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s">
         <v>45</v>
@@ -2146,13 +2449,13 @@
         <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25">
         <v>97</v>
       </c>
       <c r="H25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I25" t="s">
         <v>47</v>
@@ -2175,13 +2478,13 @@
         <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26">
         <v>99.999999900000006</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26" t="s">
         <v>49</v>
@@ -2204,13 +2507,13 @@
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" t="s">
         <v>51</v>
@@ -2233,13 +2536,13 @@
         <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G28">
         <v>69</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" t="s">
         <v>53</v>
@@ -2262,13 +2565,13 @@
         <v>0.25</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29">
         <v>1.25</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I29" t="s">
         <v>43</v>
@@ -2291,13 +2594,13 @@
         <v>0.09</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30">
         <v>0.26</v>
       </c>
       <c r="H30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I30" t="s">
         <v>45</v>
@@ -2320,13 +2623,13 @@
         <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G31">
         <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I31" t="s">
         <v>47</v>
@@ -2349,13 +2652,13 @@
         <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G32">
         <v>99.999999900000006</v>
       </c>
       <c r="H32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I32" t="s">
         <v>49</v>
@@ -2378,13 +2681,13 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G33">
         <v>8.6</v>
       </c>
       <c r="H33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I33" t="s">
         <v>55</v>
@@ -2407,13 +2710,13 @@
         <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G34">
         <v>61</v>
       </c>
       <c r="H34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I34" t="s">
         <v>57</v>
@@ -2436,13 +2739,13 @@
         <v>0.31</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35">
         <v>0.65</v>
       </c>
       <c r="H35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I35" t="s">
         <v>43</v>
@@ -2465,13 +2768,13 @@
         <v>0.11</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G36">
         <v>0.25</v>
       </c>
       <c r="H36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I36" t="s">
         <v>45</v>
@@ -2494,13 +2797,13 @@
         <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G37">
         <v>8</v>
       </c>
       <c r="H37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I37" t="s">
         <v>47</v>
@@ -2523,13 +2826,13 @@
         <v>61</v>
       </c>
       <c r="F38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G38">
         <v>96</v>
       </c>
       <c r="H38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I38" t="s">
         <v>49</v>
@@ -2552,13 +2855,13 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G39">
         <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I39" t="s">
         <v>59</v>
@@ -2581,13 +2884,13 @@
         <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G40">
         <v>89</v>
       </c>
       <c r="H40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I40" t="s">
         <v>53</v>
@@ -2610,13 +2913,13 @@
         <v>0.88</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G41">
         <v>2.2400000000000002</v>
       </c>
       <c r="H41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I41" t="s">
         <v>43</v>
@@ -2639,13 +2942,13 @@
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G42">
         <v>81</v>
       </c>
       <c r="H42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I42" t="s">
         <v>47</v>
@@ -2668,13 +2971,13 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G43">
         <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I43" t="s">
         <v>62</v>
@@ -2697,13 +3000,13 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G44">
         <v>44</v>
       </c>
       <c r="H44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I44" t="s">
         <v>64</v>
@@ -2726,13 +3029,13 @@
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G45">
         <v>16</v>
       </c>
       <c r="H45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I45" t="s">
         <v>16</v>
@@ -2755,13 +3058,13 @@
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G46">
         <v>6</v>
       </c>
       <c r="H46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I46" t="s">
         <v>18</v>
@@ -2784,13 +3087,13 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I47" t="s">
         <v>20</v>
@@ -2813,13 +3116,13 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G48">
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I48" t="s">
         <v>68</v>
@@ -2842,13 +3145,13 @@
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G49">
         <v>11.4</v>
       </c>
       <c r="H49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" t="s">
         <v>24</v>
@@ -2871,13 +3174,13 @@
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G50">
         <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I50" t="s">
         <v>70</v>
@@ -2900,13 +3203,13 @@
         <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G51">
         <v>9</v>
       </c>
       <c r="H51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I51" t="s">
         <v>72</v>
@@ -2929,13 +3232,13 @@
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G52">
         <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I52" t="s">
         <v>16</v>
@@ -2958,13 +3261,13 @@
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G53">
         <v>10</v>
       </c>
       <c r="H53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I53" t="s">
         <v>18</v>
@@ -2987,13 +3290,13 @@
         <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G54">
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I54" t="s">
         <v>20</v>
@@ -3016,13 +3319,13 @@
         <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G55">
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I55" t="s">
         <v>68</v>
@@ -3045,13 +3348,13 @@
         <v>5.7</v>
       </c>
       <c r="F56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G56">
         <v>20.3</v>
       </c>
       <c r="H56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I56" t="s">
         <v>24</v>
@@ -3074,13 +3377,13 @@
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G57">
         <v>8</v>
       </c>
       <c r="H57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I57" t="s">
         <v>70</v>
@@ -3103,13 +3406,13 @@
         <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G58">
         <v>12.5</v>
       </c>
       <c r="H58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I58" t="s">
         <v>72</v>
@@ -3129,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I59" t="s">
         <v>76</v>
@@ -3151,20 +3454,23 @@
       <c r="C60" t="s">
         <v>77</v>
       </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
       <c r="E60">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="H60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I60" t="s">
-        <v>77</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3181,13 +3487,13 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I61" t="s">
         <v>78</v>
@@ -3201,19 +3507,19 @@
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I62" t="s">
         <v>79</v>
@@ -3233,13 +3539,13 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I63" t="s">
         <v>17</v>
@@ -3259,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I64" t="s">
         <v>80</v>
@@ -3285,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I65" t="s">
         <v>82</v>
@@ -3307,20 +3613,23 @@
       <c r="C66" t="s">
         <v>77</v>
       </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
       <c r="E66">
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="H66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I66" t="s">
-        <v>77</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3337,16 +3646,16 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I67" t="s">
-        <v>25</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3357,22 +3666,25 @@
         <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="D68" t="s">
+        <v>30</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I68" t="s">
-        <v>83</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3389,13 +3701,13 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I69" t="s">
         <v>17</v>
@@ -3415,24 +3727,24 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -3450,15 +3762,15 @@
         <v>60</v>
       </c>
       <c r="H71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
@@ -3476,18 +3788,18 @@
         <v>30</v>
       </c>
       <c r="H72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" t="s">
         <v>88</v>
-      </c>
-      <c r="C73" t="s">
-        <v>89</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
@@ -3502,15 +3814,15 @@
         <v>9</v>
       </c>
       <c r="H73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74" t="s">
         <v>77</v>
@@ -3528,18 +3840,18 @@
         <v>3.25</v>
       </c>
       <c r="H74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D75" t="s">
         <v>15</v>
@@ -3554,18 +3866,18 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
@@ -3580,18 +3892,18 @@
         <v>5</v>
       </c>
       <c r="H76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D77" t="s">
         <v>15</v>
@@ -3606,18 +3918,18 @@
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
@@ -3632,18 +3944,18 @@
         <v>5</v>
       </c>
       <c r="H78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
@@ -3658,18 +3970,18 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
@@ -3684,18 +3996,18 @@
         <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
@@ -3710,44 +4022,44 @@
         <v>16</v>
       </c>
       <c r="H81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D82" t="s">
-        <v>139</v>
-      </c>
       <c r="E82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
@@ -3756,24 +4068,24 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G83">
         <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" t="s">
+        <v>202</v>
+      </c>
+      <c r="C84" t="s">
         <v>140</v>
-      </c>
-      <c r="B84" t="s">
-        <v>203</v>
-      </c>
-      <c r="C84" t="s">
-        <v>141</v>
       </c>
       <c r="D84" t="s">
         <v>30</v>
@@ -3782,24 +4094,24 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G84">
         <v>50</v>
       </c>
       <c r="H84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B85" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D85" t="s">
         <v>30</v>
@@ -3808,24 +4120,24 @@
         <v>10.5</v>
       </c>
       <c r="F85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G85">
         <v>76.900000000000006</v>
       </c>
       <c r="H85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D86" t="s">
         <v>15</v>
@@ -3834,24 +4146,24 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G86">
         <v>73.900000000000006</v>
       </c>
       <c r="H86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D87" t="s">
         <v>30</v>
@@ -3860,21 +4172,21 @@
         <v>4.8</v>
       </c>
       <c r="F87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G87">
         <v>37.6</v>
       </c>
       <c r="H87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C88" t="s">
         <v>80</v>
@@ -3886,21 +4198,21 @@
         <v>1.9</v>
       </c>
       <c r="F88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G88">
         <v>30.4</v>
       </c>
       <c r="H88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C89" t="s">
         <v>71</v>
@@ -3912,21 +4224,21 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G89">
         <v>30</v>
       </c>
       <c r="H89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B90" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
@@ -3938,21 +4250,21 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G90">
         <v>10.9</v>
       </c>
       <c r="H90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C91" t="s">
         <v>78</v>
@@ -3964,24 +4276,24 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G91">
         <v>6</v>
       </c>
       <c r="H91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C92" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
         <v>15</v>
@@ -3990,24 +4302,24 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G92">
         <v>4.2</v>
       </c>
       <c r="H92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D93" t="s">
         <v>30</v>
@@ -4016,21 +4328,21 @@
         <v>1.4</v>
       </c>
       <c r="F93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G93">
         <v>43.5</v>
       </c>
       <c r="H93" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C94" t="s">
         <v>71</v>
@@ -4042,24 +4354,24 @@
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G94">
         <v>15</v>
       </c>
       <c r="H94" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C95" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
@@ -4068,24 +4380,24 @@
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G95">
         <v>24.7</v>
       </c>
       <c r="H95" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C96" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D96" t="s">
         <v>30</v>
@@ -4094,24 +4406,24 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G96">
         <v>6</v>
       </c>
       <c r="H96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D97" t="s">
         <v>15</v>
@@ -4120,24 +4432,24 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G97">
         <v>79.8</v>
       </c>
       <c r="H97" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>139</v>
+      </c>
+      <c r="B98" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" t="s">
         <v>140</v>
-      </c>
-      <c r="B98" t="s">
-        <v>205</v>
-      </c>
-      <c r="C98" t="s">
-        <v>141</v>
       </c>
       <c r="D98" t="s">
         <v>30</v>
@@ -4146,24 +4458,24 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G98">
         <v>26.5</v>
       </c>
       <c r="H98" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B99" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C99" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
@@ -4172,24 +4484,24 @@
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G99">
         <v>10.9</v>
       </c>
       <c r="H99" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D100" t="s">
         <v>30</v>
@@ -4198,24 +4510,24 @@
         <v>3.1</v>
       </c>
       <c r="F100" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G100">
         <v>5.0999999999999996</v>
       </c>
       <c r="H100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B101" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D101" t="s">
         <v>15</v>
@@ -4224,24 +4536,24 @@
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G101">
         <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B102" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D102" t="s">
         <v>15</v>
@@ -4250,24 +4562,24 @@
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G102">
         <v>4</v>
       </c>
       <c r="H102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
@@ -4276,24 +4588,24 @@
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G103">
         <v>7.5</v>
       </c>
       <c r="H103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
@@ -4302,24 +4614,24 @@
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G104">
         <v>11.9</v>
       </c>
       <c r="H104" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D105" t="s">
         <v>30</v>
@@ -4328,24 +4640,24 @@
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G105">
         <v>8.3000000000000007</v>
       </c>
       <c r="H105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B106" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
@@ -4354,24 +4666,24 @@
         <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G106">
         <v>30.7</v>
       </c>
       <c r="H106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B107" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D107" t="s">
         <v>30</v>
@@ -4380,13 +4692,13 @@
         <v>3.7</v>
       </c>
       <c r="F107" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G107">
         <v>7.5</v>
       </c>
       <c r="H107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4394,25 +4706,25 @@
         <v>74</v>
       </c>
       <c r="B108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4420,25 +4732,25 @@
         <v>74</v>
       </c>
       <c r="B109" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4446,25 +4758,25 @@
         <v>74</v>
       </c>
       <c r="B110" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I110" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4472,25 +4784,25 @@
         <v>74</v>
       </c>
       <c r="B111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I111" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4498,25 +4810,25 @@
         <v>74</v>
       </c>
       <c r="B112" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4524,7 +4836,7 @@
         <v>74</v>
       </c>
       <c r="B113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C113" t="s">
         <v>76</v>
@@ -4533,16 +4845,16 @@
         <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I113" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4550,25 +4862,28 @@
         <v>74</v>
       </c>
       <c r="B114" t="s">
+        <v>166</v>
+      </c>
+      <c r="C114" t="s">
         <v>167</v>
       </c>
-      <c r="C114" t="s">
-        <v>168</v>
+      <c r="D114" t="s">
+        <v>30</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="F114" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>50.8</v>
       </c>
       <c r="H114" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I114" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4576,25 +4891,28 @@
         <v>74</v>
       </c>
       <c r="B115" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C115" t="s">
         <v>77</v>
       </c>
+      <c r="D115" t="s">
+        <v>15</v>
+      </c>
       <c r="E115">
-        <v>0</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="F115" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="H115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I115" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4602,25 +4920,28 @@
         <v>74</v>
       </c>
       <c r="B116" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C116" t="s">
         <v>77</v>
       </c>
+      <c r="D116" t="s">
+        <v>15</v>
+      </c>
       <c r="E116">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="F116" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="H116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I116" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4628,25 +4949,28 @@
         <v>74</v>
       </c>
       <c r="B117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C117" t="s">
         <v>77</v>
       </c>
+      <c r="D117" t="s">
+        <v>30</v>
+      </c>
       <c r="E117">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="H117" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I117" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4654,25 +4978,28 @@
         <v>74</v>
       </c>
       <c r="B118" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C118" t="s">
         <v>77</v>
       </c>
+      <c r="D118" t="s">
+        <v>15</v>
+      </c>
       <c r="E118">
-        <v>0</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F118" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H118" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I118" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4680,25 +5007,28 @@
         <v>74</v>
       </c>
       <c r="B119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C119" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="D119" t="s">
+        <v>30</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>76.2</v>
       </c>
       <c r="H119" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I119" t="s">
-        <v>136</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4706,25 +5036,28 @@
         <v>74</v>
       </c>
       <c r="B120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C120" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="D120" t="s">
+        <v>30</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="F120" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>82.3</v>
       </c>
       <c r="H120" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I120" t="s">
-        <v>136</v>
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4732,25 +5065,28 @@
         <v>74</v>
       </c>
       <c r="B121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C121" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="D121" t="s">
+        <v>30</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>44.7</v>
       </c>
       <c r="F121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>92.3</v>
       </c>
       <c r="H121" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I121" t="s">
-        <v>136</v>
+        <v>247</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4758,7 +5094,7 @@
         <v>74</v>
       </c>
       <c r="B122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C122" t="s">
         <v>25</v>
@@ -4767,16 +5103,16 @@
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I122" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4784,7 +5120,7 @@
         <v>74</v>
       </c>
       <c r="B123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C123" t="s">
         <v>25</v>
@@ -4793,16 +5129,16 @@
         <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I123" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4810,7 +5146,7 @@
         <v>74</v>
       </c>
       <c r="B124" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C124" t="s">
         <v>25</v>
@@ -4819,16 +5155,16 @@
         <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I124" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4836,7 +5172,7 @@
         <v>74</v>
       </c>
       <c r="B125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C125" t="s">
         <v>25</v>
@@ -4845,16 +5181,16 @@
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I125" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4862,7 +5198,7 @@
         <v>74</v>
       </c>
       <c r="B126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C126" t="s">
         <v>25</v>
@@ -4871,16 +5207,16 @@
         <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I126" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4888,7 +5224,7 @@
         <v>74</v>
       </c>
       <c r="B127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C127" t="s">
         <v>25</v>
@@ -4897,16 +5233,16 @@
         <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I127" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4914,7 +5250,7 @@
         <v>74</v>
       </c>
       <c r="B128" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C128" t="s">
         <v>78</v>
@@ -4923,16 +5259,16 @@
         <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I128" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4940,25 +5276,28 @@
         <v>74</v>
       </c>
       <c r="B129" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C129" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="D129" t="s">
+        <v>30</v>
       </c>
       <c r="E129">
         <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I129" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4966,25 +5305,28 @@
         <v>74</v>
       </c>
       <c r="B130" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C130" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="D130" t="s">
+        <v>30</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>6.45</v>
       </c>
       <c r="F130" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="H130" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I130" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4992,25 +5334,28 @@
         <v>74</v>
       </c>
       <c r="B131" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C131" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="D131" t="s">
+        <v>30</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F131" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>36.1</v>
       </c>
       <c r="H131" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I131" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5018,25 +5363,25 @@
         <v>74</v>
       </c>
       <c r="B132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C132" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -5044,25 +5389,25 @@
         <v>74</v>
       </c>
       <c r="B133" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C133" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -5070,25 +5415,25 @@
         <v>74</v>
       </c>
       <c r="B134" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C134" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5096,25 +5441,25 @@
         <v>74</v>
       </c>
       <c r="B135" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C135" t="s">
+        <v>169</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135" t="s">
+        <v>84</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135" t="s">
         <v>170</v>
       </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135" t="s">
-        <v>85</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135" t="s">
-        <v>171</v>
-      </c>
       <c r="I135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -5122,7 +5467,7 @@
         <v>74</v>
       </c>
       <c r="B136" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C136" t="s">
         <v>19</v>
@@ -5131,16 +5476,16 @@
         <v>0</v>
       </c>
       <c r="F136" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -5148,7 +5493,7 @@
         <v>74</v>
       </c>
       <c r="B137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C137" t="s">
         <v>19</v>
@@ -5157,16 +5502,16 @@
         <v>0</v>
       </c>
       <c r="F137" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -5174,7 +5519,7 @@
         <v>74</v>
       </c>
       <c r="B138" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C138" t="s">
         <v>17</v>
@@ -5183,16 +5528,16 @@
         <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -5200,7 +5545,7 @@
         <v>74</v>
       </c>
       <c r="B139" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C139" t="s">
         <v>17</v>
@@ -5209,16 +5554,16 @@
         <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I139" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -5226,7 +5571,7 @@
         <v>74</v>
       </c>
       <c r="B140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C140" t="s">
         <v>17</v>
@@ -5235,16 +5580,16 @@
         <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I140" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -5252,7 +5597,7 @@
         <v>74</v>
       </c>
       <c r="B141" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C141" t="s">
         <v>17</v>
@@ -5261,16 +5606,16 @@
         <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I141" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -5278,7 +5623,7 @@
         <v>74</v>
       </c>
       <c r="B142" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C142" t="s">
         <v>17</v>
@@ -5287,16 +5632,16 @@
         <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I142" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -5304,7 +5649,7 @@
         <v>74</v>
       </c>
       <c r="B143" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C143" t="s">
         <v>69</v>
@@ -5313,16 +5658,16 @@
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I143" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -5330,7 +5675,7 @@
         <v>74</v>
       </c>
       <c r="B144" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C144" t="s">
         <v>80</v>
@@ -5339,16 +5684,16 @@
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I144" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -5356,7 +5701,7 @@
         <v>74</v>
       </c>
       <c r="B145" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C145" t="s">
         <v>80</v>
@@ -5365,16 +5710,16 @@
         <v>0</v>
       </c>
       <c r="F145" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I145" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -5382,25 +5727,25 @@
         <v>74</v>
       </c>
       <c r="B146" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C146" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I146" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5408,25 +5753,25 @@
         <v>74</v>
       </c>
       <c r="B147" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C147" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I147" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5434,25 +5779,25 @@
         <v>74</v>
       </c>
       <c r="B148" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C148" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I148" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -5460,36 +5805,36 @@
         <v>74</v>
       </c>
       <c r="B149" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C149" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G149">
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I149" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B150" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C150" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D150" t="s">
         <v>15</v>
@@ -5498,28 +5843,28 @@
         <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G150">
         <v>5.6</v>
       </c>
       <c r="H150" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I150" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B151" t="s">
+        <v>182</v>
+      </c>
+      <c r="C151" t="s">
         <v>183</v>
       </c>
-      <c r="C151" t="s">
-        <v>184</v>
-      </c>
       <c r="D151" t="s">
         <v>15</v>
       </c>
@@ -5527,27 +5872,27 @@
         <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G151">
         <v>31.77</v>
       </c>
       <c r="H151" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I151" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B152" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C152" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D152" t="s">
         <v>30</v>
@@ -5556,27 +5901,27 @@
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G152">
         <v>36.36</v>
       </c>
       <c r="H152" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I152" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B153" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C153" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D153" t="s">
         <v>30</v>
@@ -5585,24 +5930,24 @@
         <v>7</v>
       </c>
       <c r="F153" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G153">
         <v>23</v>
       </c>
       <c r="H153" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I153" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B154" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C154" t="s">
         <v>36</v>
@@ -5614,27 +5959,27 @@
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G154">
         <v>39.9</v>
       </c>
       <c r="H154" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I154" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B155" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C155" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D155" t="s">
         <v>15</v>
@@ -5643,27 +5988,27 @@
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G155">
         <v>19.8</v>
       </c>
       <c r="H155" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I155" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C156" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D156" t="s">
         <v>15</v>
@@ -5672,27 +6017,27 @@
         <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G156">
         <v>8.8000000000000007</v>
       </c>
       <c r="H156" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I156" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B157" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C157" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D157" t="s">
         <v>30</v>
@@ -5701,27 +6046,27 @@
         <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G157">
         <v>84.43</v>
       </c>
       <c r="H157" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I157" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B158" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C158" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D158" t="s">
         <v>15</v>
@@ -5730,24 +6075,24 @@
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G158">
         <v>16.149999999999999</v>
       </c>
       <c r="H158" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I158" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B159" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C159" t="s">
         <v>78</v>
@@ -5759,24 +6104,24 @@
         <v>0</v>
       </c>
       <c r="F159" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G159">
         <v>11</v>
       </c>
       <c r="H159" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I159" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B160" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C160" t="s">
         <v>25</v>
@@ -5788,27 +6133,27 @@
         <v>0</v>
       </c>
       <c r="F160" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G160">
         <v>8.8000000000000007</v>
       </c>
       <c r="H160" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I160" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B161" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C161" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D161" t="s">
         <v>15</v>
@@ -5817,28 +6162,28 @@
         <v>0</v>
       </c>
       <c r="F161" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G161">
         <v>3.8</v>
       </c>
       <c r="H161" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I161" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B162" t="s">
+        <v>189</v>
+      </c>
+      <c r="C162" t="s">
         <v>190</v>
       </c>
-      <c r="C162" t="s">
-        <v>191</v>
-      </c>
       <c r="D162" t="s">
         <v>15</v>
       </c>
@@ -5846,27 +6191,27 @@
         <v>0</v>
       </c>
       <c r="F162" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G162">
         <v>8.85</v>
       </c>
       <c r="H162" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I162" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B163" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C163" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D163" t="s">
         <v>30</v>
@@ -5875,27 +6220,27 @@
         <v>1.6</v>
       </c>
       <c r="F163" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G163">
         <v>21.52</v>
       </c>
       <c r="H163" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I163" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B164" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C164" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D164" t="s">
         <v>30</v>
@@ -5904,27 +6249,27 @@
         <v>0.21</v>
       </c>
       <c r="F164" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G164">
         <v>6.25</v>
       </c>
       <c r="H164" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I164" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B165" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C165" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D165" t="s">
         <v>30</v>
@@ -5933,24 +6278,24 @@
         <v>2.33</v>
       </c>
       <c r="F165" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G165">
         <v>6.02</v>
       </c>
       <c r="H165" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I165" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B166" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C166" t="s">
         <v>46</v>
@@ -5962,24 +6307,24 @@
         <v>6.36</v>
       </c>
       <c r="F166" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G166">
         <v>23.75</v>
       </c>
       <c r="H166" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I166" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B167" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C167" t="s">
         <v>78</v>
@@ -5991,21 +6336,570 @@
         <v>0</v>
       </c>
       <c r="F167" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G167">
         <v>8.5500000000000007</v>
       </c>
       <c r="H167" t="s">
+        <v>86</v>
+      </c>
+      <c r="I167" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>74</v>
+      </c>
+      <c r="B168" t="s">
         <v>87</v>
       </c>
-      <c r="I167" t="s">
-        <v>85</v>
+      <c r="C168" t="s">
+        <v>158</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168" t="s">
+        <v>84</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168" t="s">
+        <v>170</v>
+      </c>
+      <c r="I168" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>74</v>
+      </c>
+      <c r="B169" t="s">
+        <v>87</v>
+      </c>
+      <c r="C169" t="s">
+        <v>77</v>
+      </c>
+      <c r="D169" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169" t="s">
+        <v>84</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169" t="s">
+        <v>170</v>
+      </c>
+      <c r="I169" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B170" t="s">
+        <v>87</v>
+      </c>
+      <c r="C170" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170" t="s">
+        <v>84</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170" t="s">
+        <v>170</v>
+      </c>
+      <c r="I170" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>74</v>
+      </c>
+      <c r="B171" t="s">
+        <v>87</v>
+      </c>
+      <c r="C171" t="s">
+        <v>95</v>
+      </c>
+      <c r="D171" t="s">
+        <v>30</v>
+      </c>
+      <c r="E171">
+        <v>3.77</v>
+      </c>
+      <c r="F171" t="s">
+        <v>84</v>
+      </c>
+      <c r="G171">
+        <v>28.6</v>
+      </c>
+      <c r="H171" t="s">
+        <v>170</v>
+      </c>
+      <c r="I171" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>74</v>
+      </c>
+      <c r="B172" t="s">
+        <v>87</v>
+      </c>
+      <c r="C172" t="s">
+        <v>17</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172" t="s">
+        <v>84</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172" t="s">
+        <v>170</v>
+      </c>
+      <c r="I172" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>74</v>
+      </c>
+      <c r="B173" t="s">
+        <v>87</v>
+      </c>
+      <c r="C173" t="s">
+        <v>144</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173" t="s">
+        <v>84</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173" t="s">
+        <v>170</v>
+      </c>
+      <c r="I173" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>250</v>
+      </c>
+      <c r="B174" t="s">
+        <v>251</v>
+      </c>
+      <c r="C174" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174">
+        <v>11</v>
+      </c>
+      <c r="F174" t="s">
+        <v>84</v>
+      </c>
+      <c r="G174">
+        <v>34.899999999999977</v>
+      </c>
+      <c r="H174" t="s">
+        <v>86</v>
+      </c>
+      <c r="I174" t="s">
+        <v>135</v>
+      </c>
+      <c r="J174" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>250</v>
+      </c>
+      <c r="B175" t="s">
+        <v>251</v>
+      </c>
+      <c r="C175" t="s">
+        <v>254</v>
+      </c>
+      <c r="D175" t="s">
+        <v>15</v>
+      </c>
+      <c r="E175">
+        <v>10.6</v>
+      </c>
+      <c r="F175" t="s">
+        <v>84</v>
+      </c>
+      <c r="G175">
+        <v>54.5</v>
+      </c>
+      <c r="H175" t="s">
+        <v>86</v>
+      </c>
+      <c r="I175" t="s">
+        <v>135</v>
+      </c>
+      <c r="J175" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>250</v>
+      </c>
+      <c r="B176" t="s">
+        <v>251</v>
+      </c>
+      <c r="C176" t="s">
+        <v>255</v>
+      </c>
+      <c r="D176" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" s="17">
+        <v>0</v>
+      </c>
+      <c r="F176" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G176" s="17">
+        <v>13.9</v>
+      </c>
+      <c r="H176" t="s">
+        <v>86</v>
+      </c>
+      <c r="I176" t="s">
+        <v>135</v>
+      </c>
+      <c r="J176" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>250</v>
+      </c>
+      <c r="B177" t="s">
+        <v>251</v>
+      </c>
+      <c r="C177" t="s">
+        <v>256</v>
+      </c>
+      <c r="D177" t="s">
+        <v>30</v>
+      </c>
+      <c r="E177" s="17">
+        <v>13</v>
+      </c>
+      <c r="F177" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G177" s="17">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="H177" t="s">
+        <v>86</v>
+      </c>
+      <c r="I177" t="s">
+        <v>135</v>
+      </c>
+      <c r="J177" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>250</v>
+      </c>
+      <c r="B178" t="s">
+        <v>251</v>
+      </c>
+      <c r="C178" t="s">
+        <v>257</v>
+      </c>
+      <c r="D178" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178" s="17">
+        <v>0</v>
+      </c>
+      <c r="F178" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G178" s="17">
+        <v>28.5</v>
+      </c>
+      <c r="H178" t="s">
+        <v>86</v>
+      </c>
+      <c r="I178" t="s">
+        <v>135</v>
+      </c>
+      <c r="J178" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>250</v>
+      </c>
+      <c r="B179" t="s">
+        <v>251</v>
+      </c>
+      <c r="C179" t="s">
+        <v>147</v>
+      </c>
+      <c r="D179" t="s">
+        <v>15</v>
+      </c>
+      <c r="E179" s="17">
+        <v>0</v>
+      </c>
+      <c r="F179" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G179" s="17">
+        <v>39.1</v>
+      </c>
+      <c r="H179" t="s">
+        <v>86</v>
+      </c>
+      <c r="I179" t="s">
+        <v>135</v>
+      </c>
+      <c r="J179" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>250</v>
+      </c>
+      <c r="B180" t="s">
+        <v>253</v>
+      </c>
+      <c r="C180" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" t="s">
+        <v>15</v>
+      </c>
+      <c r="E180" s="17">
+        <v>21</v>
+      </c>
+      <c r="F180" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G180" s="17">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="H180" t="s">
+        <v>86</v>
+      </c>
+      <c r="I180" t="s">
+        <v>135</v>
+      </c>
+      <c r="J180" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>250</v>
+      </c>
+      <c r="B181" t="s">
+        <v>253</v>
+      </c>
+      <c r="C181" t="s">
+        <v>143</v>
+      </c>
+      <c r="D181" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" s="17">
+        <v>0</v>
+      </c>
+      <c r="F181" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G181" s="17">
+        <v>18.3</v>
+      </c>
+      <c r="H181" t="s">
+        <v>86</v>
+      </c>
+      <c r="I181" t="s">
+        <v>135</v>
+      </c>
+      <c r="J181" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>250</v>
+      </c>
+      <c r="B182" t="s">
+        <v>253</v>
+      </c>
+      <c r="C182" t="s">
+        <v>256</v>
+      </c>
+      <c r="D182" t="s">
+        <v>30</v>
+      </c>
+      <c r="E182" s="17">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F182" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G182" s="17">
+        <v>50.5</v>
+      </c>
+      <c r="H182" t="s">
+        <v>86</v>
+      </c>
+      <c r="I182" t="s">
+        <v>135</v>
+      </c>
+      <c r="J182" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>250</v>
+      </c>
+      <c r="B183" t="s">
+        <v>253</v>
+      </c>
+      <c r="C183" t="s">
+        <v>258</v>
+      </c>
+      <c r="D183" t="s">
+        <v>15</v>
+      </c>
+      <c r="E183" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="F183" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G183" s="17">
+        <v>23</v>
+      </c>
+      <c r="H183" t="s">
+        <v>86</v>
+      </c>
+      <c r="I183" t="s">
+        <v>135</v>
+      </c>
+      <c r="J183" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>250</v>
+      </c>
+      <c r="B184" t="s">
+        <v>253</v>
+      </c>
+      <c r="C184" t="s">
+        <v>259</v>
+      </c>
+      <c r="D184" t="s">
+        <v>15</v>
+      </c>
+      <c r="E184" s="17">
+        <v>6.1</v>
+      </c>
+      <c r="F184" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G184" s="17">
+        <v>51.5</v>
+      </c>
+      <c r="H184" t="s">
+        <v>86</v>
+      </c>
+      <c r="I184" t="s">
+        <v>135</v>
+      </c>
+      <c r="J184" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>250</v>
+      </c>
+      <c r="B185" t="s">
+        <v>253</v>
+      </c>
+      <c r="C185" t="s">
+        <v>71</v>
+      </c>
+      <c r="D185" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" s="17">
+        <v>12</v>
+      </c>
+      <c r="F185" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G185" s="17">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="H185" t="s">
+        <v>86</v>
+      </c>
+      <c r="I185" t="s">
+        <v>135</v>
+      </c>
+      <c r="J185" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I167" xr:uid="{93B62030-188A-4EBD-91A5-26CC545690A4}"/>
-  <conditionalFormatting sqref="D2:D167">
+  <autoFilter ref="A1:J185" xr:uid="{084F04E2-270D-48CB-A629-AC07DDCD6B7C}"/>
+  <conditionalFormatting sqref="D2:D185">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
@@ -6016,11 +6910,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544F088F-E018-4AF1-A817-C6B9859D0A47}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6041,58 +6935,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="L1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -6103,16 +6997,16 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -6133,16 +7027,16 @@
         <v>5</v>
       </c>
       <c r="N2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" t="s">
         <v>130</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>131</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>132</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -6153,16 +7047,16 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -6183,16 +7077,16 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O3" t="s">
         <v>130</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>131</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>132</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -6203,16 +7097,16 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -6233,16 +7127,16 @@
         <v>5</v>
       </c>
       <c r="N4" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4" t="s">
         <v>130</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>131</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>132</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -6253,16 +7147,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -6283,16 +7177,16 @@
         <v>5</v>
       </c>
       <c r="N5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O5" t="s">
         <v>130</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>131</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>132</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -6303,16 +7197,16 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -6333,16 +7227,16 @@
         <v>5</v>
       </c>
       <c r="N6" t="s">
+        <v>129</v>
+      </c>
+      <c r="O6" t="s">
         <v>130</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>131</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>132</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -6353,16 +7247,16 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -6383,16 +7277,16 @@
         <v>5</v>
       </c>
       <c r="N7" t="s">
+        <v>129</v>
+      </c>
+      <c r="O7" t="s">
         <v>130</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>131</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -6403,16 +7297,16 @@
         <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -6433,16 +7327,16 @@
         <v>5</v>
       </c>
       <c r="N8" t="s">
+        <v>129</v>
+      </c>
+      <c r="O8" t="s">
         <v>130</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>131</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>132</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -6453,16 +7347,16 @@
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -6483,16 +7377,16 @@
         <v>5</v>
       </c>
       <c r="N9" t="s">
+        <v>129</v>
+      </c>
+      <c r="O9" t="s">
         <v>130</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>131</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>132</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -6503,16 +7397,16 @@
         <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -6533,36 +7427,36 @@
         <v>5</v>
       </c>
       <c r="N10" t="s">
+        <v>129</v>
+      </c>
+      <c r="O10" t="s">
         <v>130</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>131</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>132</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -6580,33 +7474,33 @@
         <v>999</v>
       </c>
       <c r="N11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s">
         <v>127</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>128</v>
-      </c>
-      <c r="P11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6621,30 +7515,30 @@
         <v>100</v>
       </c>
       <c r="N12" t="s">
+        <v>149</v>
+      </c>
+      <c r="O12" t="s">
         <v>150</v>
-      </c>
-      <c r="O12" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -6659,30 +7553,30 @@
         <v>100</v>
       </c>
       <c r="N13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s">
         <v>150</v>
-      </c>
-      <c r="O13" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -6697,30 +7591,30 @@
         <v>100</v>
       </c>
       <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
         <v>150</v>
-      </c>
-      <c r="O14" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -6735,30 +7629,30 @@
         <v>100</v>
       </c>
       <c r="N15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" t="s">
         <v>150</v>
-      </c>
-      <c r="O15" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" t="s">
         <v>152</v>
       </c>
-      <c r="B16" t="s">
-        <v>153</v>
-      </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -6782,39 +7676,39 @@
         <v>100</v>
       </c>
       <c r="N16" t="s">
+        <v>129</v>
+      </c>
+      <c r="O16" t="s">
         <v>130</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>131</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>132</v>
       </c>
-      <c r="Q16" t="s">
-        <v>133</v>
-      </c>
       <c r="R16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -6838,39 +7732,39 @@
         <v>100</v>
       </c>
       <c r="N17" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" t="s">
         <v>130</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>131</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" t="s">
-        <v>133</v>
-      </c>
       <c r="R17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -6894,39 +7788,39 @@
         <v>100</v>
       </c>
       <c r="N18" t="s">
+        <v>129</v>
+      </c>
+      <c r="O18" t="s">
         <v>130</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>131</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>132</v>
       </c>
-      <c r="Q18" t="s">
-        <v>133</v>
-      </c>
       <c r="R18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -6950,39 +7844,39 @@
         <v>100</v>
       </c>
       <c r="N19" t="s">
+        <v>129</v>
+      </c>
+      <c r="O19" t="s">
         <v>130</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>131</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>132</v>
       </c>
-      <c r="Q19" t="s">
-        <v>133</v>
-      </c>
       <c r="R19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -7006,39 +7900,39 @@
         <v>100</v>
       </c>
       <c r="N20" t="s">
+        <v>129</v>
+      </c>
+      <c r="O20" t="s">
         <v>130</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>131</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>132</v>
       </c>
-      <c r="Q20" t="s">
-        <v>133</v>
-      </c>
       <c r="R20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21">
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -7062,23 +7956,988 @@
         <v>100</v>
       </c>
       <c r="N21" t="s">
+        <v>129</v>
+      </c>
+      <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>131</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>132</v>
       </c>
-      <c r="Q21" t="s">
-        <v>133</v>
-      </c>
       <c r="R21" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>42</v>
+      </c>
+      <c r="J22">
+        <v>56</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="N22" t="s">
+        <v>243</v>
+      </c>
+      <c r="O22" t="s">
+        <v>242</v>
+      </c>
+      <c r="P22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>49</v>
+      </c>
+      <c r="J23">
+        <v>63</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="N23" t="s">
+        <v>243</v>
+      </c>
+      <c r="O23" t="s">
+        <v>242</v>
+      </c>
+      <c r="P23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>49</v>
+      </c>
+      <c r="J24">
+        <v>62</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+      <c r="N24" t="s">
+        <v>243</v>
+      </c>
+      <c r="O24" t="s">
+        <v>242</v>
+      </c>
+      <c r="P24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>42</v>
+      </c>
+      <c r="J25">
+        <v>56</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+      <c r="N25" t="s">
+        <v>243</v>
+      </c>
+      <c r="O25" t="s">
+        <v>242</v>
+      </c>
+      <c r="P25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>36</v>
+      </c>
+      <c r="J26">
+        <v>50</v>
+      </c>
+      <c r="K26">
+        <v>100</v>
+      </c>
+      <c r="N26" t="s">
+        <v>243</v>
+      </c>
+      <c r="O26" t="s">
+        <v>242</v>
+      </c>
+      <c r="P26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" t="s">
+        <v>240</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>38</v>
+      </c>
+      <c r="J27">
+        <v>52</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="N27" t="s">
+        <v>243</v>
+      </c>
+      <c r="O27" t="s">
+        <v>242</v>
+      </c>
+      <c r="P27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>34</v>
+      </c>
+      <c r="J28">
+        <v>48</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="N28" t="s">
+        <v>243</v>
+      </c>
+      <c r="O28" t="s">
+        <v>242</v>
+      </c>
+      <c r="P28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>45</v>
+      </c>
+      <c r="J29">
+        <v>59</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="N29" t="s">
+        <v>243</v>
+      </c>
+      <c r="O29" t="s">
+        <v>242</v>
+      </c>
+      <c r="P29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>40</v>
+      </c>
+      <c r="J30">
+        <v>53</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="N30" t="s">
+        <v>243</v>
+      </c>
+      <c r="O30" t="s">
+        <v>242</v>
+      </c>
+      <c r="P30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" t="s">
+        <v>240</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
+      <c r="N31" t="s">
+        <v>243</v>
+      </c>
+      <c r="O31" t="s">
+        <v>242</v>
+      </c>
+      <c r="P31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>250</v>
+      </c>
+      <c r="B32" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>20.7</v>
+      </c>
+      <c r="I32">
+        <v>30.7</v>
+      </c>
+      <c r="J32">
+        <v>45.1</v>
+      </c>
+      <c r="K32">
+        <v>61.9</v>
+      </c>
+      <c r="L32">
+        <v>73</v>
+      </c>
+      <c r="N32" t="s">
+        <v>129</v>
+      </c>
+      <c r="O32" t="s">
+        <v>130</v>
+      </c>
+      <c r="P32" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>132</v>
+      </c>
+      <c r="R32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>250</v>
+      </c>
+      <c r="B33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" t="s">
+        <v>252</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>22.3</v>
+      </c>
+      <c r="I33">
+        <v>34.5</v>
+      </c>
+      <c r="J33">
+        <v>45.5</v>
+      </c>
+      <c r="K33">
+        <v>60</v>
+      </c>
+      <c r="L33">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="N33" t="s">
+        <v>129</v>
+      </c>
+      <c r="O33" t="s">
+        <v>130</v>
+      </c>
+      <c r="P33" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>132</v>
+      </c>
+      <c r="R33" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R21" xr:uid="{7FDDCD90-E9AF-4CC8-BB74-04964D99DE13}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C585955D-F8EC-44CD-8D5F-F1548D104D16}">
+  <dimension ref="A3:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11763AB-DE5A-4277-BE65-88CD3BDAAE84}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7318BEE-DA3B-4A52-8C73-DF90A2D9F92B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F7318BEE-DA3B-4A52-8C73-DF90A2D9F92B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{45F78BFE-BB8B-4341-ADE3-437543890E64}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="28935" windowWidth="14355" windowHeight="9780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="29535" windowWidth="14355" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -1494,8 +1494,8 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>43609</v>
+        <v>43643</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1714,7 +1714,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C188" sqref="C188"/>
     </sheetView>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F7318BEE-DA3B-4A52-8C73-DF90A2D9F92B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{45F78BFE-BB8B-4341-ADE3-437543890E64}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{F7318BEE-DA3B-4A52-8C73-DF90A2D9F92B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{341A053E-7B51-4D7D-A1D9-47C33365E478}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="29535" windowWidth="14355" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="36135" windowWidth="14355" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="293">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -892,6 +892,63 @@
   </si>
   <si>
     <t>Scoring_Formula</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>79.9</t>
+  </si>
+  <si>
+    <t>38.8</t>
+  </si>
+  <si>
+    <t>36.8</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>16.15</t>
+  </si>
+  <si>
+    <t>8.55</t>
+  </si>
+  <si>
+    <t>76.9</t>
+  </si>
+  <si>
+    <t>73.9</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>37.2</t>
+  </si>
+  <si>
+    <t>Update some thresholds in metric.scoring to text valus (prefix with single apostrophe) due to floating point precision errors when importing into R.</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1134,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -1106,6 +1163,7 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -1492,10 +1550,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,7 +1590,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\[MetricScoring.xlsx]</v>
+        <v>https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/[MetricScoring.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1684,6 +1742,11 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -1715,8 +1778,8 @@
   <dimension ref="A1:J185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C188" sqref="C188"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2915,8 +2978,8 @@
       <c r="F41" t="s">
         <v>84</v>
       </c>
-      <c r="G41">
-        <v>2.2400000000000002</v>
+      <c r="G41" s="18" t="s">
+        <v>278</v>
       </c>
       <c r="H41" t="s">
         <v>85</v>
@@ -3616,8 +3679,8 @@
       <c r="D66" t="s">
         <v>15</v>
       </c>
-      <c r="E66">
-        <v>2.0499999999999998</v>
+      <c r="E66" s="18" t="s">
+        <v>279</v>
       </c>
       <c r="F66" t="s">
         <v>84</v>
@@ -4122,8 +4185,8 @@
       <c r="F85" t="s">
         <v>84</v>
       </c>
-      <c r="G85">
-        <v>76.900000000000006</v>
+      <c r="G85" s="18" t="s">
+        <v>286</v>
       </c>
       <c r="H85" t="s">
         <v>86</v>
@@ -4148,8 +4211,8 @@
       <c r="F86" t="s">
         <v>84</v>
       </c>
-      <c r="G86">
-        <v>73.900000000000006</v>
+      <c r="G86" s="18" t="s">
+        <v>287</v>
       </c>
       <c r="H86" t="s">
         <v>86</v>
@@ -4512,8 +4575,8 @@
       <c r="F100" t="s">
         <v>84</v>
       </c>
-      <c r="G100">
-        <v>5.0999999999999996</v>
+      <c r="G100" s="18" t="s">
+        <v>280</v>
       </c>
       <c r="H100" t="s">
         <v>86</v>
@@ -4642,8 +4705,8 @@
       <c r="F105" t="s">
         <v>84</v>
       </c>
-      <c r="G105">
-        <v>8.3000000000000007</v>
+      <c r="G105" s="18" t="s">
+        <v>281</v>
       </c>
       <c r="H105" t="s">
         <v>86</v>
@@ -4899,8 +4962,8 @@
       <c r="D115" t="s">
         <v>15</v>
       </c>
-      <c r="E115">
-        <v>2.0099999999999998</v>
+      <c r="E115" s="18" t="s">
+        <v>288</v>
       </c>
       <c r="F115" t="s">
         <v>84</v>
@@ -4957,8 +5020,8 @@
       <c r="D117" t="s">
         <v>30</v>
       </c>
-      <c r="E117">
-        <v>1.1000000000000001</v>
+      <c r="E117" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="F117" t="s">
         <v>84</v>
@@ -4986,8 +5049,8 @@
       <c r="D118" t="s">
         <v>15</v>
       </c>
-      <c r="E118">
-        <v>1.1599999999999999</v>
+      <c r="E118" s="18" t="s">
+        <v>290</v>
       </c>
       <c r="F118" t="s">
         <v>84</v>
@@ -5015,8 +5078,8 @@
       <c r="D119" t="s">
         <v>30</v>
       </c>
-      <c r="E119">
-        <v>37.200000000000003</v>
+      <c r="E119" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="F119" t="s">
         <v>84</v>
@@ -5319,8 +5382,8 @@
       <c r="F130" t="s">
         <v>84</v>
       </c>
-      <c r="G130">
-        <v>35.299999999999997</v>
+      <c r="G130" s="18" t="s">
+        <v>282</v>
       </c>
       <c r="H130" t="s">
         <v>170</v>
@@ -6019,8 +6082,8 @@
       <c r="F156" t="s">
         <v>84</v>
       </c>
-      <c r="G156">
-        <v>8.8000000000000007</v>
+      <c r="G156" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="H156" t="s">
         <v>86</v>
@@ -6077,8 +6140,8 @@
       <c r="F158" t="s">
         <v>84</v>
       </c>
-      <c r="G158">
-        <v>16.149999999999999</v>
+      <c r="G158" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="H158" t="s">
         <v>86</v>
@@ -6135,8 +6198,8 @@
       <c r="F160" t="s">
         <v>84</v>
       </c>
-      <c r="G160">
-        <v>8.8000000000000007</v>
+      <c r="G160" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="H160" t="s">
         <v>86</v>
@@ -6338,8 +6401,8 @@
       <c r="F167" t="s">
         <v>84</v>
       </c>
-      <c r="G167">
-        <v>8.5500000000000007</v>
+      <c r="G167" s="18" t="s">
+        <v>285</v>
       </c>
       <c r="H167" t="s">
         <v>86</v>
@@ -6530,7 +6593,7 @@
         <v>84</v>
       </c>
       <c r="G174">
-        <v>34.899999999999977</v>
+        <v>34.9</v>
       </c>
       <c r="H174" t="s">
         <v>86</v>
@@ -6587,13 +6650,13 @@
       <c r="D176" t="s">
         <v>15</v>
       </c>
-      <c r="E176" s="17">
+      <c r="E176">
         <v>0</v>
       </c>
       <c r="F176" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G176" s="17">
+      <c r="G176">
         <v>13.9</v>
       </c>
       <c r="H176" t="s">
@@ -6619,14 +6682,14 @@
       <c r="D177" t="s">
         <v>30</v>
       </c>
-      <c r="E177" s="17">
+      <c r="E177">
         <v>13</v>
       </c>
       <c r="F177" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G177" s="17">
-        <v>79.900000000000006</v>
+      <c r="G177" s="18" t="s">
+        <v>275</v>
       </c>
       <c r="H177" t="s">
         <v>86</v>
@@ -6651,13 +6714,13 @@
       <c r="D178" t="s">
         <v>15</v>
       </c>
-      <c r="E178" s="17">
+      <c r="E178">
         <v>0</v>
       </c>
       <c r="F178" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G178" s="17">
+      <c r="G178">
         <v>28.5</v>
       </c>
       <c r="H178" t="s">
@@ -6683,13 +6746,13 @@
       <c r="D179" t="s">
         <v>15</v>
       </c>
-      <c r="E179" s="17">
+      <c r="E179">
         <v>0</v>
       </c>
       <c r="F179" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G179" s="17">
+      <c r="G179">
         <v>39.1</v>
       </c>
       <c r="H179" t="s">
@@ -6715,14 +6778,14 @@
       <c r="D180" t="s">
         <v>15</v>
       </c>
-      <c r="E180" s="17">
+      <c r="E180">
         <v>21</v>
       </c>
       <c r="F180" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G180" s="17">
-        <v>38.799999999999997</v>
+      <c r="G180" s="18" t="s">
+        <v>276</v>
       </c>
       <c r="H180" t="s">
         <v>86</v>
@@ -6747,13 +6810,13 @@
       <c r="D181" t="s">
         <v>15</v>
       </c>
-      <c r="E181" s="17">
+      <c r="E181">
         <v>0</v>
       </c>
       <c r="F181" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G181" s="17">
+      <c r="G181">
         <v>18.3</v>
       </c>
       <c r="H181" t="s">
@@ -6779,13 +6842,13 @@
       <c r="D182" t="s">
         <v>30</v>
       </c>
-      <c r="E182" s="17">
-        <v>9.8000000000000007</v>
+      <c r="E182" s="18" t="s">
+        <v>274</v>
       </c>
       <c r="F182" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G182" s="17">
+      <c r="G182">
         <v>50.5</v>
       </c>
       <c r="H182" t="s">
@@ -6811,13 +6874,13 @@
       <c r="D183" t="s">
         <v>15</v>
       </c>
-      <c r="E183" s="17">
+      <c r="E183">
         <v>1.2</v>
       </c>
       <c r="F183" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G183" s="17">
+      <c r="G183">
         <v>23</v>
       </c>
       <c r="H183" t="s">
@@ -6843,13 +6906,13 @@
       <c r="D184" t="s">
         <v>15</v>
       </c>
-      <c r="E184" s="17">
+      <c r="E184">
         <v>6.1</v>
       </c>
       <c r="F184" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G184" s="17">
+      <c r="G184">
         <v>51.5</v>
       </c>
       <c r="H184" t="s">
@@ -6875,14 +6938,14 @@
       <c r="D185" t="s">
         <v>15</v>
       </c>
-      <c r="E185" s="17">
+      <c r="E185">
         <v>12</v>
       </c>
       <c r="F185" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G185" s="17">
-        <v>36.799999999999997</v>
+      <c r="G185" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="H185" t="s">
         <v>86</v>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{F7318BEE-DA3B-4A52-8C73-DF90A2D9F92B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{341A053E-7B51-4D7D-A1D9-47C33365E478}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{F7318BEE-DA3B-4A52-8C73-DF90A2D9F92B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{23C8CC7F-42B0-4709-B44E-58E6BD9BC835}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="36135" windowWidth="14355" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="38535" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="References" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">index.scoring!$A$1:$R$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">index.scoring!$A$1:$T$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$J$185</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="296">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -837,9 +837,6 @@
     <t>pt_EPT</t>
   </si>
   <si>
-    <t>pi_Ephem NoCaeBae</t>
-  </si>
-  <si>
     <t>pi_ffg_filt</t>
   </si>
   <si>
@@ -949,6 +946,18 @@
   </si>
   <si>
     <t>Update some thresholds in metric.scoring to text valus (prefix with single apostrophe) due to floating point precision errors when importing into R.</t>
+  </si>
+  <si>
+    <t>pi_EphemNoCaeBae</t>
+  </si>
+  <si>
+    <t>Thresh07</t>
+  </si>
+  <si>
+    <t>Nar06</t>
+  </si>
+  <si>
+    <t>Exceptional</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1561,7 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -1741,12 +1750,12 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -1778,15 +1787,15 @@
   <dimension ref="A1:J185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E120" sqref="E120"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
@@ -1825,7 +1834,7 @@
         <v>118</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2979,7 +2988,7 @@
         <v>84</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H41" t="s">
         <v>85</v>
@@ -3680,7 +3689,7 @@
         <v>15</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F66" t="s">
         <v>84</v>
@@ -4186,7 +4195,7 @@
         <v>84</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H85" t="s">
         <v>86</v>
@@ -4212,7 +4221,7 @@
         <v>84</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H86" t="s">
         <v>86</v>
@@ -4576,7 +4585,7 @@
         <v>84</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H100" t="s">
         <v>86</v>
@@ -4706,7 +4715,7 @@
         <v>84</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H105" t="s">
         <v>86</v>
@@ -4963,7 +4972,7 @@
         <v>15</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F115" t="s">
         <v>84</v>
@@ -5021,7 +5030,7 @@
         <v>30</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F117" t="s">
         <v>84</v>
@@ -5050,7 +5059,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F118" t="s">
         <v>84</v>
@@ -5079,7 +5088,7 @@
         <v>30</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F119" t="s">
         <v>84</v>
@@ -5383,7 +5392,7 @@
         <v>84</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H130" t="s">
         <v>170</v>
@@ -6083,7 +6092,7 @@
         <v>84</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H156" t="s">
         <v>86</v>
@@ -6141,7 +6150,7 @@
         <v>84</v>
       </c>
       <c r="G158" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H158" t="s">
         <v>86</v>
@@ -6199,7 +6208,7 @@
         <v>84</v>
       </c>
       <c r="G160" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H160" t="s">
         <v>86</v>
@@ -6402,7 +6411,7 @@
         <v>84</v>
       </c>
       <c r="G167" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H167" t="s">
         <v>86</v>
@@ -6602,7 +6611,7 @@
         <v>135</v>
       </c>
       <c r="J174" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -6634,7 +6643,7 @@
         <v>135</v>
       </c>
       <c r="J175" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -6645,7 +6654,7 @@
         <v>251</v>
       </c>
       <c r="C176" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="D176" t="s">
         <v>15</v>
@@ -6666,7 +6675,7 @@
         <v>135</v>
       </c>
       <c r="J176" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -6677,7 +6686,7 @@
         <v>251</v>
       </c>
       <c r="C177" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D177" t="s">
         <v>30</v>
@@ -6689,7 +6698,7 @@
         <v>84</v>
       </c>
       <c r="G177" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H177" t="s">
         <v>86</v>
@@ -6698,7 +6707,7 @@
         <v>135</v>
       </c>
       <c r="J177" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -6709,7 +6718,7 @@
         <v>251</v>
       </c>
       <c r="C178" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D178" t="s">
         <v>15</v>
@@ -6730,7 +6739,7 @@
         <v>135</v>
       </c>
       <c r="J178" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -6762,7 +6771,7 @@
         <v>135</v>
       </c>
       <c r="J179" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -6785,7 +6794,7 @@
         <v>84</v>
       </c>
       <c r="G180" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H180" t="s">
         <v>86</v>
@@ -6794,7 +6803,7 @@
         <v>135</v>
       </c>
       <c r="J180" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -6826,7 +6835,7 @@
         <v>135</v>
       </c>
       <c r="J181" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -6837,13 +6846,13 @@
         <v>253</v>
       </c>
       <c r="C182" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D182" t="s">
         <v>30</v>
       </c>
       <c r="E182" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F182" s="17" t="s">
         <v>84</v>
@@ -6858,7 +6867,7 @@
         <v>135</v>
       </c>
       <c r="J182" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -6869,7 +6878,7 @@
         <v>253</v>
       </c>
       <c r="C183" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D183" t="s">
         <v>15</v>
@@ -6890,7 +6899,7 @@
         <v>135</v>
       </c>
       <c r="J183" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -6901,7 +6910,7 @@
         <v>253</v>
       </c>
       <c r="C184" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D184" t="s">
         <v>15</v>
@@ -6922,7 +6931,7 @@
         <v>135</v>
       </c>
       <c r="J184" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -6945,7 +6954,7 @@
         <v>84</v>
       </c>
       <c r="G185" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H185" t="s">
         <v>86</v>
@@ -6954,7 +6963,7 @@
         <v>135</v>
       </c>
       <c r="J185" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -6973,16 +6982,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544F088F-E018-4AF1-A817-C6B9859D0A47}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -6990,13 +6999,13 @@
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>102</v>
       </c>
@@ -7037,22 +7046,28 @@
         <v>134</v>
       </c>
       <c r="N1" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -7089,20 +7104,20 @@
       <c r="L2">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>129</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>130</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>131</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -7139,20 +7154,20 @@
       <c r="L3">
         <v>5</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>129</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>130</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -7189,20 +7204,20 @@
       <c r="L4">
         <v>5</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>129</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>130</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>131</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -7239,20 +7254,20 @@
       <c r="L5">
         <v>5</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>129</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>130</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>131</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -7289,20 +7304,20 @@
       <c r="L6">
         <v>5</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>129</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>130</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>131</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -7339,20 +7354,20 @@
       <c r="L7">
         <v>5</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>129</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>130</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>131</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -7389,20 +7404,20 @@
       <c r="L8">
         <v>5</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>129</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>130</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>131</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -7439,20 +7454,20 @@
       <c r="L9">
         <v>5</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>129</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>130</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>131</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -7489,20 +7504,20 @@
       <c r="L10">
         <v>5</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>129</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>130</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>131</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -7536,17 +7551,17 @@
       <c r="K11">
         <v>999</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>126</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>127</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>139</v>
       </c>
@@ -7577,14 +7592,14 @@
       <c r="J12">
         <v>100</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>149</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>139</v>
       </c>
@@ -7615,14 +7630,14 @@
       <c r="J13">
         <v>100</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>149</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>139</v>
       </c>
@@ -7653,14 +7668,14 @@
       <c r="J14">
         <v>100</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>149</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -7691,14 +7706,14 @@
       <c r="J15">
         <v>100</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>149</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -7738,23 +7753,23 @@
       <c r="M16">
         <v>100</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>129</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>130</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>131</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>132</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>151</v>
       </c>
@@ -7794,23 +7809,23 @@
       <c r="M17">
         <v>100</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>129</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>130</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>131</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>132</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -7850,23 +7865,23 @@
       <c r="M18">
         <v>100</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>129</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>130</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>131</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>132</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>196</v>
       </c>
@@ -7906,23 +7921,23 @@
       <c r="M19">
         <v>100</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>129</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>130</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>131</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>132</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>196</v>
       </c>
@@ -7962,23 +7977,23 @@
       <c r="M20">
         <v>100</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>130</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>131</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>132</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>196</v>
       </c>
@@ -8018,23 +8033,23 @@
       <c r="M21">
         <v>100</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>129</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>130</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>131</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>132</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -8068,17 +8083,17 @@
       <c r="K22">
         <v>100</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>243</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>242</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -8112,17 +8127,17 @@
       <c r="K23">
         <v>100</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>243</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>242</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -8156,17 +8171,17 @@
       <c r="K24">
         <v>100</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>243</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>242</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -8200,17 +8215,17 @@
       <c r="K25">
         <v>100</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>243</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>242</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -8244,17 +8259,17 @@
       <c r="K26">
         <v>100</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>243</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>242</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -8288,17 +8303,17 @@
       <c r="K27">
         <v>100</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>243</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>242</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -8332,17 +8347,17 @@
       <c r="K28">
         <v>100</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>243</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>242</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -8376,17 +8391,17 @@
       <c r="K29">
         <v>100</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>243</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>242</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -8420,17 +8435,17 @@
       <c r="K30">
         <v>100</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>243</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>242</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -8458,17 +8473,17 @@
       <c r="K31">
         <v>100</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>243</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>242</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>250</v>
       </c>
@@ -8488,40 +8503,49 @@
         <v>252</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>20.7</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>30.7</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>45.1</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>61.9</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>73</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32">
+        <v>100</v>
+      </c>
+      <c r="O32" t="s">
         <v>129</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>130</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>131</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>132</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>250</v>
       </c>
@@ -8541,41 +8565,50 @@
         <v>252</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>22.3</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>34.5</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>45.5</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>60</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>70.400000000000006</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33">
+        <v>100</v>
+      </c>
+      <c r="O33" t="s">
         <v>129</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>130</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>131</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>132</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>156</v>
       </c>
+      <c r="T33" t="s">
+        <v>295</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R21" xr:uid="{7FDDCD90-E9AF-4CC8-BB74-04964D99DE13}"/>
+  <autoFilter ref="A1:T33" xr:uid="{EA20F786-EA28-4D79-ADE3-15AA3BC6D671}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{F7318BEE-DA3B-4A52-8C73-DF90A2D9F92B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{23C8CC7F-42B0-4709-B44E-58E6BD9BC835}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{F7318BEE-DA3B-4A52-8C73-DF90A2D9F92B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A4069EB8-3AAB-4581-8E9E-8D20393F2FB4}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="38535" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="39735" windowWidth="14355" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="298">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -876,12 +876,6 @@
     <t>100*(50.5-metric)/ 40.7</t>
   </si>
   <si>
-    <t>100*(metric-1.17)/ 21.8</t>
-  </si>
-  <si>
-    <t>100*(metric-6.09)/ 45.4</t>
-  </si>
-  <si>
     <t>100*(metric-12)/ 24.8</t>
   </si>
   <si>
@@ -958,6 +952,18 @@
   </si>
   <si>
     <t>Exceptional</t>
+  </si>
+  <si>
+    <t>100*(metric-1.2)/ 21.8</t>
+  </si>
+  <si>
+    <t>100*(metric-6.1)/ 45.4</t>
+  </si>
+  <si>
+    <t>Modify scoring formula for rounded values for thresholds.</t>
+  </si>
+  <si>
+    <t>metric.scoring!J183:J184</t>
   </si>
 </sst>
 </file>
@@ -1559,10 +1565,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,7 +1596,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>43643</v>
+        <v>43648</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1599,7 +1605,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/[MetricScoring.xlsx]</v>
+        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\[MetricScoring.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1755,7 +1761,20 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>291</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>43648</v>
+      </c>
+      <c r="B30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -1788,7 +1807,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I176" sqref="I176"/>
+      <selection pane="bottomLeft" activeCell="J183" sqref="J183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,7 +1853,7 @@
         <v>118</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2988,7 +3007,7 @@
         <v>84</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H41" t="s">
         <v>85</v>
@@ -3689,7 +3708,7 @@
         <v>15</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F66" t="s">
         <v>84</v>
@@ -4195,7 +4214,7 @@
         <v>84</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H85" t="s">
         <v>86</v>
@@ -4221,7 +4240,7 @@
         <v>84</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H86" t="s">
         <v>86</v>
@@ -4585,7 +4604,7 @@
         <v>84</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H100" t="s">
         <v>86</v>
@@ -4715,7 +4734,7 @@
         <v>84</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H105" t="s">
         <v>86</v>
@@ -4972,7 +4991,7 @@
         <v>15</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F115" t="s">
         <v>84</v>
@@ -5030,7 +5049,7 @@
         <v>30</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F117" t="s">
         <v>84</v>
@@ -5059,7 +5078,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F118" t="s">
         <v>84</v>
@@ -5088,7 +5107,7 @@
         <v>30</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F119" t="s">
         <v>84</v>
@@ -5392,7 +5411,7 @@
         <v>84</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H130" t="s">
         <v>170</v>
@@ -6092,7 +6111,7 @@
         <v>84</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H156" t="s">
         <v>86</v>
@@ -6150,7 +6169,7 @@
         <v>84</v>
       </c>
       <c r="G158" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H158" t="s">
         <v>86</v>
@@ -6208,7 +6227,7 @@
         <v>84</v>
       </c>
       <c r="G160" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H160" t="s">
         <v>86</v>
@@ -6411,7 +6430,7 @@
         <v>84</v>
       </c>
       <c r="G167" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H167" t="s">
         <v>86</v>
@@ -6654,7 +6673,7 @@
         <v>251</v>
       </c>
       <c r="C176" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D176" t="s">
         <v>15</v>
@@ -6698,7 +6717,7 @@
         <v>84</v>
       </c>
       <c r="G177" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H177" t="s">
         <v>86</v>
@@ -6707,7 +6726,7 @@
         <v>135</v>
       </c>
       <c r="J177" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -6794,7 +6813,7 @@
         <v>84</v>
       </c>
       <c r="G180" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H180" t="s">
         <v>86</v>
@@ -6852,7 +6871,7 @@
         <v>30</v>
       </c>
       <c r="E182" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F182" s="17" t="s">
         <v>84</v>
@@ -6899,7 +6918,7 @@
         <v>135</v>
       </c>
       <c r="J183" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -6931,7 +6950,7 @@
         <v>135</v>
       </c>
       <c r="J184" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -6954,7 +6973,7 @@
         <v>84</v>
       </c>
       <c r="G185" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H185" t="s">
         <v>86</v>
@@ -6963,7 +6982,7 @@
         <v>135</v>
       </c>
       <c r="J185" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -6984,7 +7003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544F088F-E018-4AF1-A817-C6B9859D0A47}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
@@ -7046,7 +7065,7 @@
         <v>134</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O1" s="13" t="s">
         <v>121</v>
@@ -7064,7 +7083,7 @@
         <v>125</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -8542,7 +8561,7 @@
         <v>156</v>
       </c>
       <c r="T32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -8604,7 +8623,7 @@
         <v>156</v>
       </c>
       <c r="T33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{F7318BEE-DA3B-4A52-8C73-DF90A2D9F92B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A4069EB8-3AAB-4581-8E9E-8D20393F2FB4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FAAC010-2B93-4AA9-8808-C9F433101C9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="39735" windowWidth="14355" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -1567,7 +1567,7 @@
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1805,7 +1805,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J183" sqref="J183"/>
     </sheetView>
@@ -9055,4 +9055,286 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100557C7523FAC84E43A0DA62C173857381" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4b9ddb1302998b61081aed2913076a6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" xmlns:ns4="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3079d22dc9190cbddbf9f4c007b8016d" ns3:_="" ns4:_="">
+    <xsd:import namespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <xsd:import namespace="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:description="" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{538BC5C1-5251-4096-9242-7545F23852DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9A9DEE8-921E-49C9-B9D1-E95B72C665E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66FCD9A3-9E2B-4C3C-9127-D9BA5F078235}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\Desktop\BioMonTools_Updatea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FAAC010-2B93-4AA9-8808-C9F433101C9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B20239-5DF5-4F86-9C5B-094065B25A80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="40935" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">index.scoring!$A$1:$T$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$J$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$J$202</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="326">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -964,6 +964,90 @@
   </si>
   <si>
     <t>metric.scoring!J183:J184</t>
+  </si>
+  <si>
+    <t>GBI_2011</t>
+  </si>
+  <si>
+    <t>Gulf of Mexico Index</t>
+  </si>
+  <si>
+    <t>GBI_MS_2013</t>
+  </si>
+  <si>
+    <t>Mississippi specific GBI</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>HS-xF</t>
+  </si>
+  <si>
+    <t>HS-SF</t>
+  </si>
+  <si>
+    <t>HiSal-HiSC</t>
+  </si>
+  <si>
+    <t>HiSal-LoSC</t>
+  </si>
+  <si>
+    <t>LoSal-HiSC</t>
+  </si>
+  <si>
+    <t>LoSal-LoSC</t>
+  </si>
+  <si>
+    <t>GBI-MS</t>
+  </si>
+  <si>
+    <t>pi_Capit</t>
+  </si>
+  <si>
+    <t>pi_toler_ISA_SalHi_xFL</t>
+  </si>
+  <si>
+    <t>pi_intol_ISA_SalHi_xFL</t>
+  </si>
+  <si>
+    <t>pt_Amph</t>
+  </si>
+  <si>
+    <t>pt_intol_ISA_SalHi_xFL</t>
+  </si>
+  <si>
+    <t>ni_total</t>
+  </si>
+  <si>
+    <t>nt_PolyNoSpio</t>
+  </si>
+  <si>
+    <t>pi_Spion</t>
+  </si>
+  <si>
+    <t>nt_ffg_infc</t>
+  </si>
+  <si>
+    <t>pi_Clite</t>
+  </si>
+  <si>
+    <t>pi_Crus</t>
+  </si>
+  <si>
+    <t>pi_ffg_scbrw</t>
+  </si>
+  <si>
+    <t>pt_Poly</t>
+  </si>
+  <si>
+    <t>pt_Decap</t>
+  </si>
+  <si>
+    <t>nt_ffg_subsrf</t>
+  </si>
+  <si>
+    <t>Added GBI_MS_2013 scoring.</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1274,77 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1233,7 +1387,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="9">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1565,10 +1719,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,7 +1759,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\[MetricScoring.xlsx]</v>
+        <v>C:\Users\Erik.Leppo\Desktop\BioMonTools_Updatea\[MetricScoring.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1775,6 +1929,14 @@
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>43753</v>
+      </c>
+      <c r="B32" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -1803,18 +1965,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A70181-B22C-4671-9C22-4B8DA5FE66AB}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J185"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J183" sqref="J183"/>
+      <selection pane="bottomLeft" activeCell="K186" sqref="K186:K202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
@@ -6985,14 +7147,558 @@
         <v>268</v>
       </c>
     </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>300</v>
+      </c>
+      <c r="B186" t="s">
+        <v>305</v>
+      </c>
+      <c r="C186" t="s">
+        <v>310</v>
+      </c>
+      <c r="D186" t="s">
+        <v>30</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G186">
+        <v>57.49</v>
+      </c>
+      <c r="I186" t="s">
+        <v>135</v>
+      </c>
+      <c r="J186" t="str">
+        <f t="shared" ref="J186:J202" si="0">IF(D186="Increase","100*("&amp;G186&amp;"-metric)/"&amp;G186-E186,IF(D186="Decrease","100*(metric-"&amp;E186&amp;")/"&amp;G186-E186,"NA"))</f>
+        <v>100*(57.49-metric)/57.49</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>300</v>
+      </c>
+      <c r="B187" t="s">
+        <v>305</v>
+      </c>
+      <c r="C187" t="s">
+        <v>311</v>
+      </c>
+      <c r="D187" t="s">
+        <v>30</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G187">
+        <v>19.5</v>
+      </c>
+      <c r="I187" t="s">
+        <v>135</v>
+      </c>
+      <c r="J187" t="str">
+        <f t="shared" si="0"/>
+        <v>100*(19.5-metric)/19.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>300</v>
+      </c>
+      <c r="B188" t="s">
+        <v>305</v>
+      </c>
+      <c r="C188" t="s">
+        <v>312</v>
+      </c>
+      <c r="D188" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G188">
+        <v>26.6</v>
+      </c>
+      <c r="I188" t="s">
+        <v>135</v>
+      </c>
+      <c r="J188" t="str">
+        <f t="shared" si="0"/>
+        <v>100*(metric-0)/26.6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>300</v>
+      </c>
+      <c r="B189" t="s">
+        <v>306</v>
+      </c>
+      <c r="C189" t="s">
+        <v>310</v>
+      </c>
+      <c r="D189" t="s">
+        <v>15</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G189">
+        <v>58.6</v>
+      </c>
+      <c r="I189" t="s">
+        <v>135</v>
+      </c>
+      <c r="J189" t="str">
+        <f t="shared" si="0"/>
+        <v>100*(metric-0)/58.6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>300</v>
+      </c>
+      <c r="B190" t="s">
+        <v>306</v>
+      </c>
+      <c r="C190" t="s">
+        <v>313</v>
+      </c>
+      <c r="D190" t="s">
+        <v>15</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G190">
+        <v>16.7</v>
+      </c>
+      <c r="I190" t="s">
+        <v>135</v>
+      </c>
+      <c r="J190" t="str">
+        <f t="shared" si="0"/>
+        <v>100*(metric-0)/16.7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>300</v>
+      </c>
+      <c r="B191" t="s">
+        <v>306</v>
+      </c>
+      <c r="C191" t="s">
+        <v>323</v>
+      </c>
+      <c r="D191" t="s">
+        <v>15</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G191">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I191" t="s">
+        <v>135</v>
+      </c>
+      <c r="J191" t="str">
+        <f t="shared" si="0"/>
+        <v>100*(metric-0)/17.1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>300</v>
+      </c>
+      <c r="B192" t="s">
+        <v>306</v>
+      </c>
+      <c r="C192" t="s">
+        <v>324</v>
+      </c>
+      <c r="D192" t="s">
+        <v>15</v>
+      </c>
+      <c r="E192">
+        <v>0.35</v>
+      </c>
+      <c r="F192" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G192">
+        <f>4.65+E192</f>
+        <v>5</v>
+      </c>
+      <c r="I192" t="s">
+        <v>135</v>
+      </c>
+      <c r="J192" t="str">
+        <f t="shared" si="0"/>
+        <v>100*(metric-0.35)/4.65</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>300</v>
+      </c>
+      <c r="B193" t="s">
+        <v>306</v>
+      </c>
+      <c r="C193" t="s">
+        <v>314</v>
+      </c>
+      <c r="D193" t="s">
+        <v>15</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G193">
+        <v>33</v>
+      </c>
+      <c r="I193" t="s">
+        <v>135</v>
+      </c>
+      <c r="J193" t="str">
+        <f t="shared" si="0"/>
+        <v>100*(metric-0)/33</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>300</v>
+      </c>
+      <c r="B194" t="s">
+        <v>307</v>
+      </c>
+      <c r="C194" t="s">
+        <v>315</v>
+      </c>
+      <c r="D194" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194">
+        <v>10</v>
+      </c>
+      <c r="F194" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G194">
+        <f>190+E194</f>
+        <v>200</v>
+      </c>
+      <c r="I194" t="s">
+        <v>135</v>
+      </c>
+      <c r="J194" t="str">
+        <f t="shared" si="0"/>
+        <v>100*(metric-10)/190</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>300</v>
+      </c>
+      <c r="B195" t="s">
+        <v>307</v>
+      </c>
+      <c r="C195" t="s">
+        <v>316</v>
+      </c>
+      <c r="D195" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G195">
+        <f>6.1+E195</f>
+        <v>7.1</v>
+      </c>
+      <c r="I195" t="s">
+        <v>135</v>
+      </c>
+      <c r="J195" t="str">
+        <f t="shared" si="0"/>
+        <v>100*(metric-1)/6.1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>300</v>
+      </c>
+      <c r="B196" t="s">
+        <v>307</v>
+      </c>
+      <c r="C196" t="s">
+        <v>317</v>
+      </c>
+      <c r="D196" t="s">
+        <v>15</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G196">
+        <v>51.2</v>
+      </c>
+      <c r="I196" t="s">
+        <v>135</v>
+      </c>
+      <c r="J196" t="str">
+        <f t="shared" si="0"/>
+        <v>100*(metric-0)/51.2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>300</v>
+      </c>
+      <c r="B197" t="s">
+        <v>307</v>
+      </c>
+      <c r="C197" t="s">
+        <v>318</v>
+      </c>
+      <c r="D197" t="s">
+        <v>15</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G197">
+        <f>+E197+7</f>
+        <v>8</v>
+      </c>
+      <c r="I197" t="s">
+        <v>135</v>
+      </c>
+      <c r="J197" t="str">
+        <f t="shared" si="0"/>
+        <v>100*(metric-1)/7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>300</v>
+      </c>
+      <c r="B198" t="s">
+        <v>308</v>
+      </c>
+      <c r="C198" t="s">
+        <v>319</v>
+      </c>
+      <c r="D198" t="s">
+        <v>30</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G198">
+        <v>11</v>
+      </c>
+      <c r="I198" t="s">
+        <v>135</v>
+      </c>
+      <c r="J198" t="str">
+        <f t="shared" si="0"/>
+        <v>100*(11-metric)/11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>300</v>
+      </c>
+      <c r="B199" t="s">
+        <v>308</v>
+      </c>
+      <c r="C199" t="s">
+        <v>320</v>
+      </c>
+      <c r="D199" t="s">
+        <v>15</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G199">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="I199" t="s">
+        <v>135</v>
+      </c>
+      <c r="J199" t="str">
+        <f t="shared" si="0"/>
+        <v>100*(metric-0)/65.1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>300</v>
+      </c>
+      <c r="B200" t="s">
+        <v>308</v>
+      </c>
+      <c r="C200" t="s">
+        <v>321</v>
+      </c>
+      <c r="D200" t="s">
+        <v>30</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G200">
+        <v>18.2</v>
+      </c>
+      <c r="I200" t="s">
+        <v>135</v>
+      </c>
+      <c r="J200" t="str">
+        <f t="shared" si="0"/>
+        <v>100*(18.2-metric)/18.2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>300</v>
+      </c>
+      <c r="B201" t="s">
+        <v>308</v>
+      </c>
+      <c r="C201" t="s">
+        <v>317</v>
+      </c>
+      <c r="D201" t="s">
+        <v>15</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G201">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="I201" t="s">
+        <v>135</v>
+      </c>
+      <c r="J201" t="str">
+        <f t="shared" si="0"/>
+        <v>100*(metric-0)/38.7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>300</v>
+      </c>
+      <c r="B202" t="s">
+        <v>308</v>
+      </c>
+      <c r="C202" t="s">
+        <v>322</v>
+      </c>
+      <c r="D202" t="s">
+        <v>15</v>
+      </c>
+      <c r="E202">
+        <v>19.3</v>
+      </c>
+      <c r="F202" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G202">
+        <f>50.9+E202</f>
+        <v>70.2</v>
+      </c>
+      <c r="I202" t="s">
+        <v>135</v>
+      </c>
+      <c r="J202" t="str">
+        <f t="shared" si="0"/>
+        <v>100*(metric-19.3)/50.9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J185" xr:uid="{084F04E2-270D-48CB-A629-AC07DDCD6B7C}"/>
+  <autoFilter ref="A1:J202" xr:uid="{084F04E2-270D-48CB-A629-AC07DDCD6B7C}"/>
   <conditionalFormatting sqref="D2:D185">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D188:D202">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D186">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D187">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J186:J202">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>D186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7001,11 +7707,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544F088F-E018-4AF1-A817-C6B9859D0A47}">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8626,6 +9332,182 @@
         <v>293</v>
       </c>
     </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" t="s">
+        <v>309</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>51.4</v>
+      </c>
+      <c r="J34">
+        <v>63</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+      <c r="O34" t="s">
+        <v>130</v>
+      </c>
+      <c r="P34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>300</v>
+      </c>
+      <c r="B35" t="s">
+        <v>306</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>31.6</v>
+      </c>
+      <c r="J35">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="K35">
+        <v>100</v>
+      </c>
+      <c r="O35" t="s">
+        <v>130</v>
+      </c>
+      <c r="P35" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>300</v>
+      </c>
+      <c r="B36" t="s">
+        <v>307</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" t="s">
+        <v>309</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>20.3</v>
+      </c>
+      <c r="J36">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="K36">
+        <v>100</v>
+      </c>
+      <c r="O36" t="s">
+        <v>130</v>
+      </c>
+      <c r="P36" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>300</v>
+      </c>
+      <c r="B37" t="s">
+        <v>308</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" t="s">
+        <v>309</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>60.2</v>
+      </c>
+      <c r="J37">
+        <v>60.3</v>
+      </c>
+      <c r="K37">
+        <v>100</v>
+      </c>
+      <c r="O37" t="s">
+        <v>130</v>
+      </c>
+      <c r="P37" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:T33" xr:uid="{EA20F786-EA28-4D79-ADE3-15AA3BC6D671}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8634,11 +9516,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C585955D-F8EC-44CD-8D5F-F1548D104D16}">
-  <dimension ref="A3:L22"/>
+  <dimension ref="A3:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4:F17"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8982,8 +9864,30 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>298</v>
+      </c>
+      <c r="B22" t="s">
+        <v>302</v>
+      </c>
       <c r="L22" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>303</v>
+      </c>
+      <c r="L23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>304</v>
+      </c>
+      <c r="L24" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -8993,348 +9897,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11763AB-DE5A-4277-BE65-88CD3BDAAE84}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B12" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100557C7523FAC84E43A0DA62C173857381" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4b9ddb1302998b61081aed2913076a6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" xmlns:ns4="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3079d22dc9190cbddbf9f4c007b8016d" ns3:_="" ns4:_="">
-    <xsd:import namespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
-    <xsd:import namespace="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:description="" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{538BC5C1-5251-4096-9242-7545F23852DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9A9DEE8-921E-49C9-B9D1-E95B72C665E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66FCD9A3-9E2B-4C3C-9127-D9BA5F078235}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\Desktop\BioMonTools_Updatea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B20239-5DF5-4F86-9C5B-094065B25A80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D924C2CA-49BF-4158-83CD-56259B2874E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="40935" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="41535" windowWidth="14355" windowHeight="9780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="326">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Erik.Leppo\Desktop\BioMonTools_Updatea\[MetricScoring.xlsx]</v>
+        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\[MetricScoring.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1967,9 +1967,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K186" sqref="K186:K202"/>
+      <selection pane="bottomLeft" activeCell="H186" sqref="H186:H202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7169,6 +7169,9 @@
       <c r="G186">
         <v>57.49</v>
       </c>
+      <c r="H186" t="s">
+        <v>86</v>
+      </c>
       <c r="I186" t="s">
         <v>135</v>
       </c>
@@ -7199,6 +7202,9 @@
       <c r="G187">
         <v>19.5</v>
       </c>
+      <c r="H187" t="s">
+        <v>86</v>
+      </c>
       <c r="I187" t="s">
         <v>135</v>
       </c>
@@ -7229,6 +7235,9 @@
       <c r="G188">
         <v>26.6</v>
       </c>
+      <c r="H188" t="s">
+        <v>86</v>
+      </c>
       <c r="I188" t="s">
         <v>135</v>
       </c>
@@ -7259,6 +7268,9 @@
       <c r="G189">
         <v>58.6</v>
       </c>
+      <c r="H189" t="s">
+        <v>86</v>
+      </c>
       <c r="I189" t="s">
         <v>135</v>
       </c>
@@ -7289,6 +7301,9 @@
       <c r="G190">
         <v>16.7</v>
       </c>
+      <c r="H190" t="s">
+        <v>86</v>
+      </c>
       <c r="I190" t="s">
         <v>135</v>
       </c>
@@ -7319,6 +7334,9 @@
       <c r="G191">
         <v>17.100000000000001</v>
       </c>
+      <c r="H191" t="s">
+        <v>86</v>
+      </c>
       <c r="I191" t="s">
         <v>135</v>
       </c>
@@ -7350,6 +7368,9 @@
         <f>4.65+E192</f>
         <v>5</v>
       </c>
+      <c r="H192" t="s">
+        <v>86</v>
+      </c>
       <c r="I192" t="s">
         <v>135</v>
       </c>
@@ -7380,6 +7401,9 @@
       <c r="G193">
         <v>33</v>
       </c>
+      <c r="H193" t="s">
+        <v>86</v>
+      </c>
       <c r="I193" t="s">
         <v>135</v>
       </c>
@@ -7411,6 +7435,9 @@
         <f>190+E194</f>
         <v>200</v>
       </c>
+      <c r="H194" t="s">
+        <v>86</v>
+      </c>
       <c r="I194" t="s">
         <v>135</v>
       </c>
@@ -7442,6 +7469,9 @@
         <f>6.1+E195</f>
         <v>7.1</v>
       </c>
+      <c r="H195" t="s">
+        <v>86</v>
+      </c>
       <c r="I195" t="s">
         <v>135</v>
       </c>
@@ -7472,6 +7502,9 @@
       <c r="G196">
         <v>51.2</v>
       </c>
+      <c r="H196" t="s">
+        <v>86</v>
+      </c>
       <c r="I196" t="s">
         <v>135</v>
       </c>
@@ -7503,6 +7536,9 @@
         <f>+E197+7</f>
         <v>8</v>
       </c>
+      <c r="H197" t="s">
+        <v>86</v>
+      </c>
       <c r="I197" t="s">
         <v>135</v>
       </c>
@@ -7533,6 +7569,9 @@
       <c r="G198">
         <v>11</v>
       </c>
+      <c r="H198" t="s">
+        <v>86</v>
+      </c>
       <c r="I198" t="s">
         <v>135</v>
       </c>
@@ -7563,6 +7602,9 @@
       <c r="G199">
         <v>65.099999999999994</v>
       </c>
+      <c r="H199" t="s">
+        <v>86</v>
+      </c>
       <c r="I199" t="s">
         <v>135</v>
       </c>
@@ -7593,6 +7635,9 @@
       <c r="G200">
         <v>18.2</v>
       </c>
+      <c r="H200" t="s">
+        <v>86</v>
+      </c>
       <c r="I200" t="s">
         <v>135</v>
       </c>
@@ -7623,6 +7668,9 @@
       <c r="G201">
         <v>38.700000000000003</v>
       </c>
+      <c r="H201" t="s">
+        <v>86</v>
+      </c>
       <c r="I201" t="s">
         <v>135</v>
       </c>
@@ -7653,6 +7701,9 @@
       <c r="G202">
         <f>50.9+E202</f>
         <v>70.2</v>
+      </c>
+      <c r="H202" t="s">
+        <v>86</v>
       </c>
       <c r="I202" t="s">
         <v>135</v>
@@ -7709,7 +7760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544F088F-E018-4AF1-A817-C6B9859D0A47}">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A34" sqref="A34:B37"/>
     </sheetView>
@@ -9978,4 +10029,286 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100557C7523FAC84E43A0DA62C173857381" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4b9ddb1302998b61081aed2913076a6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" xmlns:ns4="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3079d22dc9190cbddbf9f4c007b8016d" ns3:_="" ns4:_="">
+    <xsd:import namespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <xsd:import namespace="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:description="" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19304C29-C31A-47A1-B855-8D09E823E92C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D924C2CA-49BF-4158-83CD-56259B2874E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{D924C2CA-49BF-4158-83CD-56259B2874E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0BFAB461-06AC-411C-8EE4-F679D3055F8C}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="41535" windowWidth="14355" windowHeight="9780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="42735" windowWidth="14355" windowHeight="9780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="328">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -939,9 +939,6 @@
     <t>37.2</t>
   </si>
   <si>
-    <t>Update some thresholds in metric.scoring to text valus (prefix with single apostrophe) due to floating point precision errors when importing into R.</t>
-  </si>
-  <si>
     <t>pi_EphemNoCaeBae</t>
   </si>
   <si>
@@ -1008,9 +1005,6 @@
     <t>pi_toler_ISA_SalHi_xFL</t>
   </si>
   <si>
-    <t>pi_intol_ISA_SalHi_xFL</t>
-  </si>
-  <si>
     <t>pt_Amph</t>
   </si>
   <si>
@@ -1048,6 +1042,18 @@
   </si>
   <si>
     <t>Added GBI_MS_2013 scoring.</t>
+  </si>
+  <si>
+    <t>17.1</t>
+  </si>
+  <si>
+    <t>65.1</t>
+  </si>
+  <si>
+    <t>38.7</t>
+  </si>
+  <si>
+    <t>Update some thresholds in metric.scoring to text values (prefix with single apostrophe) due to floating point precision errors when importing into R.</t>
   </si>
 </sst>
 </file>
@@ -1719,10 +1725,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,7 +1756,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>43648</v>
+        <v>43754</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1915,7 +1921,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1923,12 +1929,12 @@
         <v>43648</v>
       </c>
       <c r="B30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1936,7 +1942,15 @@
         <v>43753</v>
       </c>
       <c r="B32" t="s">
-        <v>325</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>43754</v>
+      </c>
+      <c r="B33" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -1968,8 +1982,8 @@
   <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H186" sqref="H186:H202"/>
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L187" sqref="L187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6835,7 +6849,7 @@
         <v>251</v>
       </c>
       <c r="C176" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D176" t="s">
         <v>15</v>
@@ -7080,7 +7094,7 @@
         <v>135</v>
       </c>
       <c r="J183" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -7112,7 +7126,7 @@
         <v>135</v>
       </c>
       <c r="J184" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -7149,13 +7163,13 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B186" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C186" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D186" t="s">
         <v>30</v>
@@ -7182,13 +7196,13 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B187" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C187" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D187" t="s">
         <v>30</v>
@@ -7215,10 +7229,10 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B188" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C188" t="s">
         <v>312</v>
@@ -7248,13 +7262,13 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B189" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C189" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D189" t="s">
         <v>15</v>
@@ -7281,13 +7295,13 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B190" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C190" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D190" t="s">
         <v>15</v>
@@ -7314,13 +7328,13 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B191" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C191" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D191" t="s">
         <v>15</v>
@@ -7331,8 +7345,8 @@
       <c r="F191" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G191">
-        <v>17.100000000000001</v>
+      <c r="G191" s="18" t="s">
+        <v>324</v>
       </c>
       <c r="H191" t="s">
         <v>86</v>
@@ -7347,13 +7361,13 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B192" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C192" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D192" t="s">
         <v>15</v>
@@ -7381,13 +7395,13 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B193" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C193" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D193" t="s">
         <v>15</v>
@@ -7414,13 +7428,13 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B194" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C194" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D194" t="s">
         <v>15</v>
@@ -7448,13 +7462,13 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B195" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C195" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D195" t="s">
         <v>15</v>
@@ -7482,13 +7496,13 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B196" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C196" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D196" t="s">
         <v>15</v>
@@ -7515,13 +7529,13 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B197" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C197" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D197" t="s">
         <v>15</v>
@@ -7549,13 +7563,13 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B198" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C198" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D198" t="s">
         <v>30</v>
@@ -7582,13 +7596,13 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B199" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C199" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D199" t="s">
         <v>15</v>
@@ -7599,8 +7613,8 @@
       <c r="F199" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G199">
-        <v>65.099999999999994</v>
+      <c r="G199" s="18" t="s">
+        <v>325</v>
       </c>
       <c r="H199" t="s">
         <v>86</v>
@@ -7615,13 +7629,13 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B200" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C200" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D200" t="s">
         <v>30</v>
@@ -7648,13 +7662,13 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B201" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C201" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D201" t="s">
         <v>15</v>
@@ -7665,8 +7679,8 @@
       <c r="F201" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G201">
-        <v>38.700000000000003</v>
+      <c r="G201" s="18" t="s">
+        <v>326</v>
       </c>
       <c r="H201" t="s">
         <v>86</v>
@@ -7681,13 +7695,13 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B202" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C202" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D202" t="s">
         <v>15</v>
@@ -7822,7 +7836,7 @@
         <v>134</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O1" s="13" t="s">
         <v>121</v>
@@ -7840,7 +7854,7 @@
         <v>125</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -9318,7 +9332,7 @@
         <v>156</v>
       </c>
       <c r="T32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -9380,15 +9394,15 @@
         <v>156</v>
       </c>
       <c r="T33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C34" t="s">
         <v>108</v>
@@ -9400,7 +9414,7 @@
         <v>114</v>
       </c>
       <c r="F34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -9429,10 +9443,10 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C35" t="s">
         <v>108</v>
@@ -9444,7 +9458,7 @@
         <v>114</v>
       </c>
       <c r="F35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -9473,10 +9487,10 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C36" t="s">
         <v>108</v>
@@ -9488,7 +9502,7 @@
         <v>114</v>
       </c>
       <c r="F36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -9517,10 +9531,10 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C37" t="s">
         <v>108</v>
@@ -9532,7 +9546,7 @@
         <v>114</v>
       </c>
       <c r="F37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -9916,10 +9930,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L22" t="s">
         <v>239</v>
@@ -9927,18 +9941,18 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -10012,18 +10026,18 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" t="s">
         <v>298</v>
-      </c>
-      <c r="B11" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" t="s">
         <v>300</v>
-      </c>
-      <c r="B12" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -10299,14 +10313,14 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{D924C2CA-49BF-4158-83CD-56259B2874E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0BFAB461-06AC-411C-8EE4-F679D3055F8C}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{D924C2CA-49BF-4158-83CD-56259B2874E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{AE074DE0-3514-4042-8F51-79C26984DB63}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="42735" windowWidth="14355" windowHeight="9780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="43335" windowWidth="14355" windowHeight="9780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="327">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -1048,9 +1048,6 @@
   </si>
   <si>
     <t>65.1</t>
-  </si>
-  <si>
-    <t>38.7</t>
   </si>
   <si>
     <t>Update some thresholds in metric.scoring to text values (prefix with single apostrophe) due to floating point precision errors when importing into R.</t>
@@ -1765,7 +1762,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\[MetricScoring.xlsx]</v>
+        <v>https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/[MetricScoring.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1921,7 +1918,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1950,7 +1947,7 @@
         <v>43754</v>
       </c>
       <c r="B33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -1983,7 +1980,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L187" sqref="L187"/>
+      <selection pane="bottomLeft" activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7181,7 +7178,7 @@
         <v>84</v>
       </c>
       <c r="G186">
-        <v>57.49</v>
+        <v>57.5</v>
       </c>
       <c r="H186" t="s">
         <v>86</v>
@@ -7191,7 +7188,7 @@
       </c>
       <c r="J186" t="str">
         <f t="shared" ref="J186:J202" si="0">IF(D186="Increase","100*("&amp;G186&amp;"-metric)/"&amp;G186-E186,IF(D186="Decrease","100*(metric-"&amp;E186&amp;")/"&amp;G186-E186,"NA"))</f>
-        <v>100*(57.49-metric)/57.49</v>
+        <v>100*(57.5-metric)/57.5</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -7247,7 +7244,7 @@
         <v>84</v>
       </c>
       <c r="G188">
-        <v>26.6</v>
+        <v>20.6</v>
       </c>
       <c r="H188" t="s">
         <v>86</v>
@@ -7257,7 +7254,7 @@
       </c>
       <c r="J188" t="str">
         <f t="shared" si="0"/>
-        <v>100*(metric-0)/26.6</v>
+        <v>100*(metric-0)/20.6</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -7373,13 +7370,12 @@
         <v>15</v>
       </c>
       <c r="E192">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="F192" s="17" t="s">
         <v>84</v>
       </c>
       <c r="G192">
-        <f>4.65+E192</f>
         <v>5</v>
       </c>
       <c r="H192" t="s">
@@ -7390,7 +7386,7 @@
       </c>
       <c r="J192" t="str">
         <f t="shared" si="0"/>
-        <v>100*(metric-0.35)/4.65</v>
+        <v>100*(metric-0.4)/4.6</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -7446,7 +7442,6 @@
         <v>84</v>
       </c>
       <c r="G194">
-        <f>190+E194</f>
         <v>200</v>
       </c>
       <c r="H194" t="s">
@@ -7480,7 +7475,6 @@
         <v>84</v>
       </c>
       <c r="G195">
-        <f>6.1+E195</f>
         <v>7.1</v>
       </c>
       <c r="H195" t="s">
@@ -7547,7 +7541,6 @@
         <v>84</v>
       </c>
       <c r="G197">
-        <f>+E197+7</f>
         <v>8</v>
       </c>
       <c r="H197" t="s">
@@ -7647,7 +7640,7 @@
         <v>84</v>
       </c>
       <c r="G200">
-        <v>18.2</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="H200" t="s">
         <v>86</v>
@@ -7657,7 +7650,7 @@
       </c>
       <c r="J200" t="str">
         <f t="shared" si="0"/>
-        <v>100*(18.2-metric)/18.2</v>
+        <v>100*(18.1-metric)/18.1</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -7679,8 +7672,8 @@
       <c r="F201" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G201" s="18" t="s">
-        <v>326</v>
+      <c r="G201" s="18">
+        <v>38.4</v>
       </c>
       <c r="H201" t="s">
         <v>86</v>
@@ -7690,7 +7683,7 @@
       </c>
       <c r="J201" t="str">
         <f t="shared" si="0"/>
-        <v>100*(metric-0)/38.7</v>
+        <v>100*(metric-0)/38.4</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -7713,7 +7706,6 @@
         <v>84</v>
       </c>
       <c r="G202">
-        <f>50.9+E202</f>
         <v>70.2</v>
       </c>
       <c r="H202" t="s">
@@ -10046,6 +10038,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100557C7523FAC84E43A0DA62C173857381" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4b9ddb1302998b61081aed2913076a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" xmlns:ns4="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3079d22dc9190cbddbf9f4c007b8016d" ns3:_="" ns4:_="">
     <xsd:import namespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
@@ -10268,15 +10269,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -10284,6 +10276,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19304C29-C31A-47A1-B855-8D09E823E92C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10302,27 +10302,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{D924C2CA-49BF-4158-83CD-56259B2874E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{AE074DE0-3514-4042-8F51-79C26984DB63}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{D924C2CA-49BF-4158-83CD-56259B2874E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1C6B4904-C970-43D7-93D7-50FFA1C87440}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="43335" windowWidth="14355" windowHeight="9780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="43935" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="328">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -294,9 +294,6 @@
     <t>NCP</t>
   </si>
   <si>
-    <t>WSA.2006.Bugs</t>
-  </si>
-  <si>
     <t>CPL</t>
   </si>
   <si>
@@ -489,9 +486,6 @@
     <t>ScoreValue</t>
   </si>
   <si>
-    <t>MBISQ.2015</t>
-  </si>
-  <si>
     <t>pi_COC2Chi</t>
   </si>
   <si>
@@ -525,9 +519,6 @@
     <t>non-impaired</t>
   </si>
   <si>
-    <t>NMSCI.2006</t>
-  </si>
-  <si>
     <t>LowSmall</t>
   </si>
   <si>
@@ -660,9 +651,6 @@
     <t>x_NCBI</t>
   </si>
   <si>
-    <t>GADNR.2009</t>
-  </si>
-  <si>
     <t>pi_ffg_col</t>
   </si>
   <si>
@@ -822,9 +810,6 @@
     <t>Added MassDEP.2019.Bugs metrics and index.</t>
   </si>
   <si>
-    <t>MassDEP.2019.Bugs</t>
-  </si>
-  <si>
     <t>CentralHills</t>
   </si>
   <si>
@@ -1051,6 +1036,24 @@
   </si>
   <si>
     <t>Update some thresholds in metric.scoring to text values (prefix with single apostrophe) due to floating point precision errors when importing into R.</t>
+  </si>
+  <si>
+    <t>MBISQ_2015</t>
+  </si>
+  <si>
+    <t>NMSCI_2006</t>
+  </si>
+  <si>
+    <t>GADNR_2009</t>
+  </si>
+  <si>
+    <t>WSA_2006_Bugs</t>
+  </si>
+  <si>
+    <t>MassDEP_2019_Bugs</t>
+  </si>
+  <si>
+    <t>CO_2005</t>
   </si>
 </sst>
 </file>
@@ -1737,12 +1740,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1762,7 +1765,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/[MetricScoring.xlsx]</v>
+        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\[MetricScoring.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1790,17 +1793,17 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1828,10 +1831,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C18" s="9" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A18&amp;"!A1",A18)</f>
@@ -1840,10 +1843,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C19" s="9" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A19&amp;"!A1",A19)</f>
@@ -1852,10 +1855,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C20" s="9" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A20&amp;"!A1",A20)</f>
@@ -1864,10 +1867,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C21" s="9" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A21&amp;"!A1",A21)</f>
@@ -1884,7 +1887,7 @@
         <v>43592</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1892,7 +1895,7 @@
         <v>43609</v>
       </c>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1900,7 +1903,7 @@
         <v>43616</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1908,17 +1911,17 @@
         <v>43643</v>
       </c>
       <c r="B27" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1926,12 +1929,12 @@
         <v>43648</v>
       </c>
       <c r="B30" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1939,7 +1942,7 @@
         <v>43753</v>
       </c>
       <c r="B32" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1947,7 +1950,7 @@
         <v>43754</v>
       </c>
       <c r="B33" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1978,14 +1981,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E189" sqref="E189"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -1999,34 +2002,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2046,13 +2049,13 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2">
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
@@ -2075,13 +2078,13 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -2104,13 +2107,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -2133,13 +2136,13 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5">
         <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -2162,13 +2165,13 @@
         <v>0.8</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
@@ -2191,13 +2194,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
         <v>26</v>
@@ -2211,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -2220,13 +2223,13 @@
         <v>0.9</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8">
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s">
         <v>27</v>
@@ -2249,13 +2252,13 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9">
         <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
         <v>16</v>
@@ -2278,13 +2281,13 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
@@ -2307,13 +2310,13 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -2336,13 +2339,13 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12">
         <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -2365,13 +2368,13 @@
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13">
         <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
         <v>31</v>
@@ -2385,7 +2388,7 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -2394,13 +2397,13 @@
         <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14">
         <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s">
         <v>32</v>
@@ -2423,13 +2426,13 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15">
         <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
         <v>16</v>
@@ -2452,13 +2455,13 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16">
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -2481,13 +2484,13 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s">
         <v>20</v>
@@ -2510,13 +2513,13 @@
         <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18">
         <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
@@ -2539,13 +2542,13 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19">
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s">
         <v>35</v>
@@ -2568,13 +2571,13 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20">
         <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s">
         <v>37</v>
@@ -2588,7 +2591,7 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -2597,13 +2600,13 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21">
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s">
         <v>38</v>
@@ -2626,13 +2629,13 @@
         <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s">
         <v>40</v>
@@ -2655,13 +2658,13 @@
         <v>0.45</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23">
         <v>0.72</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s">
         <v>43</v>
@@ -2684,13 +2687,13 @@
         <v>0.01</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24">
         <v>0.21</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s">
         <v>45</v>
@@ -2713,13 +2716,13 @@
         <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25">
         <v>97</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s">
         <v>47</v>
@@ -2742,13 +2745,13 @@
         <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26">
         <v>99.999999900000006</v>
       </c>
       <c r="H26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s">
         <v>49</v>
@@ -2771,13 +2774,13 @@
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" t="s">
         <v>51</v>
@@ -2800,13 +2803,13 @@
         <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28">
         <v>69</v>
       </c>
       <c r="H28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" t="s">
         <v>53</v>
@@ -2829,13 +2832,13 @@
         <v>0.25</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29">
         <v>1.25</v>
       </c>
       <c r="H29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29" t="s">
         <v>43</v>
@@ -2858,13 +2861,13 @@
         <v>0.09</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30">
         <v>0.26</v>
       </c>
       <c r="H30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I30" t="s">
         <v>45</v>
@@ -2887,13 +2890,13 @@
         <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31">
         <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I31" t="s">
         <v>47</v>
@@ -2916,13 +2919,13 @@
         <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32">
         <v>99.999999900000006</v>
       </c>
       <c r="H32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I32" t="s">
         <v>49</v>
@@ -2945,13 +2948,13 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G33">
         <v>8.6</v>
       </c>
       <c r="H33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I33" t="s">
         <v>55</v>
@@ -2974,13 +2977,13 @@
         <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34">
         <v>61</v>
       </c>
       <c r="H34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I34" t="s">
         <v>57</v>
@@ -3003,13 +3006,13 @@
         <v>0.31</v>
       </c>
       <c r="F35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35">
         <v>0.65</v>
       </c>
       <c r="H35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I35" t="s">
         <v>43</v>
@@ -3032,13 +3035,13 @@
         <v>0.11</v>
       </c>
       <c r="F36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36">
         <v>0.25</v>
       </c>
       <c r="H36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I36" t="s">
         <v>45</v>
@@ -3061,13 +3064,13 @@
         <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G37">
         <v>8</v>
       </c>
       <c r="H37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37" t="s">
         <v>47</v>
@@ -3090,13 +3093,13 @@
         <v>61</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G38">
         <v>96</v>
       </c>
       <c r="H38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I38" t="s">
         <v>49</v>
@@ -3119,13 +3122,13 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G39">
         <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I39" t="s">
         <v>59</v>
@@ -3148,13 +3151,13 @@
         <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G40">
         <v>89</v>
       </c>
       <c r="H40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I40" t="s">
         <v>53</v>
@@ -3177,13 +3180,13 @@
         <v>0.88</v>
       </c>
       <c r="F41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="H41" t="s">
         <v>84</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="H41" t="s">
-        <v>85</v>
       </c>
       <c r="I41" t="s">
         <v>43</v>
@@ -3206,13 +3209,13 @@
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G42">
         <v>81</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I42" t="s">
         <v>47</v>
@@ -3235,13 +3238,13 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43">
         <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I43" t="s">
         <v>62</v>
@@ -3264,13 +3267,13 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G44">
         <v>44</v>
       </c>
       <c r="H44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I44" t="s">
         <v>64</v>
@@ -3293,13 +3296,13 @@
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G45">
         <v>16</v>
       </c>
       <c r="H45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I45" t="s">
         <v>16</v>
@@ -3322,13 +3325,13 @@
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G46">
         <v>6</v>
       </c>
       <c r="H46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I46" t="s">
         <v>18</v>
@@ -3351,13 +3354,13 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I47" t="s">
         <v>20</v>
@@ -3380,13 +3383,13 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48">
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" t="s">
         <v>68</v>
@@ -3409,13 +3412,13 @@
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G49">
         <v>11.4</v>
       </c>
       <c r="H49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I49" t="s">
         <v>24</v>
@@ -3438,13 +3441,13 @@
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G50">
         <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I50" t="s">
         <v>70</v>
@@ -3467,13 +3470,13 @@
         <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G51">
         <v>9</v>
       </c>
       <c r="H51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I51" t="s">
         <v>72</v>
@@ -3496,13 +3499,13 @@
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G52">
         <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I52" t="s">
         <v>16</v>
@@ -3525,13 +3528,13 @@
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G53">
         <v>10</v>
       </c>
       <c r="H53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I53" t="s">
         <v>18</v>
@@ -3554,13 +3557,13 @@
         <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G54">
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I54" t="s">
         <v>20</v>
@@ -3583,13 +3586,13 @@
         <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G55">
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I55" t="s">
         <v>68</v>
@@ -3612,13 +3615,13 @@
         <v>5.7</v>
       </c>
       <c r="F56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G56">
         <v>20.3</v>
       </c>
       <c r="H56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I56" t="s">
         <v>24</v>
@@ -3641,13 +3644,13 @@
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G57">
         <v>8</v>
       </c>
       <c r="H57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I57" t="s">
         <v>70</v>
@@ -3670,13 +3673,13 @@
         <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G58">
         <v>12.5</v>
       </c>
       <c r="H58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I58" t="s">
         <v>72</v>
@@ -3684,39 +3687,39 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>325</v>
+      </c>
+      <c r="B59" t="s">
         <v>74</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>75</v>
       </c>
-      <c r="C59" t="s">
-        <v>76</v>
-      </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>325</v>
+      </c>
+      <c r="B60" t="s">
         <v>74</v>
       </c>
-      <c r="B60" t="s">
-        <v>75</v>
-      </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
@@ -3725,76 +3728,76 @@
         <v>1.62</v>
       </c>
       <c r="F60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G60">
         <v>3.31</v>
       </c>
       <c r="H60" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I60" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>325</v>
+      </c>
+      <c r="B61" t="s">
         <v>74</v>
       </c>
-      <c r="B61" t="s">
-        <v>75</v>
-      </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>325</v>
+      </c>
+      <c r="B62" t="s">
         <v>74</v>
       </c>
-      <c r="B62" t="s">
-        <v>75</v>
-      </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>325</v>
+      </c>
+      <c r="B63" t="s">
         <v>74</v>
-      </c>
-      <c r="B63" t="s">
-        <v>75</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
@@ -3803,13 +3806,13 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I63" t="s">
         <v>17</v>
@@ -3817,91 +3820,91 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>325</v>
+      </c>
+      <c r="B64" t="s">
         <v>74</v>
       </c>
-      <c r="B64" t="s">
-        <v>75</v>
-      </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" t="s">
         <v>81</v>
       </c>
-      <c r="C65" t="s">
-        <v>82</v>
-      </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G66">
         <v>3.44</v>
       </c>
       <c r="H66" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I66" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67" t="s">
         <v>25</v>
@@ -3910,27 +3913,27 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I67" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D68" t="s">
         <v>30</v>
@@ -3939,24 +3942,24 @@
         <v>3.45</v>
       </c>
       <c r="F68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G68">
         <v>25</v>
       </c>
       <c r="H68" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I68" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
@@ -3965,13 +3968,13 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I69" t="s">
         <v>17</v>
@@ -3979,36 +3982,36 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -4026,15 +4029,15 @@
         <v>60</v>
       </c>
       <c r="H71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
@@ -4052,18 +4055,18 @@
         <v>30</v>
       </c>
       <c r="H72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" t="s">
         <v>87</v>
-      </c>
-      <c r="C73" t="s">
-        <v>88</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
@@ -4078,18 +4081,18 @@
         <v>9</v>
       </c>
       <c r="H73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D74" t="s">
         <v>15</v>
@@ -4104,18 +4107,18 @@
         <v>3.25</v>
       </c>
       <c r="H74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D75" t="s">
         <v>15</v>
@@ -4130,18 +4133,18 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
@@ -4156,18 +4159,18 @@
         <v>5</v>
       </c>
       <c r="H76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D77" t="s">
         <v>15</v>
@@ -4182,18 +4185,18 @@
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
@@ -4208,18 +4211,18 @@
         <v>5</v>
       </c>
       <c r="H78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
@@ -4234,18 +4237,18 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
@@ -4260,18 +4263,18 @@
         <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
@@ -4286,44 +4289,44 @@
         <v>16</v>
       </c>
       <c r="H81" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D82" s="15" t="s">
-        <v>138</v>
-      </c>
       <c r="E82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B83" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
@@ -4332,24 +4335,24 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G83">
         <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B84" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C84" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D84" t="s">
         <v>30</v>
@@ -4358,24 +4361,24 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G84">
         <v>50</v>
       </c>
       <c r="H84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B85" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C85" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D85" t="s">
         <v>30</v>
@@ -4384,24 +4387,24 @@
         <v>10.5</v>
       </c>
       <c r="F85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B86" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" t="s">
         <v>15</v>
@@ -4410,24 +4413,24 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C87" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D87" t="s">
         <v>30</v>
@@ -4436,24 +4439,24 @@
         <v>4.8</v>
       </c>
       <c r="F87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G87">
         <v>37.6</v>
       </c>
       <c r="H87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D88" t="s">
         <v>30</v>
@@ -4462,21 +4465,21 @@
         <v>1.9</v>
       </c>
       <c r="F88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G88">
         <v>30.4</v>
       </c>
       <c r="H88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B89" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C89" t="s">
         <v>71</v>
@@ -4488,21 +4491,21 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G89">
         <v>30</v>
       </c>
       <c r="H89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
@@ -4514,24 +4517,24 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G90">
         <v>10.9</v>
       </c>
       <c r="H90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B91" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D91" t="s">
         <v>15</v>
@@ -4540,25 +4543,25 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G91">
         <v>6</v>
       </c>
       <c r="H91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>322</v>
+      </c>
+      <c r="B92" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" t="s">
         <v>139</v>
       </c>
-      <c r="B92" t="s">
-        <v>203</v>
-      </c>
-      <c r="C92" t="s">
-        <v>141</v>
-      </c>
       <c r="D92" t="s">
         <v>15</v>
       </c>
@@ -4566,24 +4569,24 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G92">
         <v>4.2</v>
       </c>
       <c r="H92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B93" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C93" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D93" t="s">
         <v>30</v>
@@ -4592,21 +4595,21 @@
         <v>1.4</v>
       </c>
       <c r="F93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G93">
         <v>43.5</v>
       </c>
       <c r="H93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C94" t="s">
         <v>71</v>
@@ -4618,24 +4621,24 @@
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G94">
         <v>15</v>
       </c>
       <c r="H94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B95" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C95" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
@@ -4644,24 +4647,24 @@
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G95">
         <v>24.7</v>
       </c>
       <c r="H95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B96" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C96" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D96" t="s">
         <v>30</v>
@@ -4670,24 +4673,24 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G96">
         <v>6</v>
       </c>
       <c r="H96" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B97" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" t="s">
         <v>15</v>
@@ -4696,24 +4699,24 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G97">
         <v>79.8</v>
       </c>
       <c r="H97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B98" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C98" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D98" t="s">
         <v>30</v>
@@ -4722,24 +4725,24 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G98">
         <v>26.5</v>
       </c>
       <c r="H98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B99" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C99" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
@@ -4748,24 +4751,24 @@
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G99">
         <v>10.9</v>
       </c>
       <c r="H99" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B100" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C100" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D100" t="s">
         <v>30</v>
@@ -4774,24 +4777,24 @@
         <v>3.1</v>
       </c>
       <c r="F100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B101" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D101" t="s">
         <v>15</v>
@@ -4800,24 +4803,24 @@
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G101">
         <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C102" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D102" t="s">
         <v>15</v>
@@ -4826,25 +4829,25 @@
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G102">
         <v>4</v>
       </c>
       <c r="H102" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>322</v>
+      </c>
+      <c r="B103" t="s">
+        <v>201</v>
+      </c>
+      <c r="C103" t="s">
         <v>139</v>
       </c>
-      <c r="B103" t="s">
-        <v>205</v>
-      </c>
-      <c r="C103" t="s">
-        <v>141</v>
-      </c>
       <c r="D103" t="s">
         <v>15</v>
       </c>
@@ -4852,24 +4855,24 @@
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G103">
         <v>7.5</v>
       </c>
       <c r="H103" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B104" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C104" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
@@ -4878,24 +4881,24 @@
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G104">
         <v>11.9</v>
       </c>
       <c r="H104" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B105" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C105" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D105" t="s">
         <v>30</v>
@@ -4904,24 +4907,24 @@
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B106" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C106" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
@@ -4930,24 +4933,24 @@
         <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G106">
         <v>30.7</v>
       </c>
       <c r="H106" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B107" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C107" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D107" t="s">
         <v>30</v>
@@ -4956,180 +4959,180 @@
         <v>3.7</v>
       </c>
       <c r="F107" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G107">
         <v>7.5</v>
       </c>
       <c r="H107" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B108" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C108" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I108" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B109" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C109" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I109" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B110" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C110" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B111" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C111" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I111" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B112" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C112" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I112" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B113" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I113" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B114" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C114" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D114" t="s">
         <v>30</v>
@@ -5138,56 +5141,56 @@
         <v>11.2</v>
       </c>
       <c r="F114" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G114">
         <v>50.8</v>
       </c>
       <c r="H114" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I114" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B115" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F115" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G115">
         <v>3.56</v>
       </c>
       <c r="H115" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I115" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B116" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
@@ -5196,114 +5199,114 @@
         <v>1.41</v>
       </c>
       <c r="F116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G116">
         <v>3.17</v>
       </c>
       <c r="H116" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I116" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B117" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D117" t="s">
         <v>30</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G117">
         <v>3.07</v>
       </c>
       <c r="H117" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I117" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C118" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F118" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G118">
         <v>3.27</v>
       </c>
       <c r="H118" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I118" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B119" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C119" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D119" t="s">
         <v>30</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F119" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G119">
         <v>76.2</v>
       </c>
       <c r="H119" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I119" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B120" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C120" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D120" t="s">
         <v>30</v>
@@ -5312,27 +5315,27 @@
         <v>40.6</v>
       </c>
       <c r="F120" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G120">
         <v>82.3</v>
       </c>
       <c r="H120" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I120" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B121" t="s">
+        <v>162</v>
+      </c>
+      <c r="C121" t="s">
         <v>165</v>
-      </c>
-      <c r="C121" t="s">
-        <v>168</v>
       </c>
       <c r="D121" t="s">
         <v>30</v>
@@ -5341,24 +5344,24 @@
         <v>44.7</v>
       </c>
       <c r="F121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G121">
         <v>92.3</v>
       </c>
       <c r="H121" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I121" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B122" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C122" t="s">
         <v>25</v>
@@ -5367,24 +5370,24 @@
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I122" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B123" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C123" t="s">
         <v>25</v>
@@ -5393,24 +5396,24 @@
         <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I123" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B124" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C124" t="s">
         <v>25</v>
@@ -5419,24 +5422,24 @@
         <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I124" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B125" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C125" t="s">
         <v>25</v>
@@ -5445,24 +5448,24 @@
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I125" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B126" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C126" t="s">
         <v>25</v>
@@ -5471,24 +5474,24 @@
         <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I126" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B127" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C127" t="s">
         <v>25</v>
@@ -5497,53 +5500,53 @@
         <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I127" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B128" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C128" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I128" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B129" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C129" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D129" t="s">
         <v>30</v>
@@ -5552,27 +5555,27 @@
         <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I129" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B130" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C130" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D130" t="s">
         <v>30</v>
@@ -5581,27 +5584,27 @@
         <v>6.45</v>
       </c>
       <c r="F130" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H130" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I130" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B131" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C131" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D131" t="s">
         <v>30</v>
@@ -5610,128 +5613,128 @@
         <v>5</v>
       </c>
       <c r="F131" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G131">
         <v>36.1</v>
       </c>
       <c r="H131" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I131" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B132" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C132" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B133" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C133" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B134" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C134" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B135" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C135" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B136" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C136" t="s">
         <v>19</v>
@@ -5740,24 +5743,24 @@
         <v>0</v>
       </c>
       <c r="F136" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B137" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C137" t="s">
         <v>19</v>
@@ -5766,24 +5769,24 @@
         <v>0</v>
       </c>
       <c r="F137" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B138" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C138" t="s">
         <v>17</v>
@@ -5792,24 +5795,24 @@
         <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I138" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B139" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C139" t="s">
         <v>17</v>
@@ -5818,24 +5821,24 @@
         <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I139" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B140" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C140" t="s">
         <v>17</v>
@@ -5844,24 +5847,24 @@
         <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I140" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B141" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C141" t="s">
         <v>17</v>
@@ -5870,24 +5873,24 @@
         <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I141" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B142" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C142" t="s">
         <v>17</v>
@@ -5896,24 +5899,24 @@
         <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I142" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B143" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C143" t="s">
         <v>69</v>
@@ -5922,183 +5925,183 @@
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I143" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B144" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C144" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I144" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B145" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C145" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I145" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B146" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C146" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I146" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B147" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C147" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I147" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B148" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C148" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I148" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B149" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C149" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G149">
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I149" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B150" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C150" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D150" t="s">
         <v>15</v>
@@ -6107,27 +6110,27 @@
         <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G150">
         <v>5.6</v>
       </c>
       <c r="H150" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I150" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B151" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C151" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
@@ -6136,27 +6139,27 @@
         <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G151">
         <v>31.77</v>
       </c>
       <c r="H151" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I151" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B152" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C152" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D152" t="s">
         <v>30</v>
@@ -6165,27 +6168,27 @@
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G152">
         <v>36.36</v>
       </c>
       <c r="H152" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I152" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B153" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C153" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D153" t="s">
         <v>30</v>
@@ -6194,24 +6197,24 @@
         <v>7</v>
       </c>
       <c r="F153" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G153">
         <v>23</v>
       </c>
       <c r="H153" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I153" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B154" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C154" t="s">
         <v>36</v>
@@ -6223,27 +6226,27 @@
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G154">
         <v>39.9</v>
       </c>
       <c r="H154" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I154" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B155" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C155" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D155" t="s">
         <v>15</v>
@@ -6252,27 +6255,27 @@
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G155">
         <v>19.8</v>
       </c>
       <c r="H155" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I155" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B156" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C156" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D156" t="s">
         <v>15</v>
@@ -6281,27 +6284,27 @@
         <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H156" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I156" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B157" t="s">
+        <v>185</v>
+      </c>
+      <c r="C157" t="s">
         <v>188</v>
-      </c>
-      <c r="C157" t="s">
-        <v>191</v>
       </c>
       <c r="D157" t="s">
         <v>30</v>
@@ -6310,27 +6313,27 @@
         <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G157">
         <v>84.43</v>
       </c>
       <c r="H157" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I157" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B158" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C158" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D158" t="s">
         <v>15</v>
@@ -6339,27 +6342,27 @@
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G158" s="18" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H158" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I158" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B159" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C159" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D159" t="s">
         <v>15</v>
@@ -6368,24 +6371,24 @@
         <v>0</v>
       </c>
       <c r="F159" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G159">
         <v>11</v>
       </c>
       <c r="H159" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I159" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B160" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C160" t="s">
         <v>25</v>
@@ -6397,27 +6400,27 @@
         <v>0</v>
       </c>
       <c r="F160" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G160" s="18" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H160" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I160" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B161" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C161" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D161" t="s">
         <v>15</v>
@@ -6426,27 +6429,27 @@
         <v>0</v>
       </c>
       <c r="F161" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G161">
         <v>3.8</v>
       </c>
       <c r="H161" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I161" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B162" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C162" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D162" t="s">
         <v>15</v>
@@ -6455,27 +6458,27 @@
         <v>0</v>
       </c>
       <c r="F162" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G162">
         <v>8.85</v>
       </c>
       <c r="H162" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I162" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B163" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C163" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D163" t="s">
         <v>30</v>
@@ -6484,27 +6487,27 @@
         <v>1.6</v>
       </c>
       <c r="F163" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G163">
         <v>21.52</v>
       </c>
       <c r="H163" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I163" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B164" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C164" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D164" t="s">
         <v>30</v>
@@ -6513,27 +6516,27 @@
         <v>0.21</v>
       </c>
       <c r="F164" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G164">
         <v>6.25</v>
       </c>
       <c r="H164" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I164" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B165" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C165" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D165" t="s">
         <v>30</v>
@@ -6542,24 +6545,24 @@
         <v>2.33</v>
       </c>
       <c r="F165" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G165">
         <v>6.02</v>
       </c>
       <c r="H165" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I165" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B166" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C166" t="s">
         <v>46</v>
@@ -6571,27 +6574,27 @@
         <v>6.36</v>
       </c>
       <c r="F166" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G166">
         <v>23.75</v>
       </c>
       <c r="H166" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I166" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B167" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C167" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D167" t="s">
         <v>15</v>
@@ -6600,53 +6603,53 @@
         <v>0</v>
       </c>
       <c r="F167" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G167" s="18" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H167" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I167" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B168" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C168" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E168">
         <v>0</v>
       </c>
       <c r="F168" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G168">
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I168" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B169" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C169" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D169" t="s">
         <v>15</v>
@@ -6655,24 +6658,24 @@
         <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I169" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C170" t="s">
         <v>25</v>
@@ -6681,27 +6684,27 @@
         <v>0</v>
       </c>
       <c r="F170" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G170">
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I170" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B171" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C171" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D171" t="s">
         <v>30</v>
@@ -6710,24 +6713,24 @@
         <v>3.77</v>
       </c>
       <c r="F171" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G171">
         <v>28.6</v>
       </c>
       <c r="H171" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I171" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B172" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C172" t="s">
         <v>17</v>
@@ -6736,50 +6739,50 @@
         <v>0</v>
       </c>
       <c r="F172" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G172">
         <v>0</v>
       </c>
       <c r="H172" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I172" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B173" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C173" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E173">
         <v>0</v>
       </c>
       <c r="F173" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G173">
         <v>0</v>
       </c>
       <c r="H173" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I173" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="B174" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C174" t="s">
         <v>14</v>
@@ -6791,30 +6794,30 @@
         <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G174">
         <v>34.9</v>
       </c>
       <c r="H174" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I174" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J174" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="B175" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C175" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D175" t="s">
         <v>15</v>
@@ -6823,30 +6826,30 @@
         <v>10.6</v>
       </c>
       <c r="F175" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G175">
         <v>54.5</v>
       </c>
       <c r="H175" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I175" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J175" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="B176" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C176" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D176" t="s">
         <v>15</v>
@@ -6855,30 +6858,30 @@
         <v>0</v>
       </c>
       <c r="F176" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G176">
         <v>13.9</v>
       </c>
       <c r="H176" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I176" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J176" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>326</v>
+      </c>
+      <c r="B177" t="s">
+        <v>246</v>
+      </c>
+      <c r="C177" t="s">
         <v>250</v>
-      </c>
-      <c r="B177" t="s">
-        <v>251</v>
-      </c>
-      <c r="C177" t="s">
-        <v>255</v>
       </c>
       <c r="D177" t="s">
         <v>30</v>
@@ -6887,31 +6890,31 @@
         <v>13</v>
       </c>
       <c r="F177" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G177" s="18" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I177" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J177" s="16" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="B178" t="s">
+        <v>246</v>
+      </c>
+      <c r="C178" t="s">
         <v>251</v>
       </c>
-      <c r="C178" t="s">
-        <v>256</v>
-      </c>
       <c r="D178" t="s">
         <v>15</v>
       </c>
@@ -6919,30 +6922,30 @@
         <v>0</v>
       </c>
       <c r="F178" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G178">
         <v>28.5</v>
       </c>
       <c r="H178" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I178" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J178" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="B179" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C179" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D179" t="s">
         <v>15</v>
@@ -6951,27 +6954,27 @@
         <v>0</v>
       </c>
       <c r="F179" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G179">
         <v>39.1</v>
       </c>
       <c r="H179" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I179" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J179" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="B180" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C180" t="s">
         <v>14</v>
@@ -6983,30 +6986,30 @@
         <v>21</v>
       </c>
       <c r="F180" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G180" s="18" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H180" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I180" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J180" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="B181" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C181" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D181" t="s">
         <v>15</v>
@@ -7015,62 +7018,62 @@
         <v>0</v>
       </c>
       <c r="F181" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G181">
         <v>18.3</v>
       </c>
       <c r="H181" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I181" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J181" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>326</v>
+      </c>
+      <c r="B182" t="s">
+        <v>248</v>
+      </c>
+      <c r="C182" t="s">
         <v>250</v>
-      </c>
-      <c r="B182" t="s">
-        <v>253</v>
-      </c>
-      <c r="C182" t="s">
-        <v>255</v>
       </c>
       <c r="D182" t="s">
         <v>30</v>
       </c>
       <c r="E182" s="18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F182" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G182">
         <v>50.5</v>
       </c>
       <c r="H182" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I182" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J182" s="16" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="B183" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C183" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D183" t="s">
         <v>15</v>
@@ -7079,30 +7082,30 @@
         <v>1.2</v>
       </c>
       <c r="F183" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G183">
         <v>23</v>
       </c>
       <c r="H183" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I183" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J183" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="B184" t="s">
+        <v>248</v>
+      </c>
+      <c r="C184" t="s">
         <v>253</v>
-      </c>
-      <c r="C184" t="s">
-        <v>258</v>
       </c>
       <c r="D184" t="s">
         <v>15</v>
@@ -7111,27 +7114,27 @@
         <v>6.1</v>
       </c>
       <c r="F184" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G184">
         <v>51.5</v>
       </c>
       <c r="H184" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I184" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J184" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="B185" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C185" t="s">
         <v>71</v>
@@ -7143,30 +7146,30 @@
         <v>12</v>
       </c>
       <c r="F185" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G185" s="18" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H185" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I185" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J185" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>294</v>
+      </c>
+      <c r="B186" t="s">
         <v>299</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>304</v>
-      </c>
-      <c r="C186" t="s">
-        <v>309</v>
       </c>
       <c r="D186" t="s">
         <v>30</v>
@@ -7175,16 +7178,16 @@
         <v>0</v>
       </c>
       <c r="F186" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G186">
         <v>57.5</v>
       </c>
       <c r="H186" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I186" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J186" t="str">
         <f t="shared" ref="J186:J202" si="0">IF(D186="Increase","100*("&amp;G186&amp;"-metric)/"&amp;G186-E186,IF(D186="Decrease","100*(metric-"&amp;E186&amp;")/"&amp;G186-E186,"NA"))</f>
@@ -7193,13 +7196,13 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>294</v>
+      </c>
+      <c r="B187" t="s">
         <v>299</v>
       </c>
-      <c r="B187" t="s">
-        <v>304</v>
-      </c>
       <c r="C187" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D187" t="s">
         <v>30</v>
@@ -7208,16 +7211,16 @@
         <v>0</v>
       </c>
       <c r="F187" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G187">
         <v>19.5</v>
       </c>
       <c r="H187" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I187" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J187" t="str">
         <f t="shared" si="0"/>
@@ -7226,13 +7229,13 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>294</v>
+      </c>
+      <c r="B188" t="s">
         <v>299</v>
       </c>
-      <c r="B188" t="s">
-        <v>304</v>
-      </c>
       <c r="C188" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D188" t="s">
         <v>15</v>
@@ -7241,16 +7244,16 @@
         <v>0</v>
       </c>
       <c r="F188" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G188">
         <v>20.6</v>
       </c>
       <c r="H188" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I188" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J188" t="str">
         <f t="shared" si="0"/>
@@ -7259,13 +7262,13 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B189" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C189" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D189" t="s">
         <v>15</v>
@@ -7274,16 +7277,16 @@
         <v>0</v>
       </c>
       <c r="F189" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G189">
         <v>58.6</v>
       </c>
       <c r="H189" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I189" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J189" t="str">
         <f t="shared" si="0"/>
@@ -7292,13 +7295,13 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B190" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C190" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D190" t="s">
         <v>15</v>
@@ -7307,16 +7310,16 @@
         <v>0</v>
       </c>
       <c r="F190" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G190">
         <v>16.7</v>
       </c>
       <c r="H190" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I190" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J190" t="str">
         <f t="shared" si="0"/>
@@ -7325,13 +7328,13 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B191" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C191" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D191" t="s">
         <v>15</v>
@@ -7340,16 +7343,16 @@
         <v>0</v>
       </c>
       <c r="F191" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G191" s="18" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H191" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I191" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J191" t="str">
         <f t="shared" si="0"/>
@@ -7358,13 +7361,13 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B192" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C192" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D192" t="s">
         <v>15</v>
@@ -7373,16 +7376,16 @@
         <v>0.4</v>
       </c>
       <c r="F192" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G192">
         <v>5</v>
       </c>
       <c r="H192" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I192" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J192" t="str">
         <f t="shared" si="0"/>
@@ -7391,13 +7394,13 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B193" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C193" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D193" t="s">
         <v>15</v>
@@ -7406,16 +7409,16 @@
         <v>0</v>
       </c>
       <c r="F193" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G193">
         <v>33</v>
       </c>
       <c r="H193" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I193" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J193" t="str">
         <f t="shared" si="0"/>
@@ -7424,13 +7427,13 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B194" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C194" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D194" t="s">
         <v>15</v>
@@ -7439,16 +7442,16 @@
         <v>10</v>
       </c>
       <c r="F194" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G194">
         <v>200</v>
       </c>
       <c r="H194" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I194" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J194" t="str">
         <f t="shared" si="0"/>
@@ -7457,13 +7460,13 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B195" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C195" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D195" t="s">
         <v>15</v>
@@ -7472,16 +7475,16 @@
         <v>1</v>
       </c>
       <c r="F195" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G195">
         <v>7.1</v>
       </c>
       <c r="H195" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I195" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J195" t="str">
         <f t="shared" si="0"/>
@@ -7490,13 +7493,13 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B196" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C196" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D196" t="s">
         <v>15</v>
@@ -7505,16 +7508,16 @@
         <v>0</v>
       </c>
       <c r="F196" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G196">
         <v>51.2</v>
       </c>
       <c r="H196" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I196" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J196" t="str">
         <f t="shared" si="0"/>
@@ -7523,13 +7526,13 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B197" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C197" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D197" t="s">
         <v>15</v>
@@ -7538,16 +7541,16 @@
         <v>1</v>
       </c>
       <c r="F197" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G197">
         <v>8</v>
       </c>
       <c r="H197" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I197" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J197" t="str">
         <f t="shared" si="0"/>
@@ -7556,13 +7559,13 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B198" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C198" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D198" t="s">
         <v>30</v>
@@ -7571,16 +7574,16 @@
         <v>0</v>
       </c>
       <c r="F198" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G198">
         <v>11</v>
       </c>
       <c r="H198" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I198" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J198" t="str">
         <f t="shared" si="0"/>
@@ -7589,13 +7592,13 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B199" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C199" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D199" t="s">
         <v>15</v>
@@ -7604,16 +7607,16 @@
         <v>0</v>
       </c>
       <c r="F199" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G199" s="18" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H199" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I199" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J199" t="str">
         <f t="shared" si="0"/>
@@ -7622,13 +7625,13 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B200" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C200" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D200" t="s">
         <v>30</v>
@@ -7637,16 +7640,16 @@
         <v>0</v>
       </c>
       <c r="F200" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G200">
         <v>18.100000000000001</v>
       </c>
       <c r="H200" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I200" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J200" t="str">
         <f t="shared" si="0"/>
@@ -7655,13 +7658,13 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B201" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C201" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D201" t="s">
         <v>15</v>
@@ -7670,16 +7673,16 @@
         <v>0</v>
       </c>
       <c r="F201" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G201" s="18">
         <v>38.4</v>
       </c>
       <c r="H201" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I201" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J201" t="str">
         <f t="shared" si="0"/>
@@ -7688,13 +7691,13 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B202" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C202" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D202" t="s">
         <v>15</v>
@@ -7703,16 +7706,16 @@
         <v>19.3</v>
       </c>
       <c r="F202" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G202">
         <v>70.2</v>
       </c>
       <c r="H202" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I202" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J202" t="str">
         <f t="shared" si="0"/>
@@ -7766,9 +7769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544F088F-E018-4AF1-A817-C6B9859D0A47}">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:B37"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7789,64 +7792,64 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="L1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="S1" s="13" t="s">
-        <v>125</v>
-      </c>
       <c r="T1" s="13" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -7857,16 +7860,16 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -7887,16 +7890,16 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" t="s">
         <v>129</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>131</v>
-      </c>
-      <c r="R2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -7907,16 +7910,16 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -7937,16 +7940,16 @@
         <v>5</v>
       </c>
       <c r="O3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" t="s">
         <v>129</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>130</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>131</v>
-      </c>
-      <c r="R3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -7957,16 +7960,16 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -7987,16 +7990,16 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" t="s">
         <v>129</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>131</v>
-      </c>
-      <c r="R4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -8007,16 +8010,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -8037,16 +8040,16 @@
         <v>5</v>
       </c>
       <c r="O5" t="s">
+        <v>128</v>
+      </c>
+      <c r="P5" t="s">
         <v>129</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>130</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>131</v>
-      </c>
-      <c r="R5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -8057,16 +8060,16 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -8087,16 +8090,16 @@
         <v>5</v>
       </c>
       <c r="O6" t="s">
+        <v>128</v>
+      </c>
+      <c r="P6" t="s">
         <v>129</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>130</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>131</v>
-      </c>
-      <c r="R6" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -8107,16 +8110,16 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -8137,16 +8140,16 @@
         <v>5</v>
       </c>
       <c r="O7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P7" t="s">
         <v>129</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>130</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>131</v>
-      </c>
-      <c r="R7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -8157,16 +8160,16 @@
         <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -8187,16 +8190,16 @@
         <v>5</v>
       </c>
       <c r="O8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P8" t="s">
         <v>129</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>130</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>131</v>
-      </c>
-      <c r="R8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -8207,16 +8210,16 @@
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -8237,16 +8240,16 @@
         <v>5</v>
       </c>
       <c r="O9" t="s">
+        <v>128</v>
+      </c>
+      <c r="P9" t="s">
         <v>129</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>130</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>131</v>
-      </c>
-      <c r="R9" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -8257,16 +8260,16 @@
         <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -8287,36 +8290,36 @@
         <v>5</v>
       </c>
       <c r="O10" t="s">
+        <v>128</v>
+      </c>
+      <c r="P10" t="s">
         <v>129</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>130</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>131</v>
-      </c>
-      <c r="R10" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -8334,33 +8337,33 @@
         <v>999</v>
       </c>
       <c r="O11" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" t="s">
         <v>126</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>127</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -8375,30 +8378,30 @@
         <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -8413,30 +8416,30 @@
         <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -8451,30 +8454,30 @@
         <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -8489,30 +8492,30 @@
         <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>323</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -8536,39 +8539,39 @@
         <v>100</v>
       </c>
       <c r="O16" t="s">
+        <v>128</v>
+      </c>
+      <c r="P16" t="s">
         <v>129</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>130</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>131</v>
       </c>
-      <c r="R16" t="s">
-        <v>132</v>
-      </c>
       <c r="S16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>323</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -8592,39 +8595,39 @@
         <v>100</v>
       </c>
       <c r="O17" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" t="s">
         <v>129</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>130</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>131</v>
       </c>
-      <c r="R17" t="s">
-        <v>132</v>
-      </c>
       <c r="S17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" t="s">
         <v>151</v>
       </c>
-      <c r="B18" t="s">
-        <v>154</v>
-      </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -8648,39 +8651,39 @@
         <v>100</v>
       </c>
       <c r="O18" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" t="s">
         <v>129</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>130</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>131</v>
       </c>
-      <c r="R18" t="s">
-        <v>132</v>
-      </c>
       <c r="S18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -8704,39 +8707,39 @@
         <v>100</v>
       </c>
       <c r="O19" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" t="s">
         <v>129</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>130</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>131</v>
       </c>
-      <c r="R19" t="s">
-        <v>132</v>
-      </c>
       <c r="S19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -8760,39 +8763,39 @@
         <v>100</v>
       </c>
       <c r="O20" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" t="s">
         <v>129</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>130</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>131</v>
       </c>
-      <c r="R20" t="s">
-        <v>132</v>
-      </c>
       <c r="S20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21">
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -8816,39 +8819,39 @@
         <v>100</v>
       </c>
       <c r="O21" t="s">
+        <v>128</v>
+      </c>
+      <c r="P21" t="s">
         <v>129</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>130</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>131</v>
       </c>
-      <c r="R21" t="s">
-        <v>132</v>
-      </c>
       <c r="S21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -8866,33 +8869,33 @@
         <v>100</v>
       </c>
       <c r="O22" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P22" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q22" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23">
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -8910,33 +8913,33 @@
         <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q23" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24">
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -8954,33 +8957,33 @@
         <v>100</v>
       </c>
       <c r="O24" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P24" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q24" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -8998,33 +9001,33 @@
         <v>100</v>
       </c>
       <c r="O25" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P25" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q25" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26">
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -9042,33 +9045,33 @@
         <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P26" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q26" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27">
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -9086,33 +9089,33 @@
         <v>100</v>
       </c>
       <c r="O27" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P27" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q27" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28">
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -9130,33 +9133,33 @@
         <v>100</v>
       </c>
       <c r="O28" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P28" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q28" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D29">
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -9174,33 +9177,33 @@
         <v>100</v>
       </c>
       <c r="O29" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P29" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q29" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -9218,33 +9221,33 @@
         <v>100</v>
       </c>
       <c r="O30" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P30" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q30" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D31">
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -9256,33 +9259,33 @@
         <v>100</v>
       </c>
       <c r="O31" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P31" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q31" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="B32" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32">
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -9309,42 +9312,42 @@
         <v>100</v>
       </c>
       <c r="O32" t="s">
+        <v>128</v>
+      </c>
+      <c r="P32" t="s">
         <v>129</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>130</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>131</v>
       </c>
-      <c r="R32" t="s">
-        <v>132</v>
-      </c>
       <c r="S32" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T32" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="B33" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -9371,42 +9374,42 @@
         <v>100</v>
       </c>
       <c r="O33" t="s">
+        <v>128</v>
+      </c>
+      <c r="P33" t="s">
         <v>129</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>130</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>131</v>
       </c>
-      <c r="R33" t="s">
-        <v>132</v>
-      </c>
       <c r="S33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T33" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>294</v>
+      </c>
+      <c r="B34" t="s">
         <v>299</v>
       </c>
-      <c r="B34" t="s">
-        <v>304</v>
-      </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F34" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -9415,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>51.4</v>
+        <v>31.5</v>
       </c>
       <c r="J34">
         <v>63</v>
@@ -9424,33 +9427,33 @@
         <v>100</v>
       </c>
       <c r="O34" t="s">
+        <v>129</v>
+      </c>
+      <c r="P34" t="s">
         <v>130</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>131</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B35" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35">
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -9459,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>31.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="J35">
         <v>39.299999999999997</v>
@@ -9468,33 +9471,33 @@
         <v>100</v>
       </c>
       <c r="O35" t="s">
+        <v>129</v>
+      </c>
+      <c r="P35" t="s">
         <v>130</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>131</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36">
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -9503,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>20.3</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="J36">
         <v>35.200000000000003</v>
@@ -9512,33 +9515,33 @@
         <v>100</v>
       </c>
       <c r="O36" t="s">
+        <v>129</v>
+      </c>
+      <c r="P36" t="s">
         <v>130</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>131</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F37" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -9547,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>60.2</v>
+        <v>30.1</v>
       </c>
       <c r="J37">
         <v>60.3</v>
@@ -9556,13 +9559,13 @@
         <v>100</v>
       </c>
       <c r="O37" t="s">
+        <v>129</v>
+      </c>
+      <c r="P37" t="s">
         <v>130</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>131</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -9590,361 +9593,361 @@
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L13" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
         <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L17" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L19" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L22" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L23" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L24" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -9957,7 +9960,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9968,7 +9971,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9988,48 +9991,48 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B12" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -10038,12 +10041,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10270,15 +10270,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10303,18 +10315,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{D924C2CA-49BF-4158-83CD-56259B2874E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1C6B4904-C970-43D7-93D7-50FFA1C87440}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{D924C2CA-49BF-4158-83CD-56259B2874E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{78715BA4-635A-4E03-B9D4-042FF128552E}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="43935" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="44535" windowWidth="14355" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="330">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -1054,6 +1054,12 @@
   </si>
   <si>
     <t>CO_2005</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>Tweaks to GBI_MS_2013.  And convert most names from "." to "_".</t>
   </si>
 </sst>
 </file>
@@ -1725,10 +1731,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,6 +1957,14 @@
       </c>
       <c r="B33" t="s">
         <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>43755</v>
+      </c>
+      <c r="B34" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -1983,7 +1997,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+      <selection pane="bottomLeft" activeCell="G201" sqref="G201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7642,8 +7656,8 @@
       <c r="F200" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G200">
-        <v>18.100000000000001</v>
+      <c r="G200" s="18" t="s">
+        <v>328</v>
       </c>
       <c r="H200" t="s">
         <v>85</v>
@@ -7769,7 +7783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544F088F-E018-4AF1-A817-C6B9859D0A47}">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
@@ -10041,9 +10055,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10270,27 +10287,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10315,9 +10320,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA54FBB8-8943-4754-B59E-DE73B6B90BC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E2D162-EB46-42DE-A5D3-3D6C0058BCEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,6 +77,7 @@
     <author>tc={B824C1F0-0AE4-4C49-AF34-D992C30F536D}</author>
     <author>tc={86F9AC27-9070-41A8-BACD-32C63729CC53}</author>
     <author>tc={5467ECA4-7C26-4228-8026-B0C885BD73D4}</author>
+    <author>Leppo, Erik</author>
   </authors>
   <commentList>
     <comment ref="P1" authorId="0" shapeId="0" xr:uid="{575F5AEC-C002-4D1F-8140-1B32AEA5FC73}">
@@ -111,12 +112,84 @@
     y=mx+b</t>
       </text>
     </comment>
+    <comment ref="Q207" authorId="4" shapeId="0" xr:uid="{2DB5C783-AA4E-40AA-A762-FE898FAB38E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Convert to text otherwise R floating point error.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R207" authorId="4" shapeId="0" xr:uid="{B8885A1A-358F-4186-A1AA-9F2F12EC618F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Convert to text otherwise R floating point error.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U207" authorId="4" shapeId="0" xr:uid="{90FCE161-6CC8-4DE7-AD1B-5389347730BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Convert to text otherwise R floating point error.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="401">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -1312,14 +1385,20 @@
     <t>SingleValue_Add</t>
   </si>
   <si>
-    <t>fun</t>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>1.12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1436,8 +1515,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1463,6 +1555,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1506,7 +1604,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -1540,6 +1638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -1551,7 +1650,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="93">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2490,7 +2599,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="91">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="92">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3114,11 +3223,11 @@
   <dimension ref="A1:AC282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="P206" sqref="P206"/>
+      <selection pane="bottomRight" activeCell="O211" sqref="O211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9671,7 +9780,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="205" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>331</v>
       </c>
@@ -9804,7 +9913,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="207" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>331</v>
       </c>
@@ -9850,11 +9959,11 @@
       <c r="P207" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="Q207">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R207">
-        <v>1.1499999999999999</v>
+      <c r="Q207" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="R207" s="21" t="s">
+        <v>399</v>
       </c>
       <c r="S207" t="s">
         <v>83</v>
@@ -9862,14 +9971,14 @@
       <c r="T207" t="s">
         <v>83</v>
       </c>
-      <c r="U207">
-        <v>1.1200000000000001</v>
+      <c r="U207" s="21" t="s">
+        <v>400</v>
       </c>
       <c r="V207">
         <v>2.25</v>
       </c>
     </row>
-    <row r="208" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>331</v>
       </c>
@@ -9934,7 +10043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>331</v>
       </c>
@@ -9999,7 +10108,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="210" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>331</v>
       </c>
@@ -10040,7 +10149,7 @@
         <v>83</v>
       </c>
       <c r="O210" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="P210" s="20" t="s">
         <v>83</v>
@@ -10064,7 +10173,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="211" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>331</v>
       </c>
@@ -10123,7 +10232,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="212" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>331</v>
       </c>
@@ -10188,7 +10297,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="213" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>331</v>
       </c>
@@ -10253,7 +10362,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="214" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>331</v>
       </c>
@@ -10318,7 +10427,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="215" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>331</v>
       </c>
@@ -10383,7 +10492,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="216" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>331</v>
       </c>
@@ -10448,7 +10557,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="217" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>331</v>
       </c>
@@ -10513,7 +10622,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="218" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>331</v>
       </c>
@@ -10646,7 +10755,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="220" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>331</v>
       </c>
@@ -10714,7 +10823,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="221" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>331</v>
       </c>
@@ -10779,7 +10888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>331</v>
       </c>
@@ -10844,7 +10953,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="223" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>331</v>
       </c>
@@ -10912,7 +11021,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="224" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>331</v>
       </c>
@@ -10977,7 +11086,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="225" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>331</v>
       </c>
@@ -11042,7 +11151,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="226" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>331</v>
       </c>
@@ -11107,7 +11216,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="227" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>331</v>
       </c>
@@ -11172,7 +11281,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="228" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>331</v>
       </c>
@@ -11237,7 +11346,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="229" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>331</v>
       </c>
@@ -11302,7 +11411,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="230" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>331</v>
       </c>
@@ -11367,7 +11476,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="231" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>331</v>
       </c>
@@ -11494,7 +11603,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="233" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>331</v>
       </c>
@@ -11556,7 +11665,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="234" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>331</v>
       </c>
@@ -11621,7 +11730,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="235" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>331</v>
       </c>
@@ -11686,7 +11795,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="236" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>331</v>
       </c>
@@ -11748,7 +11857,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="237" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>331</v>
       </c>
@@ -11810,7 +11919,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="238" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>331</v>
       </c>
@@ -11872,7 +11981,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="239" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>331</v>
       </c>
@@ -11934,7 +12043,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="240" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>331</v>
       </c>
@@ -11996,7 +12105,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="241" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>331</v>
       </c>
@@ -12058,7 +12167,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="242" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>331</v>
       </c>
@@ -12120,7 +12229,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="243" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>331</v>
       </c>
@@ -12182,7 +12291,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="244" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>331</v>
       </c>
@@ -12309,7 +12418,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="246" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>331</v>
       </c>
@@ -12374,7 +12483,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="247" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>331</v>
       </c>
@@ -12439,7 +12548,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>331</v>
       </c>
@@ -12504,7 +12613,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="249" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>331</v>
       </c>
@@ -12566,7 +12675,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="250" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>331</v>
       </c>
@@ -12628,7 +12737,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="251" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>331</v>
       </c>
@@ -12690,7 +12799,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="252" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>331</v>
       </c>
@@ -12752,7 +12861,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>331</v>
       </c>
@@ -12814,7 +12923,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="254" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>331</v>
       </c>
@@ -12876,7 +12985,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="255" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>331</v>
       </c>
@@ -12938,7 +13047,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="256" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>331</v>
       </c>
@@ -13000,7 +13109,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="257" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>331</v>
       </c>
@@ -13124,7 +13233,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="259" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>331</v>
       </c>
@@ -13186,7 +13295,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="260" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>331</v>
       </c>
@@ -13248,7 +13357,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>331</v>
       </c>
@@ -13310,7 +13419,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="262" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>331</v>
       </c>
@@ -13372,7 +13481,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="263" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>331</v>
       </c>
@@ -13434,7 +13543,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="264" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>331</v>
       </c>
@@ -13496,7 +13605,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="265" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>331</v>
       </c>
@@ -13558,7 +13667,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="266" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>331</v>
       </c>
@@ -13620,7 +13729,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="267" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>331</v>
       </c>
@@ -13682,7 +13791,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="268" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>331</v>
       </c>
@@ -13744,7 +13853,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="269" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>331</v>
       </c>
@@ -13806,7 +13915,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="270" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>331</v>
       </c>
@@ -13930,7 +14039,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="272" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>331</v>
       </c>
@@ -13992,7 +14101,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="273" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>331</v>
       </c>
@@ -14054,7 +14163,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>331</v>
       </c>
@@ -14116,7 +14225,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="275" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>331</v>
       </c>
@@ -14178,7 +14287,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="276" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>331</v>
       </c>
@@ -14240,7 +14349,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="277" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>331</v>
       </c>
@@ -14302,7 +14411,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="278" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>331</v>
       </c>
@@ -14364,7 +14473,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="279" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>331</v>
       </c>
@@ -14426,7 +14535,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="280" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>331</v>
       </c>
@@ -14488,7 +14597,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="281" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>331</v>
       </c>
@@ -14550,7 +14659,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="282" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>331</v>
       </c>
@@ -14619,401 +14728,396 @@
         <filter val="GADNR_Fish_2005"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="D2:D185 D204:D209 D212">
-    <cfRule type="cellIs" dxfId="90" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="93" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="94" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D188:D203 I204 E203:J203 Z203 W203:X203">
-    <cfRule type="cellIs" dxfId="88" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D186">
-    <cfRule type="cellIs" dxfId="86" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="89" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="90" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D187">
-    <cfRule type="cellIs" dxfId="84" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="88" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O186:O209">
-    <cfRule type="expression" dxfId="82" priority="85">
+    <cfRule type="expression" dxfId="83" priority="86">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E204:G204 E206:F206 E211:E216 F205 F207:F229">
-    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="84" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="85" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W204">
-    <cfRule type="cellIs" dxfId="79" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="83" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H204:H205">
-    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="80" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="81" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X204">
-    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="77" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J204">
-    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H206:H209">
-    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U186:V204">
-    <cfRule type="expression" dxfId="69" priority="95">
+    <cfRule type="expression" dxfId="70" priority="96">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q186:R209">
-    <cfRule type="expression" dxfId="68" priority="97">
+    <cfRule type="expression" dxfId="69" priority="98">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P186:P209">
-    <cfRule type="expression" dxfId="67" priority="99">
+    <cfRule type="expression" dxfId="68" priority="100">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H210">
-    <cfRule type="cellIs" dxfId="66" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="70" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="71" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H218">
-    <cfRule type="cellIs" dxfId="64" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="68" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="69" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H219:H222">
-    <cfRule type="cellIs" dxfId="62" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H223">
-    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="64" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="65" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H211:H216">
-    <cfRule type="cellIs" dxfId="58" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="63" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H224">
-    <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H225:H229">
-    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="58" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="59" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L186:M206">
-    <cfRule type="expression" dxfId="52" priority="100">
+    <cfRule type="expression" dxfId="53" priority="101">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H217">
-    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D214">
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D225">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D227">
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N186:N206">
-    <cfRule type="expression" dxfId="43" priority="102">
+    <cfRule type="expression" dxfId="44" priority="103">
       <formula>F186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J186:J202">
-    <cfRule type="expression" dxfId="42" priority="103">
+    <cfRule type="expression" dxfId="43" priority="104">
       <formula>D186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S186:T204 S205:S209">
-    <cfRule type="expression" dxfId="41" priority="105">
+    <cfRule type="expression" dxfId="42" priority="106">
       <formula>F186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O210">
+  <conditionalFormatting sqref="O218:O222">
     <cfRule type="expression" dxfId="40" priority="46">
-      <formula>E210="Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O218:O222">
-    <cfRule type="expression" dxfId="39" priority="45">
       <formula>E218="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O223">
-    <cfRule type="expression" dxfId="38" priority="44">
+    <cfRule type="expression" dxfId="39" priority="45">
       <formula>E223="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P210">
-    <cfRule type="expression" dxfId="37" priority="43">
+    <cfRule type="expression" dxfId="38" priority="44">
       <formula>E210="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P218:P222">
-    <cfRule type="expression" dxfId="36" priority="42">
+    <cfRule type="expression" dxfId="37" priority="43">
       <formula>E218="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P223">
-    <cfRule type="expression" dxfId="35" priority="40">
+    <cfRule type="expression" dxfId="36" priority="41">
       <formula>E223="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S210:S223">
-    <cfRule type="expression" dxfId="34" priority="39">
+    <cfRule type="expression" dxfId="35" priority="40">
       <formula>F210="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S224:S230">
-    <cfRule type="expression" dxfId="33" priority="37">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>F224="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U205:U209">
-    <cfRule type="expression" dxfId="32" priority="35">
+    <cfRule type="expression" dxfId="33" priority="36">
       <formula>I205="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V205:V209">
-    <cfRule type="expression" dxfId="31" priority="34">
+    <cfRule type="expression" dxfId="32" priority="35">
       <formula>J205="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T205:T209">
-    <cfRule type="expression" dxfId="30" priority="33">
+    <cfRule type="expression" dxfId="31" priority="34">
       <formula>G205="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T210:T223">
-    <cfRule type="expression" dxfId="29" priority="32">
+    <cfRule type="expression" dxfId="30" priority="33">
       <formula>G210="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T224:T230">
-    <cfRule type="expression" dxfId="28" priority="31">
+    <cfRule type="expression" dxfId="29" priority="32">
       <formula>G224="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P232">
-    <cfRule type="expression" dxfId="27" priority="30">
+    <cfRule type="expression" dxfId="28" priority="31">
       <formula>E232="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P245">
-    <cfRule type="expression" dxfId="26" priority="29">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>E245="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P246">
-    <cfRule type="expression" dxfId="25" priority="28">
+    <cfRule type="expression" dxfId="26" priority="29">
       <formula>E246="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P247:P248">
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="25" priority="28">
       <formula>E247="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P234:P235">
-    <cfRule type="expression" dxfId="23" priority="26">
+    <cfRule type="expression" dxfId="24" priority="27">
       <formula>E234="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O270:O275 O257:O262 O244:O249 O231:O236">
-    <cfRule type="expression" dxfId="22" priority="25">
+    <cfRule type="expression" dxfId="23" priority="26">
       <formula>E231="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F253">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H253">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F279">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H279">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F282 F269 F256 F243 F230">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H270:H275 H257:H262 H244:H249 H231:H236">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H280:H281 H276:H278 H263:H268 H254:H255 H250:H252 H237:H242">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L279 L253 L227">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E245:E248 E234:E235 E232 E223 E219:E220">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H282 H269 H256 H243 H230">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E282 E269 E256 E243 E230 E217">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O210">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>E210="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17550,21 +17654,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100557C7523FAC84E43A0DA62C173857381" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4b9ddb1302998b61081aed2913076a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" xmlns:ns4="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3079d22dc9190cbddbf9f4c007b8016d" ns3:_="" ns4:_="">
     <xsd:import namespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
@@ -17787,15 +17882,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -17812,7 +17908,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19304C29-C31A-47A1-B855-8D09E823E92C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17829,4 +17925,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E2D162-EB46-42DE-A5D3-3D6C0058BCEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1305039-6C62-4753-84A8-49CCFD7C2C70}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">index.scoring!$A$1:$T$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$AC$282</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$AC$280</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -112,7 +112,7 @@
     y=mx+b</t>
       </text>
     </comment>
-    <comment ref="Q207" authorId="4" shapeId="0" xr:uid="{2DB5C783-AA4E-40AA-A762-FE898FAB38E3}">
+    <comment ref="Q205" authorId="4" shapeId="0" xr:uid="{2DB5C783-AA4E-40AA-A762-FE898FAB38E3}">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R207" authorId="4" shapeId="0" xr:uid="{B8885A1A-358F-4186-A1AA-9F2F12EC618F}">
+    <comment ref="R205" authorId="4" shapeId="0" xr:uid="{B8885A1A-358F-4186-A1AA-9F2F12EC618F}">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,343 @@
         </r>
       </text>
     </comment>
-    <comment ref="U207" authorId="4" shapeId="0" xr:uid="{90FCE161-6CC8-4DE7-AD1B-5389347730BE}">
+    <comment ref="U205" authorId="4" shapeId="0" xr:uid="{90FCE161-6CC8-4DE7-AD1B-5389347730BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Convert to text otherwise R floating point error.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R218" authorId="4" shapeId="0" xr:uid="{647E1CF6-4D45-4765-8130-9B66C8B826E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Convert to text otherwise R floating point error.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U218" authorId="4" shapeId="0" xr:uid="{A56B3AD8-F48A-40DA-B32D-956B827573DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Convert to text otherwise R floating point error.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q221" authorId="4" shapeId="0" xr:uid="{AA6CACE2-9475-4EEE-AD8B-BBABA688212C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Convert to text otherwise R floating point error.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R221" authorId="4" shapeId="0" xr:uid="{A839B1A8-1C1D-4C08-B17E-547DEBB7FDD0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Convert to text otherwise R floating point error.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U221" authorId="4" shapeId="0" xr:uid="{42B244DF-B1E1-4759-893A-914AFFB48A2A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Convert to text otherwise R floating point error.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R229" authorId="4" shapeId="0" xr:uid="{FAD7D298-E2F2-478C-AA2C-3E04353CE2B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Convert to text otherwise R floating point error.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E232" authorId="4" shapeId="0" xr:uid="{F7FF7B48-B491-46FF-BB6E-6A4483597714}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Convert to text otherwise R floating point error.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q233" authorId="4" shapeId="0" xr:uid="{166376F0-B799-4D75-A76B-37E2D2CD476B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Convert to text otherwise R floating point error.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R242" authorId="4" shapeId="0" xr:uid="{4914F668-43EA-44A2-BB05-2A7C406A2FDA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Convert to text otherwise R floating point error.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E245" authorId="4" shapeId="0" xr:uid="{27FB5471-4FAB-4844-AF45-E623C97BAEE4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Convert to text otherwise R floating point error.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q246" authorId="4" shapeId="0" xr:uid="{BE4B5DC9-F9A0-47EF-B851-748FE579A572}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Convert to text otherwise R floating point error.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U247" authorId="4" shapeId="0" xr:uid="{A979A1A6-D851-4F37-994B-2B59108ADAD1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Convert to text otherwise R floating point error.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U255" authorId="4" shapeId="0" xr:uid="{291A2BDD-FD9F-481D-BC67-2908255FB031}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Convert to text otherwise R floating point error.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U268" authorId="4" shapeId="0" xr:uid="{5C08FF40-0873-4DE0-A1FD-BC04A96130BA}">
       <text>
         <r>
           <rPr>
@@ -189,7 +525,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3464" uniqueCount="396">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -1187,15 +1523,9 @@
     <t>GADNR_Fish_2005</t>
   </si>
   <si>
-    <t>PDT_ACF</t>
-  </si>
-  <si>
     <t>nt_native</t>
   </si>
   <si>
-    <t>log10 drainage area m2</t>
-  </si>
-  <si>
     <t>Adjust_Formula_Lo</t>
   </si>
   <si>
@@ -1214,42 +1544,12 @@
     <t>Adjust_MaxVal_Hi</t>
   </si>
   <si>
-    <t>nt_beninvrt</t>
-  </si>
-  <si>
-    <t>m, b</t>
-  </si>
-  <si>
-    <t>m, b, cutoff</t>
-  </si>
-  <si>
-    <t>3.64, 7.25</t>
-  </si>
-  <si>
-    <t>6.04, 11.86</t>
-  </si>
-  <si>
-    <t>0.24, 0.77, 1.48</t>
-  </si>
-  <si>
-    <t>0.52, 1.55, 1.48</t>
-  </si>
-  <si>
     <t>CatGrad_135</t>
   </si>
   <si>
     <t>log10_DA_mi2</t>
   </si>
   <si>
-    <t>PDT_ACT</t>
-  </si>
-  <si>
-    <t>PDT_AS</t>
-  </si>
-  <si>
-    <t>GADNR_Fish_2005_test</t>
-  </si>
-  <si>
     <t>nt_beninvert</t>
   </si>
   <si>
@@ -1392,6 +1692,27 @@
   </si>
   <si>
     <t>1.12</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>4.52</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>4.64</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1971,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="84">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1878,16 +2199,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2413,86 +2724,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2599,7 +2830,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="92">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="83">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3189,7 +3420,7 @@
         <v>43817</v>
       </c>
       <c r="B35" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -3220,14 +3451,14 @@
   <sheetPr codeName="Sheet1" filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AC282"/>
+  <dimension ref="A1:AC280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D268" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="O211" sqref="O211"/>
+      <selection pane="bottomRight" activeCell="U268" sqref="U268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3240,8 +3471,8 @@
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
@@ -3294,61 +3525,61 @@
         <v>265</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="W1" s="19" t="s">
         <v>330</v>
       </c>
       <c r="X1" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y1" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Z1" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB1" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="Z1" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>338</v>
-      </c>
-      <c r="AB1" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC1" s="19" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -3380,7 +3611,7 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -3412,7 +3643,7 @@
         <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -3444,7 +3675,7 @@
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -3476,7 +3707,7 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -3508,7 +3739,7 @@
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -3540,7 +3771,7 @@
         <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -3572,7 +3803,7 @@
         <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -3604,7 +3835,7 @@
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -3636,7 +3867,7 @@
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -3668,7 +3899,7 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -3700,7 +3931,7 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -3732,7 +3963,7 @@
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -3764,7 +3995,7 @@
         <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -3796,7 +4027,7 @@
         <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -3828,7 +4059,7 @@
         <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3860,7 +4091,7 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3892,7 +4123,7 @@
         <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3924,7 +4155,7 @@
         <v>35</v>
       </c>
       <c r="K19" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3956,7 +4187,7 @@
         <v>37</v>
       </c>
       <c r="K20" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3988,7 +4219,7 @@
         <v>38</v>
       </c>
       <c r="K21" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4020,7 +4251,7 @@
         <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4052,7 +4283,7 @@
         <v>43</v>
       </c>
       <c r="K23" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4084,7 +4315,7 @@
         <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4116,7 +4347,7 @@
         <v>47</v>
       </c>
       <c r="K25" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4148,7 +4379,7 @@
         <v>49</v>
       </c>
       <c r="K26" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4180,7 +4411,7 @@
         <v>51</v>
       </c>
       <c r="K27" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4212,7 +4443,7 @@
         <v>53</v>
       </c>
       <c r="K28" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4244,7 +4475,7 @@
         <v>43</v>
       </c>
       <c r="K29" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4276,7 +4507,7 @@
         <v>45</v>
       </c>
       <c r="K30" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4308,7 +4539,7 @@
         <v>47</v>
       </c>
       <c r="K31" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4340,7 +4571,7 @@
         <v>49</v>
       </c>
       <c r="K32" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4372,7 +4603,7 @@
         <v>55</v>
       </c>
       <c r="K33" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4404,7 +4635,7 @@
         <v>57</v>
       </c>
       <c r="K34" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4436,7 +4667,7 @@
         <v>43</v>
       </c>
       <c r="K35" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4468,7 +4699,7 @@
         <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4500,7 +4731,7 @@
         <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4532,7 +4763,7 @@
         <v>49</v>
       </c>
       <c r="K38" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4564,7 +4795,7 @@
         <v>59</v>
       </c>
       <c r="K39" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4596,7 +4827,7 @@
         <v>53</v>
       </c>
       <c r="K40" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4628,7 +4859,7 @@
         <v>43</v>
       </c>
       <c r="K41" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4660,7 +4891,7 @@
         <v>47</v>
       </c>
       <c r="K42" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4692,7 +4923,7 @@
         <v>62</v>
       </c>
       <c r="K43" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4724,7 +4955,7 @@
         <v>64</v>
       </c>
       <c r="K44" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4756,7 +4987,7 @@
         <v>16</v>
       </c>
       <c r="K45" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4788,7 +5019,7 @@
         <v>18</v>
       </c>
       <c r="K46" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4820,7 +5051,7 @@
         <v>20</v>
       </c>
       <c r="K47" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4852,7 +5083,7 @@
         <v>68</v>
       </c>
       <c r="K48" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4884,7 +5115,7 @@
         <v>24</v>
       </c>
       <c r="K49" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4916,7 +5147,7 @@
         <v>70</v>
       </c>
       <c r="K50" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4948,7 +5179,7 @@
         <v>72</v>
       </c>
       <c r="K51" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4980,7 +5211,7 @@
         <v>16</v>
       </c>
       <c r="K52" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5012,7 +5243,7 @@
         <v>18</v>
       </c>
       <c r="K53" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5044,7 +5275,7 @@
         <v>20</v>
       </c>
       <c r="K54" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5076,7 +5307,7 @@
         <v>68</v>
       </c>
       <c r="K55" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5108,7 +5339,7 @@
         <v>24</v>
       </c>
       <c r="K56" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5140,7 +5371,7 @@
         <v>70</v>
       </c>
       <c r="K57" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5172,7 +5403,7 @@
         <v>72</v>
       </c>
       <c r="K58" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5201,7 +5432,7 @@
         <v>75</v>
       </c>
       <c r="K59" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5233,7 +5464,7 @@
         <v>242</v>
       </c>
       <c r="K60" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5262,7 +5493,7 @@
         <v>77</v>
       </c>
       <c r="K61" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5291,7 +5522,7 @@
         <v>78</v>
       </c>
       <c r="K62" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5320,7 +5551,7 @@
         <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5349,7 +5580,7 @@
         <v>79</v>
       </c>
       <c r="K64" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5378,7 +5609,7 @@
         <v>81</v>
       </c>
       <c r="K65" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5410,7 +5641,7 @@
         <v>242</v>
       </c>
       <c r="K66" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5439,7 +5670,7 @@
         <v>244</v>
       </c>
       <c r="K67" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5471,7 +5702,7 @@
         <v>240</v>
       </c>
       <c r="K68" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5500,7 +5731,7 @@
         <v>17</v>
       </c>
       <c r="K69" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5529,7 +5760,7 @@
         <v>134</v>
       </c>
       <c r="K70" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5558,7 +5789,7 @@
         <v>135</v>
       </c>
       <c r="K71" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5587,7 +5818,7 @@
         <v>135</v>
       </c>
       <c r="K72" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5616,7 +5847,7 @@
         <v>135</v>
       </c>
       <c r="K73" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5645,7 +5876,7 @@
         <v>135</v>
       </c>
       <c r="K74" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5674,7 +5905,7 @@
         <v>135</v>
       </c>
       <c r="K75" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5703,7 +5934,7 @@
         <v>135</v>
       </c>
       <c r="K76" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5732,7 +5963,7 @@
         <v>135</v>
       </c>
       <c r="K77" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5761,7 +5992,7 @@
         <v>135</v>
       </c>
       <c r="K78" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5790,7 +6021,7 @@
         <v>135</v>
       </c>
       <c r="K79" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5819,7 +6050,7 @@
         <v>135</v>
       </c>
       <c r="K80" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5848,7 +6079,7 @@
         <v>135</v>
       </c>
       <c r="K81" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5877,7 +6108,7 @@
         <v>135</v>
       </c>
       <c r="K82" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5906,7 +6137,7 @@
         <v>85</v>
       </c>
       <c r="K83" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5935,7 +6166,7 @@
         <v>85</v>
       </c>
       <c r="K84" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5964,7 +6195,7 @@
         <v>85</v>
       </c>
       <c r="K85" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5993,7 +6224,7 @@
         <v>85</v>
       </c>
       <c r="K86" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6022,7 +6253,7 @@
         <v>85</v>
       </c>
       <c r="K87" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6051,7 +6282,7 @@
         <v>85</v>
       </c>
       <c r="K88" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6080,7 +6311,7 @@
         <v>85</v>
       </c>
       <c r="K89" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6109,7 +6340,7 @@
         <v>85</v>
       </c>
       <c r="K90" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6138,7 +6369,7 @@
         <v>85</v>
       </c>
       <c r="K91" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6167,7 +6398,7 @@
         <v>85</v>
       </c>
       <c r="K92" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6196,7 +6427,7 @@
         <v>85</v>
       </c>
       <c r="K93" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6225,7 +6456,7 @@
         <v>85</v>
       </c>
       <c r="K94" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6254,7 +6485,7 @@
         <v>85</v>
       </c>
       <c r="K95" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6283,7 +6514,7 @@
         <v>85</v>
       </c>
       <c r="K96" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6312,7 +6543,7 @@
         <v>85</v>
       </c>
       <c r="K97" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6341,7 +6572,7 @@
         <v>85</v>
       </c>
       <c r="K98" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6370,7 +6601,7 @@
         <v>85</v>
       </c>
       <c r="K99" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6399,7 +6630,7 @@
         <v>85</v>
       </c>
       <c r="K100" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6428,7 +6659,7 @@
         <v>85</v>
       </c>
       <c r="K101" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6457,7 +6688,7 @@
         <v>85</v>
       </c>
       <c r="K102" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6486,7 +6717,7 @@
         <v>85</v>
       </c>
       <c r="K103" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6515,7 +6746,7 @@
         <v>85</v>
       </c>
       <c r="K104" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6544,7 +6775,7 @@
         <v>85</v>
       </c>
       <c r="K105" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6573,7 +6804,7 @@
         <v>85</v>
       </c>
       <c r="K106" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6602,7 +6833,7 @@
         <v>85</v>
       </c>
       <c r="K107" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6631,7 +6862,7 @@
         <v>134</v>
       </c>
       <c r="K108" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6660,7 +6891,7 @@
         <v>134</v>
       </c>
       <c r="K109" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6689,7 +6920,7 @@
         <v>134</v>
       </c>
       <c r="K110" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6718,7 +6949,7 @@
         <v>134</v>
       </c>
       <c r="K111" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6747,7 +6978,7 @@
         <v>134</v>
       </c>
       <c r="K112" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6776,7 +7007,7 @@
         <v>134</v>
       </c>
       <c r="K113" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6808,7 +7039,7 @@
         <v>241</v>
       </c>
       <c r="K114" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6840,7 +7071,7 @@
         <v>242</v>
       </c>
       <c r="K115" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6872,7 +7103,7 @@
         <v>242</v>
       </c>
       <c r="K116" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6904,7 +7135,7 @@
         <v>242</v>
       </c>
       <c r="K117" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6936,7 +7167,7 @@
         <v>242</v>
       </c>
       <c r="K118" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6968,7 +7199,7 @@
         <v>243</v>
       </c>
       <c r="K119" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7000,7 +7231,7 @@
         <v>243</v>
       </c>
       <c r="K120" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7032,7 +7263,7 @@
         <v>243</v>
       </c>
       <c r="K121" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7061,7 +7292,7 @@
         <v>244</v>
       </c>
       <c r="K122" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7090,7 +7321,7 @@
         <v>244</v>
       </c>
       <c r="K123" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7119,7 +7350,7 @@
         <v>244</v>
       </c>
       <c r="K124" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7148,7 +7379,7 @@
         <v>244</v>
       </c>
       <c r="K125" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7177,7 +7408,7 @@
         <v>244</v>
       </c>
       <c r="K126" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7206,7 +7437,7 @@
         <v>244</v>
       </c>
       <c r="K127" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7235,7 +7466,7 @@
         <v>134</v>
       </c>
       <c r="K128" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7267,7 +7498,7 @@
         <v>240</v>
       </c>
       <c r="K129" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7299,7 +7530,7 @@
         <v>240</v>
       </c>
       <c r="K130" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7331,7 +7562,7 @@
         <v>240</v>
       </c>
       <c r="K131" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7360,7 +7591,7 @@
         <v>134</v>
       </c>
       <c r="K132" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7389,7 +7620,7 @@
         <v>134</v>
       </c>
       <c r="K133" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7418,7 +7649,7 @@
         <v>134</v>
       </c>
       <c r="K134" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7447,7 +7678,7 @@
         <v>134</v>
       </c>
       <c r="K135" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7476,7 +7707,7 @@
         <v>134</v>
       </c>
       <c r="K136" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7505,7 +7736,7 @@
         <v>134</v>
       </c>
       <c r="K137" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7534,7 +7765,7 @@
         <v>134</v>
       </c>
       <c r="K138" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7563,7 +7794,7 @@
         <v>134</v>
       </c>
       <c r="K139" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7592,7 +7823,7 @@
         <v>134</v>
       </c>
       <c r="K140" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7621,7 +7852,7 @@
         <v>134</v>
       </c>
       <c r="K141" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7650,7 +7881,7 @@
         <v>134</v>
       </c>
       <c r="K142" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7679,7 +7910,7 @@
         <v>134</v>
       </c>
       <c r="K143" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7708,7 +7939,7 @@
         <v>134</v>
       </c>
       <c r="K144" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7737,7 +7968,7 @@
         <v>134</v>
       </c>
       <c r="K145" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7766,7 +7997,7 @@
         <v>134</v>
       </c>
       <c r="K146" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7795,7 +8026,7 @@
         <v>134</v>
       </c>
       <c r="K147" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7824,7 +8055,7 @@
         <v>134</v>
       </c>
       <c r="K148" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7853,7 +8084,7 @@
         <v>134</v>
       </c>
       <c r="K149" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7885,7 +8116,7 @@
         <v>83</v>
       </c>
       <c r="K150" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7917,7 +8148,7 @@
         <v>83</v>
       </c>
       <c r="K151" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7949,7 +8180,7 @@
         <v>83</v>
       </c>
       <c r="K152" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7981,7 +8212,7 @@
         <v>83</v>
       </c>
       <c r="K153" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8013,7 +8244,7 @@
         <v>83</v>
       </c>
       <c r="K154" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8045,7 +8276,7 @@
         <v>83</v>
       </c>
       <c r="K155" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8077,7 +8308,7 @@
         <v>83</v>
       </c>
       <c r="K156" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8109,7 +8340,7 @@
         <v>83</v>
       </c>
       <c r="K157" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8141,7 +8372,7 @@
         <v>83</v>
       </c>
       <c r="K158" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8173,7 +8404,7 @@
         <v>83</v>
       </c>
       <c r="K159" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8205,7 +8436,7 @@
         <v>83</v>
       </c>
       <c r="K160" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8237,7 +8468,7 @@
         <v>83</v>
       </c>
       <c r="K161" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8269,7 +8500,7 @@
         <v>83</v>
       </c>
       <c r="K162" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8301,7 +8532,7 @@
         <v>83</v>
       </c>
       <c r="K163" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8333,7 +8564,7 @@
         <v>83</v>
       </c>
       <c r="K164" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8365,7 +8596,7 @@
         <v>83</v>
       </c>
       <c r="K165" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8397,7 +8628,7 @@
         <v>83</v>
       </c>
       <c r="K166" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8429,7 +8660,7 @@
         <v>83</v>
       </c>
       <c r="K167" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8458,7 +8689,7 @@
         <v>134</v>
       </c>
       <c r="K168" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8490,7 +8721,7 @@
         <v>242</v>
       </c>
       <c r="K169" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8519,7 +8750,7 @@
         <v>244</v>
       </c>
       <c r="K170" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8551,7 +8782,7 @@
         <v>240</v>
       </c>
       <c r="K171" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8580,7 +8811,7 @@
         <v>134</v>
       </c>
       <c r="K172" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8609,7 +8840,7 @@
         <v>134</v>
       </c>
       <c r="K173" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8644,7 +8875,7 @@
         <v>255</v>
       </c>
       <c r="K174" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8679,7 +8910,7 @@
         <v>256</v>
       </c>
       <c r="K175" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8714,7 +8945,7 @@
         <v>257</v>
       </c>
       <c r="K176" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="177" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -8749,7 +8980,7 @@
         <v>264</v>
       </c>
       <c r="K177" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="L177" s="16"/>
       <c r="M177" s="16"/>
@@ -8795,7 +9026,7 @@
         <v>258</v>
       </c>
       <c r="K178" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="179" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -8830,7 +9061,7 @@
         <v>259</v>
       </c>
       <c r="K179" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="180" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -8865,7 +9096,7 @@
         <v>260</v>
       </c>
       <c r="K180" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="181" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -8900,7 +9131,7 @@
         <v>261</v>
       </c>
       <c r="K181" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="182" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -8935,7 +9166,7 @@
         <v>262</v>
       </c>
       <c r="K182" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="L182" s="16"/>
       <c r="M182" s="16"/>
@@ -8981,7 +9212,7 @@
         <v>288</v>
       </c>
       <c r="K183" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="184" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -9016,7 +9247,7 @@
         <v>289</v>
       </c>
       <c r="K184" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="185" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -9051,7 +9282,7 @@
         <v>263</v>
       </c>
       <c r="K185" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="186" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -9087,7 +9318,7 @@
         <v>100*(57.5-metric)/57.5</v>
       </c>
       <c r="K186" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="187" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -9123,7 +9354,7 @@
         <v>100*(19.5-metric)/19.5</v>
       </c>
       <c r="K187" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="188" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -9159,7 +9390,7 @@
         <v>100*(metric-0)/20.6</v>
       </c>
       <c r="K188" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="189" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -9195,7 +9426,7 @@
         <v>100*(metric-0)/58.6</v>
       </c>
       <c r="K189" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="190" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -9231,7 +9462,7 @@
         <v>100*(metric-0)/16.7</v>
       </c>
       <c r="K190" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="191" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -9267,7 +9498,7 @@
         <v>100*(metric-0)/17.1</v>
       </c>
       <c r="K191" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="192" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -9303,10 +9534,10 @@
         <v>100*(metric-0.4)/4.6</v>
       </c>
       <c r="K192" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="193" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>294</v>
       </c>
@@ -9339,10 +9570,10 @@
         <v>100*(metric-0)/33</v>
       </c>
       <c r="K193" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="194" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>294</v>
       </c>
@@ -9375,10 +9606,10 @@
         <v>100*(metric-10)/190</v>
       </c>
       <c r="K194" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>294</v>
       </c>
@@ -9411,10 +9642,10 @@
         <v>100*(metric-1)/6.1</v>
       </c>
       <c r="K195" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="196" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>294</v>
       </c>
@@ -9447,10 +9678,10 @@
         <v>100*(metric-0)/51.2</v>
       </c>
       <c r="K196" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="197" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>294</v>
       </c>
@@ -9483,10 +9714,10 @@
         <v>100*(metric-1)/7</v>
       </c>
       <c r="K197" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="198" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>294</v>
       </c>
@@ -9519,10 +9750,10 @@
         <v>100*(11-metric)/11</v>
       </c>
       <c r="K198" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="199" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>294</v>
       </c>
@@ -9555,10 +9786,10 @@
         <v>100*(metric-0)/65.1</v>
       </c>
       <c r="K199" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="200" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>294</v>
       </c>
@@ -9591,10 +9822,10 @@
         <v>100*(18.1-metric)/18.1</v>
       </c>
       <c r="K200" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="201" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>294</v>
       </c>
@@ -9627,10 +9858,10 @@
         <v>100*(metric-0)/38.4</v>
       </c>
       <c r="K201" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="202" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>294</v>
       </c>
@@ -9663,18 +9894,18 @@
         <v>100*(metric-19.3)/50.9</v>
       </c>
       <c r="K202" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="203" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="B203" t="s">
+        <v>355</v>
+      </c>
+      <c r="C203" t="s">
         <v>332</v>
-      </c>
-      <c r="C203" t="s">
-        <v>333</v>
       </c>
       <c r="D203" t="s">
         <v>15</v>
@@ -9685,49 +9916,58 @@
       <c r="F203" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G203" s="17" t="s">
+      <c r="G203" t="s">
         <v>83</v>
       </c>
       <c r="H203" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I203" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="J203" s="17" t="s">
-        <v>342</v>
+        <v>339</v>
+      </c>
+      <c r="I203" s="10">
+        <v>1</v>
       </c>
       <c r="K203" t="s">
-        <v>375</v>
-      </c>
-      <c r="W203" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="X203" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y203" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z203" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="AA203" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB203" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC203" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="204" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="L203" t="s">
+        <v>83</v>
+      </c>
+      <c r="M203" t="s">
+        <v>83</v>
+      </c>
+      <c r="N203" t="s">
+        <v>83</v>
+      </c>
+      <c r="O203" t="s">
+        <v>340</v>
+      </c>
+      <c r="P203" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q203">
+        <v>3.64</v>
+      </c>
+      <c r="R203">
+        <v>7.25</v>
+      </c>
+      <c r="S203" t="s">
+        <v>83</v>
+      </c>
+      <c r="T203" t="s">
+        <v>83</v>
+      </c>
+      <c r="U203">
+        <v>6.04</v>
+      </c>
+      <c r="V203">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="B204" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="C204" t="s">
         <v>341</v>
@@ -9736,59 +9976,69 @@
         <v>15</v>
       </c>
       <c r="E204">
-        <v>1.32</v>
+        <f>ROUND(Q204*P204+R204,2)</f>
+        <v>1.3</v>
       </c>
       <c r="F204" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G204" s="17">
-        <v>2.74</v>
+      <c r="G204">
+        <f>ROUND(U204*P204+V204,2)</f>
+        <v>2.7</v>
       </c>
       <c r="H204" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I204" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="J204" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
+      </c>
+      <c r="I204" s="10">
+        <v>2</v>
       </c>
       <c r="K204" t="s">
-        <v>375</v>
-      </c>
-      <c r="W204" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="X204" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y204" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z204" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA204">
-        <f>ROUND(LOG10(30),2)</f>
+        <v>363</v>
+      </c>
+      <c r="L204" t="s">
+        <v>83</v>
+      </c>
+      <c r="M204" t="s">
+        <v>83</v>
+      </c>
+      <c r="N204" t="s">
+        <v>83</v>
+      </c>
+      <c r="O204" t="s">
+        <v>340</v>
+      </c>
+      <c r="P204" s="20" t="str">
+        <f>TEXT(ROUND(LOG10(30),2),"0.00")</f>
         <v>1.48</v>
       </c>
-      <c r="AB204" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC204">
-        <f>ROUND(LOG10(30),2)</f>
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q204">
+        <v>0.36</v>
+      </c>
+      <c r="R204">
+        <v>0.77</v>
+      </c>
+      <c r="S204" t="s">
+        <v>83</v>
+      </c>
+      <c r="T204" t="s">
+        <v>83</v>
+      </c>
+      <c r="U204">
+        <v>0.78</v>
+      </c>
+      <c r="V204">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>331</v>
       </c>
       <c r="B205" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C205" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="D205" t="s">
         <v>15</v>
@@ -9803,13 +10053,13 @@
         <v>83</v>
       </c>
       <c r="H205" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I205" s="10">
-        <v>1</v>
+        <v>339</v>
+      </c>
+      <c r="I205" s="10" t="s">
+        <v>365</v>
       </c>
       <c r="K205" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L205" t="s">
         <v>83</v>
@@ -9821,16 +10071,16 @@
         <v>83</v>
       </c>
       <c r="O205" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P205" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="Q205">
-        <v>3.64</v>
-      </c>
-      <c r="R205">
-        <v>7.25</v>
+      <c r="Q205" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="R205" s="21" t="s">
+        <v>387</v>
       </c>
       <c r="S205" t="s">
         <v>83</v>
@@ -9838,45 +10088,43 @@
       <c r="T205" t="s">
         <v>83</v>
       </c>
-      <c r="U205">
-        <v>6.04</v>
+      <c r="U205" s="21" t="s">
+        <v>388</v>
       </c>
       <c r="V205">
-        <v>11.86</v>
-      </c>
-    </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>331</v>
       </c>
       <c r="B206" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C206" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D206" t="s">
         <v>15</v>
       </c>
-      <c r="E206">
-        <f>ROUND(Q206*P206+R206,2)</f>
-        <v>1.3</v>
+      <c r="E206" t="s">
+        <v>83</v>
       </c>
       <c r="F206" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G206">
-        <f>ROUND(U206*P206+V206,2)</f>
-        <v>2.7</v>
+      <c r="G206" t="s">
+        <v>83</v>
       </c>
       <c r="H206" s="17" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="I206" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K206" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L206" t="s">
         <v>83</v>
@@ -9888,17 +10136,16 @@
         <v>83</v>
       </c>
       <c r="O206" t="s">
-        <v>349</v>
-      </c>
-      <c r="P206" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(30),2),"0.00")</f>
-        <v>1.48</v>
+        <v>340</v>
+      </c>
+      <c r="P206" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="Q206">
-        <v>0.36</v>
+        <v>0.73</v>
       </c>
       <c r="R206">
-        <v>0.77</v>
+        <v>1.49</v>
       </c>
       <c r="S206" t="s">
         <v>83</v>
@@ -9907,21 +10154,21 @@
         <v>83</v>
       </c>
       <c r="U206">
-        <v>0.78</v>
+        <v>1.58</v>
       </c>
       <c r="V206">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>331</v>
       </c>
       <c r="B207" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C207" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="D207" t="s">
         <v>15</v>
@@ -9936,13 +10183,13 @@
         <v>83</v>
       </c>
       <c r="H207" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I207" s="10" t="s">
-        <v>377</v>
+        <v>339</v>
+      </c>
+      <c r="I207" s="10">
+        <v>5</v>
       </c>
       <c r="K207" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L207" t="s">
         <v>83</v>
@@ -9954,16 +10201,16 @@
         <v>83</v>
       </c>
       <c r="O207" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P207" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="Q207" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="R207" s="21" t="s">
-        <v>399</v>
+      <c r="Q207">
+        <v>0.39</v>
+      </c>
+      <c r="R207">
+        <v>0.81</v>
       </c>
       <c r="S207" t="s">
         <v>83</v>
@@ -9971,22 +10218,22 @@
       <c r="T207" t="s">
         <v>83</v>
       </c>
-      <c r="U207" s="21" t="s">
-        <v>400</v>
+      <c r="U207">
+        <v>0.84</v>
       </c>
       <c r="V207">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>331</v>
       </c>
       <c r="B208" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C208" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D208" t="s">
         <v>15</v>
@@ -10001,13 +10248,13 @@
         <v>83</v>
       </c>
       <c r="H208" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I208" s="10">
-        <v>4</v>
+        <v>339</v>
+      </c>
+      <c r="I208" s="10" t="s">
+        <v>369</v>
       </c>
       <c r="K208" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L208" t="s">
         <v>83</v>
@@ -10019,16 +10266,16 @@
         <v>83</v>
       </c>
       <c r="O208" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P208" s="20" t="s">
         <v>83</v>
       </c>
       <c r="Q208">
-        <v>0.73</v>
+        <v>0.54</v>
       </c>
       <c r="R208">
-        <v>1.49</v>
+        <v>1.08</v>
       </c>
       <c r="S208" t="s">
         <v>83</v>
@@ -10037,10 +10284,10 @@
         <v>83</v>
       </c>
       <c r="U208">
-        <v>1.58</v>
+        <v>0.9</v>
       </c>
       <c r="V208">
-        <v>3</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="209" spans="1:22" x14ac:dyDescent="0.25">
@@ -10048,31 +10295,31 @@
         <v>331</v>
       </c>
       <c r="B209" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C209" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D209" t="s">
         <v>15</v>
       </c>
-      <c r="E209" t="s">
-        <v>83</v>
+      <c r="E209">
+        <v>62</v>
       </c>
       <c r="F209" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G209" t="s">
-        <v>83</v>
+      <c r="G209">
+        <v>72</v>
       </c>
       <c r="H209" s="17" t="s">
-        <v>348</v>
+        <v>84</v>
       </c>
       <c r="I209" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K209" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L209" t="s">
         <v>83</v>
@@ -10084,28 +10331,22 @@
         <v>83</v>
       </c>
       <c r="O209" t="s">
-        <v>349</v>
-      </c>
-      <c r="P209" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q209">
-        <v>0.39</v>
-      </c>
-      <c r="R209">
-        <v>0.81</v>
+        <v>83</v>
+      </c>
+      <c r="P209" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>83</v>
+      </c>
+      <c r="R209" t="s">
+        <v>83</v>
       </c>
       <c r="S209" t="s">
         <v>83</v>
       </c>
       <c r="T209" t="s">
         <v>83</v>
-      </c>
-      <c r="U209">
-        <v>0.84</v>
-      </c>
-      <c r="V209">
-        <v>1.63</v>
       </c>
     </row>
     <row r="210" spans="1:22" x14ac:dyDescent="0.25">
@@ -10113,31 +10354,31 @@
         <v>331</v>
       </c>
       <c r="B210" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C210" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D210" t="s">
-        <v>15</v>
-      </c>
-      <c r="E210" t="s">
-        <v>83</v>
+        <v>30</v>
+      </c>
+      <c r="E210">
+        <v>27</v>
       </c>
       <c r="F210" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G210" t="s">
-        <v>83</v>
+      <c r="G210">
+        <v>53</v>
       </c>
       <c r="H210" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I210" s="10" t="s">
-        <v>381</v>
+        <v>84</v>
+      </c>
+      <c r="I210" s="10">
+        <v>8</v>
       </c>
       <c r="K210" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L210" t="s">
         <v>83</v>
@@ -10149,16 +10390,16 @@
         <v>83</v>
       </c>
       <c r="O210" t="s">
-        <v>349</v>
-      </c>
-      <c r="P210" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q210">
-        <v>0.54</v>
-      </c>
-      <c r="R210">
-        <v>1.08</v>
+        <v>83</v>
+      </c>
+      <c r="P210" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>83</v>
+      </c>
+      <c r="R210" t="s">
+        <v>83</v>
       </c>
       <c r="S210" t="s">
         <v>83</v>
@@ -10166,11 +10407,11 @@
       <c r="T210" t="s">
         <v>83</v>
       </c>
-      <c r="U210">
-        <v>0.9</v>
-      </c>
-      <c r="V210">
-        <v>2.21</v>
+      <c r="U210" t="s">
+        <v>83</v>
+      </c>
+      <c r="V210" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="211" spans="1:22" x14ac:dyDescent="0.25">
@@ -10178,31 +10419,31 @@
         <v>331</v>
       </c>
       <c r="B211" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C211" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D211" t="s">
         <v>15</v>
       </c>
       <c r="E211">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F211" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G211">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H211" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I211" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K211" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L211" t="s">
         <v>83</v>
@@ -10229,6 +10470,12 @@
         <v>83</v>
       </c>
       <c r="T211" t="s">
+        <v>83</v>
+      </c>
+      <c r="U211" t="s">
+        <v>83</v>
+      </c>
+      <c r="V211" t="s">
         <v>83</v>
       </c>
     </row>
@@ -10237,31 +10484,31 @@
         <v>331</v>
       </c>
       <c r="B212" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C212" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D212" t="s">
         <v>30</v>
       </c>
       <c r="E212">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F212" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G212">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H212" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I212" s="10">
-        <v>8</v>
+      <c r="I212" s="10" t="s">
+        <v>367</v>
       </c>
       <c r="K212" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L212" t="s">
         <v>83</v>
@@ -10302,31 +10549,31 @@
         <v>331</v>
       </c>
       <c r="B213" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C213" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D213" t="s">
         <v>15</v>
       </c>
       <c r="E213">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F213" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G213">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H213" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I213" s="10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K213" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L213" t="s">
         <v>83</v>
@@ -10367,31 +10614,31 @@
         <v>331</v>
       </c>
       <c r="B214" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C214" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D214" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E214">
-        <v>22</v>
+        <v>335</v>
       </c>
       <c r="F214" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G214">
-        <v>40</v>
+        <v>670</v>
       </c>
       <c r="H214" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I214" s="10" t="s">
-        <v>379</v>
+      <c r="I214" s="10">
+        <v>12</v>
       </c>
       <c r="K214" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L214" t="s">
         <v>83</v>
@@ -10432,34 +10679,34 @@
         <v>331</v>
       </c>
       <c r="B215" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C215" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D215" t="s">
-        <v>15</v>
-      </c>
-      <c r="E215">
-        <v>19</v>
+        <v>83</v>
+      </c>
+      <c r="E215" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="F215" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G215">
-        <v>38</v>
+        <v>1.2</v>
       </c>
       <c r="H215" s="17" t="s">
-        <v>84</v>
+        <v>375</v>
       </c>
       <c r="I215" s="10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K215" t="s">
-        <v>375</v>
-      </c>
-      <c r="L215" t="s">
-        <v>83</v>
+        <v>363</v>
+      </c>
+      <c r="L215">
+        <v>-4</v>
       </c>
       <c r="M215" t="s">
         <v>83</v>
@@ -10497,31 +10744,31 @@
         <v>331</v>
       </c>
       <c r="B216" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C216" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="D216" t="s">
         <v>15</v>
       </c>
-      <c r="E216">
-        <v>335</v>
+      <c r="E216" t="s">
+        <v>83</v>
       </c>
       <c r="F216" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G216">
-        <v>670</v>
+      <c r="G216" t="s">
+        <v>83</v>
       </c>
       <c r="H216" s="17" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="I216" s="10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K216" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L216" t="s">
         <v>83</v>
@@ -10533,16 +10780,16 @@
         <v>83</v>
       </c>
       <c r="O216" t="s">
-        <v>83</v>
-      </c>
-      <c r="P216" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q216" t="s">
-        <v>83</v>
-      </c>
-      <c r="R216" t="s">
-        <v>83</v>
+        <v>340</v>
+      </c>
+      <c r="P216" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q216">
+        <v>3.64</v>
+      </c>
+      <c r="R216">
+        <v>7.25</v>
       </c>
       <c r="S216" t="s">
         <v>83</v>
@@ -10550,11 +10797,11 @@
       <c r="T216" t="s">
         <v>83</v>
       </c>
-      <c r="U216" t="s">
-        <v>83</v>
-      </c>
-      <c r="V216" t="s">
-        <v>83</v>
+      <c r="U216">
+        <v>6.04</v>
+      </c>
+      <c r="V216">
+        <v>11.86</v>
       </c>
     </row>
     <row r="217" spans="1:22" x14ac:dyDescent="0.25">
@@ -10562,34 +10809,36 @@
         <v>331</v>
       </c>
       <c r="B217" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C217" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="D217" t="s">
-        <v>83</v>
-      </c>
-      <c r="E217" s="17" t="s">
-        <v>83</v>
+        <v>15</v>
+      </c>
+      <c r="E217">
+        <f t="shared" ref="E217:E218" si="1">ROUND(Q217*P217+R217,2)</f>
+        <v>1.3</v>
       </c>
       <c r="F217" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G217">
-        <v>1.2</v>
+        <f t="shared" ref="G217:G218" si="2">ROUND(U217*P217+V217,2)</f>
+        <v>2.7</v>
       </c>
       <c r="H217" s="17" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="I217" s="10">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K217" t="s">
-        <v>375</v>
-      </c>
-      <c r="L217">
-        <v>-4</v>
+        <v>363</v>
+      </c>
+      <c r="L217" t="s">
+        <v>83</v>
       </c>
       <c r="M217" t="s">
         <v>83</v>
@@ -10598,16 +10847,17 @@
         <v>83</v>
       </c>
       <c r="O217" t="s">
-        <v>83</v>
-      </c>
-      <c r="P217" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q217" t="s">
-        <v>83</v>
-      </c>
-      <c r="R217" t="s">
-        <v>83</v>
+        <v>340</v>
+      </c>
+      <c r="P217" s="20" t="str">
+        <f>TEXT(ROUND(LOG10(30),2),"0.00")</f>
+        <v>1.48</v>
+      </c>
+      <c r="Q217">
+        <v>0.36</v>
+      </c>
+      <c r="R217">
+        <v>0.77</v>
       </c>
       <c r="S217" t="s">
         <v>83</v>
@@ -10615,11 +10865,11 @@
       <c r="T217" t="s">
         <v>83</v>
       </c>
-      <c r="U217" t="s">
-        <v>83</v>
-      </c>
-      <c r="V217" t="s">
-        <v>83</v>
+      <c r="U217">
+        <v>0.78</v>
+      </c>
+      <c r="V217">
+        <v>1.55</v>
       </c>
     </row>
     <row r="218" spans="1:22" x14ac:dyDescent="0.25">
@@ -10627,31 +10877,33 @@
         <v>331</v>
       </c>
       <c r="B218" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C218" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="D218" t="s">
         <v>15</v>
       </c>
-      <c r="E218" t="s">
-        <v>83</v>
+      <c r="E218">
+        <f t="shared" si="1"/>
+        <v>5.85</v>
       </c>
       <c r="F218" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G218" t="s">
-        <v>83</v>
+      <c r="G218">
+        <f t="shared" si="2"/>
+        <v>7.45</v>
       </c>
       <c r="H218" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I218" s="10">
-        <v>1</v>
+        <v>339</v>
+      </c>
+      <c r="I218" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="K218" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L218" t="s">
         <v>83</v>
@@ -10663,16 +10915,17 @@
         <v>83</v>
       </c>
       <c r="O218" t="s">
-        <v>349</v>
-      </c>
-      <c r="P218" s="20" t="s">
-        <v>83</v>
+        <v>340</v>
+      </c>
+      <c r="P218" s="20" t="str">
+        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
+        <v>1.70</v>
       </c>
       <c r="Q218">
-        <v>3.64</v>
-      </c>
-      <c r="R218">
-        <v>7.25</v>
+        <v>0.78</v>
+      </c>
+      <c r="R218" s="21" t="s">
+        <v>391</v>
       </c>
       <c r="S218" t="s">
         <v>83</v>
@@ -10680,11 +10933,11 @@
       <c r="T218" t="s">
         <v>83</v>
       </c>
-      <c r="U218">
-        <v>6.04</v>
+      <c r="U218" s="21" t="s">
+        <v>393</v>
       </c>
       <c r="V218">
-        <v>11.86</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="219" spans="1:22" x14ac:dyDescent="0.25">
@@ -10692,33 +10945,31 @@
         <v>331</v>
       </c>
       <c r="B219" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C219" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D219" t="s">
         <v>15</v>
       </c>
-      <c r="E219">
-        <f t="shared" ref="E219:E220" si="1">ROUND(Q219*P219+R219,2)</f>
-        <v>1.3</v>
+      <c r="E219" t="s">
+        <v>83</v>
       </c>
       <c r="F219" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G219">
-        <f t="shared" ref="G219:G220" si="2">ROUND(U219*P219+V219,2)</f>
-        <v>2.7</v>
+      <c r="G219" t="s">
+        <v>83</v>
       </c>
       <c r="H219" s="17" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="I219" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K219" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L219" t="s">
         <v>83</v>
@@ -10730,17 +10981,16 @@
         <v>83</v>
       </c>
       <c r="O219" t="s">
-        <v>349</v>
-      </c>
-      <c r="P219" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(30),2),"0.00")</f>
-        <v>1.48</v>
+        <v>340</v>
+      </c>
+      <c r="P219" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="Q219">
-        <v>0.36</v>
+        <v>0.73</v>
       </c>
       <c r="R219">
-        <v>0.77</v>
+        <v>1.49</v>
       </c>
       <c r="S219" t="s">
         <v>83</v>
@@ -10749,10 +10999,10 @@
         <v>83</v>
       </c>
       <c r="U219">
-        <v>0.78</v>
+        <v>1.58</v>
       </c>
       <c r="V219">
-        <v>1.55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:22" x14ac:dyDescent="0.25">
@@ -10760,33 +11010,31 @@
         <v>331</v>
       </c>
       <c r="B220" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C220" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D220" t="s">
         <v>15</v>
       </c>
-      <c r="E220">
-        <f t="shared" si="1"/>
-        <v>5.85</v>
+      <c r="E220" t="s">
+        <v>83</v>
       </c>
       <c r="F220" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G220">
-        <f t="shared" si="2"/>
-        <v>7.45</v>
+      <c r="G220" t="s">
+        <v>83</v>
       </c>
       <c r="H220" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I220" s="10" t="s">
-        <v>378</v>
+        <v>339</v>
+      </c>
+      <c r="I220" s="10">
+        <v>5</v>
       </c>
       <c r="K220" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L220" t="s">
         <v>83</v>
@@ -10798,17 +11046,16 @@
         <v>83</v>
       </c>
       <c r="O220" t="s">
-        <v>349</v>
-      </c>
-      <c r="P220" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
-        <v>1.70</v>
+        <v>340</v>
+      </c>
+      <c r="P220" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="Q220">
-        <v>0.78</v>
+        <v>0.39</v>
       </c>
       <c r="R220">
-        <v>4.5199999999999996</v>
+        <v>0.81</v>
       </c>
       <c r="S220" t="s">
         <v>83</v>
@@ -10817,10 +11064,10 @@
         <v>83</v>
       </c>
       <c r="U220">
-        <v>1.1299999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="V220">
-        <v>5.53</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="221" spans="1:22" x14ac:dyDescent="0.25">
@@ -10828,31 +11075,33 @@
         <v>331</v>
       </c>
       <c r="B221" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C221" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D221" t="s">
         <v>15</v>
       </c>
-      <c r="E221" t="s">
-        <v>83</v>
+      <c r="E221">
+        <f>ROUND(Q221*P221+R221,2)</f>
+        <v>1.7</v>
       </c>
       <c r="F221" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G221" t="s">
-        <v>83</v>
+      <c r="G221">
+        <f>ROUND(U221*P221+V221,2)</f>
+        <v>3.45</v>
       </c>
       <c r="H221" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I221" s="10">
-        <v>4</v>
+        <v>339</v>
+      </c>
+      <c r="I221" s="10" t="s">
+        <v>370</v>
       </c>
       <c r="K221" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L221" t="s">
         <v>83</v>
@@ -10864,16 +11113,17 @@
         <v>83</v>
       </c>
       <c r="O221" t="s">
-        <v>349</v>
-      </c>
-      <c r="P221" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q221">
-        <v>0.73</v>
-      </c>
-      <c r="R221">
-        <v>1.49</v>
+        <v>340</v>
+      </c>
+      <c r="P221" s="20" t="str">
+        <f>TEXT(ROUND(LOG10(10),2),"0.00")</f>
+        <v>1.00</v>
+      </c>
+      <c r="Q221" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="R221" s="21" t="s">
+        <v>392</v>
       </c>
       <c r="S221" t="s">
         <v>83</v>
@@ -10881,11 +11131,11 @@
       <c r="T221" t="s">
         <v>83</v>
       </c>
-      <c r="U221">
-        <v>1.58</v>
+      <c r="U221" s="21" t="s">
+        <v>388</v>
       </c>
       <c r="V221">
-        <v>3</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="222" spans="1:22" x14ac:dyDescent="0.25">
@@ -10893,31 +11143,31 @@
         <v>331</v>
       </c>
       <c r="B222" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C222" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D222" t="s">
         <v>15</v>
       </c>
-      <c r="E222" t="s">
-        <v>83</v>
+      <c r="E222">
+        <v>62</v>
       </c>
       <c r="F222" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G222" t="s">
-        <v>83</v>
+      <c r="G222">
+        <v>72</v>
       </c>
       <c r="H222" s="17" t="s">
-        <v>348</v>
+        <v>84</v>
       </c>
       <c r="I222" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K222" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L222" t="s">
         <v>83</v>
@@ -10929,16 +11179,16 @@
         <v>83</v>
       </c>
       <c r="O222" t="s">
-        <v>349</v>
-      </c>
-      <c r="P222" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q222">
-        <v>0.39</v>
-      </c>
-      <c r="R222">
-        <v>0.81</v>
+        <v>83</v>
+      </c>
+      <c r="P222" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>83</v>
+      </c>
+      <c r="R222" t="s">
+        <v>83</v>
       </c>
       <c r="S222" t="s">
         <v>83</v>
@@ -10946,11 +11196,11 @@
       <c r="T222" t="s">
         <v>83</v>
       </c>
-      <c r="U222">
-        <v>0.84</v>
-      </c>
-      <c r="V222">
-        <v>1.63</v>
+      <c r="U222" t="s">
+        <v>83</v>
+      </c>
+      <c r="V222" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="223" spans="1:22" x14ac:dyDescent="0.25">
@@ -10958,33 +11208,31 @@
         <v>331</v>
       </c>
       <c r="B223" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C223" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D223" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E223">
-        <f>ROUND(Q223*P223+R223,2)</f>
-        <v>1.7</v>
+        <v>27</v>
       </c>
       <c r="F223" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G223">
-        <f>ROUND(U223*P223+V223,2)</f>
-        <v>3.45</v>
+        <v>53</v>
       </c>
       <c r="H223" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I223" s="10" t="s">
-        <v>382</v>
+        <v>84</v>
+      </c>
+      <c r="I223" s="10">
+        <v>8</v>
       </c>
       <c r="K223" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L223" t="s">
         <v>83</v>
@@ -10996,17 +11244,16 @@
         <v>83</v>
       </c>
       <c r="O223" t="s">
-        <v>349</v>
-      </c>
-      <c r="P223" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(10),2),"0.00")</f>
-        <v>1.00</v>
-      </c>
-      <c r="Q223">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="R223">
-        <v>1.1399999999999999</v>
+        <v>83</v>
+      </c>
+      <c r="P223" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>83</v>
+      </c>
+      <c r="R223" t="s">
+        <v>83</v>
       </c>
       <c r="S223" t="s">
         <v>83</v>
@@ -11014,11 +11261,11 @@
       <c r="T223" t="s">
         <v>83</v>
       </c>
-      <c r="U223">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="V223">
-        <v>2.33</v>
+      <c r="U223" t="s">
+        <v>83</v>
+      </c>
+      <c r="V223" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="224" spans="1:22" x14ac:dyDescent="0.25">
@@ -11026,31 +11273,31 @@
         <v>331</v>
       </c>
       <c r="B224" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C224" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D224" t="s">
         <v>15</v>
       </c>
       <c r="E224">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F224" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G224">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H224" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I224" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K224" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L224" t="s">
         <v>83</v>
@@ -11091,40 +11338,40 @@
         <v>331</v>
       </c>
       <c r="B225" t="s">
+        <v>356</v>
+      </c>
+      <c r="C225" t="s">
+        <v>351</v>
+      </c>
+      <c r="D225" t="s">
+        <v>83</v>
+      </c>
+      <c r="E225">
+        <v>3.8</v>
+      </c>
+      <c r="F225" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G225">
+        <v>9.5</v>
+      </c>
+      <c r="H225" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="I225" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="C225" t="s">
-        <v>360</v>
-      </c>
-      <c r="D225" t="s">
-        <v>30</v>
-      </c>
-      <c r="E225">
-        <v>27</v>
-      </c>
-      <c r="F225" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G225">
-        <v>53</v>
-      </c>
-      <c r="H225" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I225" s="10">
-        <v>8</v>
-      </c>
       <c r="K225" t="s">
-        <v>375</v>
-      </c>
-      <c r="L225" t="s">
-        <v>83</v>
-      </c>
-      <c r="M225" t="s">
-        <v>83</v>
-      </c>
-      <c r="N225" t="s">
-        <v>83</v>
+        <v>363</v>
+      </c>
+      <c r="L225" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="M225">
+        <v>1.9</v>
+      </c>
+      <c r="N225">
+        <v>11.4</v>
       </c>
       <c r="O225" t="s">
         <v>83</v>
@@ -11156,31 +11403,31 @@
         <v>331</v>
       </c>
       <c r="B226" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C226" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D226" t="s">
         <v>15</v>
       </c>
       <c r="E226">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F226" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G226">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H226" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I226" s="10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K226" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L226" t="s">
         <v>83</v>
@@ -11221,40 +11468,40 @@
         <v>331</v>
       </c>
       <c r="B227" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C227" t="s">
+        <v>353</v>
+      </c>
+      <c r="D227" t="s">
+        <v>15</v>
+      </c>
+      <c r="E227">
+        <v>335</v>
+      </c>
+      <c r="F227" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G227">
+        <v>670</v>
+      </c>
+      <c r="H227" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I227" s="10">
+        <v>12</v>
+      </c>
+      <c r="K227" t="s">
         <v>363</v>
       </c>
-      <c r="D227" t="s">
-        <v>83</v>
-      </c>
-      <c r="E227">
-        <v>3.8</v>
-      </c>
-      <c r="F227" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G227">
-        <v>9.5</v>
-      </c>
-      <c r="H227" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="I227" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="K227" t="s">
-        <v>375</v>
-      </c>
-      <c r="L227" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="M227">
-        <v>1.9</v>
-      </c>
-      <c r="N227">
-        <v>11.4</v>
+      <c r="L227" t="s">
+        <v>83</v>
+      </c>
+      <c r="M227" t="s">
+        <v>83</v>
+      </c>
+      <c r="N227" t="s">
+        <v>83</v>
       </c>
       <c r="O227" t="s">
         <v>83</v>
@@ -11286,34 +11533,34 @@
         <v>331</v>
       </c>
       <c r="B228" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C228" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D228" t="s">
-        <v>15</v>
-      </c>
-      <c r="E228">
-        <v>19</v>
+        <v>83</v>
+      </c>
+      <c r="E228" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="F228" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G228">
-        <v>38</v>
+        <v>1.2</v>
       </c>
       <c r="H228" s="17" t="s">
-        <v>84</v>
+        <v>375</v>
       </c>
       <c r="I228" s="10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K228" t="s">
-        <v>375</v>
-      </c>
-      <c r="L228" t="s">
-        <v>83</v>
+        <v>363</v>
+      </c>
+      <c r="L228">
+        <v>-4</v>
       </c>
       <c r="M228" t="s">
         <v>83</v>
@@ -11351,64 +11598,64 @@
         <v>331</v>
       </c>
       <c r="B229" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C229" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="D229" t="s">
         <v>15</v>
       </c>
-      <c r="E229">
-        <v>335</v>
-      </c>
-      <c r="F229" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G229">
-        <v>670</v>
+      <c r="E229" t="s">
+        <v>83</v>
+      </c>
+      <c r="F229" t="s">
+        <v>83</v>
+      </c>
+      <c r="G229" t="s">
+        <v>83</v>
       </c>
       <c r="H229" s="17" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="I229" s="10">
+        <v>1</v>
+      </c>
+      <c r="K229" t="s">
+        <v>363</v>
+      </c>
+      <c r="L229" t="s">
+        <v>83</v>
+      </c>
+      <c r="M229" t="s">
+        <v>83</v>
+      </c>
+      <c r="N229" t="s">
+        <v>83</v>
+      </c>
+      <c r="O229" t="s">
+        <v>340</v>
+      </c>
+      <c r="P229" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q229">
+        <v>4.18</v>
+      </c>
+      <c r="R229" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="S229" t="s">
+        <v>83</v>
+      </c>
+      <c r="T229" t="s">
+        <v>83</v>
+      </c>
+      <c r="U229">
+        <v>5.96</v>
+      </c>
+      <c r="V229">
         <v>12</v>
-      </c>
-      <c r="K229" t="s">
-        <v>375</v>
-      </c>
-      <c r="L229" t="s">
-        <v>83</v>
-      </c>
-      <c r="M229" t="s">
-        <v>83</v>
-      </c>
-      <c r="N229" t="s">
-        <v>83</v>
-      </c>
-      <c r="O229" t="s">
-        <v>83</v>
-      </c>
-      <c r="P229" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q229" t="s">
-        <v>83</v>
-      </c>
-      <c r="R229" t="s">
-        <v>83</v>
-      </c>
-      <c r="S229" t="s">
-        <v>83</v>
-      </c>
-      <c r="T229" t="s">
-        <v>83</v>
-      </c>
-      <c r="U229" t="s">
-        <v>83</v>
-      </c>
-      <c r="V229" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="230" spans="1:22" x14ac:dyDescent="0.25">
@@ -11416,34 +11663,36 @@
         <v>331</v>
       </c>
       <c r="B230" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C230" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="D230" t="s">
-        <v>83</v>
-      </c>
-      <c r="E230" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F230" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E230">
+        <f>ROUND(Q230*P230+R230,2)</f>
+        <v>2.86</v>
+      </c>
+      <c r="F230" t="s">
         <v>83</v>
       </c>
       <c r="G230">
-        <v>1.2</v>
+        <f>ROUND(U230*P230+V230,2)</f>
+        <v>5.73</v>
       </c>
       <c r="H230" s="17" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="I230" s="10">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K230" t="s">
-        <v>375</v>
-      </c>
-      <c r="L230">
-        <v>-4</v>
+        <v>363</v>
+      </c>
+      <c r="L230" t="s">
+        <v>83</v>
       </c>
       <c r="M230" t="s">
         <v>83</v>
@@ -11452,16 +11701,17 @@
         <v>83</v>
       </c>
       <c r="O230" t="s">
-        <v>83</v>
-      </c>
-      <c r="P230" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q230" t="s">
-        <v>83</v>
-      </c>
-      <c r="R230" t="s">
-        <v>83</v>
+        <v>340</v>
+      </c>
+      <c r="P230" s="20" t="str">
+        <f>TEXT(ROUND(LOG10(100),2),"0.00")</f>
+        <v>2.00</v>
+      </c>
+      <c r="Q230">
+        <v>0.7</v>
+      </c>
+      <c r="R230">
+        <v>1.46</v>
       </c>
       <c r="S230" t="s">
         <v>83</v>
@@ -11469,11 +11719,11 @@
       <c r="T230" t="s">
         <v>83</v>
       </c>
-      <c r="U230" t="s">
-        <v>83</v>
-      </c>
-      <c r="V230" t="s">
-        <v>83</v>
+      <c r="U230">
+        <v>1.44</v>
+      </c>
+      <c r="V230">
+        <v>2.85</v>
       </c>
     </row>
     <row r="231" spans="1:22" x14ac:dyDescent="0.25">
@@ -11481,10 +11731,10 @@
         <v>331</v>
       </c>
       <c r="B231" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C231" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="D231" t="s">
         <v>15</v>
@@ -11499,10 +11749,13 @@
         <v>83</v>
       </c>
       <c r="H231" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I231" s="10">
-        <v>1</v>
+        <v>339</v>
+      </c>
+      <c r="I231" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="K231" t="s">
+        <v>363</v>
       </c>
       <c r="L231" t="s">
         <v>83</v>
@@ -11514,16 +11767,16 @@
         <v>83</v>
       </c>
       <c r="O231" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P231" t="s">
         <v>83</v>
       </c>
       <c r="Q231">
-        <v>4.18</v>
+        <v>0.32</v>
       </c>
       <c r="R231">
-        <v>8.3000000000000007</v>
+        <v>0.68</v>
       </c>
       <c r="S231" t="s">
         <v>83</v>
@@ -11532,10 +11785,10 @@
         <v>83</v>
       </c>
       <c r="U231">
-        <v>5.96</v>
+        <v>0.68</v>
       </c>
       <c r="V231">
-        <v>12</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="232" spans="1:22" x14ac:dyDescent="0.25">
@@ -11543,30 +11796,32 @@
         <v>331</v>
       </c>
       <c r="B232" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C232" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D232" t="s">
         <v>15</v>
       </c>
-      <c r="E232">
-        <f>ROUND(Q232*P232+R232,2)</f>
-        <v>2.86</v>
+      <c r="E232" s="21" t="s">
+        <v>389</v>
       </c>
       <c r="F232" t="s">
         <v>83</v>
       </c>
       <c r="G232">
-        <f>ROUND(U232*P232+V232,2)</f>
-        <v>5.73</v>
+        <f t="shared" ref="G232:G233" si="3">ROUND(U232*P232+V232,2)</f>
+        <v>4.71</v>
       </c>
       <c r="H232" s="17" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="I232" s="10">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K232" t="s">
+        <v>363</v>
       </c>
       <c r="L232" t="s">
         <v>83</v>
@@ -11578,17 +11833,17 @@
         <v>83</v>
       </c>
       <c r="O232" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P232" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(100),2),"0.00")</f>
-        <v>2.00</v>
+        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
+        <v>1.70</v>
       </c>
       <c r="Q232">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="R232">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="S232" t="s">
         <v>83</v>
@@ -11597,10 +11852,10 @@
         <v>83</v>
       </c>
       <c r="U232">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="V232">
-        <v>2.85</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="233" spans="1:22" x14ac:dyDescent="0.25">
@@ -11608,28 +11863,33 @@
         <v>331</v>
       </c>
       <c r="B233" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C233" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="D233" t="s">
         <v>15</v>
       </c>
-      <c r="E233" t="s">
-        <v>83</v>
+      <c r="E233">
+        <f t="shared" ref="E233" si="4">ROUND(Q233*P233+R233,2)</f>
+        <v>2.12</v>
       </c>
       <c r="F233" t="s">
         <v>83</v>
       </c>
-      <c r="G233" t="s">
-        <v>83</v>
+      <c r="G233">
+        <f t="shared" si="3"/>
+        <v>3.07</v>
       </c>
       <c r="H233" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I233" s="10" t="s">
-        <v>377</v>
+        <v>339</v>
+      </c>
+      <c r="I233" s="10">
+        <v>5</v>
+      </c>
+      <c r="K233" t="s">
+        <v>363</v>
       </c>
       <c r="L233" t="s">
         <v>83</v>
@@ -11641,16 +11901,17 @@
         <v>83</v>
       </c>
       <c r="O233" t="s">
-        <v>349</v>
-      </c>
-      <c r="P233" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q233">
-        <v>0.32</v>
+        <v>340</v>
+      </c>
+      <c r="P233" s="20" t="str">
+        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
+        <v>1.70</v>
+      </c>
+      <c r="Q233" s="21" t="s">
+        <v>386</v>
       </c>
       <c r="R233">
-        <v>0.68</v>
+        <v>1.18</v>
       </c>
       <c r="S233" t="s">
         <v>83</v>
@@ -11659,10 +11920,10 @@
         <v>83</v>
       </c>
       <c r="U233">
-        <v>0.68</v>
+        <v>0.82</v>
       </c>
       <c r="V233">
-        <v>1.4</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="234" spans="1:22" x14ac:dyDescent="0.25">
@@ -11670,30 +11931,31 @@
         <v>331</v>
       </c>
       <c r="B234" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C234" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D234" t="s">
         <v>15</v>
       </c>
-      <c r="E234">
-        <f t="shared" ref="E234:E235" si="3">ROUND(Q234*P234+R234,2)</f>
-        <v>2.4300000000000002</v>
+      <c r="E234" t="s">
+        <v>83</v>
       </c>
       <c r="F234" t="s">
         <v>83</v>
       </c>
-      <c r="G234">
-        <f t="shared" ref="G234:G235" si="4">ROUND(U234*P234+V234,2)</f>
-        <v>4.71</v>
+      <c r="G234" t="s">
+        <v>83</v>
       </c>
       <c r="H234" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I234" s="10">
-        <v>4</v>
+        <v>339</v>
+      </c>
+      <c r="I234" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="K234" t="s">
+        <v>363</v>
       </c>
       <c r="L234" t="s">
         <v>83</v>
@@ -11705,17 +11967,16 @@
         <v>83</v>
       </c>
       <c r="O234" t="s">
-        <v>349</v>
-      </c>
-      <c r="P234" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
-        <v>1.70</v>
+        <v>340</v>
+      </c>
+      <c r="P234" t="s">
+        <v>83</v>
       </c>
       <c r="Q234">
         <v>0.69</v>
       </c>
       <c r="R234">
-        <v>1.26</v>
+        <v>1.57</v>
       </c>
       <c r="S234" t="s">
         <v>83</v>
@@ -11724,10 +11985,10 @@
         <v>83</v>
       </c>
       <c r="U234">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="V234">
-        <v>2.5299999999999998</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="235" spans="1:22" x14ac:dyDescent="0.25">
@@ -11735,30 +11996,31 @@
         <v>331</v>
       </c>
       <c r="B235" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C235" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D235" t="s">
         <v>15</v>
       </c>
       <c r="E235">
-        <f t="shared" si="3"/>
-        <v>2.12</v>
+        <v>69</v>
       </c>
       <c r="F235" t="s">
         <v>83</v>
       </c>
       <c r="G235">
-        <f t="shared" si="4"/>
-        <v>3.07</v>
+        <v>79</v>
       </c>
       <c r="H235" s="17" t="s">
-        <v>348</v>
+        <v>84</v>
       </c>
       <c r="I235" s="10">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="K235" t="s">
+        <v>363</v>
       </c>
       <c r="L235" t="s">
         <v>83</v>
@@ -11770,17 +12032,16 @@
         <v>83</v>
       </c>
       <c r="O235" t="s">
-        <v>349</v>
-      </c>
-      <c r="P235" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
-        <v>1.70</v>
-      </c>
-      <c r="Q235">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R235">
-        <v>1.18</v>
+        <v>83</v>
+      </c>
+      <c r="P235" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>83</v>
+      </c>
+      <c r="R235" t="s">
+        <v>83</v>
       </c>
       <c r="S235" t="s">
         <v>83</v>
@@ -11788,11 +12049,11 @@
       <c r="T235" t="s">
         <v>83</v>
       </c>
-      <c r="U235">
-        <v>0.82</v>
-      </c>
-      <c r="V235">
-        <v>1.68</v>
+      <c r="U235" t="s">
+        <v>83</v>
+      </c>
+      <c r="V235" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="236" spans="1:22" x14ac:dyDescent="0.25">
@@ -11800,28 +12061,31 @@
         <v>331</v>
       </c>
       <c r="B236" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C236" t="s">
-        <v>357</v>
-      </c>
-      <c r="D236" t="s">
-        <v>15</v>
-      </c>
-      <c r="E236" t="s">
-        <v>83</v>
+        <v>348</v>
+      </c>
+      <c r="D236" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E236">
+        <v>23</v>
       </c>
       <c r="F236" t="s">
         <v>83</v>
       </c>
-      <c r="G236" t="s">
-        <v>83</v>
+      <c r="G236">
+        <v>46</v>
       </c>
       <c r="H236" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I236" s="10" t="s">
-        <v>381</v>
+        <v>84</v>
+      </c>
+      <c r="I236" s="10">
+        <v>8</v>
+      </c>
+      <c r="K236" t="s">
+        <v>363</v>
       </c>
       <c r="L236" t="s">
         <v>83</v>
@@ -11833,16 +12097,16 @@
         <v>83</v>
       </c>
       <c r="O236" t="s">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="P236" t="s">
         <v>83</v>
       </c>
-      <c r="Q236">
-        <v>0.69</v>
-      </c>
-      <c r="R236">
-        <v>1.57</v>
+      <c r="Q236" t="s">
+        <v>83</v>
+      </c>
+      <c r="R236" t="s">
+        <v>83</v>
       </c>
       <c r="S236" t="s">
         <v>83</v>
@@ -11850,11 +12114,11 @@
       <c r="T236" t="s">
         <v>83</v>
       </c>
-      <c r="U236">
-        <v>1.4</v>
-      </c>
-      <c r="V236">
-        <v>3.06</v>
+      <c r="U236" t="s">
+        <v>83</v>
+      </c>
+      <c r="V236" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="237" spans="1:22" x14ac:dyDescent="0.25">
@@ -11862,28 +12126,31 @@
         <v>331</v>
       </c>
       <c r="B237" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C237" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D237" t="s">
         <v>15</v>
       </c>
       <c r="E237">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="F237" t="s">
         <v>83</v>
       </c>
       <c r="G237">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="H237" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I237" s="10">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="K237" t="s">
+        <v>363</v>
       </c>
       <c r="L237" t="s">
         <v>83</v>
@@ -11924,28 +12191,31 @@
         <v>331</v>
       </c>
       <c r="B238" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C238" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D238" s="16" t="s">
         <v>30</v>
       </c>
       <c r="E238">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F238" t="s">
         <v>83</v>
       </c>
       <c r="G238">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H238" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I238" s="10">
-        <v>8</v>
+      <c r="I238" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="K238" t="s">
+        <v>363</v>
       </c>
       <c r="L238" t="s">
         <v>83</v>
@@ -11986,28 +12256,31 @@
         <v>331</v>
       </c>
       <c r="B239" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C239" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D239" t="s">
         <v>15</v>
       </c>
       <c r="E239">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F239" t="s">
         <v>83</v>
       </c>
       <c r="G239">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H239" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I239" s="10">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="K239" t="s">
+        <v>363</v>
       </c>
       <c r="L239" t="s">
         <v>83</v>
@@ -12048,28 +12321,31 @@
         <v>331</v>
       </c>
       <c r="B240" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C240" t="s">
-        <v>362</v>
-      </c>
-      <c r="D240" s="16" t="s">
-        <v>30</v>
+        <v>353</v>
+      </c>
+      <c r="D240" t="s">
+        <v>15</v>
       </c>
       <c r="E240">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="F240" t="s">
         <v>83</v>
       </c>
       <c r="G240">
-        <v>28</v>
+        <v>450</v>
       </c>
       <c r="H240" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I240" s="10" t="s">
-        <v>379</v>
+      <c r="I240" s="10">
+        <v>12</v>
+      </c>
+      <c r="K240" t="s">
+        <v>363</v>
       </c>
       <c r="L240" t="s">
         <v>83</v>
@@ -12110,31 +12386,34 @@
         <v>331</v>
       </c>
       <c r="B241" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C241" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D241" t="s">
-        <v>15</v>
-      </c>
-      <c r="E241">
-        <v>21</v>
-      </c>
-      <c r="F241" t="s">
+        <v>83</v>
+      </c>
+      <c r="E241" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F241" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G241">
-        <v>36</v>
+        <v>1.2</v>
       </c>
       <c r="H241" s="17" t="s">
-        <v>84</v>
+        <v>375</v>
       </c>
       <c r="I241" s="10">
-        <v>11</v>
-      </c>
-      <c r="L241" t="s">
-        <v>83</v>
+        <v>13</v>
+      </c>
+      <c r="K241" t="s">
+        <v>363</v>
+      </c>
+      <c r="L241">
+        <v>-4</v>
       </c>
       <c r="M241" t="s">
         <v>83</v>
@@ -12172,61 +12451,64 @@
         <v>331</v>
       </c>
       <c r="B242" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C242" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="D242" t="s">
         <v>15</v>
       </c>
-      <c r="E242">
-        <v>225</v>
+      <c r="E242" t="s">
+        <v>83</v>
       </c>
       <c r="F242" t="s">
         <v>83</v>
       </c>
-      <c r="G242">
-        <v>450</v>
+      <c r="G242" t="s">
+        <v>83</v>
       </c>
       <c r="H242" s="17" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="I242" s="10">
+        <v>1</v>
+      </c>
+      <c r="K242" t="s">
+        <v>363</v>
+      </c>
+      <c r="L242" t="s">
+        <v>83</v>
+      </c>
+      <c r="M242" t="s">
+        <v>83</v>
+      </c>
+      <c r="N242" t="s">
+        <v>83</v>
+      </c>
+      <c r="O242" t="s">
+        <v>340</v>
+      </c>
+      <c r="P242" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q242">
+        <v>4.18</v>
+      </c>
+      <c r="R242" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="S242" t="s">
+        <v>83</v>
+      </c>
+      <c r="T242" t="s">
+        <v>83</v>
+      </c>
+      <c r="U242">
+        <v>5.96</v>
+      </c>
+      <c r="V242">
         <v>12</v>
-      </c>
-      <c r="L242" t="s">
-        <v>83</v>
-      </c>
-      <c r="M242" t="s">
-        <v>83</v>
-      </c>
-      <c r="N242" t="s">
-        <v>83</v>
-      </c>
-      <c r="O242" t="s">
-        <v>83</v>
-      </c>
-      <c r="P242" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q242" t="s">
-        <v>83</v>
-      </c>
-      <c r="R242" t="s">
-        <v>83</v>
-      </c>
-      <c r="S242" t="s">
-        <v>83</v>
-      </c>
-      <c r="T242" t="s">
-        <v>83</v>
-      </c>
-      <c r="U242" t="s">
-        <v>83</v>
-      </c>
-      <c r="V242" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="243" spans="1:22" x14ac:dyDescent="0.25">
@@ -12234,31 +12516,36 @@
         <v>331</v>
       </c>
       <c r="B243" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C243" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="D243" t="s">
-        <v>83</v>
-      </c>
-      <c r="E243" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F243" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E243">
+        <f t="shared" ref="E243:E246" si="5">ROUND(Q243*P243+R243,2)</f>
+        <v>2.86</v>
+      </c>
+      <c r="F243" t="s">
         <v>83</v>
       </c>
       <c r="G243">
-        <v>1.2</v>
+        <f t="shared" ref="G243:G246" si="6">ROUND(U243*P243+V243,2)</f>
+        <v>5.73</v>
       </c>
       <c r="H243" s="17" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="I243" s="10">
-        <v>13</v>
-      </c>
-      <c r="L243">
-        <v>-4</v>
+        <v>2</v>
+      </c>
+      <c r="K243" t="s">
+        <v>363</v>
+      </c>
+      <c r="L243" t="s">
+        <v>83</v>
       </c>
       <c r="M243" t="s">
         <v>83</v>
@@ -12267,16 +12554,17 @@
         <v>83</v>
       </c>
       <c r="O243" t="s">
-        <v>83</v>
-      </c>
-      <c r="P243" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q243" t="s">
-        <v>83</v>
-      </c>
-      <c r="R243" t="s">
-        <v>83</v>
+        <v>340</v>
+      </c>
+      <c r="P243" s="20" t="str">
+        <f>TEXT(ROUND(LOG10(100),2),"0.00")</f>
+        <v>2.00</v>
+      </c>
+      <c r="Q243">
+        <v>0.7</v>
+      </c>
+      <c r="R243">
+        <v>1.46</v>
       </c>
       <c r="S243" t="s">
         <v>83</v>
@@ -12284,11 +12572,11 @@
       <c r="T243" t="s">
         <v>83</v>
       </c>
-      <c r="U243" t="s">
-        <v>83</v>
-      </c>
-      <c r="V243" t="s">
-        <v>83</v>
+      <c r="U243">
+        <v>1.44</v>
+      </c>
+      <c r="V243">
+        <v>2.85</v>
       </c>
     </row>
     <row r="244" spans="1:22" x14ac:dyDescent="0.25">
@@ -12296,28 +12584,33 @@
         <v>331</v>
       </c>
       <c r="B244" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C244" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="D244" t="s">
         <v>15</v>
       </c>
-      <c r="E244" t="s">
-        <v>83</v>
+      <c r="E244">
+        <f t="shared" si="5"/>
+        <v>4.33</v>
       </c>
       <c r="F244" t="s">
         <v>83</v>
       </c>
-      <c r="G244" t="s">
-        <v>83</v>
+      <c r="G244">
+        <f t="shared" si="6"/>
+        <v>6.49</v>
       </c>
       <c r="H244" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I244" s="10">
-        <v>1</v>
+        <v>339</v>
+      </c>
+      <c r="I244" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="K244" t="s">
+        <v>363</v>
       </c>
       <c r="L244" t="s">
         <v>83</v>
@@ -12329,16 +12622,17 @@
         <v>83</v>
       </c>
       <c r="O244" t="s">
-        <v>349</v>
-      </c>
-      <c r="P244" t="s">
-        <v>83</v>
+        <v>340</v>
+      </c>
+      <c r="P244" s="20" t="str">
+        <f>TEXT(ROUND(LOG10(100),2),"0.00")</f>
+        <v>2.00</v>
       </c>
       <c r="Q244">
-        <v>4.18</v>
+        <v>0.82</v>
       </c>
       <c r="R244">
-        <v>8.3000000000000007</v>
+        <v>2.69</v>
       </c>
       <c r="S244" t="s">
         <v>83</v>
@@ -12347,10 +12641,10 @@
         <v>83</v>
       </c>
       <c r="U244">
-        <v>5.96</v>
+        <v>1.35</v>
       </c>
       <c r="V244">
-        <v>12</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="245" spans="1:22" x14ac:dyDescent="0.25">
@@ -12358,30 +12652,32 @@
         <v>331</v>
       </c>
       <c r="B245" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C245" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D245" t="s">
         <v>15</v>
       </c>
-      <c r="E245">
-        <f t="shared" ref="E245:E248" si="5">ROUND(Q245*P245+R245,2)</f>
-        <v>2.86</v>
+      <c r="E245" s="21" t="s">
+        <v>389</v>
       </c>
       <c r="F245" t="s">
         <v>83</v>
       </c>
       <c r="G245">
-        <f t="shared" ref="G245:G248" si="6">ROUND(U245*P245+V245,2)</f>
-        <v>5.73</v>
+        <f t="shared" si="6"/>
+        <v>4.71</v>
       </c>
       <c r="H245" s="17" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="I245" s="10">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K245" t="s">
+        <v>363</v>
       </c>
       <c r="L245" t="s">
         <v>83</v>
@@ -12393,17 +12689,17 @@
         <v>83</v>
       </c>
       <c r="O245" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P245" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(100),2),"0.00")</f>
-        <v>2.00</v>
+        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
+        <v>1.70</v>
       </c>
       <c r="Q245">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="R245">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="S245" t="s">
         <v>83</v>
@@ -12412,10 +12708,10 @@
         <v>83</v>
       </c>
       <c r="U245">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="V245">
-        <v>2.85</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="246" spans="1:22" x14ac:dyDescent="0.25">
@@ -12423,30 +12719,33 @@
         <v>331</v>
       </c>
       <c r="B246" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C246" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D246" t="s">
         <v>15</v>
       </c>
       <c r="E246">
         <f t="shared" si="5"/>
-        <v>4.33</v>
+        <v>2.12</v>
       </c>
       <c r="F246" t="s">
         <v>83</v>
       </c>
       <c r="G246">
         <f t="shared" si="6"/>
-        <v>6.49</v>
+        <v>3.07</v>
       </c>
       <c r="H246" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I246" s="10" t="s">
-        <v>378</v>
+        <v>339</v>
+      </c>
+      <c r="I246" s="10">
+        <v>5</v>
+      </c>
+      <c r="K246" t="s">
+        <v>363</v>
       </c>
       <c r="L246" t="s">
         <v>83</v>
@@ -12458,29 +12757,29 @@
         <v>83</v>
       </c>
       <c r="O246" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P246" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(100),2),"0.00")</f>
-        <v>2.00</v>
-      </c>
-      <c r="Q246">
+        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
+        <v>1.70</v>
+      </c>
+      <c r="Q246" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="R246">
+        <v>1.18</v>
+      </c>
+      <c r="S246" t="s">
+        <v>83</v>
+      </c>
+      <c r="T246" t="s">
+        <v>83</v>
+      </c>
+      <c r="U246">
         <v>0.82</v>
       </c>
-      <c r="R246">
-        <v>2.69</v>
-      </c>
-      <c r="S246" t="s">
-        <v>83</v>
-      </c>
-      <c r="T246" t="s">
-        <v>83</v>
-      </c>
-      <c r="U246">
-        <v>1.35</v>
-      </c>
       <c r="V246">
-        <v>3.79</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="247" spans="1:22" x14ac:dyDescent="0.25">
@@ -12488,30 +12787,31 @@
         <v>331</v>
       </c>
       <c r="B247" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C247" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D247" t="s">
         <v>15</v>
       </c>
-      <c r="E247">
-        <f t="shared" si="5"/>
-        <v>2.4300000000000002</v>
+      <c r="E247" t="s">
+        <v>83</v>
       </c>
       <c r="F247" t="s">
         <v>83</v>
       </c>
-      <c r="G247">
-        <f t="shared" si="6"/>
-        <v>4.71</v>
+      <c r="G247" t="s">
+        <v>83</v>
       </c>
       <c r="H247" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I247" s="10">
-        <v>4</v>
+        <v>339</v>
+      </c>
+      <c r="I247" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="K247" t="s">
+        <v>363</v>
       </c>
       <c r="L247" t="s">
         <v>83</v>
@@ -12523,17 +12823,16 @@
         <v>83</v>
       </c>
       <c r="O247" t="s">
-        <v>349</v>
-      </c>
-      <c r="P247" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
-        <v>1.70</v>
+        <v>340</v>
+      </c>
+      <c r="P247" t="s">
+        <v>83</v>
       </c>
       <c r="Q247">
-        <v>0.69</v>
+        <v>0.52</v>
       </c>
       <c r="R247">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="S247" t="s">
         <v>83</v>
@@ -12541,11 +12840,11 @@
       <c r="T247" t="s">
         <v>83</v>
       </c>
-      <c r="U247">
-        <v>1.28</v>
+      <c r="U247" s="21" t="s">
+        <v>394</v>
       </c>
       <c r="V247">
-        <v>2.5299999999999998</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="248" spans="1:22" x14ac:dyDescent="0.25">
@@ -12553,30 +12852,31 @@
         <v>331</v>
       </c>
       <c r="B248" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C248" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D248" t="s">
         <v>15</v>
       </c>
       <c r="E248">
-        <f t="shared" si="5"/>
-        <v>2.12</v>
+        <v>69</v>
       </c>
       <c r="F248" t="s">
         <v>83</v>
       </c>
       <c r="G248">
-        <f t="shared" si="6"/>
-        <v>3.07</v>
+        <v>79</v>
       </c>
       <c r="H248" s="17" t="s">
-        <v>348</v>
+        <v>84</v>
       </c>
       <c r="I248" s="10">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="K248" t="s">
+        <v>363</v>
       </c>
       <c r="L248" t="s">
         <v>83</v>
@@ -12588,17 +12888,16 @@
         <v>83</v>
       </c>
       <c r="O248" t="s">
-        <v>349</v>
-      </c>
-      <c r="P248" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
-        <v>1.70</v>
-      </c>
-      <c r="Q248">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R248">
-        <v>1.18</v>
+        <v>83</v>
+      </c>
+      <c r="P248" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>83</v>
+      </c>
+      <c r="R248" t="s">
+        <v>83</v>
       </c>
       <c r="S248" t="s">
         <v>83</v>
@@ -12606,11 +12905,11 @@
       <c r="T248" t="s">
         <v>83</v>
       </c>
-      <c r="U248">
-        <v>0.82</v>
-      </c>
-      <c r="V248">
-        <v>1.68</v>
+      <c r="U248" t="s">
+        <v>83</v>
+      </c>
+      <c r="V248" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="249" spans="1:22" x14ac:dyDescent="0.25">
@@ -12618,28 +12917,31 @@
         <v>331</v>
       </c>
       <c r="B249" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C249" t="s">
-        <v>358</v>
-      </c>
-      <c r="D249" t="s">
-        <v>15</v>
-      </c>
-      <c r="E249" t="s">
-        <v>83</v>
+        <v>348</v>
+      </c>
+      <c r="D249" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E249">
+        <v>23</v>
       </c>
       <c r="F249" t="s">
         <v>83</v>
       </c>
-      <c r="G249" t="s">
-        <v>83</v>
+      <c r="G249">
+        <v>46</v>
       </c>
       <c r="H249" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I249" s="10" t="s">
-        <v>382</v>
+        <v>84</v>
+      </c>
+      <c r="I249" s="10">
+        <v>8</v>
+      </c>
+      <c r="K249" t="s">
+        <v>363</v>
       </c>
       <c r="L249" t="s">
         <v>83</v>
@@ -12651,16 +12953,16 @@
         <v>83</v>
       </c>
       <c r="O249" t="s">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="P249" t="s">
         <v>83</v>
       </c>
-      <c r="Q249">
-        <v>0.52</v>
-      </c>
-      <c r="R249">
-        <v>1.17</v>
+      <c r="Q249" t="s">
+        <v>83</v>
+      </c>
+      <c r="R249" t="s">
+        <v>83</v>
       </c>
       <c r="S249" t="s">
         <v>83</v>
@@ -12668,11 +12970,11 @@
       <c r="T249" t="s">
         <v>83</v>
       </c>
-      <c r="U249">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="V249">
-        <v>2.27</v>
+      <c r="U249" t="s">
+        <v>83</v>
+      </c>
+      <c r="V249" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="250" spans="1:22" x14ac:dyDescent="0.25">
@@ -12680,28 +12982,31 @@
         <v>331</v>
       </c>
       <c r="B250" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C250" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D250" t="s">
         <v>15</v>
       </c>
       <c r="E250">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="F250" t="s">
         <v>83</v>
       </c>
       <c r="G250">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="H250" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I250" s="10">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="K250" t="s">
+        <v>363</v>
       </c>
       <c r="L250" t="s">
         <v>83</v>
@@ -12742,37 +13047,40 @@
         <v>331</v>
       </c>
       <c r="B251" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C251" t="s">
-        <v>360</v>
-      </c>
-      <c r="D251" s="16" t="s">
-        <v>30</v>
+        <v>351</v>
+      </c>
+      <c r="D251" t="s">
+        <v>83</v>
       </c>
       <c r="E251">
-        <v>23</v>
-      </c>
-      <c r="F251" t="s">
+        <v>3.8</v>
+      </c>
+      <c r="F251" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G251">
-        <v>46</v>
+        <v>9.5</v>
       </c>
       <c r="H251" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I251" s="10">
-        <v>8</v>
-      </c>
-      <c r="L251" t="s">
-        <v>83</v>
-      </c>
-      <c r="M251" t="s">
-        <v>83</v>
-      </c>
-      <c r="N251" t="s">
-        <v>83</v>
+        <v>358</v>
+      </c>
+      <c r="I251" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="K251" t="s">
+        <v>363</v>
+      </c>
+      <c r="L251" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="M251">
+        <v>1.9</v>
+      </c>
+      <c r="N251">
+        <v>11.4</v>
       </c>
       <c r="O251" t="s">
         <v>83</v>
@@ -12804,28 +13112,31 @@
         <v>331</v>
       </c>
       <c r="B252" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C252" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D252" t="s">
         <v>15</v>
       </c>
       <c r="E252">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F252" t="s">
         <v>83</v>
       </c>
       <c r="G252">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H252" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I252" s="10">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="K252" t="s">
+        <v>363</v>
       </c>
       <c r="L252" t="s">
         <v>83</v>
@@ -12866,37 +13177,40 @@
         <v>331</v>
       </c>
       <c r="B253" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C253" t="s">
+        <v>353</v>
+      </c>
+      <c r="D253" t="s">
+        <v>15</v>
+      </c>
+      <c r="E253">
+        <v>225</v>
+      </c>
+      <c r="F253" t="s">
+        <v>83</v>
+      </c>
+      <c r="G253">
+        <v>450</v>
+      </c>
+      <c r="H253" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I253" s="10">
+        <v>12</v>
+      </c>
+      <c r="K253" t="s">
         <v>363</v>
       </c>
-      <c r="D253" t="s">
-        <v>83</v>
-      </c>
-      <c r="E253">
-        <v>3.8</v>
-      </c>
-      <c r="F253" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G253">
-        <v>9.5</v>
-      </c>
-      <c r="H253" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="I253" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="L253" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="M253">
-        <v>1.9</v>
-      </c>
-      <c r="N253">
-        <v>11.4</v>
+      <c r="L253" t="s">
+        <v>83</v>
+      </c>
+      <c r="M253" t="s">
+        <v>83</v>
+      </c>
+      <c r="N253" t="s">
+        <v>83</v>
       </c>
       <c r="O253" t="s">
         <v>83</v>
@@ -12928,31 +13242,34 @@
         <v>331</v>
       </c>
       <c r="B254" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C254" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D254" t="s">
-        <v>15</v>
-      </c>
-      <c r="E254">
-        <v>21</v>
-      </c>
-      <c r="F254" t="s">
+        <v>83</v>
+      </c>
+      <c r="E254" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F254" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G254">
-        <v>36</v>
+        <v>1.2</v>
       </c>
       <c r="H254" s="17" t="s">
-        <v>84</v>
+        <v>375</v>
       </c>
       <c r="I254" s="10">
-        <v>11</v>
-      </c>
-      <c r="L254" t="s">
-        <v>83</v>
+        <v>13</v>
+      </c>
+      <c r="K254" t="s">
+        <v>363</v>
+      </c>
+      <c r="L254">
+        <v>-4</v>
       </c>
       <c r="M254" t="s">
         <v>83</v>
@@ -12990,28 +13307,31 @@
         <v>331</v>
       </c>
       <c r="B255" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C255" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="D255" t="s">
         <v>15</v>
       </c>
-      <c r="E255">
-        <v>225</v>
+      <c r="E255" t="s">
+        <v>83</v>
       </c>
       <c r="F255" t="s">
         <v>83</v>
       </c>
-      <c r="G255">
-        <v>450</v>
+      <c r="G255" t="s">
+        <v>83</v>
       </c>
       <c r="H255" s="17" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="I255" s="10">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K255" t="s">
+        <v>363</v>
       </c>
       <c r="L255" t="s">
         <v>83</v>
@@ -13023,16 +13343,16 @@
         <v>83</v>
       </c>
       <c r="O255" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="P255" t="s">
         <v>83</v>
       </c>
-      <c r="Q255" t="s">
-        <v>83</v>
-      </c>
-      <c r="R255" t="s">
-        <v>83</v>
+      <c r="Q255">
+        <v>3.08</v>
+      </c>
+      <c r="R255">
+        <v>6.57</v>
       </c>
       <c r="S255" t="s">
         <v>83</v>
@@ -13040,11 +13360,11 @@
       <c r="T255" t="s">
         <v>83</v>
       </c>
-      <c r="U255" t="s">
-        <v>83</v>
-      </c>
-      <c r="V255" t="s">
-        <v>83</v>
+      <c r="U255" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="V255">
+        <v>9.66</v>
       </c>
     </row>
     <row r="256" spans="1:22" x14ac:dyDescent="0.25">
@@ -13052,31 +13372,34 @@
         <v>331</v>
       </c>
       <c r="B256" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C256" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="D256" t="s">
-        <v>83</v>
-      </c>
-      <c r="E256" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F256" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G256">
-        <v>1.2</v>
+        <v>15</v>
+      </c>
+      <c r="E256" t="s">
+        <v>83</v>
+      </c>
+      <c r="F256" t="s">
+        <v>83</v>
+      </c>
+      <c r="G256" t="s">
+        <v>83</v>
       </c>
       <c r="H256" s="17" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="I256" s="10">
-        <v>13</v>
-      </c>
-      <c r="L256">
-        <v>-4</v>
+        <v>2</v>
+      </c>
+      <c r="K256" t="s">
+        <v>363</v>
+      </c>
+      <c r="L256" t="s">
+        <v>83</v>
       </c>
       <c r="M256" t="s">
         <v>83</v>
@@ -13085,16 +13408,16 @@
         <v>83</v>
       </c>
       <c r="O256" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="P256" t="s">
         <v>83</v>
       </c>
-      <c r="Q256" t="s">
-        <v>83</v>
-      </c>
-      <c r="R256" t="s">
-        <v>83</v>
+      <c r="Q256">
+        <v>0.41</v>
+      </c>
+      <c r="R256">
+        <v>0.74</v>
       </c>
       <c r="S256" t="s">
         <v>83</v>
@@ -13102,11 +13425,11 @@
       <c r="T256" t="s">
         <v>83</v>
       </c>
-      <c r="U256" t="s">
-        <v>83</v>
-      </c>
-      <c r="V256" t="s">
-        <v>83</v>
+      <c r="U256">
+        <v>0.76</v>
+      </c>
+      <c r="V256">
+        <v>1.52</v>
       </c>
     </row>
     <row r="257" spans="1:22" x14ac:dyDescent="0.25">
@@ -13114,10 +13437,10 @@
         <v>331</v>
       </c>
       <c r="B257" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C257" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="D257" t="s">
         <v>15</v>
@@ -13132,10 +13455,13 @@
         <v>83</v>
       </c>
       <c r="H257" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I257" s="10">
-        <v>1</v>
+        <v>339</v>
+      </c>
+      <c r="I257" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="K257" t="s">
+        <v>363</v>
       </c>
       <c r="L257" t="s">
         <v>83</v>
@@ -13147,16 +13473,16 @@
         <v>83</v>
       </c>
       <c r="O257" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P257" t="s">
         <v>83</v>
       </c>
       <c r="Q257">
-        <v>3.08</v>
+        <v>0.61</v>
       </c>
       <c r="R257">
-        <v>6.57</v>
+        <v>1.3</v>
       </c>
       <c r="S257" t="s">
         <v>83</v>
@@ -13165,10 +13491,10 @@
         <v>83</v>
       </c>
       <c r="U257">
-        <v>4.6399999999999997</v>
+        <v>0.98</v>
       </c>
       <c r="V257">
-        <v>9.66</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="258" spans="1:22" x14ac:dyDescent="0.25">
@@ -13176,10 +13502,10 @@
         <v>331</v>
       </c>
       <c r="B258" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C258" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D258" t="s">
         <v>15</v>
@@ -13194,10 +13520,13 @@
         <v>83</v>
       </c>
       <c r="H258" s="17" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="I258" s="10">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K258" t="s">
+        <v>363</v>
       </c>
       <c r="L258" t="s">
         <v>83</v>
@@ -13209,16 +13538,16 @@
         <v>83</v>
       </c>
       <c r="O258" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P258" t="s">
         <v>83</v>
       </c>
       <c r="Q258">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="R258">
-        <v>0.74</v>
+        <v>1.02</v>
       </c>
       <c r="S258" t="s">
         <v>83</v>
@@ -13227,10 +13556,10 @@
         <v>83</v>
       </c>
       <c r="U258">
-        <v>0.76</v>
+        <v>0.99</v>
       </c>
       <c r="V258">
-        <v>1.52</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="259" spans="1:22" x14ac:dyDescent="0.25">
@@ -13238,10 +13567,10 @@
         <v>331</v>
       </c>
       <c r="B259" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C259" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="D259" t="s">
         <v>15</v>
@@ -13256,10 +13585,13 @@
         <v>83</v>
       </c>
       <c r="H259" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I259" s="10" t="s">
-        <v>377</v>
+        <v>339</v>
+      </c>
+      <c r="I259" s="10">
+        <v>5</v>
+      </c>
+      <c r="K259" t="s">
+        <v>363</v>
       </c>
       <c r="L259" t="s">
         <v>83</v>
@@ -13271,16 +13603,16 @@
         <v>83</v>
       </c>
       <c r="O259" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P259" t="s">
         <v>83</v>
       </c>
       <c r="Q259">
-        <v>0.61</v>
+        <v>0.34</v>
       </c>
       <c r="R259">
-        <v>1.3</v>
+        <v>0.73</v>
       </c>
       <c r="S259" t="s">
         <v>83</v>
@@ -13289,10 +13621,10 @@
         <v>83</v>
       </c>
       <c r="U259">
-        <v>0.98</v>
+        <v>0.72</v>
       </c>
       <c r="V259">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="260" spans="1:22" x14ac:dyDescent="0.25">
@@ -13300,10 +13632,10 @@
         <v>331</v>
       </c>
       <c r="B260" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C260" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D260" t="s">
         <v>15</v>
@@ -13318,10 +13650,13 @@
         <v>83</v>
       </c>
       <c r="H260" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I260" s="10">
-        <v>4</v>
+        <v>339</v>
+      </c>
+      <c r="I260" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="K260" t="s">
+        <v>363</v>
       </c>
       <c r="L260" t="s">
         <v>83</v>
@@ -13333,16 +13668,16 @@
         <v>83</v>
       </c>
       <c r="O260" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P260" t="s">
         <v>83</v>
       </c>
       <c r="Q260">
-        <v>0.5</v>
+        <v>0.39</v>
       </c>
       <c r="R260">
-        <v>1.02</v>
+        <v>0.87</v>
       </c>
       <c r="S260" t="s">
         <v>83</v>
@@ -13351,10 +13686,10 @@
         <v>83</v>
       </c>
       <c r="U260">
-        <v>0.99</v>
+        <v>0.72</v>
       </c>
       <c r="V260">
-        <v>2.0099999999999998</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="261" spans="1:22" x14ac:dyDescent="0.25">
@@ -13362,28 +13697,31 @@
         <v>331</v>
       </c>
       <c r="B261" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C261" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D261" t="s">
         <v>15</v>
       </c>
-      <c r="E261" t="s">
-        <v>83</v>
+      <c r="E261">
+        <v>57</v>
       </c>
       <c r="F261" t="s">
         <v>83</v>
       </c>
-      <c r="G261" t="s">
-        <v>83</v>
+      <c r="G261">
+        <v>68</v>
       </c>
       <c r="H261" s="17" t="s">
-        <v>348</v>
+        <v>84</v>
       </c>
       <c r="I261" s="10">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="K261" t="s">
+        <v>363</v>
       </c>
       <c r="L261" t="s">
         <v>83</v>
@@ -13395,16 +13733,16 @@
         <v>83</v>
       </c>
       <c r="O261" t="s">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="P261" t="s">
         <v>83</v>
       </c>
-      <c r="Q261">
-        <v>0.34</v>
-      </c>
-      <c r="R261">
-        <v>0.73</v>
+      <c r="Q261" t="s">
+        <v>83</v>
+      </c>
+      <c r="R261" t="s">
+        <v>83</v>
       </c>
       <c r="S261" t="s">
         <v>83</v>
@@ -13412,11 +13750,11 @@
       <c r="T261" t="s">
         <v>83</v>
       </c>
-      <c r="U261">
-        <v>0.72</v>
-      </c>
-      <c r="V261">
-        <v>1.45</v>
+      <c r="U261" t="s">
+        <v>83</v>
+      </c>
+      <c r="V261" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="262" spans="1:22" x14ac:dyDescent="0.25">
@@ -13424,28 +13762,31 @@
         <v>331</v>
       </c>
       <c r="B262" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C262" t="s">
-        <v>357</v>
-      </c>
-      <c r="D262" t="s">
-        <v>15</v>
-      </c>
-      <c r="E262" t="s">
-        <v>83</v>
+        <v>348</v>
+      </c>
+      <c r="D262" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E262">
+        <v>23</v>
       </c>
       <c r="F262" t="s">
         <v>83</v>
       </c>
-      <c r="G262" t="s">
-        <v>83</v>
+      <c r="G262">
+        <v>45</v>
       </c>
       <c r="H262" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I262" s="10" t="s">
-        <v>381</v>
+        <v>84</v>
+      </c>
+      <c r="I262" s="10">
+        <v>8</v>
+      </c>
+      <c r="K262" t="s">
+        <v>363</v>
       </c>
       <c r="L262" t="s">
         <v>83</v>
@@ -13457,16 +13798,16 @@
         <v>83</v>
       </c>
       <c r="O262" t="s">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="P262" t="s">
         <v>83</v>
       </c>
-      <c r="Q262">
-        <v>0.39</v>
-      </c>
-      <c r="R262">
-        <v>0.87</v>
+      <c r="Q262" t="s">
+        <v>83</v>
+      </c>
+      <c r="R262" t="s">
+        <v>83</v>
       </c>
       <c r="S262" t="s">
         <v>83</v>
@@ -13474,11 +13815,11 @@
       <c r="T262" t="s">
         <v>83</v>
       </c>
-      <c r="U262">
-        <v>0.72</v>
-      </c>
-      <c r="V262">
-        <v>1.79</v>
+      <c r="U262" t="s">
+        <v>83</v>
+      </c>
+      <c r="V262" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="263" spans="1:22" x14ac:dyDescent="0.25">
@@ -13486,28 +13827,31 @@
         <v>331</v>
       </c>
       <c r="B263" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C263" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D263" t="s">
         <v>15</v>
       </c>
       <c r="E263">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F263" t="s">
         <v>83</v>
       </c>
       <c r="G263">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H263" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I263" s="10">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="K263" t="s">
+        <v>363</v>
       </c>
       <c r="L263" t="s">
         <v>83</v>
@@ -13548,28 +13892,31 @@
         <v>331</v>
       </c>
       <c r="B264" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C264" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D264" s="16" t="s">
         <v>30</v>
       </c>
       <c r="E264">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F264" t="s">
         <v>83</v>
       </c>
       <c r="G264">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H264" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I264" s="10">
-        <v>8</v>
+      <c r="I264" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="K264" t="s">
+        <v>363</v>
       </c>
       <c r="L264" t="s">
         <v>83</v>
@@ -13610,28 +13957,31 @@
         <v>331</v>
       </c>
       <c r="B265" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C265" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D265" t="s">
         <v>15</v>
       </c>
       <c r="E265">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F265" t="s">
         <v>83</v>
       </c>
       <c r="G265">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H265" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I265" s="10">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="K265" t="s">
+        <v>363</v>
       </c>
       <c r="L265" t="s">
         <v>83</v>
@@ -13672,28 +14022,31 @@
         <v>331</v>
       </c>
       <c r="B266" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C266" t="s">
-        <v>362</v>
-      </c>
-      <c r="D266" s="16" t="s">
-        <v>30</v>
+        <v>353</v>
+      </c>
+      <c r="D266" t="s">
+        <v>15</v>
       </c>
       <c r="E266">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="F266" t="s">
         <v>83</v>
       </c>
       <c r="G266">
-        <v>36</v>
+        <v>640</v>
       </c>
       <c r="H266" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I266" s="10" t="s">
-        <v>379</v>
+      <c r="I266" s="10">
+        <v>12</v>
+      </c>
+      <c r="K266" t="s">
+        <v>363</v>
       </c>
       <c r="L266" t="s">
         <v>83</v>
@@ -13734,31 +14087,34 @@
         <v>331</v>
       </c>
       <c r="B267" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C267" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D267" t="s">
-        <v>15</v>
-      </c>
-      <c r="E267">
-        <v>14</v>
-      </c>
-      <c r="F267" t="s">
+        <v>83</v>
+      </c>
+      <c r="E267" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F267" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G267">
-        <v>28</v>
+        <v>1.2</v>
       </c>
       <c r="H267" s="17" t="s">
-        <v>84</v>
+        <v>375</v>
       </c>
       <c r="I267" s="10">
-        <v>11</v>
-      </c>
-      <c r="L267" t="s">
-        <v>83</v>
+        <v>13</v>
+      </c>
+      <c r="K267" t="s">
+        <v>363</v>
+      </c>
+      <c r="L267">
+        <v>-4</v>
       </c>
       <c r="M267" t="s">
         <v>83</v>
@@ -13796,28 +14152,31 @@
         <v>331</v>
       </c>
       <c r="B268" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C268" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="D268" t="s">
         <v>15</v>
       </c>
-      <c r="E268">
-        <v>320</v>
+      <c r="E268" t="s">
+        <v>83</v>
       </c>
       <c r="F268" t="s">
         <v>83</v>
       </c>
-      <c r="G268">
-        <v>640</v>
+      <c r="G268" t="s">
+        <v>83</v>
       </c>
       <c r="H268" s="17" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="I268" s="10">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K268" t="s">
+        <v>363</v>
       </c>
       <c r="L268" t="s">
         <v>83</v>
@@ -13829,16 +14188,16 @@
         <v>83</v>
       </c>
       <c r="O268" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="P268" t="s">
         <v>83</v>
       </c>
-      <c r="Q268" t="s">
-        <v>83</v>
-      </c>
-      <c r="R268" t="s">
-        <v>83</v>
+      <c r="Q268">
+        <v>3.08</v>
+      </c>
+      <c r="R268">
+        <v>6.57</v>
       </c>
       <c r="S268" t="s">
         <v>83</v>
@@ -13846,11 +14205,11 @@
       <c r="T268" t="s">
         <v>83</v>
       </c>
-      <c r="U268" t="s">
-        <v>83</v>
-      </c>
-      <c r="V268" t="s">
-        <v>83</v>
+      <c r="U268" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="V268">
+        <v>9.66</v>
       </c>
     </row>
     <row r="269" spans="1:22" x14ac:dyDescent="0.25">
@@ -13858,31 +14217,34 @@
         <v>331</v>
       </c>
       <c r="B269" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C269" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="D269" t="s">
-        <v>83</v>
-      </c>
-      <c r="E269" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F269" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G269">
-        <v>1.2</v>
+        <v>15</v>
+      </c>
+      <c r="E269" t="s">
+        <v>83</v>
+      </c>
+      <c r="F269" t="s">
+        <v>83</v>
+      </c>
+      <c r="G269" t="s">
+        <v>83</v>
       </c>
       <c r="H269" s="17" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="I269" s="10">
-        <v>13</v>
-      </c>
-      <c r="L269">
-        <v>-4</v>
+        <v>2</v>
+      </c>
+      <c r="K269" t="s">
+        <v>363</v>
+      </c>
+      <c r="L269" t="s">
+        <v>83</v>
       </c>
       <c r="M269" t="s">
         <v>83</v>
@@ -13891,16 +14253,16 @@
         <v>83</v>
       </c>
       <c r="O269" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="P269" t="s">
         <v>83</v>
       </c>
-      <c r="Q269" t="s">
-        <v>83</v>
-      </c>
-      <c r="R269" t="s">
-        <v>83</v>
+      <c r="Q269">
+        <v>0.41</v>
+      </c>
+      <c r="R269">
+        <v>0.74</v>
       </c>
       <c r="S269" t="s">
         <v>83</v>
@@ -13908,11 +14270,11 @@
       <c r="T269" t="s">
         <v>83</v>
       </c>
-      <c r="U269" t="s">
-        <v>83</v>
-      </c>
-      <c r="V269" t="s">
-        <v>83</v>
+      <c r="U269">
+        <v>0.76</v>
+      </c>
+      <c r="V269">
+        <v>1.52</v>
       </c>
     </row>
     <row r="270" spans="1:22" x14ac:dyDescent="0.25">
@@ -13920,10 +14282,10 @@
         <v>331</v>
       </c>
       <c r="B270" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C270" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="D270" t="s">
         <v>15</v>
@@ -13938,43 +14300,46 @@
         <v>83</v>
       </c>
       <c r="H270" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I270" s="10">
+        <v>339</v>
+      </c>
+      <c r="I270" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="K270" t="s">
+        <v>363</v>
+      </c>
+      <c r="L270" t="s">
+        <v>83</v>
+      </c>
+      <c r="M270" t="s">
+        <v>83</v>
+      </c>
+      <c r="N270" t="s">
+        <v>83</v>
+      </c>
+      <c r="O270" t="s">
+        <v>340</v>
+      </c>
+      <c r="P270" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q270">
+        <v>0.62</v>
+      </c>
+      <c r="R270">
+        <v>3.33</v>
+      </c>
+      <c r="S270" t="s">
+        <v>83</v>
+      </c>
+      <c r="T270" t="s">
+        <v>83</v>
+      </c>
+      <c r="U270">
         <v>1</v>
       </c>
-      <c r="L270" t="s">
-        <v>83</v>
-      </c>
-      <c r="M270" t="s">
-        <v>83</v>
-      </c>
-      <c r="N270" t="s">
-        <v>83</v>
-      </c>
-      <c r="O270" t="s">
-        <v>349</v>
-      </c>
-      <c r="P270" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q270">
-        <v>3.08</v>
-      </c>
-      <c r="R270">
-        <v>6.57</v>
-      </c>
-      <c r="S270" t="s">
-        <v>83</v>
-      </c>
-      <c r="T270" t="s">
-        <v>83</v>
-      </c>
-      <c r="U270">
-        <v>4.6399999999999997</v>
-      </c>
       <c r="V270">
-        <v>9.66</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="271" spans="1:22" x14ac:dyDescent="0.25">
@@ -13982,10 +14347,10 @@
         <v>331</v>
       </c>
       <c r="B271" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C271" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D271" t="s">
         <v>15</v>
@@ -14000,10 +14365,13 @@
         <v>83</v>
       </c>
       <c r="H271" s="17" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="I271" s="10">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K271" t="s">
+        <v>363</v>
       </c>
       <c r="L271" t="s">
         <v>83</v>
@@ -14015,16 +14383,16 @@
         <v>83</v>
       </c>
       <c r="O271" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P271" t="s">
         <v>83</v>
       </c>
       <c r="Q271">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="R271">
-        <v>0.74</v>
+        <v>1.02</v>
       </c>
       <c r="S271" t="s">
         <v>83</v>
@@ -14033,10 +14401,10 @@
         <v>83</v>
       </c>
       <c r="U271">
-        <v>0.76</v>
+        <v>0.99</v>
       </c>
       <c r="V271">
-        <v>1.52</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="272" spans="1:22" x14ac:dyDescent="0.25">
@@ -14044,10 +14412,10 @@
         <v>331</v>
       </c>
       <c r="B272" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C272" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D272" t="s">
         <v>15</v>
@@ -14062,10 +14430,13 @@
         <v>83</v>
       </c>
       <c r="H272" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I272" s="10" t="s">
-        <v>378</v>
+        <v>339</v>
+      </c>
+      <c r="I272" s="10">
+        <v>5</v>
+      </c>
+      <c r="K272" t="s">
+        <v>363</v>
       </c>
       <c r="L272" t="s">
         <v>83</v>
@@ -14077,16 +14448,16 @@
         <v>83</v>
       </c>
       <c r="O272" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P272" t="s">
         <v>83</v>
       </c>
       <c r="Q272">
-        <v>0.62</v>
+        <v>0.34</v>
       </c>
       <c r="R272">
-        <v>3.33</v>
+        <v>0.73</v>
       </c>
       <c r="S272" t="s">
         <v>83</v>
@@ -14095,10 +14466,10 @@
         <v>83</v>
       </c>
       <c r="U272">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="V272">
-        <v>4.07</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="273" spans="1:22" x14ac:dyDescent="0.25">
@@ -14106,10 +14477,10 @@
         <v>331</v>
       </c>
       <c r="B273" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C273" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D273" t="s">
         <v>15</v>
@@ -14124,10 +14495,13 @@
         <v>83</v>
       </c>
       <c r="H273" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I273" s="10">
-        <v>4</v>
+        <v>339</v>
+      </c>
+      <c r="I273" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="K273" t="s">
+        <v>363</v>
       </c>
       <c r="L273" t="s">
         <v>83</v>
@@ -14139,16 +14513,16 @@
         <v>83</v>
       </c>
       <c r="O273" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P273" t="s">
         <v>83</v>
       </c>
       <c r="Q273">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="R273">
-        <v>1.02</v>
+        <v>0.87</v>
       </c>
       <c r="S273" t="s">
         <v>83</v>
@@ -14157,10 +14531,10 @@
         <v>83</v>
       </c>
       <c r="U273">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="V273">
-        <v>2.0099999999999998</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="274" spans="1:22" x14ac:dyDescent="0.25">
@@ -14168,28 +14542,31 @@
         <v>331</v>
       </c>
       <c r="B274" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C274" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D274" t="s">
         <v>15</v>
       </c>
-      <c r="E274" t="s">
-        <v>83</v>
+      <c r="E274">
+        <v>57</v>
       </c>
       <c r="F274" t="s">
         <v>83</v>
       </c>
-      <c r="G274" t="s">
-        <v>83</v>
+      <c r="G274">
+        <v>68</v>
       </c>
       <c r="H274" s="17" t="s">
-        <v>348</v>
+        <v>84</v>
       </c>
       <c r="I274" s="10">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="K274" t="s">
+        <v>363</v>
       </c>
       <c r="L274" t="s">
         <v>83</v>
@@ -14201,16 +14578,16 @@
         <v>83</v>
       </c>
       <c r="O274" t="s">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="P274" t="s">
         <v>83</v>
       </c>
-      <c r="Q274">
-        <v>0.34</v>
-      </c>
-      <c r="R274">
-        <v>0.73</v>
+      <c r="Q274" t="s">
+        <v>83</v>
+      </c>
+      <c r="R274" t="s">
+        <v>83</v>
       </c>
       <c r="S274" t="s">
         <v>83</v>
@@ -14218,11 +14595,11 @@
       <c r="T274" t="s">
         <v>83</v>
       </c>
-      <c r="U274">
-        <v>0.72</v>
-      </c>
-      <c r="V274">
-        <v>1.45</v>
+      <c r="U274" t="s">
+        <v>83</v>
+      </c>
+      <c r="V274" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="275" spans="1:22" x14ac:dyDescent="0.25">
@@ -14230,28 +14607,31 @@
         <v>331</v>
       </c>
       <c r="B275" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C275" t="s">
-        <v>358</v>
-      </c>
-      <c r="D275" t="s">
-        <v>15</v>
-      </c>
-      <c r="E275" t="s">
-        <v>83</v>
+        <v>348</v>
+      </c>
+      <c r="D275" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E275">
+        <v>23</v>
       </c>
       <c r="F275" t="s">
         <v>83</v>
       </c>
-      <c r="G275" t="s">
-        <v>83</v>
+      <c r="G275">
+        <v>45</v>
       </c>
       <c r="H275" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I275" s="10" t="s">
-        <v>382</v>
+        <v>84</v>
+      </c>
+      <c r="I275" s="10">
+        <v>8</v>
+      </c>
+      <c r="K275" t="s">
+        <v>363</v>
       </c>
       <c r="L275" t="s">
         <v>83</v>
@@ -14263,16 +14643,16 @@
         <v>83</v>
       </c>
       <c r="O275" t="s">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="P275" t="s">
         <v>83</v>
       </c>
-      <c r="Q275">
-        <v>0.48</v>
-      </c>
-      <c r="R275">
-        <v>0.87</v>
+      <c r="Q275" t="s">
+        <v>83</v>
+      </c>
+      <c r="R275" t="s">
+        <v>83</v>
       </c>
       <c r="S275" t="s">
         <v>83</v>
@@ -14280,11 +14660,11 @@
       <c r="T275" t="s">
         <v>83</v>
       </c>
-      <c r="U275">
-        <v>0.9</v>
-      </c>
-      <c r="V275">
-        <v>1.83</v>
+      <c r="U275" t="s">
+        <v>83</v>
+      </c>
+      <c r="V275" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="276" spans="1:22" x14ac:dyDescent="0.25">
@@ -14292,28 +14672,31 @@
         <v>331</v>
       </c>
       <c r="B276" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C276" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D276" t="s">
         <v>15</v>
       </c>
       <c r="E276">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F276" t="s">
         <v>83</v>
       </c>
       <c r="G276">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H276" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I276" s="10">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="K276" t="s">
+        <v>363</v>
       </c>
       <c r="L276" t="s">
         <v>83</v>
@@ -14354,37 +14737,40 @@
         <v>331</v>
       </c>
       <c r="B277" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C277" t="s">
-        <v>360</v>
-      </c>
-      <c r="D277" s="16" t="s">
-        <v>30</v>
+        <v>351</v>
+      </c>
+      <c r="D277" t="s">
+        <v>83</v>
       </c>
       <c r="E277">
-        <v>23</v>
-      </c>
-      <c r="F277" t="s">
+        <v>3.8</v>
+      </c>
+      <c r="F277" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G277">
-        <v>45</v>
+        <v>9.5</v>
       </c>
       <c r="H277" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I277" s="10">
-        <v>8</v>
-      </c>
-      <c r="L277" t="s">
-        <v>83</v>
-      </c>
-      <c r="M277" t="s">
-        <v>83</v>
-      </c>
-      <c r="N277" t="s">
-        <v>83</v>
+        <v>358</v>
+      </c>
+      <c r="I277" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="K277" t="s">
+        <v>363</v>
+      </c>
+      <c r="L277" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="M277">
+        <v>1.9</v>
+      </c>
+      <c r="N277">
+        <v>11.4</v>
       </c>
       <c r="O277" t="s">
         <v>83</v>
@@ -14416,28 +14802,31 @@
         <v>331</v>
       </c>
       <c r="B278" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C278" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D278" t="s">
         <v>15</v>
       </c>
       <c r="E278">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F278" t="s">
         <v>83</v>
       </c>
       <c r="G278">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H278" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I278" s="10">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="K278" t="s">
+        <v>363</v>
       </c>
       <c r="L278" t="s">
         <v>83</v>
@@ -14478,37 +14867,40 @@
         <v>331</v>
       </c>
       <c r="B279" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C279" t="s">
+        <v>353</v>
+      </c>
+      <c r="D279" t="s">
+        <v>15</v>
+      </c>
+      <c r="E279">
+        <v>320</v>
+      </c>
+      <c r="F279" t="s">
+        <v>83</v>
+      </c>
+      <c r="G279">
+        <v>640</v>
+      </c>
+      <c r="H279" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I279" s="10">
+        <v>12</v>
+      </c>
+      <c r="K279" t="s">
         <v>363</v>
       </c>
-      <c r="D279" t="s">
-        <v>83</v>
-      </c>
-      <c r="E279">
-        <v>3.8</v>
-      </c>
-      <c r="F279" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G279">
-        <v>9.5</v>
-      </c>
-      <c r="H279" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="I279" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="L279" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="M279">
-        <v>1.9</v>
-      </c>
-      <c r="N279">
-        <v>11.4</v>
+      <c r="L279" t="s">
+        <v>83</v>
+      </c>
+      <c r="M279" t="s">
+        <v>83</v>
+      </c>
+      <c r="N279" t="s">
+        <v>83</v>
       </c>
       <c r="O279" t="s">
         <v>83</v>
@@ -14540,31 +14932,34 @@
         <v>331</v>
       </c>
       <c r="B280" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C280" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D280" t="s">
-        <v>15</v>
-      </c>
-      <c r="E280">
-        <v>14</v>
-      </c>
-      <c r="F280" t="s">
+        <v>83</v>
+      </c>
+      <c r="E280" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F280" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G280">
-        <v>28</v>
+        <v>1.2</v>
       </c>
       <c r="H280" s="17" t="s">
-        <v>84</v>
+        <v>375</v>
       </c>
       <c r="I280" s="10">
-        <v>11</v>
-      </c>
-      <c r="L280" t="s">
-        <v>83</v>
+        <v>13</v>
+      </c>
+      <c r="K280" t="s">
+        <v>363</v>
+      </c>
+      <c r="L280">
+        <v>-4</v>
       </c>
       <c r="M280" t="s">
         <v>83</v>
@@ -14597,437 +14992,281 @@
         <v>83</v>
       </c>
     </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>331</v>
-      </c>
-      <c r="B281" t="s">
-        <v>386</v>
-      </c>
-      <c r="C281" t="s">
-        <v>365</v>
-      </c>
-      <c r="D281" t="s">
-        <v>15</v>
-      </c>
-      <c r="E281">
-        <v>320</v>
-      </c>
-      <c r="F281" t="s">
-        <v>83</v>
-      </c>
-      <c r="G281">
-        <v>640</v>
-      </c>
-      <c r="H281" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I281" s="10">
-        <v>12</v>
-      </c>
-      <c r="L281" t="s">
-        <v>83</v>
-      </c>
-      <c r="M281" t="s">
-        <v>83</v>
-      </c>
-      <c r="N281" t="s">
-        <v>83</v>
-      </c>
-      <c r="O281" t="s">
-        <v>83</v>
-      </c>
-      <c r="P281" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q281" t="s">
-        <v>83</v>
-      </c>
-      <c r="R281" t="s">
-        <v>83</v>
-      </c>
-      <c r="S281" t="s">
-        <v>83</v>
-      </c>
-      <c r="T281" t="s">
-        <v>83</v>
-      </c>
-      <c r="U281" t="s">
-        <v>83</v>
-      </c>
-      <c r="V281" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="282" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>331</v>
-      </c>
-      <c r="B282" t="s">
-        <v>386</v>
-      </c>
-      <c r="C282" t="s">
-        <v>366</v>
-      </c>
-      <c r="D282" t="s">
-        <v>83</v>
-      </c>
-      <c r="E282" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F282" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G282">
-        <v>1.2</v>
-      </c>
-      <c r="H282" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="I282" s="10">
-        <v>13</v>
-      </c>
-      <c r="L282">
-        <v>-4</v>
-      </c>
-      <c r="M282" t="s">
-        <v>83</v>
-      </c>
-      <c r="N282" t="s">
-        <v>83</v>
-      </c>
-      <c r="O282" t="s">
-        <v>83</v>
-      </c>
-      <c r="P282" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q282" t="s">
-        <v>83</v>
-      </c>
-      <c r="R282" t="s">
-        <v>83</v>
-      </c>
-      <c r="S282" t="s">
-        <v>83</v>
-      </c>
-      <c r="T282" t="s">
-        <v>83</v>
-      </c>
-      <c r="U282" t="s">
-        <v>83</v>
-      </c>
-      <c r="V282" t="s">
-        <v>83</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AC282" xr:uid="{FED77011-9DA1-4ED4-AF67-599FA276C79A}">
+  <autoFilter ref="A1:AC280" xr:uid="{FED77011-9DA1-4ED4-AF67-599FA276C79A}">
     <filterColumn colId="0">
       <filters>
         <filter val="GADNR_Fish_2005"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="D2:D185 D204:D209 D212">
-    <cfRule type="cellIs" dxfId="91" priority="93" operator="equal">
+  <conditionalFormatting sqref="D2:D185 D210 D203:D207 H203">
+    <cfRule type="cellIs" dxfId="82" priority="93" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="94" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D188:D203 I204 E203:J203 Z203 W203:X203">
-    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
+  <conditionalFormatting sqref="D188:D202">
+    <cfRule type="cellIs" dxfId="80" priority="91" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="92" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D186">
-    <cfRule type="cellIs" dxfId="87" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="89" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="90" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D187">
-    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="87" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="88" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O186:O209">
-    <cfRule type="expression" dxfId="83" priority="86">
+  <conditionalFormatting sqref="O186:O207">
+    <cfRule type="expression" dxfId="74" priority="86">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E204:G204 E206:F206 E211:E216 F205 F207:F229">
-    <cfRule type="cellIs" dxfId="82" priority="84" operator="equal">
+  <conditionalFormatting sqref="E204:F204 E209:E214 F203 F205:F227">
+    <cfRule type="cellIs" dxfId="73" priority="84" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="85" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W204">
-    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
+  <conditionalFormatting sqref="H204:H207">
+    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H204:H205">
-    <cfRule type="cellIs" dxfId="78" priority="80" operator="equal">
+  <conditionalFormatting sqref="U186:V202">
+    <cfRule type="expression" dxfId="69" priority="96">
+      <formula>E186="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q186:R207">
+    <cfRule type="expression" dxfId="68" priority="98">
+      <formula>E186="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P186:P207">
+    <cfRule type="expression" dxfId="67" priority="100">
+      <formula>E186="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H208">
+    <cfRule type="cellIs" dxfId="66" priority="70" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="71" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X204">
-    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
+  <conditionalFormatting sqref="H216">
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J204">
-    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
+  <conditionalFormatting sqref="H217:H220">
+    <cfRule type="cellIs" dxfId="62" priority="66" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="67" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H206:H209">
-    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
+  <conditionalFormatting sqref="H221">
+    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="65" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U186:V204">
-    <cfRule type="expression" dxfId="70" priority="96">
+  <conditionalFormatting sqref="H209:H214">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H222">
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H223:H227">
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L186:M204">
+    <cfRule type="expression" dxfId="52" priority="101">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q186:R209">
-    <cfRule type="expression" dxfId="69" priority="98">
-      <formula>E186="Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P186:P209">
-    <cfRule type="expression" dxfId="68" priority="100">
-      <formula>E186="Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H210">
-    <cfRule type="cellIs" dxfId="67" priority="70" operator="equal">
+  <conditionalFormatting sqref="H215">
+    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H218">
-    <cfRule type="cellIs" dxfId="65" priority="68" operator="equal">
+  <conditionalFormatting sqref="D212">
+    <cfRule type="cellIs" dxfId="49" priority="52" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="53" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H219:H222">
-    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
+  <conditionalFormatting sqref="D223">
+    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H223">
-    <cfRule type="cellIs" dxfId="61" priority="64" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="65" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H211:H216">
-    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="63" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H224">
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H225:H229">
-    <cfRule type="cellIs" dxfId="55" priority="58" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="59" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L186:M206">
-    <cfRule type="expression" dxfId="53" priority="101">
-      <formula>E186="Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H217">
-    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D214">
-    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="51" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D225">
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D227">
-    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N186:N206">
-    <cfRule type="expression" dxfId="44" priority="103">
+  <conditionalFormatting sqref="N186:N204">
+    <cfRule type="expression" dxfId="43" priority="103">
       <formula>F186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J186:J202">
-    <cfRule type="expression" dxfId="43" priority="104">
+    <cfRule type="expression" dxfId="42" priority="104">
       <formula>D186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S186:T204 S205:S209">
-    <cfRule type="expression" dxfId="42" priority="106">
+  <conditionalFormatting sqref="S203:S207 S186:T202">
+    <cfRule type="expression" dxfId="41" priority="106">
       <formula>F186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O218:O222">
+  <conditionalFormatting sqref="O216:O220">
     <cfRule type="expression" dxfId="40" priority="46">
-      <formula>E218="Increase"</formula>
+      <formula>E216="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O223">
+  <conditionalFormatting sqref="O221">
     <cfRule type="expression" dxfId="39" priority="45">
-      <formula>E223="Increase"</formula>
+      <formula>E221="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P210">
+  <conditionalFormatting sqref="P208">
     <cfRule type="expression" dxfId="38" priority="44">
-      <formula>E210="Increase"</formula>
+      <formula>E208="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P218:P222">
+  <conditionalFormatting sqref="P216:P220">
     <cfRule type="expression" dxfId="37" priority="43">
-      <formula>E218="Increase"</formula>
+      <formula>E216="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P223">
+  <conditionalFormatting sqref="P221">
     <cfRule type="expression" dxfId="36" priority="41">
-      <formula>E223="Increase"</formula>
+      <formula>E221="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S210:S223">
+  <conditionalFormatting sqref="S208:S221">
     <cfRule type="expression" dxfId="35" priority="40">
-      <formula>F210="Increase"</formula>
+      <formula>F208="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S224:S230">
+  <conditionalFormatting sqref="S222:S228">
     <cfRule type="expression" dxfId="34" priority="38">
-      <formula>F224="Increase"</formula>
+      <formula>F222="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U205:U209">
+  <conditionalFormatting sqref="U203:U207">
     <cfRule type="expression" dxfId="33" priority="36">
-      <formula>I205="Increase"</formula>
+      <formula>I203="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V205:V209">
+  <conditionalFormatting sqref="V203:V207">
     <cfRule type="expression" dxfId="32" priority="35">
-      <formula>J205="Increase"</formula>
+      <formula>J203="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T205:T209">
+  <conditionalFormatting sqref="T203:T207">
     <cfRule type="expression" dxfId="31" priority="34">
-      <formula>G205="Increase"</formula>
+      <formula>G203="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T210:T223">
+  <conditionalFormatting sqref="T208:T221">
     <cfRule type="expression" dxfId="30" priority="33">
-      <formula>G210="Increase"</formula>
+      <formula>G208="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T224:T230">
+  <conditionalFormatting sqref="T222:T228">
     <cfRule type="expression" dxfId="29" priority="32">
-      <formula>G224="Increase"</formula>
+      <formula>G222="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P232">
+  <conditionalFormatting sqref="P230">
     <cfRule type="expression" dxfId="28" priority="31">
+      <formula>E230="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P243">
+    <cfRule type="expression" dxfId="27" priority="30">
+      <formula>E243="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P244">
+    <cfRule type="expression" dxfId="26" priority="29">
+      <formula>E244="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P245:P246">
+    <cfRule type="expression" dxfId="25" priority="28">
+      <formula>E245="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P232:P233">
+    <cfRule type="expression" dxfId="24" priority="27">
       <formula>E232="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P245">
-    <cfRule type="expression" dxfId="27" priority="30">
-      <formula>E245="Increase"</formula>
+  <conditionalFormatting sqref="O268:O273 O255:O260 O242:O247 O229:O234">
+    <cfRule type="expression" dxfId="23" priority="26">
+      <formula>E229="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P246">
-    <cfRule type="expression" dxfId="26" priority="29">
-      <formula>E246="Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P247:P248">
-    <cfRule type="expression" dxfId="25" priority="28">
-      <formula>E247="Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P234:P235">
-    <cfRule type="expression" dxfId="24" priority="27">
-      <formula>E234="Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O270:O275 O257:O262 O244:O249 O231:O236">
-    <cfRule type="expression" dxfId="23" priority="26">
-      <formula>E231="Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F253">
+  <conditionalFormatting sqref="F251">
     <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -15035,7 +15274,7 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H253">
+  <conditionalFormatting sqref="H251">
     <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -15043,7 +15282,7 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F279">
+  <conditionalFormatting sqref="F277">
     <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -15051,7 +15290,7 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H279">
+  <conditionalFormatting sqref="H277">
     <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -15059,7 +15298,7 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F282 F269 F256 F243 F230">
+  <conditionalFormatting sqref="F280 F267 F254 F241 F228">
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -15067,7 +15306,7 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H270:H275 H257:H262 H244:H249 H231:H236">
+  <conditionalFormatting sqref="H268:H273 H255:H260 H242:H247 H229:H234">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -15075,7 +15314,7 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H280:H281 H276:H278 H263:H268 H254:H255 H250:H252 H237:H242">
+  <conditionalFormatting sqref="H278:H279 H274:H276 H261:H266 H252:H253 H248:H250 H235:H240">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -15083,7 +15322,7 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L279 L253 L227">
+  <conditionalFormatting sqref="L277 L251 L225">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -15091,7 +15330,7 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E245:E248 E234:E235 E232 E223 E219:E220">
+  <conditionalFormatting sqref="E232:E233 E230 E221 E217:E218 E243:E246">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -15099,7 +15338,7 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H282 H269 H256 H243 H230">
+  <conditionalFormatting sqref="H280 H267 H254 H241 H228">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -15107,7 +15346,7 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E282 E269 E256 E243 E230 E217">
+  <conditionalFormatting sqref="E280 E267 E254 E241 E228 E215">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -15115,9 +15354,9 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O210">
+  <conditionalFormatting sqref="O208">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>E210="Increase"</formula>
+      <formula>E208="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15131,12 +15370,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16938,7 +17177,7 @@
         <v>331</v>
       </c>
       <c r="B38" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C38" t="s">
         <v>107</v>
@@ -16989,7 +17228,7 @@
         <v>131</v>
       </c>
       <c r="S38" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="T38" t="s">
         <v>83</v>
@@ -17000,7 +17239,7 @@
         <v>331</v>
       </c>
       <c r="B39" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C39" t="s">
         <v>107</v>
@@ -17051,7 +17290,7 @@
         <v>131</v>
       </c>
       <c r="S39" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="T39" t="s">
         <v>83</v>
@@ -17062,7 +17301,7 @@
         <v>331</v>
       </c>
       <c r="B40" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="C40" t="s">
         <v>107</v>
@@ -17113,7 +17352,7 @@
         <v>131</v>
       </c>
       <c r="S40" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="T40" t="s">
         <v>83</v>
@@ -17124,7 +17363,7 @@
         <v>331</v>
       </c>
       <c r="B41" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="C41" t="s">
         <v>107</v>
@@ -17175,9 +17414,133 @@
         <v>131</v>
       </c>
       <c r="S41" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="T41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>331</v>
+      </c>
+      <c r="B42" t="s">
+        <v>373</v>
+      </c>
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>26</v>
+      </c>
+      <c r="J42">
+        <v>34</v>
+      </c>
+      <c r="K42">
+        <v>44</v>
+      </c>
+      <c r="L42">
+        <v>52</v>
+      </c>
+      <c r="M42">
+        <v>60</v>
+      </c>
+      <c r="N42" t="s">
+        <v>83</v>
+      </c>
+      <c r="O42" t="s">
+        <v>128</v>
+      </c>
+      <c r="P42" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>130</v>
+      </c>
+      <c r="R42" t="s">
+        <v>131</v>
+      </c>
+      <c r="S42" t="s">
+        <v>364</v>
+      </c>
+      <c r="T42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>331</v>
+      </c>
+      <c r="B43" t="s">
+        <v>374</v>
+      </c>
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" t="s">
+        <v>247</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>26</v>
+      </c>
+      <c r="J43">
+        <v>34</v>
+      </c>
+      <c r="K43">
+        <v>44</v>
+      </c>
+      <c r="L43">
+        <v>52</v>
+      </c>
+      <c r="M43">
+        <v>60</v>
+      </c>
+      <c r="N43" t="s">
+        <v>83</v>
+      </c>
+      <c r="O43" t="s">
+        <v>128</v>
+      </c>
+      <c r="P43" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>130</v>
+      </c>
+      <c r="R43" t="s">
+        <v>131</v>
+      </c>
+      <c r="S43" t="s">
+        <v>364</v>
+      </c>
+      <c r="T43" t="s">
         <v>83</v>
       </c>
     </row>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1305039-6C62-4753-84A8-49CCFD7C2C70}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C792168F-2FFA-4F08-B166-18760150B5F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3454,11 +3454,11 @@
   <dimension ref="A1:AC280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D268" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="U268" sqref="U268"/>
+      <selection pane="bottomRight" activeCell="U281" sqref="U281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18023,6 +18023,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100557C7523FAC84E43A0DA62C173857381" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4b9ddb1302998b61081aed2913076a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" xmlns:ns4="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3079d22dc9190cbddbf9f4c007b8016d" ns3:_="" ns4:_="">
     <xsd:import namespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
@@ -18245,15 +18254,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
@@ -18272,6 +18272,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19304C29-C31A-47A1-B855-8D09E823E92C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18288,12 +18296,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C792168F-2FFA-4F08-B166-18760150B5F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B07607-FDE5-40E6-859E-8324B43AB12B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -3454,11 +3454,11 @@
   <dimension ref="A1:AC280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="U281" sqref="U281"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11085,14 +11085,14 @@
       </c>
       <c r="E221">
         <f>ROUND(Q221*P221+R221,2)</f>
-        <v>1.7</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F221" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G221">
         <f>ROUND(U221*P221+V221,2)</f>
-        <v>3.45</v>
+        <v>4.57</v>
       </c>
       <c r="H221" s="17" t="s">
         <v>339</v>
@@ -11116,8 +11116,8 @@
         <v>340</v>
       </c>
       <c r="P221" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(10),2),"0.00")</f>
-        <v>1.00</v>
+        <f>TEXT(ROUND(LOG10(100),2),"0.00")</f>
+        <v>2.00</v>
       </c>
       <c r="Q221" s="21" t="s">
         <v>390</v>
@@ -18017,18 +18017,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18255,6 +18255,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -18267,14 +18275,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B07607-FDE5-40E6-859E-8324B43AB12B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89FC00E-392C-4DBD-8288-21ABE32DC652}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
     <sheet name="metric.scoring" sheetId="4" r:id="rId2"/>
     <sheet name="index.scoring" sheetId="5" r:id="rId3"/>
-    <sheet name="References" sheetId="7" r:id="rId4"/>
-    <sheet name="ToDo" sheetId="6" r:id="rId5"/>
+    <sheet name="ScoringRegimes" sheetId="8" r:id="rId4"/>
+    <sheet name="References" sheetId="7" r:id="rId5"/>
+    <sheet name="ToDo" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">index.scoring!$A$1:$T$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$AC$280</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$AF$286</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -112,6 +113,54 @@
     y=mx+b</t>
       </text>
     </comment>
+    <comment ref="W1" authorId="4" shapeId="0" xr:uid="{63DA3E04-04BE-4FF7-BE84-FEC09F1E631E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+For scoring regime "DepMet"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="4" shapeId="0" xr:uid="{7FEDD748-7DCA-4783-8B37-F9AFD8305996}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Condition to trigger Alt2 Metric.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Q205" authorId="4" shapeId="0" xr:uid="{2DB5C783-AA4E-40AA-A762-FE898FAB38E3}">
       <text>
         <r>
@@ -184,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R218" authorId="4" shapeId="0" xr:uid="{647E1CF6-4D45-4765-8130-9B66C8B826E8}">
+    <comment ref="R217" authorId="4" shapeId="0" xr:uid="{647E1CF6-4D45-4765-8130-9B66C8B826E8}">
       <text>
         <r>
           <rPr>
@@ -208,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U218" authorId="4" shapeId="0" xr:uid="{A56B3AD8-F48A-40DA-B32D-956B827573DA}">
+    <comment ref="U217" authorId="4" shapeId="0" xr:uid="{A56B3AD8-F48A-40DA-B32D-956B827573DA}">
       <text>
         <r>
           <rPr>
@@ -232,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q221" authorId="4" shapeId="0" xr:uid="{AA6CACE2-9475-4EEE-AD8B-BBABA688212C}">
+    <comment ref="Q220" authorId="4" shapeId="0" xr:uid="{AA6CACE2-9475-4EEE-AD8B-BBABA688212C}">
       <text>
         <r>
           <rPr>
@@ -256,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R221" authorId="4" shapeId="0" xr:uid="{A839B1A8-1C1D-4C08-B17E-547DEBB7FDD0}">
+    <comment ref="R220" authorId="4" shapeId="0" xr:uid="{A839B1A8-1C1D-4C08-B17E-547DEBB7FDD0}">
       <text>
         <r>
           <rPr>
@@ -280,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U221" authorId="4" shapeId="0" xr:uid="{42B244DF-B1E1-4759-893A-914AFFB48A2A}">
+    <comment ref="U220" authorId="4" shapeId="0" xr:uid="{42B244DF-B1E1-4759-893A-914AFFB48A2A}">
       <text>
         <r>
           <rPr>
@@ -304,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R229" authorId="4" shapeId="0" xr:uid="{FAD7D298-E2F2-478C-AA2C-3E04353CE2B5}">
+    <comment ref="R227" authorId="4" shapeId="0" xr:uid="{FAD7D298-E2F2-478C-AA2C-3E04353CE2B5}">
       <text>
         <r>
           <rPr>
@@ -328,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E232" authorId="4" shapeId="0" xr:uid="{F7FF7B48-B491-46FF-BB6E-6A4483597714}">
+    <comment ref="E230" authorId="4" shapeId="0" xr:uid="{F7FF7B48-B491-46FF-BB6E-6A4483597714}">
       <text>
         <r>
           <rPr>
@@ -352,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q233" authorId="4" shapeId="0" xr:uid="{166376F0-B799-4D75-A76B-37E2D2CD476B}">
+    <comment ref="Q231" authorId="4" shapeId="0" xr:uid="{166376F0-B799-4D75-A76B-37E2D2CD476B}">
       <text>
         <r>
           <rPr>
@@ -376,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R242" authorId="4" shapeId="0" xr:uid="{4914F668-43EA-44A2-BB05-2A7C406A2FDA}">
+    <comment ref="R239" authorId="4" shapeId="0" xr:uid="{4914F668-43EA-44A2-BB05-2A7C406A2FDA}">
       <text>
         <r>
           <rPr>
@@ -400,7 +449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E245" authorId="4" shapeId="0" xr:uid="{27FB5471-4FAB-4844-AF45-E623C97BAEE4}">
+    <comment ref="E242" authorId="4" shapeId="0" xr:uid="{27FB5471-4FAB-4844-AF45-E623C97BAEE4}">
       <text>
         <r>
           <rPr>
@@ -424,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q246" authorId="4" shapeId="0" xr:uid="{BE4B5DC9-F9A0-47EF-B851-748FE579A572}">
+    <comment ref="Q243" authorId="4" shapeId="0" xr:uid="{BE4B5DC9-F9A0-47EF-B851-748FE579A572}">
       <text>
         <r>
           <rPr>
@@ -448,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U247" authorId="4" shapeId="0" xr:uid="{A979A1A6-D851-4F37-994B-2B59108ADAD1}">
+    <comment ref="U244" authorId="4" shapeId="0" xr:uid="{A979A1A6-D851-4F37-994B-2B59108ADAD1}">
       <text>
         <r>
           <rPr>
@@ -472,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U255" authorId="4" shapeId="0" xr:uid="{291A2BDD-FD9F-481D-BC67-2908255FB031}">
+    <comment ref="U251" authorId="4" shapeId="0" xr:uid="{291A2BDD-FD9F-481D-BC67-2908255FB031}">
       <text>
         <r>
           <rPr>
@@ -496,7 +545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U268" authorId="4" shapeId="0" xr:uid="{5C08FF40-0873-4DE0-A1FD-BC04A96130BA}">
+    <comment ref="U263" authorId="4" shapeId="0" xr:uid="{5C08FF40-0873-4DE0-A1FD-BC04A96130BA}">
       <text>
         <r>
           <rPr>
@@ -525,7 +574,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3464" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="414">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -1553,42 +1602,15 @@
     <t>nt_beninvert</t>
   </si>
   <si>
-    <t>nt_cent</t>
-  </si>
-  <si>
-    <t>nt_ic</t>
-  </si>
-  <si>
-    <t>nt_rbs</t>
-  </si>
-  <si>
-    <t>nt_sens</t>
-  </si>
-  <si>
-    <t>nt_intol</t>
-  </si>
-  <si>
-    <t>x_even</t>
-  </si>
-  <si>
     <t>pi_lepomis</t>
   </si>
   <si>
-    <t>pi_ic</t>
-  </si>
-  <si>
-    <t>pi_gh</t>
-  </si>
-  <si>
     <t>pi_topcarn</t>
   </si>
   <si>
     <t>pi_bfs</t>
   </si>
   <si>
-    <t>x_ni_200m</t>
-  </si>
-  <si>
     <t>pi_anomalies</t>
   </si>
   <si>
@@ -1598,9 +1620,6 @@
     <t>PDT_ACF_DA_hi</t>
   </si>
   <si>
-    <t>nt_sunfish</t>
-  </si>
-  <si>
     <t>NormDist_135</t>
   </si>
   <si>
@@ -1713,6 +1732,90 @@
   </si>
   <si>
     <t>4.64</t>
+  </si>
+  <si>
+    <t>if pi_lepomis == 1 then remove lepomis.</t>
+  </si>
+  <si>
+    <t>pi_genherb</t>
+  </si>
+  <si>
+    <t>nt_natcent</t>
+  </si>
+  <si>
+    <t>nt_natinsctcypr</t>
+  </si>
+  <si>
+    <t>nt_tv_intolhwi</t>
+  </si>
+  <si>
+    <t>nt_natsunfish</t>
+  </si>
+  <si>
+    <t>pi_insctcypr</t>
+  </si>
+  <si>
+    <t>nt_natrbs</t>
+  </si>
+  <si>
+    <t>x_Evenness100_ni99gt</t>
+  </si>
+  <si>
+    <t>Cat_135_DepMet</t>
+  </si>
+  <si>
+    <t>ScoringRegimes</t>
+  </si>
+  <si>
+    <t>Scoring Remines described.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Continuous scoring, 0 to 100.</t>
+  </si>
+  <si>
+    <t>Continuous scoring, 0 to 10.</t>
+  </si>
+  <si>
+    <t>Categorical scoring, 3 categories, 1, 3, or 5.</t>
+  </si>
+  <si>
+    <t>Categorical scoring, 4 categories (0, 1, 2, 3).  Can be modified for 0, 2, 4, 6.</t>
+  </si>
+  <si>
+    <t>Categorical on a gradient.  3 categories, uses a function for a line to define categories.  An asymptote is allowed where the scores plateau.</t>
+  </si>
+  <si>
+    <t>Same as Cat_135 but which metric is used is dependant upon the score of another metric.  The independent metric must be scored prior to the dependant metric.</t>
+  </si>
+  <si>
+    <t>Scoring based on a single value (above or below that value).</t>
+  </si>
+  <si>
+    <t>Scoring is based on a normal distribution.  The center is scored as a 5.  The next band on either side of center is scored as 3.  The outer bands are scored as 1.</t>
+  </si>
+  <si>
+    <t>DepMet_Master_Name</t>
+  </si>
+  <si>
+    <t>DepMet_Master_Score</t>
+  </si>
+  <si>
+    <t>DepMet_Master_Condition</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>ni_natnonhybrid_200m</t>
+  </si>
+  <si>
+    <t>ni_natnonhybridnonlepomis_200m</t>
+  </si>
+  <si>
+    <t>greaterthan</t>
   </si>
 </sst>
 </file>
@@ -1971,37 +2074,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="84">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="115">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2234,6 +2307,16 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2249,6 +2332,336 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2825,12 +3238,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A16:C21" totalsRowShown="0">
-  <autoFilter ref="A16:C21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A16:C22" totalsRowShown="0">
+  <autoFilter ref="A16:C22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="83">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="114">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3179,10 +3592,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3279,7 +3692,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="11" t="str">
-        <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>
+        <f t="shared" ref="C17:C22" ca="1" si="0">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>
         <v>NOTES</v>
       </c>
     </row>
@@ -3291,7 +3704,7 @@
         <v>173</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f ca="1">HYPERLINK(FileName&amp;A18&amp;"!A1",A18)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>metric.scroing</v>
       </c>
     </row>
@@ -3303,124 +3716,136 @@
         <v>174</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f ca="1">HYPERLINK(FileName&amp;A19&amp;"!A1",A19)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>index.scoring</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>396</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>397</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f ca="1">HYPERLINK(FileName&amp;A20&amp;"!A1",A20)</f>
-        <v>ToDo</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>ScoringRegimes</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ToDo</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>206</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="9" t="str">
-        <f ca="1">HYPERLINK(FileName&amp;A21&amp;"!A1",A21)</f>
+      <c r="C22" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>References</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>43481</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>43592</v>
-      </c>
-      <c r="B24" t="s">
-        <v>183</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>43609</v>
+        <v>43592</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>43616</v>
+        <v>43609</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
+        <v>43616</v>
+      </c>
+      <c r="B27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>43643</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>43648</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>43753</v>
-      </c>
-      <c r="B32" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>43754</v>
+        <v>43753</v>
       </c>
       <c r="B33" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>43755</v>
+        <v>43754</v>
       </c>
       <c r="B34" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
+        <v>43755</v>
+      </c>
+      <c r="B35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>43817</v>
       </c>
-      <c r="B35" t="s">
-        <v>383</v>
+      <c r="B36" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -3451,33 +3876,33 @@
   <sheetPr codeName="Sheet1" filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AC280"/>
+  <dimension ref="A1:AF286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E214" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="H285" sqref="H285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -3485,15 +3910,18 @@
     <col min="20" max="20" width="14.28515625" customWidth="1"/>
     <col min="21" max="21" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="20.5703125" customWidth="1"/>
-    <col min="28" max="28" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22" customWidth="1"/>
+    <col min="25" max="25" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="20.5703125" customWidth="1"/>
+    <col min="31" max="31" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
@@ -3525,64 +3953,73 @@
         <v>265</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="W1" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z1" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="AA1" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="AB1" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AD1" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AF1" s="19" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3611,10 +4048,10 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3643,10 +4080,10 @@
         <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3675,10 +4112,10 @@
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3707,10 +4144,10 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3739,10 +4176,10 @@
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3771,10 +4208,10 @@
         <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3803,10 +4240,10 @@
         <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3835,10 +4272,10 @@
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3867,10 +4304,10 @@
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3899,10 +4336,10 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3931,10 +4368,10 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3963,10 +4400,10 @@
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3995,10 +4432,10 @@
         <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4027,10 +4464,10 @@
         <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -4059,7 +4496,7 @@
         <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4091,7 +4528,7 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4123,7 +4560,7 @@
         <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4155,7 +4592,7 @@
         <v>35</v>
       </c>
       <c r="K19" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4187,7 +4624,7 @@
         <v>37</v>
       </c>
       <c r="K20" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4219,7 +4656,7 @@
         <v>38</v>
       </c>
       <c r="K21" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4251,7 +4688,7 @@
         <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4283,7 +4720,7 @@
         <v>43</v>
       </c>
       <c r="K23" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4315,7 +4752,7 @@
         <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4347,7 +4784,7 @@
         <v>47</v>
       </c>
       <c r="K25" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4379,7 +4816,7 @@
         <v>49</v>
       </c>
       <c r="K26" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4411,7 +4848,7 @@
         <v>51</v>
       </c>
       <c r="K27" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4443,7 +4880,7 @@
         <v>53</v>
       </c>
       <c r="K28" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4475,7 +4912,7 @@
         <v>43</v>
       </c>
       <c r="K29" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4507,7 +4944,7 @@
         <v>45</v>
       </c>
       <c r="K30" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4539,7 +4976,7 @@
         <v>47</v>
       </c>
       <c r="K31" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4571,7 +5008,7 @@
         <v>49</v>
       </c>
       <c r="K32" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4603,7 +5040,7 @@
         <v>55</v>
       </c>
       <c r="K33" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4635,7 +5072,7 @@
         <v>57</v>
       </c>
       <c r="K34" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4667,7 +5104,7 @@
         <v>43</v>
       </c>
       <c r="K35" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4699,7 +5136,7 @@
         <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4731,7 +5168,7 @@
         <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4763,7 +5200,7 @@
         <v>49</v>
       </c>
       <c r="K38" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4795,7 +5232,7 @@
         <v>59</v>
       </c>
       <c r="K39" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4827,7 +5264,7 @@
         <v>53</v>
       </c>
       <c r="K40" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4859,7 +5296,7 @@
         <v>43</v>
       </c>
       <c r="K41" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4891,7 +5328,7 @@
         <v>47</v>
       </c>
       <c r="K42" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4923,7 +5360,7 @@
         <v>62</v>
       </c>
       <c r="K43" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4955,7 +5392,7 @@
         <v>64</v>
       </c>
       <c r="K44" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4987,7 +5424,7 @@
         <v>16</v>
       </c>
       <c r="K45" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5019,7 +5456,7 @@
         <v>18</v>
       </c>
       <c r="K46" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5051,7 +5488,7 @@
         <v>20</v>
       </c>
       <c r="K47" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5083,7 +5520,7 @@
         <v>68</v>
       </c>
       <c r="K48" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5115,7 +5552,7 @@
         <v>24</v>
       </c>
       <c r="K49" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5147,7 +5584,7 @@
         <v>70</v>
       </c>
       <c r="K50" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5179,7 +5616,7 @@
         <v>72</v>
       </c>
       <c r="K51" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5211,7 +5648,7 @@
         <v>16</v>
       </c>
       <c r="K52" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5243,7 +5680,7 @@
         <v>18</v>
       </c>
       <c r="K53" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5275,7 +5712,7 @@
         <v>20</v>
       </c>
       <c r="K54" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5307,7 +5744,7 @@
         <v>68</v>
       </c>
       <c r="K55" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5339,7 +5776,7 @@
         <v>24</v>
       </c>
       <c r="K56" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5371,7 +5808,7 @@
         <v>70</v>
       </c>
       <c r="K57" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5403,7 +5840,7 @@
         <v>72</v>
       </c>
       <c r="K58" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5432,7 +5869,7 @@
         <v>75</v>
       </c>
       <c r="K59" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5464,7 +5901,7 @@
         <v>242</v>
       </c>
       <c r="K60" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5493,7 +5930,7 @@
         <v>77</v>
       </c>
       <c r="K61" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5522,7 +5959,7 @@
         <v>78</v>
       </c>
       <c r="K62" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5551,7 +5988,7 @@
         <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5580,7 +6017,7 @@
         <v>79</v>
       </c>
       <c r="K64" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5609,7 +6046,7 @@
         <v>81</v>
       </c>
       <c r="K65" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5641,7 +6078,7 @@
         <v>242</v>
       </c>
       <c r="K66" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5670,7 +6107,7 @@
         <v>244</v>
       </c>
       <c r="K67" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5702,7 +6139,7 @@
         <v>240</v>
       </c>
       <c r="K68" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5731,7 +6168,7 @@
         <v>17</v>
       </c>
       <c r="K69" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5760,7 +6197,7 @@
         <v>134</v>
       </c>
       <c r="K70" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5789,7 +6226,7 @@
         <v>135</v>
       </c>
       <c r="K71" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5818,7 +6255,7 @@
         <v>135</v>
       </c>
       <c r="K72" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5847,7 +6284,7 @@
         <v>135</v>
       </c>
       <c r="K73" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5876,7 +6313,7 @@
         <v>135</v>
       </c>
       <c r="K74" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5905,7 +6342,7 @@
         <v>135</v>
       </c>
       <c r="K75" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5934,7 +6371,7 @@
         <v>135</v>
       </c>
       <c r="K76" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5963,7 +6400,7 @@
         <v>135</v>
       </c>
       <c r="K77" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5992,7 +6429,7 @@
         <v>135</v>
       </c>
       <c r="K78" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6021,7 +6458,7 @@
         <v>135</v>
       </c>
       <c r="K79" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6050,7 +6487,7 @@
         <v>135</v>
       </c>
       <c r="K80" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6079,7 +6516,7 @@
         <v>135</v>
       </c>
       <c r="K81" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6108,7 +6545,7 @@
         <v>135</v>
       </c>
       <c r="K82" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6137,7 +6574,7 @@
         <v>85</v>
       </c>
       <c r="K83" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6166,7 +6603,7 @@
         <v>85</v>
       </c>
       <c r="K84" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6195,7 +6632,7 @@
         <v>85</v>
       </c>
       <c r="K85" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6224,7 +6661,7 @@
         <v>85</v>
       </c>
       <c r="K86" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6253,7 +6690,7 @@
         <v>85</v>
       </c>
       <c r="K87" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6282,7 +6719,7 @@
         <v>85</v>
       </c>
       <c r="K88" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6311,7 +6748,7 @@
         <v>85</v>
       </c>
       <c r="K89" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6340,7 +6777,7 @@
         <v>85</v>
       </c>
       <c r="K90" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6369,7 +6806,7 @@
         <v>85</v>
       </c>
       <c r="K91" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6398,7 +6835,7 @@
         <v>85</v>
       </c>
       <c r="K92" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6427,7 +6864,7 @@
         <v>85</v>
       </c>
       <c r="K93" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6456,7 +6893,7 @@
         <v>85</v>
       </c>
       <c r="K94" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6485,7 +6922,7 @@
         <v>85</v>
       </c>
       <c r="K95" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6514,7 +6951,7 @@
         <v>85</v>
       </c>
       <c r="K96" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6543,7 +6980,7 @@
         <v>85</v>
       </c>
       <c r="K97" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6572,7 +7009,7 @@
         <v>85</v>
       </c>
       <c r="K98" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6601,7 +7038,7 @@
         <v>85</v>
       </c>
       <c r="K99" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6630,7 +7067,7 @@
         <v>85</v>
       </c>
       <c r="K100" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6659,7 +7096,7 @@
         <v>85</v>
       </c>
       <c r="K101" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6688,7 +7125,7 @@
         <v>85</v>
       </c>
       <c r="K102" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6717,7 +7154,7 @@
         <v>85</v>
       </c>
       <c r="K103" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6746,7 +7183,7 @@
         <v>85</v>
       </c>
       <c r="K104" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6775,7 +7212,7 @@
         <v>85</v>
       </c>
       <c r="K105" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6804,7 +7241,7 @@
         <v>85</v>
       </c>
       <c r="K106" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6833,7 +7270,7 @@
         <v>85</v>
       </c>
       <c r="K107" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6862,7 +7299,7 @@
         <v>134</v>
       </c>
       <c r="K108" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6891,7 +7328,7 @@
         <v>134</v>
       </c>
       <c r="K109" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6920,7 +7357,7 @@
         <v>134</v>
       </c>
       <c r="K110" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6949,7 +7386,7 @@
         <v>134</v>
       </c>
       <c r="K111" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6978,7 +7415,7 @@
         <v>134</v>
       </c>
       <c r="K112" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7007,7 +7444,7 @@
         <v>134</v>
       </c>
       <c r="K113" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7039,7 +7476,7 @@
         <v>241</v>
       </c>
       <c r="K114" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7071,7 +7508,7 @@
         <v>242</v>
       </c>
       <c r="K115" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7103,7 +7540,7 @@
         <v>242</v>
       </c>
       <c r="K116" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7135,7 +7572,7 @@
         <v>242</v>
       </c>
       <c r="K117" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7167,7 +7604,7 @@
         <v>242</v>
       </c>
       <c r="K118" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7199,7 +7636,7 @@
         <v>243</v>
       </c>
       <c r="K119" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7231,7 +7668,7 @@
         <v>243</v>
       </c>
       <c r="K120" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7263,7 +7700,7 @@
         <v>243</v>
       </c>
       <c r="K121" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7292,7 +7729,7 @@
         <v>244</v>
       </c>
       <c r="K122" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7321,7 +7758,7 @@
         <v>244</v>
       </c>
       <c r="K123" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7350,7 +7787,7 @@
         <v>244</v>
       </c>
       <c r="K124" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7379,7 +7816,7 @@
         <v>244</v>
       </c>
       <c r="K125" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7408,7 +7845,7 @@
         <v>244</v>
       </c>
       <c r="K126" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7437,7 +7874,7 @@
         <v>244</v>
       </c>
       <c r="K127" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7466,7 +7903,7 @@
         <v>134</v>
       </c>
       <c r="K128" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7498,7 +7935,7 @@
         <v>240</v>
       </c>
       <c r="K129" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7530,7 +7967,7 @@
         <v>240</v>
       </c>
       <c r="K130" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7562,7 +7999,7 @@
         <v>240</v>
       </c>
       <c r="K131" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7591,7 +8028,7 @@
         <v>134</v>
       </c>
       <c r="K132" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7620,7 +8057,7 @@
         <v>134</v>
       </c>
       <c r="K133" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7649,7 +8086,7 @@
         <v>134</v>
       </c>
       <c r="K134" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7678,7 +8115,7 @@
         <v>134</v>
       </c>
       <c r="K135" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7707,7 +8144,7 @@
         <v>134</v>
       </c>
       <c r="K136" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7736,7 +8173,7 @@
         <v>134</v>
       </c>
       <c r="K137" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7765,7 +8202,7 @@
         <v>134</v>
       </c>
       <c r="K138" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7794,7 +8231,7 @@
         <v>134</v>
       </c>
       <c r="K139" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7823,7 +8260,7 @@
         <v>134</v>
       </c>
       <c r="K140" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7852,7 +8289,7 @@
         <v>134</v>
       </c>
       <c r="K141" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7881,7 +8318,7 @@
         <v>134</v>
       </c>
       <c r="K142" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7910,7 +8347,7 @@
         <v>134</v>
       </c>
       <c r="K143" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7939,7 +8376,7 @@
         <v>134</v>
       </c>
       <c r="K144" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7968,7 +8405,7 @@
         <v>134</v>
       </c>
       <c r="K145" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7997,7 +8434,7 @@
         <v>134</v>
       </c>
       <c r="K146" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8026,7 +8463,7 @@
         <v>134</v>
       </c>
       <c r="K147" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8055,7 +8492,7 @@
         <v>134</v>
       </c>
       <c r="K148" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8084,7 +8521,7 @@
         <v>134</v>
       </c>
       <c r="K149" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8116,7 +8553,7 @@
         <v>83</v>
       </c>
       <c r="K150" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8148,7 +8585,7 @@
         <v>83</v>
       </c>
       <c r="K151" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8180,7 +8617,7 @@
         <v>83</v>
       </c>
       <c r="K152" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8212,7 +8649,7 @@
         <v>83</v>
       </c>
       <c r="K153" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8244,7 +8681,7 @@
         <v>83</v>
       </c>
       <c r="K154" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8276,7 +8713,7 @@
         <v>83</v>
       </c>
       <c r="K155" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8308,7 +8745,7 @@
         <v>83</v>
       </c>
       <c r="K156" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8340,7 +8777,7 @@
         <v>83</v>
       </c>
       <c r="K157" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8372,7 +8809,7 @@
         <v>83</v>
       </c>
       <c r="K158" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8404,7 +8841,7 @@
         <v>83</v>
       </c>
       <c r="K159" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8436,7 +8873,7 @@
         <v>83</v>
       </c>
       <c r="K160" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8468,7 +8905,7 @@
         <v>83</v>
       </c>
       <c r="K161" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8500,7 +8937,7 @@
         <v>83</v>
       </c>
       <c r="K162" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8532,7 +8969,7 @@
         <v>83</v>
       </c>
       <c r="K163" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8564,7 +9001,7 @@
         <v>83</v>
       </c>
       <c r="K164" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8596,7 +9033,7 @@
         <v>83</v>
       </c>
       <c r="K165" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8628,7 +9065,7 @@
         <v>83</v>
       </c>
       <c r="K166" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8660,7 +9097,7 @@
         <v>83</v>
       </c>
       <c r="K167" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8689,7 +9126,7 @@
         <v>134</v>
       </c>
       <c r="K168" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8721,7 +9158,7 @@
         <v>242</v>
       </c>
       <c r="K169" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8750,7 +9187,7 @@
         <v>244</v>
       </c>
       <c r="K170" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8782,7 +9219,7 @@
         <v>240</v>
       </c>
       <c r="K171" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8811,7 +9248,7 @@
         <v>134</v>
       </c>
       <c r="K172" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8840,7 +9277,7 @@
         <v>134</v>
       </c>
       <c r="K173" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8875,7 +9312,7 @@
         <v>255</v>
       </c>
       <c r="K174" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8910,7 +9347,7 @@
         <v>256</v>
       </c>
       <c r="K175" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8945,10 +9382,10 @@
         <v>257</v>
       </c>
       <c r="K176" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="177" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>326</v>
       </c>
@@ -8980,7 +9417,7 @@
         <v>264</v>
       </c>
       <c r="K177" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="L177" s="16"/>
       <c r="M177" s="16"/>
@@ -8993,8 +9430,11 @@
       <c r="T177" s="16"/>
       <c r="U177" s="16"/>
       <c r="V177" s="16"/>
-    </row>
-    <row r="178" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W177" s="16"/>
+      <c r="X177" s="16"/>
+      <c r="Y177" s="16"/>
+    </row>
+    <row r="178" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>326</v>
       </c>
@@ -9026,10 +9466,10 @@
         <v>258</v>
       </c>
       <c r="K178" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="179" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>326</v>
       </c>
@@ -9061,10 +9501,10 @@
         <v>259</v>
       </c>
       <c r="K179" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="180" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>326</v>
       </c>
@@ -9096,10 +9536,10 @@
         <v>260</v>
       </c>
       <c r="K180" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="181" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>326</v>
       </c>
@@ -9131,10 +9571,10 @@
         <v>261</v>
       </c>
       <c r="K181" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="182" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>326</v>
       </c>
@@ -9166,7 +9606,7 @@
         <v>262</v>
       </c>
       <c r="K182" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="L182" s="16"/>
       <c r="M182" s="16"/>
@@ -9179,8 +9619,11 @@
       <c r="T182" s="16"/>
       <c r="U182" s="16"/>
       <c r="V182" s="16"/>
-    </row>
-    <row r="183" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W182" s="16"/>
+      <c r="X182" s="16"/>
+      <c r="Y182" s="16"/>
+    </row>
+    <row r="183" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>326</v>
       </c>
@@ -9212,10 +9655,10 @@
         <v>288</v>
       </c>
       <c r="K183" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="184" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>326</v>
       </c>
@@ -9247,10 +9690,10 @@
         <v>289</v>
       </c>
       <c r="K184" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="185" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>326</v>
       </c>
@@ -9282,10 +9725,10 @@
         <v>263</v>
       </c>
       <c r="K185" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="186" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>294</v>
       </c>
@@ -9318,10 +9761,10 @@
         <v>100*(57.5-metric)/57.5</v>
       </c>
       <c r="K186" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="187" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>294</v>
       </c>
@@ -9354,10 +9797,10 @@
         <v>100*(19.5-metric)/19.5</v>
       </c>
       <c r="K187" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="188" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>294</v>
       </c>
@@ -9390,10 +9833,10 @@
         <v>100*(metric-0)/20.6</v>
       </c>
       <c r="K188" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="189" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>294</v>
       </c>
@@ -9426,10 +9869,10 @@
         <v>100*(metric-0)/58.6</v>
       </c>
       <c r="K189" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="190" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>294</v>
       </c>
@@ -9462,10 +9905,10 @@
         <v>100*(metric-0)/16.7</v>
       </c>
       <c r="K190" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="191" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>294</v>
       </c>
@@ -9498,10 +9941,10 @@
         <v>100*(metric-0)/17.1</v>
       </c>
       <c r="K191" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="192" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>294</v>
       </c>
@@ -9534,7 +9977,7 @@
         <v>100*(metric-0.4)/4.6</v>
       </c>
       <c r="K192" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="193" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -9570,7 +10013,7 @@
         <v>100*(metric-0)/33</v>
       </c>
       <c r="K193" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="194" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -9606,7 +10049,7 @@
         <v>100*(metric-10)/190</v>
       </c>
       <c r="K194" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="195" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -9642,7 +10085,7 @@
         <v>100*(metric-1)/6.1</v>
       </c>
       <c r="K195" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="196" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -9678,7 +10121,7 @@
         <v>100*(metric-0)/51.2</v>
       </c>
       <c r="K196" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="197" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -9714,7 +10157,7 @@
         <v>100*(metric-1)/7</v>
       </c>
       <c r="K197" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="198" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -9750,7 +10193,7 @@
         <v>100*(11-metric)/11</v>
       </c>
       <c r="K198" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="199" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -9786,7 +10229,7 @@
         <v>100*(metric-0)/65.1</v>
       </c>
       <c r="K199" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="200" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -9822,7 +10265,7 @@
         <v>100*(18.1-metric)/18.1</v>
       </c>
       <c r="K200" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="201" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -9858,7 +10301,7 @@
         <v>100*(metric-0)/38.4</v>
       </c>
       <c r="K201" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="202" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -9894,7 +10337,7 @@
         <v>100*(metric-19.3)/50.9</v>
       </c>
       <c r="K202" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="203" spans="1:22" x14ac:dyDescent="0.25">
@@ -9902,7 +10345,7 @@
         <v>331</v>
       </c>
       <c r="B203" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C203" t="s">
         <v>332</v>
@@ -9926,7 +10369,7 @@
         <v>1</v>
       </c>
       <c r="K203" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L203" t="s">
         <v>83</v>
@@ -9967,7 +10410,7 @@
         <v>331</v>
       </c>
       <c r="B204" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C204" t="s">
         <v>341</v>
@@ -9993,7 +10436,7 @@
         <v>2</v>
       </c>
       <c r="K204" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L204" t="s">
         <v>83</v>
@@ -10035,10 +10478,10 @@
         <v>331</v>
       </c>
       <c r="B205" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C205" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="D205" t="s">
         <v>15</v>
@@ -10056,10 +10499,10 @@
         <v>339</v>
       </c>
       <c r="I205" s="10" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="K205" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L205" t="s">
         <v>83</v>
@@ -10077,10 +10520,10 @@
         <v>83</v>
       </c>
       <c r="Q205" s="21" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="R205" s="21" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="S205" t="s">
         <v>83</v>
@@ -10089,7 +10532,7 @@
         <v>83</v>
       </c>
       <c r="U205" s="21" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="V205">
         <v>2.25</v>
@@ -10100,10 +10543,10 @@
         <v>331</v>
       </c>
       <c r="B206" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C206" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="D206" t="s">
         <v>15</v>
@@ -10124,7 +10567,7 @@
         <v>4</v>
       </c>
       <c r="K206" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L206" t="s">
         <v>83</v>
@@ -10165,10 +10608,10 @@
         <v>331</v>
       </c>
       <c r="B207" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C207" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="D207" t="s">
         <v>15</v>
@@ -10189,7 +10632,7 @@
         <v>5</v>
       </c>
       <c r="K207" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L207" t="s">
         <v>83</v>
@@ -10230,10 +10673,10 @@
         <v>331</v>
       </c>
       <c r="B208" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C208" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="D208" t="s">
         <v>15</v>
@@ -10251,10 +10694,10 @@
         <v>339</v>
       </c>
       <c r="I208" s="10" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="K208" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L208" t="s">
         <v>83</v>
@@ -10295,10 +10738,10 @@
         <v>331</v>
       </c>
       <c r="B209" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C209" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="D209" t="s">
         <v>15</v>
@@ -10319,7 +10762,7 @@
         <v>7</v>
       </c>
       <c r="K209" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L209" t="s">
         <v>83</v>
@@ -10354,10 +10797,10 @@
         <v>331</v>
       </c>
       <c r="B210" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C210" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D210" t="s">
         <v>30</v>
@@ -10378,7 +10821,7 @@
         <v>8</v>
       </c>
       <c r="K210" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L210" t="s">
         <v>83</v>
@@ -10419,10 +10862,10 @@
         <v>331</v>
       </c>
       <c r="B211" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C211" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="D211" t="s">
         <v>15</v>
@@ -10443,7 +10886,7 @@
         <v>9</v>
       </c>
       <c r="K211" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L211" t="s">
         <v>83</v>
@@ -10484,10 +10927,10 @@
         <v>331</v>
       </c>
       <c r="B212" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C212" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="D212" t="s">
         <v>30</v>
@@ -10505,10 +10948,10 @@
         <v>84</v>
       </c>
       <c r="I212" s="10" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="K212" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L212" t="s">
         <v>83</v>
@@ -10549,10 +10992,10 @@
         <v>331</v>
       </c>
       <c r="B213" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C213" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D213" t="s">
         <v>15</v>
@@ -10573,7 +11016,7 @@
         <v>11</v>
       </c>
       <c r="K213" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L213" t="s">
         <v>83</v>
@@ -10614,34 +11057,34 @@
         <v>331</v>
       </c>
       <c r="B214" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C214" t="s">
+        <v>345</v>
+      </c>
+      <c r="D214" t="s">
+        <v>83</v>
+      </c>
+      <c r="E214" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F214" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G214">
+        <v>1.2</v>
+      </c>
+      <c r="H214" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="I214" s="10">
+        <v>13</v>
+      </c>
+      <c r="K214" t="s">
         <v>353</v>
       </c>
-      <c r="D214" t="s">
-        <v>15</v>
-      </c>
-      <c r="E214">
-        <v>335</v>
-      </c>
-      <c r="F214" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G214">
-        <v>670</v>
-      </c>
-      <c r="H214" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I214" s="10">
-        <v>12</v>
-      </c>
-      <c r="K214" t="s">
-        <v>363</v>
-      </c>
-      <c r="L214" t="s">
-        <v>83</v>
+      <c r="L214">
+        <v>-4</v>
       </c>
       <c r="M214" t="s">
         <v>83</v>
@@ -10679,34 +11122,34 @@
         <v>331</v>
       </c>
       <c r="B215" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C215" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="D215" t="s">
-        <v>83</v>
-      </c>
-      <c r="E215" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" t="s">
         <v>83</v>
       </c>
       <c r="F215" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G215">
-        <v>1.2</v>
+      <c r="G215" t="s">
+        <v>83</v>
       </c>
       <c r="H215" s="17" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="I215" s="10">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K215" t="s">
-        <v>363</v>
-      </c>
-      <c r="L215">
-        <v>-4</v>
+        <v>353</v>
+      </c>
+      <c r="L215" t="s">
+        <v>83</v>
       </c>
       <c r="M215" t="s">
         <v>83</v>
@@ -10715,16 +11158,16 @@
         <v>83</v>
       </c>
       <c r="O215" t="s">
-        <v>83</v>
-      </c>
-      <c r="P215" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q215" t="s">
-        <v>83</v>
-      </c>
-      <c r="R215" t="s">
-        <v>83</v>
+        <v>340</v>
+      </c>
+      <c r="P215" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q215">
+        <v>3.64</v>
+      </c>
+      <c r="R215">
+        <v>7.25</v>
       </c>
       <c r="S215" t="s">
         <v>83</v>
@@ -10732,11 +11175,11 @@
       <c r="T215" t="s">
         <v>83</v>
       </c>
-      <c r="U215" t="s">
-        <v>83</v>
-      </c>
-      <c r="V215" t="s">
-        <v>83</v>
+      <c r="U215">
+        <v>6.04</v>
+      </c>
+      <c r="V215">
+        <v>11.86</v>
       </c>
     </row>
     <row r="216" spans="1:22" x14ac:dyDescent="0.25">
@@ -10744,31 +11187,33 @@
         <v>331</v>
       </c>
       <c r="B216" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C216" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="D216" t="s">
         <v>15</v>
       </c>
-      <c r="E216" t="s">
-        <v>83</v>
+      <c r="E216">
+        <f t="shared" ref="E216:E217" si="1">ROUND(Q216*P216+R216,2)</f>
+        <v>1.3</v>
       </c>
       <c r="F216" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G216" t="s">
-        <v>83</v>
+      <c r="G216">
+        <f t="shared" ref="G216:G217" si="2">ROUND(U216*P216+V216,2)</f>
+        <v>2.7</v>
       </c>
       <c r="H216" s="17" t="s">
         <v>339</v>
       </c>
       <c r="I216" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K216" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L216" t="s">
         <v>83</v>
@@ -10782,14 +11227,15 @@
       <c r="O216" t="s">
         <v>340</v>
       </c>
-      <c r="P216" s="20" t="s">
-        <v>83</v>
+      <c r="P216" s="20" t="str">
+        <f>TEXT(ROUND(LOG10(30),2),"0.00")</f>
+        <v>1.48</v>
       </c>
       <c r="Q216">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="R216">
-        <v>7.25</v>
+        <v>0.77</v>
       </c>
       <c r="S216" t="s">
         <v>83</v>
@@ -10798,10 +11244,10 @@
         <v>83</v>
       </c>
       <c r="U216">
-        <v>6.04</v>
+        <v>0.78</v>
       </c>
       <c r="V216">
-        <v>11.86</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="217" spans="1:22" x14ac:dyDescent="0.25">
@@ -10809,33 +11255,33 @@
         <v>331</v>
       </c>
       <c r="B217" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C217" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="D217" t="s">
         <v>15</v>
       </c>
       <c r="E217">
-        <f t="shared" ref="E217:E218" si="1">ROUND(Q217*P217+R217,2)</f>
-        <v>1.3</v>
+        <f t="shared" si="1"/>
+        <v>5.85</v>
       </c>
       <c r="F217" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G217">
-        <f t="shared" ref="G217:G218" si="2">ROUND(U217*P217+V217,2)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>7.45</v>
       </c>
       <c r="H217" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="I217" s="10">
-        <v>2</v>
+      <c r="I217" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="K217" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L217" t="s">
         <v>83</v>
@@ -10850,14 +11296,14 @@
         <v>340</v>
       </c>
       <c r="P217" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(30),2),"0.00")</f>
-        <v>1.48</v>
+        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
+        <v>1.70</v>
       </c>
       <c r="Q217">
-        <v>0.36</v>
-      </c>
-      <c r="R217">
-        <v>0.77</v>
+        <v>0.78</v>
+      </c>
+      <c r="R217" s="21" t="s">
+        <v>381</v>
       </c>
       <c r="S217" t="s">
         <v>83</v>
@@ -10865,11 +11311,11 @@
       <c r="T217" t="s">
         <v>83</v>
       </c>
-      <c r="U217">
-        <v>0.78</v>
+      <c r="U217" s="21" t="s">
+        <v>383</v>
       </c>
       <c r="V217">
-        <v>1.55</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="218" spans="1:22" x14ac:dyDescent="0.25">
@@ -10877,33 +11323,31 @@
         <v>331</v>
       </c>
       <c r="B218" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C218" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="D218" t="s">
         <v>15</v>
       </c>
-      <c r="E218">
-        <f t="shared" si="1"/>
-        <v>5.85</v>
+      <c r="E218" t="s">
+        <v>83</v>
       </c>
       <c r="F218" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G218">
-        <f t="shared" si="2"/>
-        <v>7.45</v>
+      <c r="G218" t="s">
+        <v>83</v>
       </c>
       <c r="H218" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="I218" s="10" t="s">
-        <v>366</v>
+      <c r="I218" s="10">
+        <v>4</v>
       </c>
       <c r="K218" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L218" t="s">
         <v>83</v>
@@ -10917,15 +11361,14 @@
       <c r="O218" t="s">
         <v>340</v>
       </c>
-      <c r="P218" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
-        <v>1.70</v>
+      <c r="P218" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="Q218">
-        <v>0.78</v>
-      </c>
-      <c r="R218" s="21" t="s">
-        <v>391</v>
+        <v>0.73</v>
+      </c>
+      <c r="R218">
+        <v>1.49</v>
       </c>
       <c r="S218" t="s">
         <v>83</v>
@@ -10933,11 +11376,11 @@
       <c r="T218" t="s">
         <v>83</v>
       </c>
-      <c r="U218" s="21" t="s">
-        <v>393</v>
+      <c r="U218">
+        <v>1.58</v>
       </c>
       <c r="V218">
-        <v>5.53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:22" x14ac:dyDescent="0.25">
@@ -10945,10 +11388,10 @@
         <v>331</v>
       </c>
       <c r="B219" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C219" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="D219" t="s">
         <v>15</v>
@@ -10966,10 +11409,10 @@
         <v>339</v>
       </c>
       <c r="I219" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K219" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L219" t="s">
         <v>83</v>
@@ -10987,10 +11430,10 @@
         <v>83</v>
       </c>
       <c r="Q219">
-        <v>0.73</v>
+        <v>0.39</v>
       </c>
       <c r="R219">
-        <v>1.49</v>
+        <v>0.81</v>
       </c>
       <c r="S219" t="s">
         <v>83</v>
@@ -10999,10 +11442,10 @@
         <v>83</v>
       </c>
       <c r="U219">
-        <v>1.58</v>
+        <v>0.84</v>
       </c>
       <c r="V219">
-        <v>3</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="220" spans="1:22" x14ac:dyDescent="0.25">
@@ -11010,31 +11453,33 @@
         <v>331</v>
       </c>
       <c r="B220" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C220" t="s">
-        <v>344</v>
+        <v>69</v>
       </c>
       <c r="D220" t="s">
         <v>15</v>
       </c>
-      <c r="E220" t="s">
-        <v>83</v>
+      <c r="E220">
+        <f>ROUND(Q220*P220+R220,2)</f>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F220" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G220" t="s">
-        <v>83</v>
+      <c r="G220">
+        <f>ROUND(U220*P220+V220,2)</f>
+        <v>4.57</v>
       </c>
       <c r="H220" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="I220" s="10">
-        <v>5</v>
+      <c r="I220" s="10" t="s">
+        <v>360</v>
       </c>
       <c r="K220" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L220" t="s">
         <v>83</v>
@@ -11048,14 +11493,15 @@
       <c r="O220" t="s">
         <v>340</v>
       </c>
-      <c r="P220" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q220">
-        <v>0.39</v>
-      </c>
-      <c r="R220">
-        <v>0.81</v>
+      <c r="P220" s="20" t="str">
+        <f>TEXT(ROUND(LOG10(100),2),"0.00")</f>
+        <v>2.00</v>
+      </c>
+      <c r="Q220" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="R220" s="21" t="s">
+        <v>382</v>
       </c>
       <c r="S220" t="s">
         <v>83</v>
@@ -11063,11 +11509,11 @@
       <c r="T220" t="s">
         <v>83</v>
       </c>
-      <c r="U220">
-        <v>0.84</v>
+      <c r="U220" s="21" t="s">
+        <v>378</v>
       </c>
       <c r="V220">
-        <v>1.63</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="221" spans="1:22" x14ac:dyDescent="0.25">
@@ -11075,33 +11521,31 @@
         <v>331</v>
       </c>
       <c r="B221" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C221" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="D221" t="s">
         <v>15</v>
       </c>
       <c r="E221">
-        <f>ROUND(Q221*P221+R221,2)</f>
-        <v>2.2599999999999998</v>
+        <v>62</v>
       </c>
       <c r="F221" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G221">
-        <f>ROUND(U221*P221+V221,2)</f>
-        <v>4.57</v>
+        <v>72</v>
       </c>
       <c r="H221" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="I221" s="10" t="s">
-        <v>370</v>
+        <v>84</v>
+      </c>
+      <c r="I221" s="10">
+        <v>7</v>
       </c>
       <c r="K221" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L221" t="s">
         <v>83</v>
@@ -11113,17 +11557,16 @@
         <v>83</v>
       </c>
       <c r="O221" t="s">
-        <v>340</v>
-      </c>
-      <c r="P221" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(100),2),"0.00")</f>
-        <v>2.00</v>
-      </c>
-      <c r="Q221" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="R221" s="21" t="s">
-        <v>392</v>
+        <v>83</v>
+      </c>
+      <c r="P221" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>83</v>
+      </c>
+      <c r="R221" t="s">
+        <v>83</v>
       </c>
       <c r="S221" t="s">
         <v>83</v>
@@ -11131,11 +11574,11 @@
       <c r="T221" t="s">
         <v>83</v>
       </c>
-      <c r="U221" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="V221">
-        <v>2.33</v>
+      <c r="U221" t="s">
+        <v>83</v>
+      </c>
+      <c r="V221" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="222" spans="1:22" x14ac:dyDescent="0.25">
@@ -11143,31 +11586,31 @@
         <v>331</v>
       </c>
       <c r="B222" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C222" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D222" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E222">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F222" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G222">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H222" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I222" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K222" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L222" t="s">
         <v>83</v>
@@ -11208,31 +11651,31 @@
         <v>331</v>
       </c>
       <c r="B223" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C223" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="D223" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E223">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F223" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G223">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H223" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I223" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K223" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L223" t="s">
         <v>83</v>
@@ -11273,40 +11716,40 @@
         <v>331</v>
       </c>
       <c r="B224" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C224" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D224" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E224">
-        <v>21</v>
+        <v>3.8</v>
       </c>
       <c r="F224" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G224">
-        <v>42</v>
+        <v>9.5</v>
       </c>
       <c r="H224" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I224" s="10">
-        <v>9</v>
+        <v>348</v>
+      </c>
+      <c r="I224" s="10" t="s">
+        <v>358</v>
       </c>
       <c r="K224" t="s">
-        <v>363</v>
-      </c>
-      <c r="L224" t="s">
-        <v>83</v>
-      </c>
-      <c r="M224" t="s">
-        <v>83</v>
-      </c>
-      <c r="N224" t="s">
-        <v>83</v>
+        <v>353</v>
+      </c>
+      <c r="L224" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="M224">
+        <v>1.9</v>
+      </c>
+      <c r="N224">
+        <v>11.4</v>
       </c>
       <c r="O224" t="s">
         <v>83</v>
@@ -11338,40 +11781,40 @@
         <v>331</v>
       </c>
       <c r="B225" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C225" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D225" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="E225">
-        <v>3.8</v>
+        <v>19</v>
       </c>
       <c r="F225" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G225">
-        <v>9.5</v>
+        <v>38</v>
       </c>
       <c r="H225" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="I225" s="10" t="s">
-        <v>368</v>
+        <v>84</v>
+      </c>
+      <c r="I225" s="10">
+        <v>11</v>
       </c>
       <c r="K225" t="s">
-        <v>363</v>
-      </c>
-      <c r="L225" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="M225">
-        <v>1.9</v>
-      </c>
-      <c r="N225">
-        <v>11.4</v>
+        <v>353</v>
+      </c>
+      <c r="L225" t="s">
+        <v>83</v>
+      </c>
+      <c r="M225" t="s">
+        <v>83</v>
+      </c>
+      <c r="N225" t="s">
+        <v>83</v>
       </c>
       <c r="O225" t="s">
         <v>83</v>
@@ -11403,34 +11846,34 @@
         <v>331</v>
       </c>
       <c r="B226" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C226" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D226" t="s">
-        <v>15</v>
-      </c>
-      <c r="E226">
-        <v>19</v>
+        <v>83</v>
+      </c>
+      <c r="E226" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="F226" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G226">
-        <v>38</v>
+        <v>1.2</v>
       </c>
       <c r="H226" s="17" t="s">
-        <v>84</v>
+        <v>365</v>
       </c>
       <c r="I226" s="10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K226" t="s">
-        <v>363</v>
-      </c>
-      <c r="L226" t="s">
-        <v>83</v>
+        <v>353</v>
+      </c>
+      <c r="L226">
+        <v>-4</v>
       </c>
       <c r="M226" t="s">
         <v>83</v>
@@ -11468,64 +11911,64 @@
         <v>331</v>
       </c>
       <c r="B227" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C227" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="D227" t="s">
         <v>15</v>
       </c>
-      <c r="E227">
-        <v>335</v>
-      </c>
-      <c r="F227" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G227">
-        <v>670</v>
+      <c r="E227" t="s">
+        <v>83</v>
+      </c>
+      <c r="F227" t="s">
+        <v>83</v>
+      </c>
+      <c r="G227" t="s">
+        <v>83</v>
       </c>
       <c r="H227" s="17" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="I227" s="10">
+        <v>1</v>
+      </c>
+      <c r="K227" t="s">
+        <v>353</v>
+      </c>
+      <c r="L227" t="s">
+        <v>83</v>
+      </c>
+      <c r="M227" t="s">
+        <v>83</v>
+      </c>
+      <c r="N227" t="s">
+        <v>83</v>
+      </c>
+      <c r="O227" t="s">
+        <v>340</v>
+      </c>
+      <c r="P227" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q227">
+        <v>4.18</v>
+      </c>
+      <c r="R227" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="S227" t="s">
+        <v>83</v>
+      </c>
+      <c r="T227" t="s">
+        <v>83</v>
+      </c>
+      <c r="U227">
+        <v>5.96</v>
+      </c>
+      <c r="V227">
         <v>12</v>
-      </c>
-      <c r="K227" t="s">
-        <v>363</v>
-      </c>
-      <c r="L227" t="s">
-        <v>83</v>
-      </c>
-      <c r="M227" t="s">
-        <v>83</v>
-      </c>
-      <c r="N227" t="s">
-        <v>83</v>
-      </c>
-      <c r="O227" t="s">
-        <v>83</v>
-      </c>
-      <c r="P227" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q227" t="s">
-        <v>83</v>
-      </c>
-      <c r="R227" t="s">
-        <v>83</v>
-      </c>
-      <c r="S227" t="s">
-        <v>83</v>
-      </c>
-      <c r="T227" t="s">
-        <v>83</v>
-      </c>
-      <c r="U227" t="s">
-        <v>83</v>
-      </c>
-      <c r="V227" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="228" spans="1:22" x14ac:dyDescent="0.25">
@@ -11533,34 +11976,36 @@
         <v>331</v>
       </c>
       <c r="B228" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C228" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D228" t="s">
-        <v>83</v>
-      </c>
-      <c r="E228" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F228" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E228">
+        <f>ROUND(Q228*P228+R228,2)</f>
+        <v>2.86</v>
+      </c>
+      <c r="F228" t="s">
         <v>83</v>
       </c>
       <c r="G228">
-        <v>1.2</v>
+        <f>ROUND(U228*P228+V228,2)</f>
+        <v>5.73</v>
       </c>
       <c r="H228" s="17" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="I228" s="10">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K228" t="s">
-        <v>363</v>
-      </c>
-      <c r="L228">
-        <v>-4</v>
+        <v>353</v>
+      </c>
+      <c r="L228" t="s">
+        <v>83</v>
       </c>
       <c r="M228" t="s">
         <v>83</v>
@@ -11569,16 +12014,17 @@
         <v>83</v>
       </c>
       <c r="O228" t="s">
-        <v>83</v>
-      </c>
-      <c r="P228" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q228" t="s">
-        <v>83</v>
-      </c>
-      <c r="R228" t="s">
-        <v>83</v>
+        <v>340</v>
+      </c>
+      <c r="P228" s="20" t="str">
+        <f>TEXT(ROUND(LOG10(100),2),"0.00")</f>
+        <v>2.00</v>
+      </c>
+      <c r="Q228">
+        <v>0.7</v>
+      </c>
+      <c r="R228">
+        <v>1.46</v>
       </c>
       <c r="S228" t="s">
         <v>83</v>
@@ -11586,11 +12032,11 @@
       <c r="T228" t="s">
         <v>83</v>
       </c>
-      <c r="U228" t="s">
-        <v>83</v>
-      </c>
-      <c r="V228" t="s">
-        <v>83</v>
+      <c r="U228">
+        <v>1.44</v>
+      </c>
+      <c r="V228">
+        <v>2.85</v>
       </c>
     </row>
     <row r="229" spans="1:22" x14ac:dyDescent="0.25">
@@ -11598,10 +12044,10 @@
         <v>331</v>
       </c>
       <c r="B229" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C229" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="D229" t="s">
         <v>15</v>
@@ -11618,11 +12064,11 @@
       <c r="H229" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="I229" s="10">
-        <v>1</v>
+      <c r="I229" s="10" t="s">
+        <v>355</v>
       </c>
       <c r="K229" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L229" t="s">
         <v>83</v>
@@ -11640,10 +12086,10 @@
         <v>83</v>
       </c>
       <c r="Q229">
-        <v>4.18</v>
-      </c>
-      <c r="R229" s="21" t="s">
-        <v>273</v>
+        <v>0.32</v>
+      </c>
+      <c r="R229">
+        <v>0.68</v>
       </c>
       <c r="S229" t="s">
         <v>83</v>
@@ -11652,10 +12098,10 @@
         <v>83</v>
       </c>
       <c r="U229">
-        <v>5.96</v>
+        <v>0.68</v>
       </c>
       <c r="V229">
-        <v>12</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="230" spans="1:22" x14ac:dyDescent="0.25">
@@ -11663,33 +12109,32 @@
         <v>331</v>
       </c>
       <c r="B230" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C230" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="D230" t="s">
         <v>15</v>
       </c>
-      <c r="E230">
-        <f>ROUND(Q230*P230+R230,2)</f>
-        <v>2.86</v>
+      <c r="E230" s="21" t="s">
+        <v>379</v>
       </c>
       <c r="F230" t="s">
         <v>83</v>
       </c>
       <c r="G230">
-        <f>ROUND(U230*P230+V230,2)</f>
-        <v>5.73</v>
+        <f t="shared" ref="G230:G231" si="3">ROUND(U230*P230+V230,2)</f>
+        <v>4.71</v>
       </c>
       <c r="H230" s="17" t="s">
         <v>339</v>
       </c>
       <c r="I230" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K230" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L230" t="s">
         <v>83</v>
@@ -11704,14 +12149,14 @@
         <v>340</v>
       </c>
       <c r="P230" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(100),2),"0.00")</f>
-        <v>2.00</v>
+        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
+        <v>1.70</v>
       </c>
       <c r="Q230">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="R230">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="S230" t="s">
         <v>83</v>
@@ -11720,10 +12165,10 @@
         <v>83</v>
       </c>
       <c r="U230">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="V230">
-        <v>2.85</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="231" spans="1:22" x14ac:dyDescent="0.25">
@@ -11731,31 +12176,33 @@
         <v>331</v>
       </c>
       <c r="B231" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C231" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="D231" t="s">
         <v>15</v>
       </c>
-      <c r="E231" t="s">
-        <v>83</v>
+      <c r="E231">
+        <f t="shared" ref="E231" si="4">ROUND(Q231*P231+R231,2)</f>
+        <v>2.12</v>
       </c>
       <c r="F231" t="s">
         <v>83</v>
       </c>
-      <c r="G231" t="s">
-        <v>83</v>
+      <c r="G231">
+        <f t="shared" si="3"/>
+        <v>3.07</v>
       </c>
       <c r="H231" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="I231" s="10" t="s">
-        <v>365</v>
+      <c r="I231" s="10">
+        <v>5</v>
       </c>
       <c r="K231" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L231" t="s">
         <v>83</v>
@@ -11769,14 +12216,15 @@
       <c r="O231" t="s">
         <v>340</v>
       </c>
-      <c r="P231" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q231">
-        <v>0.32</v>
+      <c r="P231" s="20" t="str">
+        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
+        <v>1.70</v>
+      </c>
+      <c r="Q231" s="21" t="s">
+        <v>376</v>
       </c>
       <c r="R231">
-        <v>0.68</v>
+        <v>1.18</v>
       </c>
       <c r="S231" t="s">
         <v>83</v>
@@ -11785,10 +12233,10 @@
         <v>83</v>
       </c>
       <c r="U231">
-        <v>0.68</v>
+        <v>0.82</v>
       </c>
       <c r="V231">
-        <v>1.4</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="232" spans="1:22" x14ac:dyDescent="0.25">
@@ -11796,32 +12244,31 @@
         <v>331</v>
       </c>
       <c r="B232" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C232" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="D232" t="s">
         <v>15</v>
       </c>
-      <c r="E232" s="21" t="s">
-        <v>389</v>
+      <c r="E232" t="s">
+        <v>83</v>
       </c>
       <c r="F232" t="s">
         <v>83</v>
       </c>
-      <c r="G232">
-        <f t="shared" ref="G232:G233" si="3">ROUND(U232*P232+V232,2)</f>
-        <v>4.71</v>
+      <c r="G232" t="s">
+        <v>83</v>
       </c>
       <c r="H232" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="I232" s="10">
-        <v>4</v>
+      <c r="I232" s="10" t="s">
+        <v>359</v>
       </c>
       <c r="K232" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L232" t="s">
         <v>83</v>
@@ -11835,15 +12282,14 @@
       <c r="O232" t="s">
         <v>340</v>
       </c>
-      <c r="P232" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
-        <v>1.70</v>
+      <c r="P232" t="s">
+        <v>83</v>
       </c>
       <c r="Q232">
         <v>0.69</v>
       </c>
       <c r="R232">
-        <v>1.26</v>
+        <v>1.57</v>
       </c>
       <c r="S232" t="s">
         <v>83</v>
@@ -11852,10 +12298,10 @@
         <v>83</v>
       </c>
       <c r="U232">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="V232">
-        <v>2.5299999999999998</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="233" spans="1:22" x14ac:dyDescent="0.25">
@@ -11863,33 +12309,31 @@
         <v>331</v>
       </c>
       <c r="B233" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C233" t="s">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="D233" t="s">
         <v>15</v>
       </c>
       <c r="E233">
-        <f t="shared" ref="E233" si="4">ROUND(Q233*P233+R233,2)</f>
-        <v>2.12</v>
+        <v>69</v>
       </c>
       <c r="F233" t="s">
         <v>83</v>
       </c>
       <c r="G233">
-        <f t="shared" si="3"/>
-        <v>3.07</v>
+        <v>79</v>
       </c>
       <c r="H233" s="17" t="s">
-        <v>339</v>
+        <v>84</v>
       </c>
       <c r="I233" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K233" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L233" t="s">
         <v>83</v>
@@ -11901,17 +12345,16 @@
         <v>83</v>
       </c>
       <c r="O233" t="s">
-        <v>340</v>
-      </c>
-      <c r="P233" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
-        <v>1.70</v>
-      </c>
-      <c r="Q233" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="R233">
-        <v>1.18</v>
+        <v>83</v>
+      </c>
+      <c r="P233" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>83</v>
+      </c>
+      <c r="R233" t="s">
+        <v>83</v>
       </c>
       <c r="S233" t="s">
         <v>83</v>
@@ -11919,11 +12362,11 @@
       <c r="T233" t="s">
         <v>83</v>
       </c>
-      <c r="U233">
-        <v>0.82</v>
-      </c>
-      <c r="V233">
-        <v>1.68</v>
+      <c r="U233" t="s">
+        <v>83</v>
+      </c>
+      <c r="V233" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="234" spans="1:22" x14ac:dyDescent="0.25">
@@ -11931,31 +12374,31 @@
         <v>331</v>
       </c>
       <c r="B234" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C234" t="s">
-        <v>345</v>
-      </c>
-      <c r="D234" t="s">
-        <v>15</v>
-      </c>
-      <c r="E234" t="s">
-        <v>83</v>
+        <v>342</v>
+      </c>
+      <c r="D234" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E234">
+        <v>23</v>
       </c>
       <c r="F234" t="s">
         <v>83</v>
       </c>
-      <c r="G234" t="s">
-        <v>83</v>
+      <c r="G234">
+        <v>46</v>
       </c>
       <c r="H234" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="I234" s="10" t="s">
-        <v>369</v>
+        <v>84</v>
+      </c>
+      <c r="I234" s="10">
+        <v>8</v>
       </c>
       <c r="K234" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L234" t="s">
         <v>83</v>
@@ -11967,16 +12410,16 @@
         <v>83</v>
       </c>
       <c r="O234" t="s">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="P234" t="s">
         <v>83</v>
       </c>
-      <c r="Q234">
-        <v>0.69</v>
-      </c>
-      <c r="R234">
-        <v>1.57</v>
+      <c r="Q234" t="s">
+        <v>83</v>
+      </c>
+      <c r="R234" t="s">
+        <v>83</v>
       </c>
       <c r="S234" t="s">
         <v>83</v>
@@ -11984,11 +12427,11 @@
       <c r="T234" t="s">
         <v>83</v>
       </c>
-      <c r="U234">
-        <v>1.4</v>
-      </c>
-      <c r="V234">
-        <v>3.06</v>
+      <c r="U234" t="s">
+        <v>83</v>
+      </c>
+      <c r="V234" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="235" spans="1:22" x14ac:dyDescent="0.25">
@@ -11996,31 +12439,31 @@
         <v>331</v>
       </c>
       <c r="B235" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C235" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="D235" t="s">
         <v>15</v>
       </c>
       <c r="E235">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="F235" t="s">
         <v>83</v>
       </c>
       <c r="G235">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="H235" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I235" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K235" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L235" t="s">
         <v>83</v>
@@ -12061,31 +12504,31 @@
         <v>331</v>
       </c>
       <c r="B236" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C236" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="D236" s="16" t="s">
         <v>30</v>
       </c>
       <c r="E236">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F236" t="s">
         <v>83</v>
       </c>
       <c r="G236">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H236" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I236" s="10">
-        <v>8</v>
+      <c r="I236" s="10" t="s">
+        <v>357</v>
       </c>
       <c r="K236" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L236" t="s">
         <v>83</v>
@@ -12126,31 +12569,31 @@
         <v>331</v>
       </c>
       <c r="B237" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C237" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D237" t="s">
         <v>15</v>
       </c>
       <c r="E237">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F237" t="s">
         <v>83</v>
       </c>
       <c r="G237">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H237" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I237" s="10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K237" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L237" t="s">
         <v>83</v>
@@ -12191,34 +12634,34 @@
         <v>331</v>
       </c>
       <c r="B238" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C238" t="s">
-        <v>350</v>
-      </c>
-      <c r="D238" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E238">
-        <v>15</v>
-      </c>
-      <c r="F238" t="s">
+        <v>345</v>
+      </c>
+      <c r="D238" t="s">
+        <v>83</v>
+      </c>
+      <c r="E238" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F238" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G238">
-        <v>28</v>
+        <v>1.2</v>
       </c>
       <c r="H238" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I238" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
+      </c>
+      <c r="I238" s="10">
+        <v>13</v>
       </c>
       <c r="K238" t="s">
-        <v>363</v>
-      </c>
-      <c r="L238" t="s">
-        <v>83</v>
+        <v>353</v>
+      </c>
+      <c r="L238">
+        <v>-4</v>
       </c>
       <c r="M238" t="s">
         <v>83</v>
@@ -12256,31 +12699,31 @@
         <v>331</v>
       </c>
       <c r="B239" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C239" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="D239" t="s">
         <v>15</v>
       </c>
-      <c r="E239">
-        <v>21</v>
+      <c r="E239" t="s">
+        <v>83</v>
       </c>
       <c r="F239" t="s">
         <v>83</v>
       </c>
-      <c r="G239">
-        <v>36</v>
+      <c r="G239" t="s">
+        <v>83</v>
       </c>
       <c r="H239" s="17" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="I239" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K239" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L239" t="s">
         <v>83</v>
@@ -12292,16 +12735,16 @@
         <v>83</v>
       </c>
       <c r="O239" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="P239" t="s">
         <v>83</v>
       </c>
-      <c r="Q239" t="s">
-        <v>83</v>
-      </c>
-      <c r="R239" t="s">
-        <v>83</v>
+      <c r="Q239">
+        <v>4.18</v>
+      </c>
+      <c r="R239" s="21" t="s">
+        <v>273</v>
       </c>
       <c r="S239" t="s">
         <v>83</v>
@@ -12309,11 +12752,11 @@
       <c r="T239" t="s">
         <v>83</v>
       </c>
-      <c r="U239" t="s">
-        <v>83</v>
-      </c>
-      <c r="V239" t="s">
-        <v>83</v>
+      <c r="U239">
+        <v>5.96</v>
+      </c>
+      <c r="V239">
+        <v>12</v>
       </c>
     </row>
     <row r="240" spans="1:22" x14ac:dyDescent="0.25">
@@ -12321,31 +12764,33 @@
         <v>331</v>
       </c>
       <c r="B240" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C240" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D240" t="s">
         <v>15</v>
       </c>
       <c r="E240">
-        <v>225</v>
+        <f t="shared" ref="E240:E243" si="5">ROUND(Q240*P240+R240,2)</f>
+        <v>2.86</v>
       </c>
       <c r="F240" t="s">
         <v>83</v>
       </c>
       <c r="G240">
-        <v>450</v>
+        <f t="shared" ref="G240:G243" si="6">ROUND(U240*P240+V240,2)</f>
+        <v>5.73</v>
       </c>
       <c r="H240" s="17" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="I240" s="10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K240" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L240" t="s">
         <v>83</v>
@@ -12357,16 +12802,17 @@
         <v>83</v>
       </c>
       <c r="O240" t="s">
-        <v>83</v>
-      </c>
-      <c r="P240" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q240" t="s">
-        <v>83</v>
-      </c>
-      <c r="R240" t="s">
-        <v>83</v>
+        <v>340</v>
+      </c>
+      <c r="P240" s="20" t="str">
+        <f>TEXT(ROUND(LOG10(100),2),"0.00")</f>
+        <v>2.00</v>
+      </c>
+      <c r="Q240">
+        <v>0.7</v>
+      </c>
+      <c r="R240">
+        <v>1.46</v>
       </c>
       <c r="S240" t="s">
         <v>83</v>
@@ -12374,11 +12820,11 @@
       <c r="T240" t="s">
         <v>83</v>
       </c>
-      <c r="U240" t="s">
-        <v>83</v>
-      </c>
-      <c r="V240" t="s">
-        <v>83</v>
+      <c r="U240">
+        <v>1.44</v>
+      </c>
+      <c r="V240">
+        <v>2.85</v>
       </c>
     </row>
     <row r="241" spans="1:22" x14ac:dyDescent="0.25">
@@ -12386,34 +12832,36 @@
         <v>331</v>
       </c>
       <c r="B241" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C241" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="D241" t="s">
-        <v>83</v>
-      </c>
-      <c r="E241" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F241" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="5"/>
+        <v>4.33</v>
+      </c>
+      <c r="F241" t="s">
         <v>83</v>
       </c>
       <c r="G241">
-        <v>1.2</v>
+        <f t="shared" si="6"/>
+        <v>6.49</v>
       </c>
       <c r="H241" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="I241" s="10">
-        <v>13</v>
+        <v>339</v>
+      </c>
+      <c r="I241" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="K241" t="s">
-        <v>363</v>
-      </c>
-      <c r="L241">
-        <v>-4</v>
+        <v>353</v>
+      </c>
+      <c r="L241" t="s">
+        <v>83</v>
       </c>
       <c r="M241" t="s">
         <v>83</v>
@@ -12422,16 +12870,17 @@
         <v>83</v>
       </c>
       <c r="O241" t="s">
-        <v>83</v>
-      </c>
-      <c r="P241" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q241" t="s">
-        <v>83</v>
-      </c>
-      <c r="R241" t="s">
-        <v>83</v>
+        <v>340</v>
+      </c>
+      <c r="P241" s="20" t="str">
+        <f>TEXT(ROUND(LOG10(100),2),"0.00")</f>
+        <v>2.00</v>
+      </c>
+      <c r="Q241">
+        <v>0.82</v>
+      </c>
+      <c r="R241">
+        <v>2.69</v>
       </c>
       <c r="S241" t="s">
         <v>83</v>
@@ -12439,11 +12888,11 @@
       <c r="T241" t="s">
         <v>83</v>
       </c>
-      <c r="U241" t="s">
-        <v>83</v>
-      </c>
-      <c r="V241" t="s">
-        <v>83</v>
+      <c r="U241">
+        <v>1.35</v>
+      </c>
+      <c r="V241">
+        <v>3.79</v>
       </c>
     </row>
     <row r="242" spans="1:22" x14ac:dyDescent="0.25">
@@ -12451,31 +12900,32 @@
         <v>331</v>
       </c>
       <c r="B242" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C242" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="D242" t="s">
         <v>15</v>
       </c>
-      <c r="E242" t="s">
-        <v>83</v>
+      <c r="E242" s="21" t="s">
+        <v>379</v>
       </c>
       <c r="F242" t="s">
         <v>83</v>
       </c>
-      <c r="G242" t="s">
-        <v>83</v>
+      <c r="G242">
+        <f t="shared" si="6"/>
+        <v>4.71</v>
       </c>
       <c r="H242" s="17" t="s">
         <v>339</v>
       </c>
       <c r="I242" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K242" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L242" t="s">
         <v>83</v>
@@ -12489,14 +12939,15 @@
       <c r="O242" t="s">
         <v>340</v>
       </c>
-      <c r="P242" t="s">
-        <v>83</v>
+      <c r="P242" s="20" t="str">
+        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
+        <v>1.70</v>
       </c>
       <c r="Q242">
-        <v>4.18</v>
-      </c>
-      <c r="R242" s="21" t="s">
-        <v>273</v>
+        <v>0.69</v>
+      </c>
+      <c r="R242">
+        <v>1.26</v>
       </c>
       <c r="S242" t="s">
         <v>83</v>
@@ -12505,10 +12956,10 @@
         <v>83</v>
       </c>
       <c r="U242">
-        <v>5.96</v>
+        <v>1.28</v>
       </c>
       <c r="V242">
-        <v>12</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="243" spans="1:22" x14ac:dyDescent="0.25">
@@ -12516,33 +12967,33 @@
         <v>331</v>
       </c>
       <c r="B243" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C243" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="D243" t="s">
         <v>15</v>
       </c>
       <c r="E243">
-        <f t="shared" ref="E243:E246" si="5">ROUND(Q243*P243+R243,2)</f>
-        <v>2.86</v>
+        <f t="shared" si="5"/>
+        <v>2.12</v>
       </c>
       <c r="F243" t="s">
         <v>83</v>
       </c>
       <c r="G243">
-        <f t="shared" ref="G243:G246" si="6">ROUND(U243*P243+V243,2)</f>
-        <v>5.73</v>
+        <f t="shared" si="6"/>
+        <v>3.07</v>
       </c>
       <c r="H243" s="17" t="s">
         <v>339</v>
       </c>
       <c r="I243" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K243" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L243" t="s">
         <v>83</v>
@@ -12557,14 +13008,14 @@
         <v>340</v>
       </c>
       <c r="P243" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(100),2),"0.00")</f>
-        <v>2.00</v>
-      </c>
-      <c r="Q243">
-        <v>0.7</v>
+        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
+        <v>1.70</v>
+      </c>
+      <c r="Q243" s="21" t="s">
+        <v>376</v>
       </c>
       <c r="R243">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="S243" t="s">
         <v>83</v>
@@ -12573,10 +13024,10 @@
         <v>83</v>
       </c>
       <c r="U243">
-        <v>1.44</v>
+        <v>0.82</v>
       </c>
       <c r="V243">
-        <v>2.85</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="244" spans="1:22" x14ac:dyDescent="0.25">
@@ -12584,33 +13035,31 @@
         <v>331</v>
       </c>
       <c r="B244" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C244" t="s">
-        <v>342</v>
+        <v>69</v>
       </c>
       <c r="D244" t="s">
         <v>15</v>
       </c>
-      <c r="E244">
-        <f t="shared" si="5"/>
-        <v>4.33</v>
+      <c r="E244" t="s">
+        <v>83</v>
       </c>
       <c r="F244" t="s">
         <v>83</v>
       </c>
-      <c r="G244">
-        <f t="shared" si="6"/>
-        <v>6.49</v>
+      <c r="G244" t="s">
+        <v>83</v>
       </c>
       <c r="H244" s="17" t="s">
         <v>339</v>
       </c>
       <c r="I244" s="10" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K244" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L244" t="s">
         <v>83</v>
@@ -12624,15 +13073,14 @@
       <c r="O244" t="s">
         <v>340</v>
       </c>
-      <c r="P244" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(100),2),"0.00")</f>
-        <v>2.00</v>
+      <c r="P244" t="s">
+        <v>83</v>
       </c>
       <c r="Q244">
-        <v>0.82</v>
+        <v>0.52</v>
       </c>
       <c r="R244">
-        <v>2.69</v>
+        <v>1.17</v>
       </c>
       <c r="S244" t="s">
         <v>83</v>
@@ -12640,11 +13088,11 @@
       <c r="T244" t="s">
         <v>83</v>
       </c>
-      <c r="U244">
-        <v>1.35</v>
+      <c r="U244" s="21" t="s">
+        <v>384</v>
       </c>
       <c r="V244">
-        <v>3.79</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="245" spans="1:22" x14ac:dyDescent="0.25">
@@ -12652,32 +13100,31 @@
         <v>331</v>
       </c>
       <c r="B245" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C245" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="D245" t="s">
         <v>15</v>
       </c>
-      <c r="E245" s="21" t="s">
-        <v>389</v>
+      <c r="E245">
+        <v>69</v>
       </c>
       <c r="F245" t="s">
         <v>83</v>
       </c>
       <c r="G245">
-        <f t="shared" si="6"/>
-        <v>4.71</v>
+        <v>79</v>
       </c>
       <c r="H245" s="17" t="s">
-        <v>339</v>
+        <v>84</v>
       </c>
       <c r="I245" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K245" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L245" t="s">
         <v>83</v>
@@ -12689,17 +13136,16 @@
         <v>83</v>
       </c>
       <c r="O245" t="s">
-        <v>340</v>
-      </c>
-      <c r="P245" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
-        <v>1.70</v>
-      </c>
-      <c r="Q245">
-        <v>0.69</v>
-      </c>
-      <c r="R245">
-        <v>1.26</v>
+        <v>83</v>
+      </c>
+      <c r="P245" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>83</v>
+      </c>
+      <c r="R245" t="s">
+        <v>83</v>
       </c>
       <c r="S245" t="s">
         <v>83</v>
@@ -12707,11 +13153,11 @@
       <c r="T245" t="s">
         <v>83</v>
       </c>
-      <c r="U245">
-        <v>1.28</v>
-      </c>
-      <c r="V245">
-        <v>2.5299999999999998</v>
+      <c r="U245" t="s">
+        <v>83</v>
+      </c>
+      <c r="V245" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="246" spans="1:22" x14ac:dyDescent="0.25">
@@ -12719,33 +13165,31 @@
         <v>331</v>
       </c>
       <c r="B246" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C246" t="s">
-        <v>344</v>
-      </c>
-      <c r="D246" t="s">
-        <v>15</v>
+        <v>342</v>
+      </c>
+      <c r="D246" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="E246">
-        <f t="shared" si="5"/>
-        <v>2.12</v>
+        <v>23</v>
       </c>
       <c r="F246" t="s">
         <v>83</v>
       </c>
       <c r="G246">
-        <f t="shared" si="6"/>
-        <v>3.07</v>
+        <v>46</v>
       </c>
       <c r="H246" s="17" t="s">
-        <v>339</v>
+        <v>84</v>
       </c>
       <c r="I246" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K246" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L246" t="s">
         <v>83</v>
@@ -12757,17 +13201,16 @@
         <v>83</v>
       </c>
       <c r="O246" t="s">
-        <v>340</v>
-      </c>
-      <c r="P246" s="20" t="str">
-        <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
-        <v>1.70</v>
-      </c>
-      <c r="Q246" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="R246">
-        <v>1.18</v>
+        <v>83</v>
+      </c>
+      <c r="P246" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>83</v>
+      </c>
+      <c r="R246" t="s">
+        <v>83</v>
       </c>
       <c r="S246" t="s">
         <v>83</v>
@@ -12775,11 +13218,11 @@
       <c r="T246" t="s">
         <v>83</v>
       </c>
-      <c r="U246">
-        <v>0.82</v>
-      </c>
-      <c r="V246">
-        <v>1.68</v>
+      <c r="U246" t="s">
+        <v>83</v>
+      </c>
+      <c r="V246" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="247" spans="1:22" x14ac:dyDescent="0.25">
@@ -12787,31 +13230,31 @@
         <v>331</v>
       </c>
       <c r="B247" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C247" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="D247" t="s">
         <v>15</v>
       </c>
-      <c r="E247" t="s">
-        <v>83</v>
+      <c r="E247">
+        <v>16</v>
       </c>
       <c r="F247" t="s">
         <v>83</v>
       </c>
-      <c r="G247" t="s">
-        <v>83</v>
+      <c r="G247">
+        <v>32</v>
       </c>
       <c r="H247" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="I247" s="10" t="s">
-        <v>370</v>
+        <v>84</v>
+      </c>
+      <c r="I247" s="10">
+        <v>9</v>
       </c>
       <c r="K247" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L247" t="s">
         <v>83</v>
@@ -12823,16 +13266,16 @@
         <v>83</v>
       </c>
       <c r="O247" t="s">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="P247" t="s">
         <v>83</v>
       </c>
-      <c r="Q247">
-        <v>0.52</v>
-      </c>
-      <c r="R247">
-        <v>1.17</v>
+      <c r="Q247" t="s">
+        <v>83</v>
+      </c>
+      <c r="R247" t="s">
+        <v>83</v>
       </c>
       <c r="S247" t="s">
         <v>83</v>
@@ -12840,11 +13283,11 @@
       <c r="T247" t="s">
         <v>83</v>
       </c>
-      <c r="U247" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="V247">
-        <v>2.27</v>
+      <c r="U247" t="s">
+        <v>83</v>
+      </c>
+      <c r="V247" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="248" spans="1:22" x14ac:dyDescent="0.25">
@@ -12852,40 +13295,40 @@
         <v>331</v>
       </c>
       <c r="B248" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C248" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D248" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E248">
-        <v>69</v>
-      </c>
-      <c r="F248" t="s">
+        <v>3.8</v>
+      </c>
+      <c r="F248" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G248">
-        <v>79</v>
+        <v>9.5</v>
       </c>
       <c r="H248" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I248" s="10">
-        <v>7</v>
+        <v>348</v>
+      </c>
+      <c r="I248" s="10" t="s">
+        <v>358</v>
       </c>
       <c r="K248" t="s">
-        <v>363</v>
-      </c>
-      <c r="L248" t="s">
-        <v>83</v>
-      </c>
-      <c r="M248" t="s">
-        <v>83</v>
-      </c>
-      <c r="N248" t="s">
-        <v>83</v>
+        <v>353</v>
+      </c>
+      <c r="L248" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="M248">
+        <v>1.9</v>
+      </c>
+      <c r="N248">
+        <v>11.4</v>
       </c>
       <c r="O248" t="s">
         <v>83</v>
@@ -12917,31 +13360,31 @@
         <v>331</v>
       </c>
       <c r="B249" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C249" t="s">
-        <v>348</v>
-      </c>
-      <c r="D249" s="16" t="s">
-        <v>30</v>
+        <v>344</v>
+      </c>
+      <c r="D249" t="s">
+        <v>15</v>
       </c>
       <c r="E249">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F249" t="s">
         <v>83</v>
       </c>
       <c r="G249">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H249" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I249" s="10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K249" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L249" t="s">
         <v>83</v>
@@ -12982,34 +13425,34 @@
         <v>331</v>
       </c>
       <c r="B250" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C250" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D250" t="s">
-        <v>15</v>
-      </c>
-      <c r="E250">
-        <v>16</v>
-      </c>
-      <c r="F250" t="s">
+        <v>83</v>
+      </c>
+      <c r="E250" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F250" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G250">
-        <v>32</v>
+        <v>1.2</v>
       </c>
       <c r="H250" s="17" t="s">
-        <v>84</v>
+        <v>365</v>
       </c>
       <c r="I250" s="10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K250" t="s">
-        <v>363</v>
-      </c>
-      <c r="L250" t="s">
-        <v>83</v>
+        <v>353</v>
+      </c>
+      <c r="L250">
+        <v>-4</v>
       </c>
       <c r="M250" t="s">
         <v>83</v>
@@ -13047,52 +13490,52 @@
         <v>331</v>
       </c>
       <c r="B251" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C251" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="D251" t="s">
-        <v>83</v>
-      </c>
-      <c r="E251">
-        <v>3.8</v>
-      </c>
-      <c r="F251" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G251">
-        <v>9.5</v>
+        <v>15</v>
+      </c>
+      <c r="E251" t="s">
+        <v>83</v>
+      </c>
+      <c r="F251" t="s">
+        <v>83</v>
+      </c>
+      <c r="G251" t="s">
+        <v>83</v>
       </c>
       <c r="H251" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="I251" s="10" t="s">
-        <v>368</v>
+        <v>339</v>
+      </c>
+      <c r="I251" s="10">
+        <v>1</v>
       </c>
       <c r="K251" t="s">
-        <v>363</v>
-      </c>
-      <c r="L251" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="M251">
-        <v>1.9</v>
-      </c>
-      <c r="N251">
-        <v>11.4</v>
+        <v>353</v>
+      </c>
+      <c r="L251" t="s">
+        <v>83</v>
+      </c>
+      <c r="M251" t="s">
+        <v>83</v>
+      </c>
+      <c r="N251" t="s">
+        <v>83</v>
       </c>
       <c r="O251" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="P251" t="s">
         <v>83</v>
       </c>
-      <c r="Q251" t="s">
-        <v>83</v>
-      </c>
-      <c r="R251" t="s">
-        <v>83</v>
+      <c r="Q251">
+        <v>3.08</v>
+      </c>
+      <c r="R251">
+        <v>6.57</v>
       </c>
       <c r="S251" t="s">
         <v>83</v>
@@ -13100,11 +13543,11 @@
       <c r="T251" t="s">
         <v>83</v>
       </c>
-      <c r="U251" t="s">
-        <v>83</v>
-      </c>
-      <c r="V251" t="s">
-        <v>83</v>
+      <c r="U251" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="V251">
+        <v>9.66</v>
       </c>
     </row>
     <row r="252" spans="1:22" x14ac:dyDescent="0.25">
@@ -13112,31 +13555,31 @@
         <v>331</v>
       </c>
       <c r="B252" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C252" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="D252" t="s">
         <v>15</v>
       </c>
-      <c r="E252">
-        <v>21</v>
+      <c r="E252" t="s">
+        <v>83</v>
       </c>
       <c r="F252" t="s">
         <v>83</v>
       </c>
-      <c r="G252">
-        <v>36</v>
+      <c r="G252" t="s">
+        <v>83</v>
       </c>
       <c r="H252" s="17" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="I252" s="10">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K252" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L252" t="s">
         <v>83</v>
@@ -13148,16 +13591,16 @@
         <v>83</v>
       </c>
       <c r="O252" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="P252" t="s">
         <v>83</v>
       </c>
-      <c r="Q252" t="s">
-        <v>83</v>
-      </c>
-      <c r="R252" t="s">
-        <v>83</v>
+      <c r="Q252">
+        <v>0.41</v>
+      </c>
+      <c r="R252">
+        <v>0.74</v>
       </c>
       <c r="S252" t="s">
         <v>83</v>
@@ -13165,11 +13608,11 @@
       <c r="T252" t="s">
         <v>83</v>
       </c>
-      <c r="U252" t="s">
-        <v>83</v>
-      </c>
-      <c r="V252" t="s">
-        <v>83</v>
+      <c r="U252">
+        <v>0.76</v>
+      </c>
+      <c r="V252">
+        <v>1.52</v>
       </c>
     </row>
     <row r="253" spans="1:22" x14ac:dyDescent="0.25">
@@ -13177,31 +13620,31 @@
         <v>331</v>
       </c>
       <c r="B253" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C253" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="D253" t="s">
         <v>15</v>
       </c>
-      <c r="E253">
-        <v>225</v>
+      <c r="E253" t="s">
+        <v>83</v>
       </c>
       <c r="F253" t="s">
         <v>83</v>
       </c>
-      <c r="G253">
-        <v>450</v>
+      <c r="G253" t="s">
+        <v>83</v>
       </c>
       <c r="H253" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I253" s="10">
-        <v>12</v>
+        <v>339</v>
+      </c>
+      <c r="I253" s="10" t="s">
+        <v>355</v>
       </c>
       <c r="K253" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L253" t="s">
         <v>83</v>
@@ -13213,16 +13656,16 @@
         <v>83</v>
       </c>
       <c r="O253" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="P253" t="s">
         <v>83</v>
       </c>
-      <c r="Q253" t="s">
-        <v>83</v>
-      </c>
-      <c r="R253" t="s">
-        <v>83</v>
+      <c r="Q253">
+        <v>0.61</v>
+      </c>
+      <c r="R253">
+        <v>1.3</v>
       </c>
       <c r="S253" t="s">
         <v>83</v>
@@ -13230,11 +13673,11 @@
       <c r="T253" t="s">
         <v>83</v>
       </c>
-      <c r="U253" t="s">
-        <v>83</v>
-      </c>
-      <c r="V253" t="s">
-        <v>83</v>
+      <c r="U253">
+        <v>0.98</v>
+      </c>
+      <c r="V253">
+        <v>1.93</v>
       </c>
     </row>
     <row r="254" spans="1:22" x14ac:dyDescent="0.25">
@@ -13242,34 +13685,34 @@
         <v>331</v>
       </c>
       <c r="B254" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C254" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="D254" t="s">
-        <v>83</v>
-      </c>
-      <c r="E254" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F254" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G254">
-        <v>1.2</v>
+        <v>15</v>
+      </c>
+      <c r="E254" t="s">
+        <v>83</v>
+      </c>
+      <c r="F254" t="s">
+        <v>83</v>
+      </c>
+      <c r="G254" t="s">
+        <v>83</v>
       </c>
       <c r="H254" s="17" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="I254" s="10">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K254" t="s">
-        <v>363</v>
-      </c>
-      <c r="L254">
-        <v>-4</v>
+        <v>353</v>
+      </c>
+      <c r="L254" t="s">
+        <v>83</v>
       </c>
       <c r="M254" t="s">
         <v>83</v>
@@ -13278,16 +13721,16 @@
         <v>83</v>
       </c>
       <c r="O254" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="P254" t="s">
         <v>83</v>
       </c>
-      <c r="Q254" t="s">
-        <v>83</v>
-      </c>
-      <c r="R254" t="s">
-        <v>83</v>
+      <c r="Q254">
+        <v>0.5</v>
+      </c>
+      <c r="R254">
+        <v>1.02</v>
       </c>
       <c r="S254" t="s">
         <v>83</v>
@@ -13295,11 +13738,11 @@
       <c r="T254" t="s">
         <v>83</v>
       </c>
-      <c r="U254" t="s">
-        <v>83</v>
-      </c>
-      <c r="V254" t="s">
-        <v>83</v>
+      <c r="U254">
+        <v>0.99</v>
+      </c>
+      <c r="V254">
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="255" spans="1:22" x14ac:dyDescent="0.25">
@@ -13307,10 +13750,10 @@
         <v>331</v>
       </c>
       <c r="B255" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C255" t="s">
-        <v>332</v>
+        <v>393</v>
       </c>
       <c r="D255" t="s">
         <v>15</v>
@@ -13328,10 +13771,10 @@
         <v>339</v>
       </c>
       <c r="I255" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K255" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L255" t="s">
         <v>83</v>
@@ -13349,10 +13792,10 @@
         <v>83</v>
       </c>
       <c r="Q255">
-        <v>3.08</v>
+        <v>0.34</v>
       </c>
       <c r="R255">
-        <v>6.57</v>
+        <v>0.73</v>
       </c>
       <c r="S255" t="s">
         <v>83</v>
@@ -13360,11 +13803,11 @@
       <c r="T255" t="s">
         <v>83</v>
       </c>
-      <c r="U255" s="21" t="s">
-        <v>395</v>
+      <c r="U255">
+        <v>0.72</v>
       </c>
       <c r="V255">
-        <v>9.66</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="256" spans="1:22" x14ac:dyDescent="0.25">
@@ -13372,10 +13815,10 @@
         <v>331</v>
       </c>
       <c r="B256" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C256" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="D256" t="s">
         <v>15</v>
@@ -13392,11 +13835,11 @@
       <c r="H256" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="I256" s="10">
-        <v>2</v>
+      <c r="I256" s="10" t="s">
+        <v>359</v>
       </c>
       <c r="K256" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L256" t="s">
         <v>83</v>
@@ -13414,10 +13857,10 @@
         <v>83</v>
       </c>
       <c r="Q256">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="R256">
-        <v>0.74</v>
+        <v>0.87</v>
       </c>
       <c r="S256" t="s">
         <v>83</v>
@@ -13426,10 +13869,10 @@
         <v>83</v>
       </c>
       <c r="U256">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="V256">
-        <v>1.52</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="257" spans="1:22" x14ac:dyDescent="0.25">
@@ -13437,31 +13880,31 @@
         <v>331</v>
       </c>
       <c r="B257" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C257" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="D257" t="s">
         <v>15</v>
       </c>
-      <c r="E257" t="s">
-        <v>83</v>
+      <c r="E257">
+        <v>57</v>
       </c>
       <c r="F257" t="s">
         <v>83</v>
       </c>
-      <c r="G257" t="s">
-        <v>83</v>
+      <c r="G257">
+        <v>68</v>
       </c>
       <c r="H257" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="I257" s="10" t="s">
-        <v>365</v>
+        <v>84</v>
+      </c>
+      <c r="I257" s="10">
+        <v>7</v>
       </c>
       <c r="K257" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L257" t="s">
         <v>83</v>
@@ -13473,16 +13916,16 @@
         <v>83</v>
       </c>
       <c r="O257" t="s">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="P257" t="s">
         <v>83</v>
       </c>
-      <c r="Q257">
-        <v>0.61</v>
-      </c>
-      <c r="R257">
-        <v>1.3</v>
+      <c r="Q257" t="s">
+        <v>83</v>
+      </c>
+      <c r="R257" t="s">
+        <v>83</v>
       </c>
       <c r="S257" t="s">
         <v>83</v>
@@ -13490,11 +13933,11 @@
       <c r="T257" t="s">
         <v>83</v>
       </c>
-      <c r="U257">
-        <v>0.98</v>
-      </c>
-      <c r="V257">
-        <v>1.93</v>
+      <c r="U257" t="s">
+        <v>83</v>
+      </c>
+      <c r="V257" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="258" spans="1:22" x14ac:dyDescent="0.25">
@@ -13502,31 +13945,31 @@
         <v>331</v>
       </c>
       <c r="B258" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C258" t="s">
-        <v>343</v>
-      </c>
-      <c r="D258" t="s">
-        <v>15</v>
-      </c>
-      <c r="E258" t="s">
-        <v>83</v>
+        <v>342</v>
+      </c>
+      <c r="D258" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E258">
+        <v>23</v>
       </c>
       <c r="F258" t="s">
         <v>83</v>
       </c>
-      <c r="G258" t="s">
-        <v>83</v>
+      <c r="G258">
+        <v>45</v>
       </c>
       <c r="H258" s="17" t="s">
-        <v>339</v>
+        <v>84</v>
       </c>
       <c r="I258" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K258" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L258" t="s">
         <v>83</v>
@@ -13538,16 +13981,16 @@
         <v>83</v>
       </c>
       <c r="O258" t="s">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="P258" t="s">
         <v>83</v>
       </c>
-      <c r="Q258">
-        <v>0.5</v>
-      </c>
-      <c r="R258">
-        <v>1.02</v>
+      <c r="Q258" t="s">
+        <v>83</v>
+      </c>
+      <c r="R258" t="s">
+        <v>83</v>
       </c>
       <c r="S258" t="s">
         <v>83</v>
@@ -13555,11 +13998,11 @@
       <c r="T258" t="s">
         <v>83</v>
       </c>
-      <c r="U258">
-        <v>0.99</v>
-      </c>
-      <c r="V258">
-        <v>2.0099999999999998</v>
+      <c r="U258" t="s">
+        <v>83</v>
+      </c>
+      <c r="V258" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="259" spans="1:22" x14ac:dyDescent="0.25">
@@ -13567,31 +14010,31 @@
         <v>331</v>
       </c>
       <c r="B259" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C259" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="D259" t="s">
         <v>15</v>
       </c>
-      <c r="E259" t="s">
-        <v>83</v>
+      <c r="E259">
+        <v>27</v>
       </c>
       <c r="F259" t="s">
         <v>83</v>
       </c>
-      <c r="G259" t="s">
-        <v>83</v>
+      <c r="G259">
+        <v>50</v>
       </c>
       <c r="H259" s="17" t="s">
-        <v>339</v>
+        <v>84</v>
       </c>
       <c r="I259" s="10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K259" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L259" t="s">
         <v>83</v>
@@ -13603,16 +14046,16 @@
         <v>83</v>
       </c>
       <c r="O259" t="s">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="P259" t="s">
         <v>83</v>
       </c>
-      <c r="Q259">
-        <v>0.34</v>
-      </c>
-      <c r="R259">
-        <v>0.73</v>
+      <c r="Q259" t="s">
+        <v>83</v>
+      </c>
+      <c r="R259" t="s">
+        <v>83</v>
       </c>
       <c r="S259" t="s">
         <v>83</v>
@@ -13620,11 +14063,11 @@
       <c r="T259" t="s">
         <v>83</v>
       </c>
-      <c r="U259">
-        <v>0.72</v>
-      </c>
-      <c r="V259">
-        <v>1.45</v>
+      <c r="U259" t="s">
+        <v>83</v>
+      </c>
+      <c r="V259" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="260" spans="1:22" x14ac:dyDescent="0.25">
@@ -13632,31 +14075,31 @@
         <v>331</v>
       </c>
       <c r="B260" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C260" t="s">
-        <v>345</v>
-      </c>
-      <c r="D260" t="s">
-        <v>15</v>
-      </c>
-      <c r="E260" t="s">
-        <v>83</v>
+        <v>387</v>
+      </c>
+      <c r="D260" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E260">
+        <v>20</v>
       </c>
       <c r="F260" t="s">
         <v>83</v>
       </c>
-      <c r="G260" t="s">
-        <v>83</v>
+      <c r="G260">
+        <v>36</v>
       </c>
       <c r="H260" s="17" t="s">
-        <v>339</v>
+        <v>84</v>
       </c>
       <c r="I260" s="10" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K260" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L260" t="s">
         <v>83</v>
@@ -13668,16 +14111,16 @@
         <v>83</v>
       </c>
       <c r="O260" t="s">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="P260" t="s">
         <v>83</v>
       </c>
-      <c r="Q260">
-        <v>0.39</v>
-      </c>
-      <c r="R260">
-        <v>0.87</v>
+      <c r="Q260" t="s">
+        <v>83</v>
+      </c>
+      <c r="R260" t="s">
+        <v>83</v>
       </c>
       <c r="S260" t="s">
         <v>83</v>
@@ -13685,11 +14128,11 @@
       <c r="T260" t="s">
         <v>83</v>
       </c>
-      <c r="U260">
-        <v>0.72</v>
-      </c>
-      <c r="V260">
-        <v>1.79</v>
+      <c r="U260" t="s">
+        <v>83</v>
+      </c>
+      <c r="V260" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="261" spans="1:22" x14ac:dyDescent="0.25">
@@ -13697,31 +14140,31 @@
         <v>331</v>
       </c>
       <c r="B261" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C261" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D261" t="s">
         <v>15</v>
       </c>
       <c r="E261">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F261" t="s">
         <v>83</v>
       </c>
       <c r="G261">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="H261" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I261" s="10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K261" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L261" t="s">
         <v>83</v>
@@ -13762,34 +14205,34 @@
         <v>331</v>
       </c>
       <c r="B262" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C262" t="s">
-        <v>348</v>
-      </c>
-      <c r="D262" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E262">
-        <v>23</v>
-      </c>
-      <c r="F262" t="s">
+        <v>345</v>
+      </c>
+      <c r="D262" t="s">
+        <v>83</v>
+      </c>
+      <c r="E262" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F262" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G262">
-        <v>45</v>
+        <v>1.2</v>
       </c>
       <c r="H262" s="17" t="s">
-        <v>84</v>
+        <v>365</v>
       </c>
       <c r="I262" s="10">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K262" t="s">
-        <v>363</v>
-      </c>
-      <c r="L262" t="s">
-        <v>83</v>
+        <v>353</v>
+      </c>
+      <c r="L262">
+        <v>-4</v>
       </c>
       <c r="M262" t="s">
         <v>83</v>
@@ -13827,31 +14270,31 @@
         <v>331</v>
       </c>
       <c r="B263" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C263" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="D263" t="s">
         <v>15</v>
       </c>
-      <c r="E263">
-        <v>27</v>
+      <c r="E263" t="s">
+        <v>83</v>
       </c>
       <c r="F263" t="s">
         <v>83</v>
       </c>
-      <c r="G263">
-        <v>50</v>
+      <c r="G263" t="s">
+        <v>83</v>
       </c>
       <c r="H263" s="17" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="I263" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K263" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L263" t="s">
         <v>83</v>
@@ -13863,16 +14306,16 @@
         <v>83</v>
       </c>
       <c r="O263" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="P263" t="s">
         <v>83</v>
       </c>
-      <c r="Q263" t="s">
-        <v>83</v>
-      </c>
-      <c r="R263" t="s">
-        <v>83</v>
+      <c r="Q263">
+        <v>3.08</v>
+      </c>
+      <c r="R263">
+        <v>6.57</v>
       </c>
       <c r="S263" t="s">
         <v>83</v>
@@ -13880,11 +14323,11 @@
       <c r="T263" t="s">
         <v>83</v>
       </c>
-      <c r="U263" t="s">
-        <v>83</v>
-      </c>
-      <c r="V263" t="s">
-        <v>83</v>
+      <c r="U263" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="V263">
+        <v>9.66</v>
       </c>
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.25">
@@ -13892,31 +14335,31 @@
         <v>331</v>
       </c>
       <c r="B264" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C264" t="s">
-        <v>350</v>
-      </c>
-      <c r="D264" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E264">
-        <v>20</v>
+        <v>341</v>
+      </c>
+      <c r="D264" t="s">
+        <v>15</v>
+      </c>
+      <c r="E264" t="s">
+        <v>83</v>
       </c>
       <c r="F264" t="s">
         <v>83</v>
       </c>
-      <c r="G264">
-        <v>36</v>
+      <c r="G264" t="s">
+        <v>83</v>
       </c>
       <c r="H264" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I264" s="10" t="s">
-        <v>367</v>
+        <v>339</v>
+      </c>
+      <c r="I264" s="10">
+        <v>2</v>
       </c>
       <c r="K264" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L264" t="s">
         <v>83</v>
@@ -13928,16 +14371,16 @@
         <v>83</v>
       </c>
       <c r="O264" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="P264" t="s">
         <v>83</v>
       </c>
-      <c r="Q264" t="s">
-        <v>83</v>
-      </c>
-      <c r="R264" t="s">
-        <v>83</v>
+      <c r="Q264">
+        <v>0.41</v>
+      </c>
+      <c r="R264">
+        <v>0.74</v>
       </c>
       <c r="S264" t="s">
         <v>83</v>
@@ -13945,11 +14388,11 @@
       <c r="T264" t="s">
         <v>83</v>
       </c>
-      <c r="U264" t="s">
-        <v>83</v>
-      </c>
-      <c r="V264" t="s">
-        <v>83</v>
+      <c r="U264">
+        <v>0.76</v>
+      </c>
+      <c r="V264">
+        <v>1.52</v>
       </c>
     </row>
     <row r="265" spans="1:22" x14ac:dyDescent="0.25">
@@ -13957,31 +14400,31 @@
         <v>331</v>
       </c>
       <c r="B265" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C265" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="D265" t="s">
         <v>15</v>
       </c>
-      <c r="E265">
-        <v>14</v>
+      <c r="E265" t="s">
+        <v>83</v>
       </c>
       <c r="F265" t="s">
         <v>83</v>
       </c>
-      <c r="G265">
-        <v>28</v>
+      <c r="G265" t="s">
+        <v>83</v>
       </c>
       <c r="H265" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I265" s="10">
-        <v>11</v>
+        <v>339</v>
+      </c>
+      <c r="I265" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="K265" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L265" t="s">
         <v>83</v>
@@ -13993,16 +14436,16 @@
         <v>83</v>
       </c>
       <c r="O265" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="P265" t="s">
         <v>83</v>
       </c>
-      <c r="Q265" t="s">
-        <v>83</v>
-      </c>
-      <c r="R265" t="s">
-        <v>83</v>
+      <c r="Q265">
+        <v>0.62</v>
+      </c>
+      <c r="R265">
+        <v>3.33</v>
       </c>
       <c r="S265" t="s">
         <v>83</v>
@@ -14010,11 +14453,11 @@
       <c r="T265" t="s">
         <v>83</v>
       </c>
-      <c r="U265" t="s">
-        <v>83</v>
-      </c>
-      <c r="V265" t="s">
-        <v>83</v>
+      <c r="U265">
+        <v>1</v>
+      </c>
+      <c r="V265">
+        <v>4.07</v>
       </c>
     </row>
     <row r="266" spans="1:22" x14ac:dyDescent="0.25">
@@ -14022,31 +14465,31 @@
         <v>331</v>
       </c>
       <c r="B266" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C266" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="D266" t="s">
         <v>15</v>
       </c>
-      <c r="E266">
-        <v>320</v>
+      <c r="E266" t="s">
+        <v>83</v>
       </c>
       <c r="F266" t="s">
         <v>83</v>
       </c>
-      <c r="G266">
-        <v>640</v>
+      <c r="G266" t="s">
+        <v>83</v>
       </c>
       <c r="H266" s="17" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="I266" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K266" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L266" t="s">
         <v>83</v>
@@ -14058,16 +14501,16 @@
         <v>83</v>
       </c>
       <c r="O266" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="P266" t="s">
         <v>83</v>
       </c>
-      <c r="Q266" t="s">
-        <v>83</v>
-      </c>
-      <c r="R266" t="s">
-        <v>83</v>
+      <c r="Q266">
+        <v>0.5</v>
+      </c>
+      <c r="R266">
+        <v>1.02</v>
       </c>
       <c r="S266" t="s">
         <v>83</v>
@@ -14075,11 +14518,11 @@
       <c r="T266" t="s">
         <v>83</v>
       </c>
-      <c r="U266" t="s">
-        <v>83</v>
-      </c>
-      <c r="V266" t="s">
-        <v>83</v>
+      <c r="U266">
+        <v>0.99</v>
+      </c>
+      <c r="V266">
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="267" spans="1:22" x14ac:dyDescent="0.25">
@@ -14087,34 +14530,34 @@
         <v>331</v>
       </c>
       <c r="B267" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C267" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="D267" t="s">
-        <v>83</v>
-      </c>
-      <c r="E267" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F267" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G267">
-        <v>1.2</v>
+        <v>15</v>
+      </c>
+      <c r="E267" t="s">
+        <v>83</v>
+      </c>
+      <c r="F267" t="s">
+        <v>83</v>
+      </c>
+      <c r="G267" t="s">
+        <v>83</v>
       </c>
       <c r="H267" s="17" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="I267" s="10">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K267" t="s">
-        <v>363</v>
-      </c>
-      <c r="L267">
-        <v>-4</v>
+        <v>353</v>
+      </c>
+      <c r="L267" t="s">
+        <v>83</v>
       </c>
       <c r="M267" t="s">
         <v>83</v>
@@ -14123,16 +14566,16 @@
         <v>83</v>
       </c>
       <c r="O267" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="P267" t="s">
         <v>83</v>
       </c>
-      <c r="Q267" t="s">
-        <v>83</v>
-      </c>
-      <c r="R267" t="s">
-        <v>83</v>
+      <c r="Q267">
+        <v>0.34</v>
+      </c>
+      <c r="R267">
+        <v>0.73</v>
       </c>
       <c r="S267" t="s">
         <v>83</v>
@@ -14140,11 +14583,11 @@
       <c r="T267" t="s">
         <v>83</v>
       </c>
-      <c r="U267" t="s">
-        <v>83</v>
-      </c>
-      <c r="V267" t="s">
-        <v>83</v>
+      <c r="U267">
+        <v>0.72</v>
+      </c>
+      <c r="V267">
+        <v>1.45</v>
       </c>
     </row>
     <row r="268" spans="1:22" x14ac:dyDescent="0.25">
@@ -14152,10 +14595,10 @@
         <v>331</v>
       </c>
       <c r="B268" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C268" t="s">
-        <v>332</v>
+        <v>69</v>
       </c>
       <c r="D268" t="s">
         <v>15</v>
@@ -14172,11 +14615,11 @@
       <c r="H268" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="I268" s="10">
-        <v>1</v>
+      <c r="I268" s="10" t="s">
+        <v>360</v>
       </c>
       <c r="K268" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L268" t="s">
         <v>83</v>
@@ -14194,10 +14637,10 @@
         <v>83</v>
       </c>
       <c r="Q268">
-        <v>3.08</v>
+        <v>0.48</v>
       </c>
       <c r="R268">
-        <v>6.57</v>
+        <v>0.87</v>
       </c>
       <c r="S268" t="s">
         <v>83</v>
@@ -14205,11 +14648,11 @@
       <c r="T268" t="s">
         <v>83</v>
       </c>
-      <c r="U268" s="21" t="s">
-        <v>395</v>
+      <c r="U268">
+        <v>0.9</v>
       </c>
       <c r="V268">
-        <v>9.66</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="269" spans="1:22" x14ac:dyDescent="0.25">
@@ -14217,31 +14660,31 @@
         <v>331</v>
       </c>
       <c r="B269" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C269" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="D269" t="s">
         <v>15</v>
       </c>
-      <c r="E269" t="s">
-        <v>83</v>
+      <c r="E269">
+        <v>57</v>
       </c>
       <c r="F269" t="s">
         <v>83</v>
       </c>
-      <c r="G269" t="s">
-        <v>83</v>
+      <c r="G269">
+        <v>68</v>
       </c>
       <c r="H269" s="17" t="s">
-        <v>339</v>
+        <v>84</v>
       </c>
       <c r="I269" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K269" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L269" t="s">
         <v>83</v>
@@ -14253,16 +14696,16 @@
         <v>83</v>
       </c>
       <c r="O269" t="s">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="P269" t="s">
         <v>83</v>
       </c>
-      <c r="Q269">
-        <v>0.41</v>
-      </c>
-      <c r="R269">
-        <v>0.74</v>
+      <c r="Q269" t="s">
+        <v>83</v>
+      </c>
+      <c r="R269" t="s">
+        <v>83</v>
       </c>
       <c r="S269" t="s">
         <v>83</v>
@@ -14270,11 +14713,11 @@
       <c r="T269" t="s">
         <v>83</v>
       </c>
-      <c r="U269">
-        <v>0.76</v>
-      </c>
-      <c r="V269">
-        <v>1.52</v>
+      <c r="U269" t="s">
+        <v>83</v>
+      </c>
+      <c r="V269" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="270" spans="1:22" x14ac:dyDescent="0.25">
@@ -14282,31 +14725,31 @@
         <v>331</v>
       </c>
       <c r="B270" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C270" t="s">
         <v>342</v>
       </c>
-      <c r="D270" t="s">
-        <v>15</v>
-      </c>
-      <c r="E270" t="s">
-        <v>83</v>
+      <c r="D270" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E270">
+        <v>23</v>
       </c>
       <c r="F270" t="s">
         <v>83</v>
       </c>
-      <c r="G270" t="s">
-        <v>83</v>
+      <c r="G270">
+        <v>45</v>
       </c>
       <c r="H270" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="I270" s="10" t="s">
-        <v>366</v>
+        <v>84</v>
+      </c>
+      <c r="I270" s="10">
+        <v>8</v>
       </c>
       <c r="K270" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L270" t="s">
         <v>83</v>
@@ -14318,16 +14761,16 @@
         <v>83</v>
       </c>
       <c r="O270" t="s">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="P270" t="s">
         <v>83</v>
       </c>
-      <c r="Q270">
-        <v>0.62</v>
-      </c>
-      <c r="R270">
-        <v>3.33</v>
+      <c r="Q270" t="s">
+        <v>83</v>
+      </c>
+      <c r="R270" t="s">
+        <v>83</v>
       </c>
       <c r="S270" t="s">
         <v>83</v>
@@ -14335,11 +14778,11 @@
       <c r="T270" t="s">
         <v>83</v>
       </c>
-      <c r="U270">
-        <v>1</v>
-      </c>
-      <c r="V270">
-        <v>4.07</v>
+      <c r="U270" t="s">
+        <v>83</v>
+      </c>
+      <c r="V270" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="271" spans="1:22" x14ac:dyDescent="0.25">
@@ -14347,31 +14790,31 @@
         <v>331</v>
       </c>
       <c r="B271" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C271" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="D271" t="s">
         <v>15</v>
       </c>
-      <c r="E271" t="s">
-        <v>83</v>
+      <c r="E271">
+        <v>27</v>
       </c>
       <c r="F271" t="s">
         <v>83</v>
       </c>
-      <c r="G271" t="s">
-        <v>83</v>
+      <c r="G271">
+        <v>50</v>
       </c>
       <c r="H271" s="17" t="s">
-        <v>339</v>
+        <v>84</v>
       </c>
       <c r="I271" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K271" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L271" t="s">
         <v>83</v>
@@ -14383,16 +14826,16 @@
         <v>83</v>
       </c>
       <c r="O271" t="s">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="P271" t="s">
         <v>83</v>
       </c>
-      <c r="Q271">
-        <v>0.5</v>
-      </c>
-      <c r="R271">
-        <v>1.02</v>
+      <c r="Q271" t="s">
+        <v>83</v>
+      </c>
+      <c r="R271" t="s">
+        <v>83</v>
       </c>
       <c r="S271" t="s">
         <v>83</v>
@@ -14400,11 +14843,11 @@
       <c r="T271" t="s">
         <v>83</v>
       </c>
-      <c r="U271">
-        <v>0.99</v>
-      </c>
-      <c r="V271">
-        <v>2.0099999999999998</v>
+      <c r="U271" t="s">
+        <v>83</v>
+      </c>
+      <c r="V271" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="272" spans="1:22" x14ac:dyDescent="0.25">
@@ -14412,52 +14855,52 @@
         <v>331</v>
       </c>
       <c r="B272" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C272" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D272" t="s">
-        <v>15</v>
-      </c>
-      <c r="E272" t="s">
-        <v>83</v>
-      </c>
-      <c r="F272" t="s">
-        <v>83</v>
-      </c>
-      <c r="G272" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="E272">
+        <v>3.8</v>
+      </c>
+      <c r="F272" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G272">
+        <v>9.5</v>
       </c>
       <c r="H272" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="I272" s="10">
-        <v>5</v>
+        <v>348</v>
+      </c>
+      <c r="I272" s="10" t="s">
+        <v>358</v>
       </c>
       <c r="K272" t="s">
-        <v>363</v>
-      </c>
-      <c r="L272" t="s">
-        <v>83</v>
-      </c>
-      <c r="M272" t="s">
-        <v>83</v>
-      </c>
-      <c r="N272" t="s">
-        <v>83</v>
+        <v>353</v>
+      </c>
+      <c r="L272" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="M272">
+        <v>1.9</v>
+      </c>
+      <c r="N272">
+        <v>11.4</v>
       </c>
       <c r="O272" t="s">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="P272" t="s">
         <v>83</v>
       </c>
-      <c r="Q272">
-        <v>0.34</v>
-      </c>
-      <c r="R272">
-        <v>0.73</v>
+      <c r="Q272" t="s">
+        <v>83</v>
+      </c>
+      <c r="R272" t="s">
+        <v>83</v>
       </c>
       <c r="S272" t="s">
         <v>83</v>
@@ -14465,43 +14908,43 @@
       <c r="T272" t="s">
         <v>83</v>
       </c>
-      <c r="U272">
-        <v>0.72</v>
-      </c>
-      <c r="V272">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U272" t="s">
+        <v>83</v>
+      </c>
+      <c r="V272" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>331</v>
       </c>
       <c r="B273" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C273" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D273" t="s">
         <v>15</v>
       </c>
-      <c r="E273" t="s">
-        <v>83</v>
+      <c r="E273">
+        <v>14</v>
       </c>
       <c r="F273" t="s">
         <v>83</v>
       </c>
-      <c r="G273" t="s">
-        <v>83</v>
+      <c r="G273">
+        <v>28</v>
       </c>
       <c r="H273" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="I273" s="10" t="s">
-        <v>370</v>
+        <v>84</v>
+      </c>
+      <c r="I273" s="10">
+        <v>11</v>
       </c>
       <c r="K273" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L273" t="s">
         <v>83</v>
@@ -14513,16 +14956,16 @@
         <v>83</v>
       </c>
       <c r="O273" t="s">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="P273" t="s">
         <v>83</v>
       </c>
-      <c r="Q273">
-        <v>0.48</v>
-      </c>
-      <c r="R273">
-        <v>0.87</v>
+      <c r="Q273" t="s">
+        <v>83</v>
+      </c>
+      <c r="R273" t="s">
+        <v>83</v>
       </c>
       <c r="S273" t="s">
         <v>83</v>
@@ -14530,46 +14973,46 @@
       <c r="T273" t="s">
         <v>83</v>
       </c>
-      <c r="U273">
-        <v>0.9</v>
-      </c>
-      <c r="V273">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U273" t="s">
+        <v>83</v>
+      </c>
+      <c r="V273" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>331</v>
       </c>
       <c r="B274" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C274" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D274" t="s">
-        <v>15</v>
-      </c>
-      <c r="E274">
-        <v>57</v>
-      </c>
-      <c r="F274" t="s">
+        <v>83</v>
+      </c>
+      <c r="E274" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F274" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G274">
-        <v>68</v>
+        <v>1.2</v>
       </c>
       <c r="H274" s="17" t="s">
-        <v>84</v>
+        <v>365</v>
       </c>
       <c r="I274" s="10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K274" t="s">
-        <v>363</v>
-      </c>
-      <c r="L274" t="s">
-        <v>83</v>
+        <v>353</v>
+      </c>
+      <c r="L274">
+        <v>-4</v>
       </c>
       <c r="M274" t="s">
         <v>83</v>
@@ -14602,36 +15045,39 @@
         <v>83</v>
       </c>
     </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>331</v>
       </c>
       <c r="B275" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="C275" t="s">
-        <v>348</v>
-      </c>
-      <c r="D275" s="16" t="s">
-        <v>30</v>
+        <v>411</v>
+      </c>
+      <c r="D275" t="s">
+        <v>15</v>
       </c>
       <c r="E275">
-        <v>23</v>
-      </c>
-      <c r="F275" t="s">
+        <v>335</v>
+      </c>
+      <c r="F275" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G275">
-        <v>45</v>
+        <v>670</v>
       </c>
       <c r="H275" s="17" t="s">
-        <v>84</v>
+        <v>395</v>
       </c>
       <c r="I275" s="10">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="J275" t="s">
+        <v>386</v>
       </c>
       <c r="K275" t="s">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="L275" t="s">
         <v>83</v>
@@ -14666,37 +15112,49 @@
       <c r="V275" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W275" t="s">
+        <v>342</v>
+      </c>
+      <c r="X275">
+        <v>1</v>
+      </c>
+      <c r="Y275" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>331</v>
       </c>
       <c r="B276" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="C276" t="s">
-        <v>349</v>
+        <v>411</v>
       </c>
       <c r="D276" t="s">
         <v>15</v>
       </c>
       <c r="E276">
-        <v>27</v>
-      </c>
-      <c r="F276" t="s">
+        <v>335</v>
+      </c>
+      <c r="F276" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G276">
-        <v>50</v>
+        <v>670</v>
       </c>
       <c r="H276" s="17" t="s">
-        <v>84</v>
+        <v>395</v>
       </c>
       <c r="I276" s="10">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="J276" t="s">
+        <v>386</v>
       </c>
       <c r="K276" t="s">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="L276" t="s">
         <v>83</v>
@@ -14731,46 +15189,58 @@
       <c r="V276" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W276" t="s">
+        <v>342</v>
+      </c>
+      <c r="X276">
+        <v>1</v>
+      </c>
+      <c r="Y276" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>331</v>
       </c>
       <c r="B277" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C277" t="s">
-        <v>351</v>
+        <v>411</v>
       </c>
       <c r="D277" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="E277">
-        <v>3.8</v>
-      </c>
-      <c r="F277" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F277" t="s">
         <v>83</v>
       </c>
       <c r="G277">
-        <v>9.5</v>
+        <v>450</v>
       </c>
       <c r="H277" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="I277" s="10" t="s">
-        <v>368</v>
+        <v>395</v>
+      </c>
+      <c r="I277" s="10">
+        <v>12</v>
+      </c>
+      <c r="J277" t="s">
+        <v>386</v>
       </c>
       <c r="K277" t="s">
-        <v>363</v>
-      </c>
-      <c r="L277" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="M277">
-        <v>1.9</v>
-      </c>
-      <c r="N277">
-        <v>11.4</v>
+        <v>83</v>
+      </c>
+      <c r="L277" t="s">
+        <v>83</v>
+      </c>
+      <c r="M277" t="s">
+        <v>83</v>
+      </c>
+      <c r="N277" t="s">
+        <v>83</v>
       </c>
       <c r="O277" t="s">
         <v>83</v>
@@ -14796,37 +15266,49 @@
       <c r="V277" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W277" t="s">
+        <v>342</v>
+      </c>
+      <c r="X277">
+        <v>1</v>
+      </c>
+      <c r="Y277" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>331</v>
       </c>
       <c r="B278" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C278" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="D278" t="s">
         <v>15</v>
       </c>
       <c r="E278">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="F278" t="s">
         <v>83</v>
       </c>
       <c r="G278">
-        <v>28</v>
+        <v>450</v>
       </c>
       <c r="H278" s="17" t="s">
-        <v>84</v>
+        <v>395</v>
       </c>
       <c r="I278" s="10">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J278" t="s">
+        <v>386</v>
       </c>
       <c r="K278" t="s">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="L278" t="s">
         <v>83</v>
@@ -14861,16 +15343,25 @@
       <c r="V278" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W278" t="s">
+        <v>342</v>
+      </c>
+      <c r="X278">
+        <v>1</v>
+      </c>
+      <c r="Y278" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>331</v>
       </c>
       <c r="B279" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C279" t="s">
-        <v>353</v>
+        <v>411</v>
       </c>
       <c r="D279" t="s">
         <v>15</v>
@@ -14885,13 +15376,16 @@
         <v>640</v>
       </c>
       <c r="H279" s="17" t="s">
-        <v>84</v>
+        <v>395</v>
       </c>
       <c r="I279" s="10">
         <v>12</v>
       </c>
+      <c r="J279" t="s">
+        <v>386</v>
+      </c>
       <c r="K279" t="s">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="L279" t="s">
         <v>83</v>
@@ -14926,437 +15420,1047 @@
       <c r="V279" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W279" t="s">
+        <v>342</v>
+      </c>
+      <c r="X279">
+        <v>1</v>
+      </c>
+      <c r="Y279" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>331</v>
       </c>
       <c r="B280" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C280" t="s">
-        <v>354</v>
+        <v>411</v>
       </c>
       <c r="D280" t="s">
-        <v>83</v>
-      </c>
-      <c r="E280" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F280" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E280">
+        <v>320</v>
+      </c>
+      <c r="F280" t="s">
         <v>83</v>
       </c>
       <c r="G280">
-        <v>1.2</v>
+        <v>640</v>
       </c>
       <c r="H280" s="17" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="I280" s="10">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="J280" t="s">
+        <v>386</v>
       </c>
       <c r="K280" t="s">
+        <v>83</v>
+      </c>
+      <c r="L280" t="s">
+        <v>83</v>
+      </c>
+      <c r="M280" t="s">
+        <v>83</v>
+      </c>
+      <c r="N280" t="s">
+        <v>83</v>
+      </c>
+      <c r="O280" t="s">
+        <v>83</v>
+      </c>
+      <c r="P280" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q280" t="s">
+        <v>83</v>
+      </c>
+      <c r="R280" t="s">
+        <v>83</v>
+      </c>
+      <c r="S280" t="s">
+        <v>83</v>
+      </c>
+      <c r="T280" t="s">
+        <v>83</v>
+      </c>
+      <c r="U280" t="s">
+        <v>83</v>
+      </c>
+      <c r="V280" t="s">
+        <v>83</v>
+      </c>
+      <c r="W280" t="s">
+        <v>342</v>
+      </c>
+      <c r="X280">
+        <v>1</v>
+      </c>
+      <c r="Y280" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>331</v>
+      </c>
+      <c r="B281" t="s">
+        <v>346</v>
+      </c>
+      <c r="C281" t="s">
+        <v>412</v>
+      </c>
+      <c r="D281" t="s">
+        <v>15</v>
+      </c>
+      <c r="E281">
+        <v>335</v>
+      </c>
+      <c r="F281" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G281">
+        <v>670</v>
+      </c>
+      <c r="H281" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="I281" s="10">
+        <v>12</v>
+      </c>
+      <c r="J281" t="s">
+        <v>386</v>
+      </c>
+      <c r="K281" t="s">
+        <v>83</v>
+      </c>
+      <c r="L281" t="s">
+        <v>83</v>
+      </c>
+      <c r="M281" t="s">
+        <v>83</v>
+      </c>
+      <c r="N281" t="s">
+        <v>83</v>
+      </c>
+      <c r="O281" t="s">
+        <v>83</v>
+      </c>
+      <c r="P281" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q281" t="s">
+        <v>83</v>
+      </c>
+      <c r="R281" t="s">
+        <v>83</v>
+      </c>
+      <c r="S281" t="s">
+        <v>83</v>
+      </c>
+      <c r="T281" t="s">
+        <v>83</v>
+      </c>
+      <c r="U281" t="s">
+        <v>83</v>
+      </c>
+      <c r="V281" t="s">
+        <v>83</v>
+      </c>
+      <c r="W281" t="s">
+        <v>342</v>
+      </c>
+      <c r="X281">
+        <v>1</v>
+      </c>
+      <c r="Y281" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>331</v>
+      </c>
+      <c r="B282" t="s">
+        <v>347</v>
+      </c>
+      <c r="C282" t="s">
+        <v>412</v>
+      </c>
+      <c r="D282" t="s">
+        <v>15</v>
+      </c>
+      <c r="E282">
+        <v>335</v>
+      </c>
+      <c r="F282" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G282">
+        <v>670</v>
+      </c>
+      <c r="H282" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="I282" s="10">
+        <v>12</v>
+      </c>
+      <c r="J282" t="s">
+        <v>386</v>
+      </c>
+      <c r="K282" t="s">
+        <v>83</v>
+      </c>
+      <c r="L282" t="s">
+        <v>83</v>
+      </c>
+      <c r="M282" t="s">
+        <v>83</v>
+      </c>
+      <c r="N282" t="s">
+        <v>83</v>
+      </c>
+      <c r="O282" t="s">
+        <v>83</v>
+      </c>
+      <c r="P282" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q282" t="s">
+        <v>83</v>
+      </c>
+      <c r="R282" t="s">
+        <v>83</v>
+      </c>
+      <c r="S282" t="s">
+        <v>83</v>
+      </c>
+      <c r="T282" t="s">
+        <v>83</v>
+      </c>
+      <c r="U282" t="s">
+        <v>83</v>
+      </c>
+      <c r="V282" t="s">
+        <v>83</v>
+      </c>
+      <c r="W282" t="s">
+        <v>342</v>
+      </c>
+      <c r="X282">
+        <v>1</v>
+      </c>
+      <c r="Y282" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>331</v>
+      </c>
+      <c r="B283" t="s">
+        <v>361</v>
+      </c>
+      <c r="C283" t="s">
+        <v>412</v>
+      </c>
+      <c r="D283" t="s">
+        <v>15</v>
+      </c>
+      <c r="E283">
+        <v>225</v>
+      </c>
+      <c r="F283" t="s">
+        <v>83</v>
+      </c>
+      <c r="G283">
+        <v>450</v>
+      </c>
+      <c r="H283" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="I283" s="10">
+        <v>12</v>
+      </c>
+      <c r="J283" t="s">
+        <v>386</v>
+      </c>
+      <c r="K283" t="s">
+        <v>83</v>
+      </c>
+      <c r="L283" t="s">
+        <v>83</v>
+      </c>
+      <c r="M283" t="s">
+        <v>83</v>
+      </c>
+      <c r="N283" t="s">
+        <v>83</v>
+      </c>
+      <c r="O283" t="s">
+        <v>83</v>
+      </c>
+      <c r="P283" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>83</v>
+      </c>
+      <c r="R283" t="s">
+        <v>83</v>
+      </c>
+      <c r="S283" t="s">
+        <v>83</v>
+      </c>
+      <c r="T283" t="s">
+        <v>83</v>
+      </c>
+      <c r="U283" t="s">
+        <v>83</v>
+      </c>
+      <c r="V283" t="s">
+        <v>83</v>
+      </c>
+      <c r="W283" t="s">
+        <v>342</v>
+      </c>
+      <c r="X283">
+        <v>1</v>
+      </c>
+      <c r="Y283" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>331</v>
+      </c>
+      <c r="B284" t="s">
+        <v>362</v>
+      </c>
+      <c r="C284" t="s">
+        <v>412</v>
+      </c>
+      <c r="D284" t="s">
+        <v>15</v>
+      </c>
+      <c r="E284">
+        <v>225</v>
+      </c>
+      <c r="F284" t="s">
+        <v>83</v>
+      </c>
+      <c r="G284">
+        <v>450</v>
+      </c>
+      <c r="H284" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="I284" s="10">
+        <v>12</v>
+      </c>
+      <c r="J284" t="s">
+        <v>386</v>
+      </c>
+      <c r="K284" t="s">
+        <v>83</v>
+      </c>
+      <c r="L284" t="s">
+        <v>83</v>
+      </c>
+      <c r="M284" t="s">
+        <v>83</v>
+      </c>
+      <c r="N284" t="s">
+        <v>83</v>
+      </c>
+      <c r="O284" t="s">
+        <v>83</v>
+      </c>
+      <c r="P284" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q284" t="s">
+        <v>83</v>
+      </c>
+      <c r="R284" t="s">
+        <v>83</v>
+      </c>
+      <c r="S284" t="s">
+        <v>83</v>
+      </c>
+      <c r="T284" t="s">
+        <v>83</v>
+      </c>
+      <c r="U284" t="s">
+        <v>83</v>
+      </c>
+      <c r="V284" t="s">
+        <v>83</v>
+      </c>
+      <c r="W284" t="s">
+        <v>342</v>
+      </c>
+      <c r="X284">
+        <v>1</v>
+      </c>
+      <c r="Y284" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>331</v>
+      </c>
+      <c r="B285" t="s">
         <v>363</v>
       </c>
-      <c r="L280">
-        <v>-4</v>
-      </c>
-      <c r="M280" t="s">
-        <v>83</v>
-      </c>
-      <c r="N280" t="s">
-        <v>83</v>
-      </c>
-      <c r="O280" t="s">
-        <v>83</v>
-      </c>
-      <c r="P280" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q280" t="s">
-        <v>83</v>
-      </c>
-      <c r="R280" t="s">
-        <v>83</v>
-      </c>
-      <c r="S280" t="s">
-        <v>83</v>
-      </c>
-      <c r="T280" t="s">
-        <v>83</v>
-      </c>
-      <c r="U280" t="s">
-        <v>83</v>
-      </c>
-      <c r="V280" t="s">
-        <v>83</v>
+      <c r="C285" t="s">
+        <v>412</v>
+      </c>
+      <c r="D285" t="s">
+        <v>15</v>
+      </c>
+      <c r="E285">
+        <v>320</v>
+      </c>
+      <c r="F285" t="s">
+        <v>83</v>
+      </c>
+      <c r="G285">
+        <v>640</v>
+      </c>
+      <c r="H285" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="I285" s="10">
+        <v>12</v>
+      </c>
+      <c r="J285" t="s">
+        <v>386</v>
+      </c>
+      <c r="K285" t="s">
+        <v>83</v>
+      </c>
+      <c r="L285" t="s">
+        <v>83</v>
+      </c>
+      <c r="M285" t="s">
+        <v>83</v>
+      </c>
+      <c r="N285" t="s">
+        <v>83</v>
+      </c>
+      <c r="O285" t="s">
+        <v>83</v>
+      </c>
+      <c r="P285" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q285" t="s">
+        <v>83</v>
+      </c>
+      <c r="R285" t="s">
+        <v>83</v>
+      </c>
+      <c r="S285" t="s">
+        <v>83</v>
+      </c>
+      <c r="T285" t="s">
+        <v>83</v>
+      </c>
+      <c r="U285" t="s">
+        <v>83</v>
+      </c>
+      <c r="V285" t="s">
+        <v>83</v>
+      </c>
+      <c r="W285" t="s">
+        <v>342</v>
+      </c>
+      <c r="X285">
+        <v>1</v>
+      </c>
+      <c r="Y285" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>331</v>
+      </c>
+      <c r="B286" t="s">
+        <v>364</v>
+      </c>
+      <c r="C286" t="s">
+        <v>412</v>
+      </c>
+      <c r="D286" t="s">
+        <v>15</v>
+      </c>
+      <c r="E286">
+        <v>320</v>
+      </c>
+      <c r="F286" t="s">
+        <v>83</v>
+      </c>
+      <c r="G286">
+        <v>640</v>
+      </c>
+      <c r="H286" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="I286" s="10">
+        <v>12</v>
+      </c>
+      <c r="J286" t="s">
+        <v>386</v>
+      </c>
+      <c r="K286" t="s">
+        <v>83</v>
+      </c>
+      <c r="L286" t="s">
+        <v>83</v>
+      </c>
+      <c r="M286" t="s">
+        <v>83</v>
+      </c>
+      <c r="N286" t="s">
+        <v>83</v>
+      </c>
+      <c r="O286" t="s">
+        <v>83</v>
+      </c>
+      <c r="P286" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q286" t="s">
+        <v>83</v>
+      </c>
+      <c r="R286" t="s">
+        <v>83</v>
+      </c>
+      <c r="S286" t="s">
+        <v>83</v>
+      </c>
+      <c r="T286" t="s">
+        <v>83</v>
+      </c>
+      <c r="U286" t="s">
+        <v>83</v>
+      </c>
+      <c r="V286" t="s">
+        <v>83</v>
+      </c>
+      <c r="W286" t="s">
+        <v>342</v>
+      </c>
+      <c r="X286">
+        <v>1</v>
+      </c>
+      <c r="Y286" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC280" xr:uid="{FED77011-9DA1-4ED4-AF67-599FA276C79A}">
+  <autoFilter ref="A1:AF286" xr:uid="{FED77011-9DA1-4ED4-AF67-599FA276C79A}">
     <filterColumn colId="0">
       <filters>
         <filter val="GADNR_Fish_2005"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="D2:D185 D210 D203:D207 H203">
-    <cfRule type="cellIs" dxfId="82" priority="93" operator="equal">
+  <conditionalFormatting sqref="D2:D185 D210 D203:D207 H203 F205:F225">
+    <cfRule type="cellIs" dxfId="113" priority="161" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="162" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D188:D202">
-    <cfRule type="cellIs" dxfId="80" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="159" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="160" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D186">
-    <cfRule type="cellIs" dxfId="78" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="157" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="158" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D187">
-    <cfRule type="cellIs" dxfId="76" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="155" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="156" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O186:O207">
-    <cfRule type="expression" dxfId="74" priority="86">
+    <cfRule type="expression" dxfId="105" priority="154">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E204:F204 E209:E214 F203 F205:F227">
-    <cfRule type="cellIs" dxfId="73" priority="84" operator="equal">
+  <conditionalFormatting sqref="E204:F204 E209:E213 F203">
+    <cfRule type="cellIs" dxfId="104" priority="152" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="153" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H204:H207">
-    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="140" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="141" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U186:V202">
-    <cfRule type="expression" dxfId="69" priority="96">
+  <conditionalFormatting sqref="U186:Y202">
+    <cfRule type="expression" dxfId="100" priority="164">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q186:R207">
-    <cfRule type="expression" dxfId="68" priority="98">
+  <conditionalFormatting sqref="Q186:R207 V203:Y207">
+    <cfRule type="expression" dxfId="99" priority="166">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P186:P207">
-    <cfRule type="expression" dxfId="67" priority="100">
+    <cfRule type="expression" dxfId="98" priority="168">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H208">
-    <cfRule type="cellIs" dxfId="66" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="138" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="139" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H216">
-    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+  <conditionalFormatting sqref="H215">
+    <cfRule type="cellIs" dxfId="95" priority="136" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="137" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H217:H220">
-    <cfRule type="cellIs" dxfId="62" priority="66" operator="equal">
+  <conditionalFormatting sqref="H216:H219">
+    <cfRule type="cellIs" dxfId="93" priority="134" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="135" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H220">
+    <cfRule type="cellIs" dxfId="91" priority="132" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="133" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H209:H213">
+    <cfRule type="cellIs" dxfId="89" priority="130" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="131" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H221">
-    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="128" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="129" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H209:H214">
-    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
+  <conditionalFormatting sqref="H222:H225">
+    <cfRule type="cellIs" dxfId="85" priority="126" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H222">
-    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H223:H227">
-    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="127" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L186:M204">
-    <cfRule type="expression" dxfId="52" priority="101">
+    <cfRule type="expression" dxfId="83" priority="169">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H215">
-    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
+  <conditionalFormatting sqref="H214">
+    <cfRule type="cellIs" dxfId="82" priority="122" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="123" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D212">
-    <cfRule type="cellIs" dxfId="49" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="120" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="121" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D223">
-    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
+  <conditionalFormatting sqref="D222">
+    <cfRule type="cellIs" dxfId="78" priority="118" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="119" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D225">
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+  <conditionalFormatting sqref="D224">
+    <cfRule type="cellIs" dxfId="76" priority="116" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="117" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N186:N204">
-    <cfRule type="expression" dxfId="43" priority="103">
+    <cfRule type="expression" dxfId="74" priority="171">
       <formula>F186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J186:J202">
-    <cfRule type="expression" dxfId="42" priority="104">
+    <cfRule type="expression" dxfId="73" priority="172">
       <formula>D186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S203:S207 S186:T202">
-    <cfRule type="expression" dxfId="41" priority="106">
+  <conditionalFormatting sqref="S203:S207 S186:T202 S208:T226">
+    <cfRule type="expression" dxfId="72" priority="174">
       <formula>F186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O216:O220">
-    <cfRule type="expression" dxfId="40" priority="46">
-      <formula>E216="Increase"</formula>
+  <conditionalFormatting sqref="O215:O219">
+    <cfRule type="expression" dxfId="71" priority="114">
+      <formula>E215="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O221">
-    <cfRule type="expression" dxfId="39" priority="45">
-      <formula>E221="Increase"</formula>
+  <conditionalFormatting sqref="O220">
+    <cfRule type="expression" dxfId="70" priority="113">
+      <formula>E220="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P208">
-    <cfRule type="expression" dxfId="38" priority="44">
+    <cfRule type="expression" dxfId="69" priority="112">
       <formula>E208="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P216:P220">
-    <cfRule type="expression" dxfId="37" priority="43">
-      <formula>E216="Increase"</formula>
+  <conditionalFormatting sqref="P215:P219">
+    <cfRule type="expression" dxfId="68" priority="111">
+      <formula>E215="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P221">
-    <cfRule type="expression" dxfId="36" priority="41">
-      <formula>E221="Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S208:S221">
-    <cfRule type="expression" dxfId="35" priority="40">
-      <formula>F208="Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S222:S228">
-    <cfRule type="expression" dxfId="34" priority="38">
-      <formula>F222="Increase"</formula>
+  <conditionalFormatting sqref="P220">
+    <cfRule type="expression" dxfId="67" priority="109">
+      <formula>E220="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U203:U207">
-    <cfRule type="expression" dxfId="33" priority="36">
+    <cfRule type="expression" dxfId="66" priority="104">
       <formula>I203="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V203:V207">
-    <cfRule type="expression" dxfId="32" priority="35">
-      <formula>J203="Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T203:T207">
-    <cfRule type="expression" dxfId="31" priority="34">
+    <cfRule type="expression" dxfId="65" priority="102">
       <formula>G203="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T208:T221">
-    <cfRule type="expression" dxfId="30" priority="33">
-      <formula>G208="Increase"</formula>
+  <conditionalFormatting sqref="P228">
+    <cfRule type="expression" dxfId="64" priority="99">
+      <formula>E228="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T222:T228">
-    <cfRule type="expression" dxfId="29" priority="32">
-      <formula>G222="Increase"</formula>
+  <conditionalFormatting sqref="P240">
+    <cfRule type="expression" dxfId="63" priority="98">
+      <formula>E240="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P230">
-    <cfRule type="expression" dxfId="28" priority="31">
+  <conditionalFormatting sqref="P241">
+    <cfRule type="expression" dxfId="62" priority="97">
+      <formula>E241="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P242:P243">
+    <cfRule type="expression" dxfId="61" priority="96">
+      <formula>E242="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P230:P231">
+    <cfRule type="expression" dxfId="60" priority="95">
       <formula>E230="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P243">
-    <cfRule type="expression" dxfId="27" priority="30">
-      <formula>E243="Increase"</formula>
+  <conditionalFormatting sqref="O263:O268 O251:O256 O239:O244 O227:O232">
+    <cfRule type="expression" dxfId="59" priority="94">
+      <formula>E227="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P244">
-    <cfRule type="expression" dxfId="26" priority="29">
-      <formula>E244="Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P245:P246">
-    <cfRule type="expression" dxfId="25" priority="28">
-      <formula>E245="Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P232:P233">
-    <cfRule type="expression" dxfId="24" priority="27">
-      <formula>E232="Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O268:O273 O255:O260 O242:O247 O229:O234">
-    <cfRule type="expression" dxfId="23" priority="26">
-      <formula>E229="Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F251">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+  <conditionalFormatting sqref="F248">
+    <cfRule type="cellIs" dxfId="58" priority="92" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="93" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H251">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+  <conditionalFormatting sqref="H248">
+    <cfRule type="cellIs" dxfId="56" priority="90" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="91" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F277">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+  <conditionalFormatting sqref="F272">
+    <cfRule type="cellIs" dxfId="54" priority="88" operator="equal">
       <formula>""</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="89" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H272">
+    <cfRule type="cellIs" dxfId="52" priority="86" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="87" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F274 F262 F250 F238 F226">
+    <cfRule type="cellIs" dxfId="50" priority="82" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="83" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H263:H268 H251:H256 H239:H244 H227:H232">
+    <cfRule type="cellIs" dxfId="48" priority="80" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="81" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H273 H269:H271 H257:H261 H249 H245:H247 H233:H237">
+    <cfRule type="cellIs" dxfId="46" priority="78" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="79" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L272 L248 L224">
+    <cfRule type="cellIs" dxfId="44" priority="76" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="77" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E230:E231 E228 E220 E216:E217 E240:E243">
+    <cfRule type="cellIs" dxfId="42" priority="74" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="75" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H274 H262 H250 H238 H226">
+    <cfRule type="cellIs" dxfId="40" priority="72" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="73" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E274 E262 E250 E238 E226 E214">
+    <cfRule type="cellIs" dxfId="38" priority="70" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="71" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O208">
+    <cfRule type="expression" dxfId="36" priority="69">
+      <formula>E208="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F276 E275:F275">
+    <cfRule type="cellIs" dxfId="35" priority="57" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="58" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R275">
+    <cfRule type="expression" dxfId="33" priority="54">
+      <formula>E275="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S275">
+    <cfRule type="expression" dxfId="32" priority="53">
+      <formula>F275="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R276">
+    <cfRule type="expression" dxfId="31" priority="50">
+      <formula>E276="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S276">
+    <cfRule type="expression" dxfId="30" priority="49">
+      <formula>F276="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H281">
+    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="38" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F282 E281:F281">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R281">
+    <cfRule type="expression" dxfId="25" priority="36">
+      <formula>E281="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S281">
+    <cfRule type="expression" dxfId="24" priority="35">
+      <formula>F281="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H280">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R282">
+    <cfRule type="expression" dxfId="21" priority="32">
+      <formula>E282="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S282">
+    <cfRule type="expression" dxfId="20" priority="31">
+      <formula>F282="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H279">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H282">
     <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H283">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H284">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H285">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H286">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H278">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H277">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F280 F267 F254 F241 F228">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+  <conditionalFormatting sqref="H276">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H268:H273 H255:H260 H242:H247 H229:H234">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+  <conditionalFormatting sqref="H275">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H278:H279 H274:H276 H261:H266 H252:H253 H248:H250 H235:H240">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L277 L251 L225">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E232:E233 E230 E221 E217:E218 E243:E246">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H280 H267 H254 H241 H228">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E280 E267 E254 E241 E228 E215">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O208">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>E208="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15373,9 +16477,9 @@
   <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17177,7 +18281,7 @@
         <v>331</v>
       </c>
       <c r="B38" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C38" t="s">
         <v>107</v>
@@ -17228,7 +18332,7 @@
         <v>131</v>
       </c>
       <c r="S38" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="T38" t="s">
         <v>83</v>
@@ -17239,7 +18343,7 @@
         <v>331</v>
       </c>
       <c r="B39" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C39" t="s">
         <v>107</v>
@@ -17290,7 +18394,7 @@
         <v>131</v>
       </c>
       <c r="S39" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="T39" t="s">
         <v>83</v>
@@ -17301,7 +18405,7 @@
         <v>331</v>
       </c>
       <c r="B40" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C40" t="s">
         <v>107</v>
@@ -17352,7 +18456,7 @@
         <v>131</v>
       </c>
       <c r="S40" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="T40" t="s">
         <v>83</v>
@@ -17363,7 +18467,7 @@
         <v>331</v>
       </c>
       <c r="B41" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C41" t="s">
         <v>107</v>
@@ -17414,7 +18518,7 @@
         <v>131</v>
       </c>
       <c r="S41" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="T41" t="s">
         <v>83</v>
@@ -17425,7 +18529,7 @@
         <v>331</v>
       </c>
       <c r="B42" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C42" t="s">
         <v>107</v>
@@ -17476,7 +18580,7 @@
         <v>131</v>
       </c>
       <c r="S42" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="T42" t="s">
         <v>83</v>
@@ -17487,7 +18591,7 @@
         <v>331</v>
       </c>
       <c r="B43" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C43" t="s">
         <v>107</v>
@@ -17538,7 +18642,7 @@
         <v>131</v>
       </c>
       <c r="S43" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="T43" t="s">
         <v>83</v>
@@ -17551,6 +18655,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60BC3FC-0E35-4D85-A49D-166301D14FB0}">
+  <dimension ref="A5:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>365</v>
+      </c>
+      <c r="B12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>348</v>
+      </c>
+      <c r="B13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11763AB-DE5A-4277-BE65-88CD3BDAAE84}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -17635,7 +18833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C585955D-F8EC-44CD-8D5F-F1548D104D16}">
   <dimension ref="A3:L24"/>
   <sheetViews>
@@ -18017,21 +19215,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100557C7523FAC84E43A0DA62C173857381" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4b9ddb1302998b61081aed2913076a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" xmlns:ns4="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3079d22dc9190cbddbf9f4c007b8016d" ns3:_="" ns4:_="">
     <xsd:import namespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
@@ -18254,10 +19437,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19304C29-C31A-47A1-B855-8D09E823E92C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18280,20 +19489,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19304C29-C31A-47A1-B855-8D09E823E92C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89FC00E-392C-4DBD-8288-21ABE32DC652}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4887F129-E8B6-479B-98B1-11F1A9930CAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -1572,9 +1572,6 @@
     <t>GADNR_Fish_2005</t>
   </si>
   <si>
-    <t>nt_native</t>
-  </si>
-  <si>
     <t>Adjust_Formula_Lo</t>
   </si>
   <si>
@@ -1809,13 +1806,16 @@
     <t>equal</t>
   </si>
   <si>
-    <t>ni_natnonhybrid_200m</t>
-  </si>
-  <si>
-    <t>ni_natnonhybridnonlepomis_200m</t>
-  </si>
-  <si>
     <t>greaterthan</t>
+  </si>
+  <si>
+    <t>ni_natnonhybridnonmf_200m</t>
+  </si>
+  <si>
+    <t>ni_natnonhybridnonmfnonlepomis_200m</t>
+  </si>
+  <si>
+    <t>nt_nativenonhybrid</t>
   </si>
 </sst>
 </file>
@@ -3722,10 +3722,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>395</v>
+      </c>
+      <c r="B20" t="s">
         <v>396</v>
-      </c>
-      <c r="B20" t="s">
-        <v>397</v>
       </c>
       <c r="C20" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3845,7 +3845,7 @@
         <v>43817</v>
       </c>
       <c r="B36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -3879,18 +3879,18 @@
   <dimension ref="A1:AF286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E214" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="H285" sqref="H285"/>
+      <selection pane="bottomRight" activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
@@ -3953,70 +3953,70 @@
         <v>265</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M1" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>350</v>
-      </c>
       <c r="O1" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="V1" s="12" t="s">
-        <v>372</v>
-      </c>
       <c r="W1" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="X1" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>408</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>409</v>
       </c>
       <c r="Z1" s="19" t="s">
         <v>330</v>
       </c>
       <c r="AA1" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC1" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AD1" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="AC1" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AF1" s="19" t="s">
         <v>337</v>
-      </c>
-      <c r="AF1" s="19" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
@@ -4048,7 +4048,7 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
@@ -4080,7 +4080,7 @@
         <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
@@ -4112,7 +4112,7 @@
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
@@ -4144,7 +4144,7 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
@@ -4176,7 +4176,7 @@
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
@@ -4208,7 +4208,7 @@
         <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
@@ -4240,7 +4240,7 @@
         <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
@@ -4272,7 +4272,7 @@
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
@@ -4304,7 +4304,7 @@
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
@@ -4336,7 +4336,7 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
@@ -4368,7 +4368,7 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
@@ -4400,7 +4400,7 @@
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
@@ -4432,7 +4432,7 @@
         <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
@@ -4464,7 +4464,7 @@
         <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
@@ -4496,7 +4496,7 @@
         <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4528,7 +4528,7 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4560,7 +4560,7 @@
         <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4592,7 +4592,7 @@
         <v>35</v>
       </c>
       <c r="K19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4624,7 +4624,7 @@
         <v>37</v>
       </c>
       <c r="K20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4656,7 +4656,7 @@
         <v>38</v>
       </c>
       <c r="K21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4688,7 +4688,7 @@
         <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4720,7 +4720,7 @@
         <v>43</v>
       </c>
       <c r="K23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4752,7 +4752,7 @@
         <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4784,7 +4784,7 @@
         <v>47</v>
       </c>
       <c r="K25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4816,7 +4816,7 @@
         <v>49</v>
       </c>
       <c r="K26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4848,7 +4848,7 @@
         <v>51</v>
       </c>
       <c r="K27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4880,7 +4880,7 @@
         <v>53</v>
       </c>
       <c r="K28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4912,7 +4912,7 @@
         <v>43</v>
       </c>
       <c r="K29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4944,7 +4944,7 @@
         <v>45</v>
       </c>
       <c r="K30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4976,7 +4976,7 @@
         <v>47</v>
       </c>
       <c r="K31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5008,7 +5008,7 @@
         <v>49</v>
       </c>
       <c r="K32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5040,7 +5040,7 @@
         <v>55</v>
       </c>
       <c r="K33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5072,7 +5072,7 @@
         <v>57</v>
       </c>
       <c r="K34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5104,7 +5104,7 @@
         <v>43</v>
       </c>
       <c r="K35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5136,7 +5136,7 @@
         <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5168,7 +5168,7 @@
         <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5200,7 +5200,7 @@
         <v>49</v>
       </c>
       <c r="K38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5232,7 +5232,7 @@
         <v>59</v>
       </c>
       <c r="K39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5264,7 +5264,7 @@
         <v>53</v>
       </c>
       <c r="K40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5296,7 +5296,7 @@
         <v>43</v>
       </c>
       <c r="K41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5328,7 +5328,7 @@
         <v>47</v>
       </c>
       <c r="K42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5360,7 +5360,7 @@
         <v>62</v>
       </c>
       <c r="K43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5392,7 +5392,7 @@
         <v>64</v>
       </c>
       <c r="K44" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5424,7 +5424,7 @@
         <v>16</v>
       </c>
       <c r="K45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5456,7 +5456,7 @@
         <v>18</v>
       </c>
       <c r="K46" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5488,7 +5488,7 @@
         <v>20</v>
       </c>
       <c r="K47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5520,7 +5520,7 @@
         <v>68</v>
       </c>
       <c r="K48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5552,7 +5552,7 @@
         <v>24</v>
       </c>
       <c r="K49" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5584,7 +5584,7 @@
         <v>70</v>
       </c>
       <c r="K50" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5616,7 +5616,7 @@
         <v>72</v>
       </c>
       <c r="K51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5648,7 +5648,7 @@
         <v>16</v>
       </c>
       <c r="K52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5680,7 +5680,7 @@
         <v>18</v>
       </c>
       <c r="K53" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5712,7 +5712,7 @@
         <v>20</v>
       </c>
       <c r="K54" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5744,7 +5744,7 @@
         <v>68</v>
       </c>
       <c r="K55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5776,7 +5776,7 @@
         <v>24</v>
       </c>
       <c r="K56" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5808,7 +5808,7 @@
         <v>70</v>
       </c>
       <c r="K57" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5840,7 +5840,7 @@
         <v>72</v>
       </c>
       <c r="K58" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5869,7 +5869,7 @@
         <v>75</v>
       </c>
       <c r="K59" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5901,7 +5901,7 @@
         <v>242</v>
       </c>
       <c r="K60" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5930,7 +5930,7 @@
         <v>77</v>
       </c>
       <c r="K61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5959,7 +5959,7 @@
         <v>78</v>
       </c>
       <c r="K62" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5988,7 +5988,7 @@
         <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6017,7 +6017,7 @@
         <v>79</v>
       </c>
       <c r="K64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6046,7 +6046,7 @@
         <v>81</v>
       </c>
       <c r="K65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6078,7 +6078,7 @@
         <v>242</v>
       </c>
       <c r="K66" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6107,7 +6107,7 @@
         <v>244</v>
       </c>
       <c r="K67" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6139,7 +6139,7 @@
         <v>240</v>
       </c>
       <c r="K68" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6168,7 +6168,7 @@
         <v>17</v>
       </c>
       <c r="K69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6197,7 +6197,7 @@
         <v>134</v>
       </c>
       <c r="K70" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6226,7 +6226,7 @@
         <v>135</v>
       </c>
       <c r="K71" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6255,7 +6255,7 @@
         <v>135</v>
       </c>
       <c r="K72" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6284,7 +6284,7 @@
         <v>135</v>
       </c>
       <c r="K73" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6313,7 +6313,7 @@
         <v>135</v>
       </c>
       <c r="K74" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6342,7 +6342,7 @@
         <v>135</v>
       </c>
       <c r="K75" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6371,7 +6371,7 @@
         <v>135</v>
       </c>
       <c r="K76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6400,7 +6400,7 @@
         <v>135</v>
       </c>
       <c r="K77" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6429,7 +6429,7 @@
         <v>135</v>
       </c>
       <c r="K78" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6458,7 +6458,7 @@
         <v>135</v>
       </c>
       <c r="K79" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6487,7 +6487,7 @@
         <v>135</v>
       </c>
       <c r="K80" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6516,7 +6516,7 @@
         <v>135</v>
       </c>
       <c r="K81" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6545,7 +6545,7 @@
         <v>135</v>
       </c>
       <c r="K82" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6574,7 +6574,7 @@
         <v>85</v>
       </c>
       <c r="K83" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6603,7 +6603,7 @@
         <v>85</v>
       </c>
       <c r="K84" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6632,7 +6632,7 @@
         <v>85</v>
       </c>
       <c r="K85" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6661,7 +6661,7 @@
         <v>85</v>
       </c>
       <c r="K86" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6690,7 +6690,7 @@
         <v>85</v>
       </c>
       <c r="K87" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6719,7 +6719,7 @@
         <v>85</v>
       </c>
       <c r="K88" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6748,7 +6748,7 @@
         <v>85</v>
       </c>
       <c r="K89" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6777,7 +6777,7 @@
         <v>85</v>
       </c>
       <c r="K90" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6806,7 +6806,7 @@
         <v>85</v>
       </c>
       <c r="K91" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6835,7 +6835,7 @@
         <v>85</v>
       </c>
       <c r="K92" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6864,7 +6864,7 @@
         <v>85</v>
       </c>
       <c r="K93" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6893,7 +6893,7 @@
         <v>85</v>
       </c>
       <c r="K94" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6922,7 +6922,7 @@
         <v>85</v>
       </c>
       <c r="K95" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6951,7 +6951,7 @@
         <v>85</v>
       </c>
       <c r="K96" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6980,7 +6980,7 @@
         <v>85</v>
       </c>
       <c r="K97" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7009,7 +7009,7 @@
         <v>85</v>
       </c>
       <c r="K98" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7038,7 +7038,7 @@
         <v>85</v>
       </c>
       <c r="K99" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7067,7 +7067,7 @@
         <v>85</v>
       </c>
       <c r="K100" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7096,7 +7096,7 @@
         <v>85</v>
       </c>
       <c r="K101" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7125,7 +7125,7 @@
         <v>85</v>
       </c>
       <c r="K102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7154,7 +7154,7 @@
         <v>85</v>
       </c>
       <c r="K103" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7183,7 +7183,7 @@
         <v>85</v>
       </c>
       <c r="K104" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7212,7 +7212,7 @@
         <v>85</v>
       </c>
       <c r="K105" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7241,7 +7241,7 @@
         <v>85</v>
       </c>
       <c r="K106" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7270,7 +7270,7 @@
         <v>85</v>
       </c>
       <c r="K107" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7299,7 +7299,7 @@
         <v>134</v>
       </c>
       <c r="K108" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7328,7 +7328,7 @@
         <v>134</v>
       </c>
       <c r="K109" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7357,7 +7357,7 @@
         <v>134</v>
       </c>
       <c r="K110" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7386,7 +7386,7 @@
         <v>134</v>
       </c>
       <c r="K111" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7415,7 +7415,7 @@
         <v>134</v>
       </c>
       <c r="K112" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7444,7 +7444,7 @@
         <v>134</v>
       </c>
       <c r="K113" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7476,7 +7476,7 @@
         <v>241</v>
       </c>
       <c r="K114" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7508,7 +7508,7 @@
         <v>242</v>
       </c>
       <c r="K115" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7540,7 +7540,7 @@
         <v>242</v>
       </c>
       <c r="K116" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7572,7 +7572,7 @@
         <v>242</v>
       </c>
       <c r="K117" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7604,7 +7604,7 @@
         <v>242</v>
       </c>
       <c r="K118" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7636,7 +7636,7 @@
         <v>243</v>
       </c>
       <c r="K119" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7668,7 +7668,7 @@
         <v>243</v>
       </c>
       <c r="K120" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7700,7 +7700,7 @@
         <v>243</v>
       </c>
       <c r="K121" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7729,7 +7729,7 @@
         <v>244</v>
       </c>
       <c r="K122" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7758,7 +7758,7 @@
         <v>244</v>
       </c>
       <c r="K123" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7787,7 +7787,7 @@
         <v>244</v>
       </c>
       <c r="K124" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7816,7 +7816,7 @@
         <v>244</v>
       </c>
       <c r="K125" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7845,7 +7845,7 @@
         <v>244</v>
       </c>
       <c r="K126" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7874,7 +7874,7 @@
         <v>244</v>
       </c>
       <c r="K127" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7903,7 +7903,7 @@
         <v>134</v>
       </c>
       <c r="K128" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7935,7 +7935,7 @@
         <v>240</v>
       </c>
       <c r="K129" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7967,7 +7967,7 @@
         <v>240</v>
       </c>
       <c r="K130" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7999,7 +7999,7 @@
         <v>240</v>
       </c>
       <c r="K131" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8028,7 +8028,7 @@
         <v>134</v>
       </c>
       <c r="K132" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8057,7 +8057,7 @@
         <v>134</v>
       </c>
       <c r="K133" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8086,7 +8086,7 @@
         <v>134</v>
       </c>
       <c r="K134" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8115,7 +8115,7 @@
         <v>134</v>
       </c>
       <c r="K135" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8144,7 +8144,7 @@
         <v>134</v>
       </c>
       <c r="K136" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8173,7 +8173,7 @@
         <v>134</v>
       </c>
       <c r="K137" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8202,7 +8202,7 @@
         <v>134</v>
       </c>
       <c r="K138" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8231,7 +8231,7 @@
         <v>134</v>
       </c>
       <c r="K139" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8260,7 +8260,7 @@
         <v>134</v>
       </c>
       <c r="K140" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8289,7 +8289,7 @@
         <v>134</v>
       </c>
       <c r="K141" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8318,7 +8318,7 @@
         <v>134</v>
       </c>
       <c r="K142" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8347,7 +8347,7 @@
         <v>134</v>
       </c>
       <c r="K143" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8376,7 +8376,7 @@
         <v>134</v>
       </c>
       <c r="K144" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8405,7 +8405,7 @@
         <v>134</v>
       </c>
       <c r="K145" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8434,7 +8434,7 @@
         <v>134</v>
       </c>
       <c r="K146" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8463,7 +8463,7 @@
         <v>134</v>
       </c>
       <c r="K147" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8492,7 +8492,7 @@
         <v>134</v>
       </c>
       <c r="K148" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8521,7 +8521,7 @@
         <v>134</v>
       </c>
       <c r="K149" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8553,7 +8553,7 @@
         <v>83</v>
       </c>
       <c r="K150" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8585,7 +8585,7 @@
         <v>83</v>
       </c>
       <c r="K151" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8617,7 +8617,7 @@
         <v>83</v>
       </c>
       <c r="K152" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8649,7 +8649,7 @@
         <v>83</v>
       </c>
       <c r="K153" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8681,7 +8681,7 @@
         <v>83</v>
       </c>
       <c r="K154" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8713,7 +8713,7 @@
         <v>83</v>
       </c>
       <c r="K155" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8745,7 +8745,7 @@
         <v>83</v>
       </c>
       <c r="K156" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8777,7 +8777,7 @@
         <v>83</v>
       </c>
       <c r="K157" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8809,7 +8809,7 @@
         <v>83</v>
       </c>
       <c r="K158" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8841,7 +8841,7 @@
         <v>83</v>
       </c>
       <c r="K159" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8873,7 +8873,7 @@
         <v>83</v>
       </c>
       <c r="K160" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8905,7 +8905,7 @@
         <v>83</v>
       </c>
       <c r="K161" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8937,7 +8937,7 @@
         <v>83</v>
       </c>
       <c r="K162" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8969,7 +8969,7 @@
         <v>83</v>
       </c>
       <c r="K163" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9001,7 +9001,7 @@
         <v>83</v>
       </c>
       <c r="K164" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9033,7 +9033,7 @@
         <v>83</v>
       </c>
       <c r="K165" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9065,7 +9065,7 @@
         <v>83</v>
       </c>
       <c r="K166" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9097,7 +9097,7 @@
         <v>83</v>
       </c>
       <c r="K167" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9126,7 +9126,7 @@
         <v>134</v>
       </c>
       <c r="K168" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9158,7 +9158,7 @@
         <v>242</v>
       </c>
       <c r="K169" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9187,7 +9187,7 @@
         <v>244</v>
       </c>
       <c r="K170" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9219,7 +9219,7 @@
         <v>240</v>
       </c>
       <c r="K171" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9248,7 +9248,7 @@
         <v>134</v>
       </c>
       <c r="K172" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9277,7 +9277,7 @@
         <v>134</v>
       </c>
       <c r="K173" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9312,7 +9312,7 @@
         <v>255</v>
       </c>
       <c r="K174" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9347,7 +9347,7 @@
         <v>256</v>
       </c>
       <c r="K175" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9382,7 +9382,7 @@
         <v>257</v>
       </c>
       <c r="K176" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="177" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -9417,7 +9417,7 @@
         <v>264</v>
       </c>
       <c r="K177" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L177" s="16"/>
       <c r="M177" s="16"/>
@@ -9466,7 +9466,7 @@
         <v>258</v>
       </c>
       <c r="K178" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="179" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -9501,7 +9501,7 @@
         <v>259</v>
       </c>
       <c r="K179" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="180" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -9536,7 +9536,7 @@
         <v>260</v>
       </c>
       <c r="K180" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="181" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -9571,7 +9571,7 @@
         <v>261</v>
       </c>
       <c r="K181" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="182" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -9606,7 +9606,7 @@
         <v>262</v>
       </c>
       <c r="K182" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L182" s="16"/>
       <c r="M182" s="16"/>
@@ -9655,7 +9655,7 @@
         <v>288</v>
       </c>
       <c r="K183" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="184" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -9690,7 +9690,7 @@
         <v>289</v>
       </c>
       <c r="K184" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="185" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -9725,7 +9725,7 @@
         <v>263</v>
       </c>
       <c r="K185" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="186" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -9761,7 +9761,7 @@
         <v>100*(57.5-metric)/57.5</v>
       </c>
       <c r="K186" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="187" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -9797,7 +9797,7 @@
         <v>100*(19.5-metric)/19.5</v>
       </c>
       <c r="K187" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="188" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -9833,7 +9833,7 @@
         <v>100*(metric-0)/20.6</v>
       </c>
       <c r="K188" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="189" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -9869,7 +9869,7 @@
         <v>100*(metric-0)/58.6</v>
       </c>
       <c r="K189" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="190" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -9905,7 +9905,7 @@
         <v>100*(metric-0)/16.7</v>
       </c>
       <c r="K190" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="191" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -9941,7 +9941,7 @@
         <v>100*(metric-0)/17.1</v>
       </c>
       <c r="K191" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="192" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -9977,7 +9977,7 @@
         <v>100*(metric-0.4)/4.6</v>
       </c>
       <c r="K192" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="193" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -10013,7 +10013,7 @@
         <v>100*(metric-0)/33</v>
       </c>
       <c r="K193" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="194" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -10049,7 +10049,7 @@
         <v>100*(metric-10)/190</v>
       </c>
       <c r="K194" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="195" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -10085,7 +10085,7 @@
         <v>100*(metric-1)/6.1</v>
       </c>
       <c r="K195" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="196" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -10121,7 +10121,7 @@
         <v>100*(metric-0)/51.2</v>
       </c>
       <c r="K196" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="197" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -10157,7 +10157,7 @@
         <v>100*(metric-1)/7</v>
       </c>
       <c r="K197" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="198" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -10193,7 +10193,7 @@
         <v>100*(11-metric)/11</v>
       </c>
       <c r="K198" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="199" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -10229,7 +10229,7 @@
         <v>100*(metric-0)/65.1</v>
       </c>
       <c r="K199" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="200" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -10265,7 +10265,7 @@
         <v>100*(18.1-metric)/18.1</v>
       </c>
       <c r="K200" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="201" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -10301,7 +10301,7 @@
         <v>100*(metric-0)/38.4</v>
       </c>
       <c r="K201" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="202" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -10337,7 +10337,7 @@
         <v>100*(metric-19.3)/50.9</v>
       </c>
       <c r="K202" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="203" spans="1:22" x14ac:dyDescent="0.25">
@@ -10345,10 +10345,10 @@
         <v>331</v>
       </c>
       <c r="B203" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C203" t="s">
-        <v>332</v>
+        <v>413</v>
       </c>
       <c r="D203" t="s">
         <v>15</v>
@@ -10363,13 +10363,13 @@
         <v>83</v>
       </c>
       <c r="H203" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I203" s="10">
         <v>1</v>
       </c>
       <c r="K203" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L203" t="s">
         <v>83</v>
@@ -10381,7 +10381,7 @@
         <v>83</v>
       </c>
       <c r="O203" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P203" s="20" t="s">
         <v>83</v>
@@ -10405,15 +10405,15 @@
         <v>11.86</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>331</v>
       </c>
       <c r="B204" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C204" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D204" t="s">
         <v>15</v>
@@ -10430,13 +10430,13 @@
         <v>2.7</v>
       </c>
       <c r="H204" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I204" s="10">
         <v>2</v>
       </c>
       <c r="K204" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L204" t="s">
         <v>83</v>
@@ -10448,7 +10448,7 @@
         <v>83</v>
       </c>
       <c r="O204" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P204" s="20" t="str">
         <f>TEXT(ROUND(LOG10(30),2),"0.00")</f>
@@ -10473,15 +10473,15 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>331</v>
       </c>
       <c r="B205" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C205" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D205" t="s">
         <v>15</v>
@@ -10496,57 +10496,57 @@
         <v>83</v>
       </c>
       <c r="H205" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="I205" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K205" t="s">
+        <v>352</v>
+      </c>
+      <c r="L205" t="s">
+        <v>83</v>
+      </c>
+      <c r="M205" t="s">
+        <v>83</v>
+      </c>
+      <c r="N205" t="s">
+        <v>83</v>
+      </c>
+      <c r="O205" t="s">
         <v>339</v>
       </c>
-      <c r="I205" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="K205" t="s">
-        <v>353</v>
-      </c>
-      <c r="L205" t="s">
-        <v>83</v>
-      </c>
-      <c r="M205" t="s">
-        <v>83</v>
-      </c>
-      <c r="N205" t="s">
-        <v>83</v>
-      </c>
-      <c r="O205" t="s">
-        <v>340</v>
-      </c>
       <c r="P205" s="20" t="s">
         <v>83</v>
       </c>
       <c r="Q205" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="R205" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="R205" s="21" t="s">
+      <c r="S205" t="s">
+        <v>83</v>
+      </c>
+      <c r="T205" t="s">
+        <v>83</v>
+      </c>
+      <c r="U205" s="21" t="s">
         <v>377</v>
-      </c>
-      <c r="S205" t="s">
-        <v>83</v>
-      </c>
-      <c r="T205" t="s">
-        <v>83</v>
-      </c>
-      <c r="U205" s="21" t="s">
-        <v>378</v>
       </c>
       <c r="V205">
         <v>2.25</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>331</v>
       </c>
       <c r="B206" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C206" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D206" t="s">
         <v>15</v>
@@ -10561,13 +10561,13 @@
         <v>83</v>
       </c>
       <c r="H206" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I206" s="10">
         <v>4</v>
       </c>
       <c r="K206" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L206" t="s">
         <v>83</v>
@@ -10579,7 +10579,7 @@
         <v>83</v>
       </c>
       <c r="O206" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P206" s="20" t="s">
         <v>83</v>
@@ -10603,15 +10603,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>331</v>
       </c>
       <c r="B207" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C207" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D207" t="s">
         <v>15</v>
@@ -10626,13 +10626,13 @@
         <v>83</v>
       </c>
       <c r="H207" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I207" s="10">
         <v>5</v>
       </c>
       <c r="K207" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L207" t="s">
         <v>83</v>
@@ -10644,7 +10644,7 @@
         <v>83</v>
       </c>
       <c r="O207" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P207" s="20" t="s">
         <v>83</v>
@@ -10668,15 +10668,15 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>331</v>
       </c>
       <c r="B208" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C208" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D208" t="s">
         <v>15</v>
@@ -10691,25 +10691,25 @@
         <v>83</v>
       </c>
       <c r="H208" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="I208" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="K208" t="s">
+        <v>352</v>
+      </c>
+      <c r="L208" t="s">
+        <v>83</v>
+      </c>
+      <c r="M208" t="s">
+        <v>83</v>
+      </c>
+      <c r="N208" t="s">
+        <v>83</v>
+      </c>
+      <c r="O208" t="s">
         <v>339</v>
-      </c>
-      <c r="I208" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="K208" t="s">
-        <v>353</v>
-      </c>
-      <c r="L208" t="s">
-        <v>83</v>
-      </c>
-      <c r="M208" t="s">
-        <v>83</v>
-      </c>
-      <c r="N208" t="s">
-        <v>83</v>
-      </c>
-      <c r="O208" t="s">
-        <v>340</v>
       </c>
       <c r="P208" s="20" t="s">
         <v>83</v>
@@ -10733,15 +10733,15 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>331</v>
       </c>
       <c r="B209" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C209" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D209" t="s">
         <v>15</v>
@@ -10762,7 +10762,7 @@
         <v>7</v>
       </c>
       <c r="K209" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L209" t="s">
         <v>83</v>
@@ -10792,15 +10792,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>331</v>
       </c>
       <c r="B210" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C210" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D210" t="s">
         <v>30</v>
@@ -10821,7 +10821,7 @@
         <v>8</v>
       </c>
       <c r="K210" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L210" t="s">
         <v>83</v>
@@ -10857,15 +10857,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>331</v>
       </c>
       <c r="B211" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C211" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D211" t="s">
         <v>15</v>
@@ -10886,7 +10886,7 @@
         <v>9</v>
       </c>
       <c r="K211" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L211" t="s">
         <v>83</v>
@@ -10922,15 +10922,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>331</v>
       </c>
       <c r="B212" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C212" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D212" t="s">
         <v>30</v>
@@ -10948,10 +10948,10 @@
         <v>84</v>
       </c>
       <c r="I212" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K212" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L212" t="s">
         <v>83</v>
@@ -10987,15 +10987,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>331</v>
       </c>
       <c r="B213" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C213" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D213" t="s">
         <v>15</v>
@@ -11016,7 +11016,7 @@
         <v>11</v>
       </c>
       <c r="K213" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L213" t="s">
         <v>83</v>
@@ -11052,15 +11052,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>331</v>
       </c>
       <c r="B214" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C214" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D214" t="s">
         <v>83</v>
@@ -11075,13 +11075,13 @@
         <v>1.2</v>
       </c>
       <c r="H214" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I214" s="10">
         <v>13</v>
       </c>
       <c r="K214" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L214">
         <v>-4</v>
@@ -11122,10 +11122,10 @@
         <v>331</v>
       </c>
       <c r="B215" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C215" t="s">
-        <v>332</v>
+        <v>413</v>
       </c>
       <c r="D215" t="s">
         <v>15</v>
@@ -11140,13 +11140,13 @@
         <v>83</v>
       </c>
       <c r="H215" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I215" s="10">
         <v>1</v>
       </c>
       <c r="K215" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L215" t="s">
         <v>83</v>
@@ -11158,7 +11158,7 @@
         <v>83</v>
       </c>
       <c r="O215" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P215" s="20" t="s">
         <v>83</v>
@@ -11182,15 +11182,15 @@
         <v>11.86</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>331</v>
       </c>
       <c r="B216" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C216" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D216" t="s">
         <v>15</v>
@@ -11207,13 +11207,13 @@
         <v>2.7</v>
       </c>
       <c r="H216" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I216" s="10">
         <v>2</v>
       </c>
       <c r="K216" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L216" t="s">
         <v>83</v>
@@ -11225,7 +11225,7 @@
         <v>83</v>
       </c>
       <c r="O216" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P216" s="20" t="str">
         <f>TEXT(ROUND(LOG10(30),2),"0.00")</f>
@@ -11250,15 +11250,15 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>331</v>
       </c>
       <c r="B217" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C217" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D217" t="s">
         <v>15</v>
@@ -11275,25 +11275,25 @@
         <v>7.45</v>
       </c>
       <c r="H217" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="I217" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="K217" t="s">
+        <v>352</v>
+      </c>
+      <c r="L217" t="s">
+        <v>83</v>
+      </c>
+      <c r="M217" t="s">
+        <v>83</v>
+      </c>
+      <c r="N217" t="s">
+        <v>83</v>
+      </c>
+      <c r="O217" t="s">
         <v>339</v>
-      </c>
-      <c r="I217" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="K217" t="s">
-        <v>353</v>
-      </c>
-      <c r="L217" t="s">
-        <v>83</v>
-      </c>
-      <c r="M217" t="s">
-        <v>83</v>
-      </c>
-      <c r="N217" t="s">
-        <v>83</v>
-      </c>
-      <c r="O217" t="s">
-        <v>340</v>
       </c>
       <c r="P217" s="20" t="str">
         <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
@@ -11303,7 +11303,7 @@
         <v>0.78</v>
       </c>
       <c r="R217" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S217" t="s">
         <v>83</v>
@@ -11312,21 +11312,21 @@
         <v>83</v>
       </c>
       <c r="U217" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="V217">
         <v>5.53</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>331</v>
       </c>
       <c r="B218" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C218" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D218" t="s">
         <v>15</v>
@@ -11341,13 +11341,13 @@
         <v>83</v>
       </c>
       <c r="H218" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I218" s="10">
         <v>4</v>
       </c>
       <c r="K218" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L218" t="s">
         <v>83</v>
@@ -11359,7 +11359,7 @@
         <v>83</v>
       </c>
       <c r="O218" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P218" s="20" t="s">
         <v>83</v>
@@ -11383,15 +11383,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>331</v>
       </c>
       <c r="B219" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C219" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D219" t="s">
         <v>15</v>
@@ -11406,13 +11406,13 @@
         <v>83</v>
       </c>
       <c r="H219" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I219" s="10">
         <v>5</v>
       </c>
       <c r="K219" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L219" t="s">
         <v>83</v>
@@ -11424,7 +11424,7 @@
         <v>83</v>
       </c>
       <c r="O219" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P219" s="20" t="s">
         <v>83</v>
@@ -11448,12 +11448,12 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>331</v>
       </c>
       <c r="B220" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C220" t="s">
         <v>69</v>
@@ -11473,35 +11473,35 @@
         <v>4.57</v>
       </c>
       <c r="H220" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="I220" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="K220" t="s">
+        <v>352</v>
+      </c>
+      <c r="L220" t="s">
+        <v>83</v>
+      </c>
+      <c r="M220" t="s">
+        <v>83</v>
+      </c>
+      <c r="N220" t="s">
+        <v>83</v>
+      </c>
+      <c r="O220" t="s">
         <v>339</v>
-      </c>
-      <c r="I220" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="K220" t="s">
-        <v>353</v>
-      </c>
-      <c r="L220" t="s">
-        <v>83</v>
-      </c>
-      <c r="M220" t="s">
-        <v>83</v>
-      </c>
-      <c r="N220" t="s">
-        <v>83</v>
-      </c>
-      <c r="O220" t="s">
-        <v>340</v>
       </c>
       <c r="P220" s="20" t="str">
         <f>TEXT(ROUND(LOG10(100),2),"0.00")</f>
         <v>2.00</v>
       </c>
       <c r="Q220" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R220" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S220" t="s">
         <v>83</v>
@@ -11510,21 +11510,21 @@
         <v>83</v>
       </c>
       <c r="U220" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="V220">
         <v>2.33</v>
       </c>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>331</v>
       </c>
       <c r="B221" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C221" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D221" t="s">
         <v>15</v>
@@ -11545,7 +11545,7 @@
         <v>7</v>
       </c>
       <c r="K221" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L221" t="s">
         <v>83</v>
@@ -11581,15 +11581,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>331</v>
       </c>
       <c r="B222" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C222" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D222" t="s">
         <v>30</v>
@@ -11610,7 +11610,7 @@
         <v>8</v>
       </c>
       <c r="K222" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L222" t="s">
         <v>83</v>
@@ -11646,15 +11646,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>331</v>
       </c>
       <c r="B223" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C223" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D223" t="s">
         <v>15</v>
@@ -11675,7 +11675,7 @@
         <v>9</v>
       </c>
       <c r="K223" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L223" t="s">
         <v>83</v>
@@ -11711,15 +11711,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>331</v>
       </c>
       <c r="B224" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C224" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D224" t="s">
         <v>83</v>
@@ -11734,13 +11734,13 @@
         <v>9.5</v>
       </c>
       <c r="H224" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I224" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K224" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L224" s="17" t="s">
         <v>83</v>
@@ -11776,15 +11776,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>331</v>
       </c>
       <c r="B225" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C225" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D225" t="s">
         <v>15</v>
@@ -11805,7 +11805,7 @@
         <v>11</v>
       </c>
       <c r="K225" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L225" t="s">
         <v>83</v>
@@ -11841,15 +11841,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>331</v>
       </c>
       <c r="B226" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C226" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D226" t="s">
         <v>83</v>
@@ -11864,13 +11864,13 @@
         <v>1.2</v>
       </c>
       <c r="H226" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I226" s="10">
         <v>13</v>
       </c>
       <c r="K226" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L226">
         <v>-4</v>
@@ -11911,10 +11911,10 @@
         <v>331</v>
       </c>
       <c r="B227" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C227" t="s">
-        <v>332</v>
+        <v>413</v>
       </c>
       <c r="D227" t="s">
         <v>15</v>
@@ -11929,13 +11929,13 @@
         <v>83</v>
       </c>
       <c r="H227" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I227" s="10">
         <v>1</v>
       </c>
       <c r="K227" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L227" t="s">
         <v>83</v>
@@ -11947,7 +11947,7 @@
         <v>83</v>
       </c>
       <c r="O227" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P227" t="s">
         <v>83</v>
@@ -11971,15 +11971,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>331</v>
       </c>
       <c r="B228" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C228" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D228" t="s">
         <v>15</v>
@@ -11996,13 +11996,13 @@
         <v>5.73</v>
       </c>
       <c r="H228" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I228" s="10">
         <v>2</v>
       </c>
       <c r="K228" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L228" t="s">
         <v>83</v>
@@ -12014,7 +12014,7 @@
         <v>83</v>
       </c>
       <c r="O228" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P228" s="20" t="str">
         <f>TEXT(ROUND(LOG10(100),2),"0.00")</f>
@@ -12039,15 +12039,15 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>331</v>
       </c>
       <c r="B229" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C229" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D229" t="s">
         <v>15</v>
@@ -12062,25 +12062,25 @@
         <v>83</v>
       </c>
       <c r="H229" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="I229" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K229" t="s">
+        <v>352</v>
+      </c>
+      <c r="L229" t="s">
+        <v>83</v>
+      </c>
+      <c r="M229" t="s">
+        <v>83</v>
+      </c>
+      <c r="N229" t="s">
+        <v>83</v>
+      </c>
+      <c r="O229" t="s">
         <v>339</v>
-      </c>
-      <c r="I229" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="K229" t="s">
-        <v>353</v>
-      </c>
-      <c r="L229" t="s">
-        <v>83</v>
-      </c>
-      <c r="M229" t="s">
-        <v>83</v>
-      </c>
-      <c r="N229" t="s">
-        <v>83</v>
-      </c>
-      <c r="O229" t="s">
-        <v>340</v>
       </c>
       <c r="P229" t="s">
         <v>83</v>
@@ -12104,21 +12104,21 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>331</v>
       </c>
       <c r="B230" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C230" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D230" t="s">
         <v>15</v>
       </c>
       <c r="E230" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F230" t="s">
         <v>83</v>
@@ -12128,13 +12128,13 @@
         <v>4.71</v>
       </c>
       <c r="H230" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I230" s="10">
         <v>4</v>
       </c>
       <c r="K230" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L230" t="s">
         <v>83</v>
@@ -12146,7 +12146,7 @@
         <v>83</v>
       </c>
       <c r="O230" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P230" s="20" t="str">
         <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
@@ -12171,15 +12171,15 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>331</v>
       </c>
       <c r="B231" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C231" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D231" t="s">
         <v>15</v>
@@ -12196,13 +12196,13 @@
         <v>3.07</v>
       </c>
       <c r="H231" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I231" s="10">
         <v>5</v>
       </c>
       <c r="K231" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L231" t="s">
         <v>83</v>
@@ -12214,14 +12214,14 @@
         <v>83</v>
       </c>
       <c r="O231" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P231" s="20" t="str">
         <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
         <v>1.70</v>
       </c>
       <c r="Q231" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R231">
         <v>1.18</v>
@@ -12239,15 +12239,15 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="232" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>331</v>
       </c>
       <c r="B232" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C232" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D232" t="s">
         <v>15</v>
@@ -12262,25 +12262,25 @@
         <v>83</v>
       </c>
       <c r="H232" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="I232" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="K232" t="s">
+        <v>352</v>
+      </c>
+      <c r="L232" t="s">
+        <v>83</v>
+      </c>
+      <c r="M232" t="s">
+        <v>83</v>
+      </c>
+      <c r="N232" t="s">
+        <v>83</v>
+      </c>
+      <c r="O232" t="s">
         <v>339</v>
-      </c>
-      <c r="I232" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="K232" t="s">
-        <v>353</v>
-      </c>
-      <c r="L232" t="s">
-        <v>83</v>
-      </c>
-      <c r="M232" t="s">
-        <v>83</v>
-      </c>
-      <c r="N232" t="s">
-        <v>83</v>
-      </c>
-      <c r="O232" t="s">
-        <v>340</v>
       </c>
       <c r="P232" t="s">
         <v>83</v>
@@ -12304,15 +12304,15 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>331</v>
       </c>
       <c r="B233" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C233" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D233" t="s">
         <v>15</v>
@@ -12333,7 +12333,7 @@
         <v>7</v>
       </c>
       <c r="K233" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L233" t="s">
         <v>83</v>
@@ -12369,15 +12369,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="234" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>331</v>
       </c>
       <c r="B234" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C234" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D234" s="16" t="s">
         <v>30</v>
@@ -12398,7 +12398,7 @@
         <v>8</v>
       </c>
       <c r="K234" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L234" t="s">
         <v>83</v>
@@ -12434,15 +12434,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>331</v>
       </c>
       <c r="B235" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C235" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D235" t="s">
         <v>15</v>
@@ -12463,7 +12463,7 @@
         <v>9</v>
       </c>
       <c r="K235" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L235" t="s">
         <v>83</v>
@@ -12499,15 +12499,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>331</v>
       </c>
       <c r="B236" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C236" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D236" s="16" t="s">
         <v>30</v>
@@ -12525,10 +12525,10 @@
         <v>84</v>
       </c>
       <c r="I236" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K236" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L236" t="s">
         <v>83</v>
@@ -12564,15 +12564,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>331</v>
       </c>
       <c r="B237" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C237" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D237" t="s">
         <v>15</v>
@@ -12593,7 +12593,7 @@
         <v>11</v>
       </c>
       <c r="K237" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L237" t="s">
         <v>83</v>
@@ -12629,15 +12629,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="238" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>331</v>
       </c>
       <c r="B238" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C238" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D238" t="s">
         <v>83</v>
@@ -12652,13 +12652,13 @@
         <v>1.2</v>
       </c>
       <c r="H238" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I238" s="10">
         <v>13</v>
       </c>
       <c r="K238" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L238">
         <v>-4</v>
@@ -12699,10 +12699,10 @@
         <v>331</v>
       </c>
       <c r="B239" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C239" t="s">
-        <v>332</v>
+        <v>413</v>
       </c>
       <c r="D239" t="s">
         <v>15</v>
@@ -12717,13 +12717,13 @@
         <v>83</v>
       </c>
       <c r="H239" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I239" s="10">
         <v>1</v>
       </c>
       <c r="K239" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L239" t="s">
         <v>83</v>
@@ -12735,7 +12735,7 @@
         <v>83</v>
       </c>
       <c r="O239" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P239" t="s">
         <v>83</v>
@@ -12759,15 +12759,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>331</v>
       </c>
       <c r="B240" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C240" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D240" t="s">
         <v>15</v>
@@ -12784,13 +12784,13 @@
         <v>5.73</v>
       </c>
       <c r="H240" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I240" s="10">
         <v>2</v>
       </c>
       <c r="K240" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L240" t="s">
         <v>83</v>
@@ -12802,7 +12802,7 @@
         <v>83</v>
       </c>
       <c r="O240" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P240" s="20" t="str">
         <f>TEXT(ROUND(LOG10(100),2),"0.00")</f>
@@ -12827,15 +12827,15 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>331</v>
       </c>
       <c r="B241" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C241" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D241" t="s">
         <v>15</v>
@@ -12852,25 +12852,25 @@
         <v>6.49</v>
       </c>
       <c r="H241" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="I241" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="K241" t="s">
+        <v>352</v>
+      </c>
+      <c r="L241" t="s">
+        <v>83</v>
+      </c>
+      <c r="M241" t="s">
+        <v>83</v>
+      </c>
+      <c r="N241" t="s">
+        <v>83</v>
+      </c>
+      <c r="O241" t="s">
         <v>339</v>
-      </c>
-      <c r="I241" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="K241" t="s">
-        <v>353</v>
-      </c>
-      <c r="L241" t="s">
-        <v>83</v>
-      </c>
-      <c r="M241" t="s">
-        <v>83</v>
-      </c>
-      <c r="N241" t="s">
-        <v>83</v>
-      </c>
-      <c r="O241" t="s">
-        <v>340</v>
       </c>
       <c r="P241" s="20" t="str">
         <f>TEXT(ROUND(LOG10(100),2),"0.00")</f>
@@ -12895,21 +12895,21 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>331</v>
       </c>
       <c r="B242" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C242" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D242" t="s">
         <v>15</v>
       </c>
       <c r="E242" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F242" t="s">
         <v>83</v>
@@ -12919,13 +12919,13 @@
         <v>4.71</v>
       </c>
       <c r="H242" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I242" s="10">
         <v>4</v>
       </c>
       <c r="K242" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L242" t="s">
         <v>83</v>
@@ -12937,7 +12937,7 @@
         <v>83</v>
       </c>
       <c r="O242" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P242" s="20" t="str">
         <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
@@ -12962,15 +12962,15 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>331</v>
       </c>
       <c r="B243" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C243" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D243" t="s">
         <v>15</v>
@@ -12987,13 +12987,13 @@
         <v>3.07</v>
       </c>
       <c r="H243" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I243" s="10">
         <v>5</v>
       </c>
       <c r="K243" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L243" t="s">
         <v>83</v>
@@ -13005,14 +13005,14 @@
         <v>83</v>
       </c>
       <c r="O243" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P243" s="20" t="str">
         <f>TEXT(ROUND(LOG10(50),2),"0.00")</f>
         <v>1.70</v>
       </c>
       <c r="Q243" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R243">
         <v>1.18</v>
@@ -13030,12 +13030,12 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>331</v>
       </c>
       <c r="B244" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C244" t="s">
         <v>69</v>
@@ -13053,25 +13053,25 @@
         <v>83</v>
       </c>
       <c r="H244" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="I244" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="K244" t="s">
+        <v>352</v>
+      </c>
+      <c r="L244" t="s">
+        <v>83</v>
+      </c>
+      <c r="M244" t="s">
+        <v>83</v>
+      </c>
+      <c r="N244" t="s">
+        <v>83</v>
+      </c>
+      <c r="O244" t="s">
         <v>339</v>
-      </c>
-      <c r="I244" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="K244" t="s">
-        <v>353</v>
-      </c>
-      <c r="L244" t="s">
-        <v>83</v>
-      </c>
-      <c r="M244" t="s">
-        <v>83</v>
-      </c>
-      <c r="N244" t="s">
-        <v>83</v>
-      </c>
-      <c r="O244" t="s">
-        <v>340</v>
       </c>
       <c r="P244" t="s">
         <v>83</v>
@@ -13089,21 +13089,21 @@
         <v>83</v>
       </c>
       <c r="U244" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="V244">
         <v>2.27</v>
       </c>
     </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>331</v>
       </c>
       <c r="B245" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C245" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D245" t="s">
         <v>15</v>
@@ -13124,7 +13124,7 @@
         <v>7</v>
       </c>
       <c r="K245" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L245" t="s">
         <v>83</v>
@@ -13160,15 +13160,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>331</v>
       </c>
       <c r="B246" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C246" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D246" s="16" t="s">
         <v>30</v>
@@ -13189,7 +13189,7 @@
         <v>8</v>
       </c>
       <c r="K246" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L246" t="s">
         <v>83</v>
@@ -13225,15 +13225,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>331</v>
       </c>
       <c r="B247" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C247" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D247" t="s">
         <v>15</v>
@@ -13254,7 +13254,7 @@
         <v>9</v>
       </c>
       <c r="K247" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L247" t="s">
         <v>83</v>
@@ -13290,15 +13290,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>331</v>
       </c>
       <c r="B248" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C248" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D248" t="s">
         <v>83</v>
@@ -13313,13 +13313,13 @@
         <v>9.5</v>
       </c>
       <c r="H248" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I248" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K248" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L248" s="17" t="s">
         <v>83</v>
@@ -13355,15 +13355,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>331</v>
       </c>
       <c r="B249" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C249" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D249" t="s">
         <v>15</v>
@@ -13384,7 +13384,7 @@
         <v>11</v>
       </c>
       <c r="K249" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L249" t="s">
         <v>83</v>
@@ -13420,15 +13420,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>331</v>
       </c>
       <c r="B250" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C250" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D250" t="s">
         <v>83</v>
@@ -13443,13 +13443,13 @@
         <v>1.2</v>
       </c>
       <c r="H250" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I250" s="10">
         <v>13</v>
       </c>
       <c r="K250" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L250">
         <v>-4</v>
@@ -13490,10 +13490,10 @@
         <v>331</v>
       </c>
       <c r="B251" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C251" t="s">
-        <v>332</v>
+        <v>413</v>
       </c>
       <c r="D251" t="s">
         <v>15</v>
@@ -13508,13 +13508,13 @@
         <v>83</v>
       </c>
       <c r="H251" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I251" s="10">
         <v>1</v>
       </c>
       <c r="K251" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L251" t="s">
         <v>83</v>
@@ -13526,7 +13526,7 @@
         <v>83</v>
       </c>
       <c r="O251" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P251" t="s">
         <v>83</v>
@@ -13544,21 +13544,21 @@
         <v>83</v>
       </c>
       <c r="U251" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="V251">
         <v>9.66</v>
       </c>
     </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>331</v>
       </c>
       <c r="B252" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C252" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D252" t="s">
         <v>15</v>
@@ -13573,13 +13573,13 @@
         <v>83</v>
       </c>
       <c r="H252" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I252" s="10">
         <v>2</v>
       </c>
       <c r="K252" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L252" t="s">
         <v>83</v>
@@ -13591,7 +13591,7 @@
         <v>83</v>
       </c>
       <c r="O252" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P252" t="s">
         <v>83</v>
@@ -13615,15 +13615,15 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>331</v>
       </c>
       <c r="B253" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C253" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D253" t="s">
         <v>15</v>
@@ -13638,25 +13638,25 @@
         <v>83</v>
       </c>
       <c r="H253" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="I253" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K253" t="s">
+        <v>352</v>
+      </c>
+      <c r="L253" t="s">
+        <v>83</v>
+      </c>
+      <c r="M253" t="s">
+        <v>83</v>
+      </c>
+      <c r="N253" t="s">
+        <v>83</v>
+      </c>
+      <c r="O253" t="s">
         <v>339</v>
-      </c>
-      <c r="I253" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="K253" t="s">
-        <v>353</v>
-      </c>
-      <c r="L253" t="s">
-        <v>83</v>
-      </c>
-      <c r="M253" t="s">
-        <v>83</v>
-      </c>
-      <c r="N253" t="s">
-        <v>83</v>
-      </c>
-      <c r="O253" t="s">
-        <v>340</v>
       </c>
       <c r="P253" t="s">
         <v>83</v>
@@ -13680,15 +13680,15 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>331</v>
       </c>
       <c r="B254" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C254" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D254" t="s">
         <v>15</v>
@@ -13703,13 +13703,13 @@
         <v>83</v>
       </c>
       <c r="H254" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I254" s="10">
         <v>4</v>
       </c>
       <c r="K254" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L254" t="s">
         <v>83</v>
@@ -13721,7 +13721,7 @@
         <v>83</v>
       </c>
       <c r="O254" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P254" t="s">
         <v>83</v>
@@ -13745,15 +13745,15 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>331</v>
       </c>
       <c r="B255" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C255" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D255" t="s">
         <v>15</v>
@@ -13768,13 +13768,13 @@
         <v>83</v>
       </c>
       <c r="H255" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I255" s="10">
         <v>5</v>
       </c>
       <c r="K255" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L255" t="s">
         <v>83</v>
@@ -13786,7 +13786,7 @@
         <v>83</v>
       </c>
       <c r="O255" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P255" t="s">
         <v>83</v>
@@ -13810,15 +13810,15 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>331</v>
       </c>
       <c r="B256" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C256" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D256" t="s">
         <v>15</v>
@@ -13833,25 +13833,25 @@
         <v>83</v>
       </c>
       <c r="H256" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="I256" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="K256" t="s">
+        <v>352</v>
+      </c>
+      <c r="L256" t="s">
+        <v>83</v>
+      </c>
+      <c r="M256" t="s">
+        <v>83</v>
+      </c>
+      <c r="N256" t="s">
+        <v>83</v>
+      </c>
+      <c r="O256" t="s">
         <v>339</v>
-      </c>
-      <c r="I256" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="K256" t="s">
-        <v>353</v>
-      </c>
-      <c r="L256" t="s">
-        <v>83</v>
-      </c>
-      <c r="M256" t="s">
-        <v>83</v>
-      </c>
-      <c r="N256" t="s">
-        <v>83</v>
-      </c>
-      <c r="O256" t="s">
-        <v>340</v>
       </c>
       <c r="P256" t="s">
         <v>83</v>
@@ -13875,15 +13875,15 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>331</v>
       </c>
       <c r="B257" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C257" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D257" t="s">
         <v>15</v>
@@ -13904,7 +13904,7 @@
         <v>7</v>
       </c>
       <c r="K257" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L257" t="s">
         <v>83</v>
@@ -13940,15 +13940,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>331</v>
       </c>
       <c r="B258" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C258" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D258" s="16" t="s">
         <v>30</v>
@@ -13969,7 +13969,7 @@
         <v>8</v>
       </c>
       <c r="K258" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L258" t="s">
         <v>83</v>
@@ -14005,15 +14005,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>331</v>
       </c>
       <c r="B259" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C259" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D259" t="s">
         <v>15</v>
@@ -14034,7 +14034,7 @@
         <v>9</v>
       </c>
       <c r="K259" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L259" t="s">
         <v>83</v>
@@ -14070,15 +14070,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>331</v>
       </c>
       <c r="B260" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C260" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D260" s="16" t="s">
         <v>30</v>
@@ -14096,10 +14096,10 @@
         <v>84</v>
       </c>
       <c r="I260" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K260" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L260" t="s">
         <v>83</v>
@@ -14135,15 +14135,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>331</v>
       </c>
       <c r="B261" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C261" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D261" t="s">
         <v>15</v>
@@ -14164,7 +14164,7 @@
         <v>11</v>
       </c>
       <c r="K261" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L261" t="s">
         <v>83</v>
@@ -14200,15 +14200,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>331</v>
       </c>
       <c r="B262" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C262" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D262" t="s">
         <v>83</v>
@@ -14223,13 +14223,13 @@
         <v>1.2</v>
       </c>
       <c r="H262" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I262" s="10">
         <v>13</v>
       </c>
       <c r="K262" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L262">
         <v>-4</v>
@@ -14270,10 +14270,10 @@
         <v>331</v>
       </c>
       <c r="B263" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C263" t="s">
-        <v>332</v>
+        <v>413</v>
       </c>
       <c r="D263" t="s">
         <v>15</v>
@@ -14288,13 +14288,13 @@
         <v>83</v>
       </c>
       <c r="H263" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I263" s="10">
         <v>1</v>
       </c>
       <c r="K263" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L263" t="s">
         <v>83</v>
@@ -14306,7 +14306,7 @@
         <v>83</v>
       </c>
       <c r="O263" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P263" t="s">
         <v>83</v>
@@ -14324,21 +14324,21 @@
         <v>83</v>
       </c>
       <c r="U263" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="V263">
         <v>9.66</v>
       </c>
     </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>331</v>
       </c>
       <c r="B264" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C264" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D264" t="s">
         <v>15</v>
@@ -14353,13 +14353,13 @@
         <v>83</v>
       </c>
       <c r="H264" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I264" s="10">
         <v>2</v>
       </c>
       <c r="K264" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L264" t="s">
         <v>83</v>
@@ -14371,7 +14371,7 @@
         <v>83</v>
       </c>
       <c r="O264" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P264" t="s">
         <v>83</v>
@@ -14395,15 +14395,15 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>331</v>
       </c>
       <c r="B265" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C265" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D265" t="s">
         <v>15</v>
@@ -14418,25 +14418,25 @@
         <v>83</v>
       </c>
       <c r="H265" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="I265" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="K265" t="s">
+        <v>352</v>
+      </c>
+      <c r="L265" t="s">
+        <v>83</v>
+      </c>
+      <c r="M265" t="s">
+        <v>83</v>
+      </c>
+      <c r="N265" t="s">
+        <v>83</v>
+      </c>
+      <c r="O265" t="s">
         <v>339</v>
-      </c>
-      <c r="I265" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="K265" t="s">
-        <v>353</v>
-      </c>
-      <c r="L265" t="s">
-        <v>83</v>
-      </c>
-      <c r="M265" t="s">
-        <v>83</v>
-      </c>
-      <c r="N265" t="s">
-        <v>83</v>
-      </c>
-      <c r="O265" t="s">
-        <v>340</v>
       </c>
       <c r="P265" t="s">
         <v>83</v>
@@ -14460,15 +14460,15 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>331</v>
       </c>
       <c r="B266" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C266" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D266" t="s">
         <v>15</v>
@@ -14483,13 +14483,13 @@
         <v>83</v>
       </c>
       <c r="H266" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I266" s="10">
         <v>4</v>
       </c>
       <c r="K266" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L266" t="s">
         <v>83</v>
@@ -14501,7 +14501,7 @@
         <v>83</v>
       </c>
       <c r="O266" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P266" t="s">
         <v>83</v>
@@ -14525,15 +14525,15 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>331</v>
       </c>
       <c r="B267" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C267" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D267" t="s">
         <v>15</v>
@@ -14548,13 +14548,13 @@
         <v>83</v>
       </c>
       <c r="H267" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I267" s="10">
         <v>5</v>
       </c>
       <c r="K267" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L267" t="s">
         <v>83</v>
@@ -14566,7 +14566,7 @@
         <v>83</v>
       </c>
       <c r="O267" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P267" t="s">
         <v>83</v>
@@ -14590,12 +14590,12 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>331</v>
       </c>
       <c r="B268" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C268" t="s">
         <v>69</v>
@@ -14613,25 +14613,25 @@
         <v>83</v>
       </c>
       <c r="H268" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="I268" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="K268" t="s">
+        <v>352</v>
+      </c>
+      <c r="L268" t="s">
+        <v>83</v>
+      </c>
+      <c r="M268" t="s">
+        <v>83</v>
+      </c>
+      <c r="N268" t="s">
+        <v>83</v>
+      </c>
+      <c r="O268" t="s">
         <v>339</v>
-      </c>
-      <c r="I268" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="K268" t="s">
-        <v>353</v>
-      </c>
-      <c r="L268" t="s">
-        <v>83</v>
-      </c>
-      <c r="M268" t="s">
-        <v>83</v>
-      </c>
-      <c r="N268" t="s">
-        <v>83</v>
-      </c>
-      <c r="O268" t="s">
-        <v>340</v>
       </c>
       <c r="P268" t="s">
         <v>83</v>
@@ -14655,15 +14655,15 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>331</v>
       </c>
       <c r="B269" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C269" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D269" t="s">
         <v>15</v>
@@ -14684,7 +14684,7 @@
         <v>7</v>
       </c>
       <c r="K269" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L269" t="s">
         <v>83</v>
@@ -14720,15 +14720,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>331</v>
       </c>
       <c r="B270" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C270" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D270" s="16" t="s">
         <v>30</v>
@@ -14749,7 +14749,7 @@
         <v>8</v>
       </c>
       <c r="K270" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L270" t="s">
         <v>83</v>
@@ -14785,15 +14785,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>331</v>
       </c>
       <c r="B271" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C271" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D271" t="s">
         <v>15</v>
@@ -14814,7 +14814,7 @@
         <v>9</v>
       </c>
       <c r="K271" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L271" t="s">
         <v>83</v>
@@ -14850,15 +14850,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>331</v>
       </c>
       <c r="B272" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C272" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D272" t="s">
         <v>83</v>
@@ -14873,13 +14873,13 @@
         <v>9.5</v>
       </c>
       <c r="H272" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I272" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K272" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L272" s="17" t="s">
         <v>83</v>
@@ -14915,15 +14915,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>331</v>
       </c>
       <c r="B273" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C273" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D273" t="s">
         <v>15</v>
@@ -14944,7 +14944,7 @@
         <v>11</v>
       </c>
       <c r="K273" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L273" t="s">
         <v>83</v>
@@ -14980,15 +14980,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>331</v>
       </c>
       <c r="B274" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C274" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D274" t="s">
         <v>83</v>
@@ -15003,13 +15003,13 @@
         <v>1.2</v>
       </c>
       <c r="H274" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I274" s="10">
         <v>13</v>
       </c>
       <c r="K274" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L274">
         <v>-4</v>
@@ -15045,12 +15045,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>331</v>
       </c>
       <c r="B275" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C275" t="s">
         <v>411</v>
@@ -15068,13 +15068,13 @@
         <v>670</v>
       </c>
       <c r="H275" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I275" s="10">
         <v>12</v>
       </c>
       <c r="J275" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K275" t="s">
         <v>83</v>
@@ -15113,21 +15113,21 @@
         <v>83</v>
       </c>
       <c r="W275" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X275">
         <v>1</v>
       </c>
       <c r="Y275" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="276" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>331</v>
       </c>
       <c r="B276" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C276" t="s">
         <v>411</v>
@@ -15145,13 +15145,13 @@
         <v>670</v>
       </c>
       <c r="H276" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I276" s="10">
         <v>12</v>
       </c>
       <c r="J276" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K276" t="s">
         <v>83</v>
@@ -15190,21 +15190,21 @@
         <v>83</v>
       </c>
       <c r="W276" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X276">
         <v>1</v>
       </c>
       <c r="Y276" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="277" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>331</v>
       </c>
       <c r="B277" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C277" t="s">
         <v>411</v>
@@ -15222,13 +15222,13 @@
         <v>450</v>
       </c>
       <c r="H277" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I277" s="10">
         <v>12</v>
       </c>
       <c r="J277" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K277" t="s">
         <v>83</v>
@@ -15267,21 +15267,21 @@
         <v>83</v>
       </c>
       <c r="W277" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X277">
         <v>1</v>
       </c>
       <c r="Y277" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="278" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>331</v>
       </c>
       <c r="B278" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C278" t="s">
         <v>411</v>
@@ -15299,13 +15299,13 @@
         <v>450</v>
       </c>
       <c r="H278" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I278" s="10">
         <v>12</v>
       </c>
       <c r="J278" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K278" t="s">
         <v>83</v>
@@ -15344,21 +15344,21 @@
         <v>83</v>
       </c>
       <c r="W278" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X278">
         <v>1</v>
       </c>
       <c r="Y278" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="279" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>331</v>
       </c>
       <c r="B279" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C279" t="s">
         <v>411</v>
@@ -15376,13 +15376,13 @@
         <v>640</v>
       </c>
       <c r="H279" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I279" s="10">
         <v>12</v>
       </c>
       <c r="J279" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K279" t="s">
         <v>83</v>
@@ -15421,21 +15421,21 @@
         <v>83</v>
       </c>
       <c r="W279" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X279">
         <v>1</v>
       </c>
       <c r="Y279" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="280" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>331</v>
       </c>
       <c r="B280" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C280" t="s">
         <v>411</v>
@@ -15453,13 +15453,13 @@
         <v>640</v>
       </c>
       <c r="H280" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I280" s="10">
         <v>12</v>
       </c>
       <c r="J280" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K280" t="s">
         <v>83</v>
@@ -15498,21 +15498,21 @@
         <v>83</v>
       </c>
       <c r="W280" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X280">
         <v>1</v>
       </c>
       <c r="Y280" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="281" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>331</v>
       </c>
       <c r="B281" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C281" t="s">
         <v>412</v>
@@ -15530,13 +15530,13 @@
         <v>670</v>
       </c>
       <c r="H281" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I281" s="10">
         <v>12</v>
       </c>
       <c r="J281" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K281" t="s">
         <v>83</v>
@@ -15575,21 +15575,21 @@
         <v>83</v>
       </c>
       <c r="W281" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X281">
         <v>1</v>
       </c>
       <c r="Y281" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="282" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>331</v>
       </c>
       <c r="B282" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C282" t="s">
         <v>412</v>
@@ -15607,13 +15607,13 @@
         <v>670</v>
       </c>
       <c r="H282" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I282" s="10">
         <v>12</v>
       </c>
       <c r="J282" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K282" t="s">
         <v>83</v>
@@ -15652,21 +15652,21 @@
         <v>83</v>
       </c>
       <c r="W282" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X282">
         <v>1</v>
       </c>
       <c r="Y282" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="283" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>331</v>
       </c>
       <c r="B283" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C283" t="s">
         <v>412</v>
@@ -15684,13 +15684,13 @@
         <v>450</v>
       </c>
       <c r="H283" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I283" s="10">
         <v>12</v>
       </c>
       <c r="J283" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K283" t="s">
         <v>83</v>
@@ -15729,21 +15729,21 @@
         <v>83</v>
       </c>
       <c r="W283" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X283">
         <v>1</v>
       </c>
       <c r="Y283" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="284" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>331</v>
       </c>
       <c r="B284" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C284" t="s">
         <v>412</v>
@@ -15761,13 +15761,13 @@
         <v>450</v>
       </c>
       <c r="H284" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I284" s="10">
         <v>12</v>
       </c>
       <c r="J284" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K284" t="s">
         <v>83</v>
@@ -15806,21 +15806,21 @@
         <v>83</v>
       </c>
       <c r="W284" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X284">
         <v>1</v>
       </c>
       <c r="Y284" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="285" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>331</v>
       </c>
       <c r="B285" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C285" t="s">
         <v>412</v>
@@ -15838,13 +15838,13 @@
         <v>640</v>
       </c>
       <c r="H285" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I285" s="10">
         <v>12</v>
       </c>
       <c r="J285" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K285" t="s">
         <v>83</v>
@@ -15883,21 +15883,21 @@
         <v>83</v>
       </c>
       <c r="W285" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X285">
         <v>1</v>
       </c>
       <c r="Y285" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="286" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>331</v>
       </c>
       <c r="B286" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C286" t="s">
         <v>412</v>
@@ -15915,13 +15915,13 @@
         <v>640</v>
       </c>
       <c r="H286" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I286" s="10">
         <v>12</v>
       </c>
       <c r="J286" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K286" t="s">
         <v>83</v>
@@ -15960,13 +15960,13 @@
         <v>83</v>
       </c>
       <c r="W286" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X286">
         <v>1</v>
       </c>
       <c r="Y286" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -15974,6 +15974,12 @@
     <filterColumn colId="0">
       <filters>
         <filter val="GADNR_Fish_2005"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="nt_native"/>
+        <filter val="nt_nativenonhybrid"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -18281,7 +18287,7 @@
         <v>331</v>
       </c>
       <c r="B38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C38" t="s">
         <v>107</v>
@@ -18332,7 +18338,7 @@
         <v>131</v>
       </c>
       <c r="S38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="T38" t="s">
         <v>83</v>
@@ -18343,7 +18349,7 @@
         <v>331</v>
       </c>
       <c r="B39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C39" t="s">
         <v>107</v>
@@ -18394,7 +18400,7 @@
         <v>131</v>
       </c>
       <c r="S39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="T39" t="s">
         <v>83</v>
@@ -18405,7 +18411,7 @@
         <v>331</v>
       </c>
       <c r="B40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C40" t="s">
         <v>107</v>
@@ -18456,7 +18462,7 @@
         <v>131</v>
       </c>
       <c r="S40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="T40" t="s">
         <v>83</v>
@@ -18467,7 +18473,7 @@
         <v>331</v>
       </c>
       <c r="B41" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C41" t="s">
         <v>107</v>
@@ -18518,7 +18524,7 @@
         <v>131</v>
       </c>
       <c r="S41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="T41" t="s">
         <v>83</v>
@@ -18529,7 +18535,7 @@
         <v>331</v>
       </c>
       <c r="B42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C42" t="s">
         <v>107</v>
@@ -18580,7 +18586,7 @@
         <v>131</v>
       </c>
       <c r="S42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="T42" t="s">
         <v>83</v>
@@ -18591,7 +18597,7 @@
         <v>331</v>
       </c>
       <c r="B43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C43" t="s">
         <v>107</v>
@@ -18642,7 +18648,7 @@
         <v>131</v>
       </c>
       <c r="S43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="T43" t="s">
         <v>83</v>
@@ -18675,7 +18681,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -18683,7 +18689,7 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -18691,7 +18697,7 @@
         <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -18699,7 +18705,7 @@
         <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -18707,39 +18713,39 @@
         <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -19215,6 +19221,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100557C7523FAC84E43A0DA62C173857381" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4b9ddb1302998b61081aed2913076a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" xmlns:ns4="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3079d22dc9190cbddbf9f4c007b8016d" ns3:_="" ns4:_="">
     <xsd:import namespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
@@ -19437,12 +19449,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -19453,6 +19459,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19304C29-C31A-47A1-B855-8D09E823E92C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19471,23 +19494,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
   <ds:schemaRefs>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4887F129-E8B6-479B-98B1-11F1A9930CAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784F4F46-5764-4504-8D81-3EAC03A1CFD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="ToDo" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">index.scoring!$A$1:$T$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">index.scoring!$A$1:$W$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$AF$286</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
@@ -574,7 +574,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3718" uniqueCount="418">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -1816,6 +1816,18 @@
   </si>
   <si>
     <t>nt_nativenonhybrid</t>
+  </si>
+  <si>
+    <t>ZeroInd_Score</t>
+  </si>
+  <si>
+    <t>ZeroInd_Narrative</t>
+  </si>
+  <si>
+    <t>Use_ZeroInd</t>
+  </si>
+  <si>
+    <t>No Fish</t>
   </si>
 </sst>
 </file>
@@ -3878,7 +3890,7 @@
   </sheetPr>
   <dimension ref="A1:AF286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
@@ -16477,15 +16489,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544F088F-E018-4AF1-A817-C6B9859D0A47}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomLeft" activeCell="W39" sqref="W39:W43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16502,9 +16514,12 @@
     <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
@@ -16565,8 +16580,17 @@
       <c r="T1" s="13" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -16615,8 +16639,17 @@
       <c r="R2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -16665,8 +16698,17 @@
       <c r="R3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -16715,8 +16757,17 @@
       <c r="R4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>83</v>
+      </c>
+      <c r="W4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -16765,8 +16816,17 @@
       <c r="R5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>83</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -16815,8 +16875,17 @@
       <c r="R6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -16865,8 +16934,17 @@
       <c r="R7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
+        <v>83</v>
+      </c>
+      <c r="W7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -16915,8 +16993,17 @@
       <c r="R8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>83</v>
+      </c>
+      <c r="W8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -16965,8 +17052,17 @@
       <c r="R9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>83</v>
+      </c>
+      <c r="W9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -17015,8 +17111,17 @@
       <c r="R10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>83</v>
+      </c>
+      <c r="W10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -17059,8 +17164,17 @@
       <c r="Q11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>83</v>
+      </c>
+      <c r="W11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>322</v>
       </c>
@@ -17097,8 +17211,17 @@
       <c r="P12" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
+        <v>83</v>
+      </c>
+      <c r="W12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>322</v>
       </c>
@@ -17135,8 +17258,17 @@
       <c r="P13" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+      <c r="V13" t="s">
+        <v>83</v>
+      </c>
+      <c r="W13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>322</v>
       </c>
@@ -17173,8 +17305,17 @@
       <c r="P14" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>83</v>
+      </c>
+      <c r="W14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>322</v>
       </c>
@@ -17211,8 +17352,17 @@
       <c r="P15" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>83</v>
+      </c>
+      <c r="W15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>323</v>
       </c>
@@ -17267,8 +17417,17 @@
       <c r="S16" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
+        <v>83</v>
+      </c>
+      <c r="W16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>323</v>
       </c>
@@ -17323,8 +17482,17 @@
       <c r="S17" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" t="b">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
+        <v>83</v>
+      </c>
+      <c r="W17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>323</v>
       </c>
@@ -17379,8 +17547,17 @@
       <c r="S18" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
+        <v>83</v>
+      </c>
+      <c r="W18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>324</v>
       </c>
@@ -17435,8 +17612,17 @@
       <c r="S19" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
+        <v>83</v>
+      </c>
+      <c r="W19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>324</v>
       </c>
@@ -17491,8 +17677,17 @@
       <c r="S20" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
+        <v>83</v>
+      </c>
+      <c r="W20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>324</v>
       </c>
@@ -17547,8 +17742,17 @@
       <c r="S21" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" t="b">
+        <v>0</v>
+      </c>
+      <c r="V21" t="s">
+        <v>83</v>
+      </c>
+      <c r="W21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>325</v>
       </c>
@@ -17591,8 +17795,17 @@
       <c r="Q22" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
+        <v>83</v>
+      </c>
+      <c r="W22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>325</v>
       </c>
@@ -17635,8 +17848,17 @@
       <c r="Q23" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>83</v>
+      </c>
+      <c r="W23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>325</v>
       </c>
@@ -17679,8 +17901,17 @@
       <c r="Q24" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
+        <v>83</v>
+      </c>
+      <c r="W24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>325</v>
       </c>
@@ -17723,8 +17954,17 @@
       <c r="Q25" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>83</v>
+      </c>
+      <c r="W25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>325</v>
       </c>
@@ -17767,8 +18007,17 @@
       <c r="Q26" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26" t="b">
+        <v>0</v>
+      </c>
+      <c r="V26" t="s">
+        <v>83</v>
+      </c>
+      <c r="W26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>325</v>
       </c>
@@ -17811,8 +18060,17 @@
       <c r="Q27" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27" t="b">
+        <v>0</v>
+      </c>
+      <c r="V27" t="s">
+        <v>83</v>
+      </c>
+      <c r="W27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>325</v>
       </c>
@@ -17855,8 +18113,17 @@
       <c r="Q28" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" t="s">
+        <v>83</v>
+      </c>
+      <c r="W28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -17899,8 +18166,17 @@
       <c r="Q29" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29" t="b">
+        <v>0</v>
+      </c>
+      <c r="V29" t="s">
+        <v>83</v>
+      </c>
+      <c r="W29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>325</v>
       </c>
@@ -17943,8 +18219,17 @@
       <c r="Q30" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" t="b">
+        <v>0</v>
+      </c>
+      <c r="V30" t="s">
+        <v>83</v>
+      </c>
+      <c r="W30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>325</v>
       </c>
@@ -17981,8 +18266,17 @@
       <c r="Q31" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31" t="b">
+        <v>0</v>
+      </c>
+      <c r="V31" t="s">
+        <v>83</v>
+      </c>
+      <c r="W31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>326</v>
       </c>
@@ -18043,8 +18337,17 @@
       <c r="T32" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32" t="b">
+        <v>0</v>
+      </c>
+      <c r="V32" t="s">
+        <v>83</v>
+      </c>
+      <c r="W32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>326</v>
       </c>
@@ -18105,8 +18408,17 @@
       <c r="T33" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33" t="b">
+        <v>0</v>
+      </c>
+      <c r="V33" t="s">
+        <v>83</v>
+      </c>
+      <c r="W33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -18149,8 +18461,17 @@
       <c r="Q34" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34" t="b">
+        <v>0</v>
+      </c>
+      <c r="V34" t="s">
+        <v>83</v>
+      </c>
+      <c r="W34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>294</v>
       </c>
@@ -18193,8 +18514,17 @@
       <c r="Q35" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35" t="b">
+        <v>0</v>
+      </c>
+      <c r="V35" t="s">
+        <v>83</v>
+      </c>
+      <c r="W35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>294</v>
       </c>
@@ -18237,8 +18567,17 @@
       <c r="Q36" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36" t="b">
+        <v>0</v>
+      </c>
+      <c r="V36" t="s">
+        <v>83</v>
+      </c>
+      <c r="W36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>294</v>
       </c>
@@ -18281,8 +18620,17 @@
       <c r="Q37" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37" t="b">
+        <v>0</v>
+      </c>
+      <c r="V37" t="s">
+        <v>83</v>
+      </c>
+      <c r="W37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>331</v>
       </c>
@@ -18343,8 +18691,17 @@
       <c r="T38" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38" t="b">
+        <v>1</v>
+      </c>
+      <c r="V38" t="s">
+        <v>83</v>
+      </c>
+      <c r="W38" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>331</v>
       </c>
@@ -18405,8 +18762,17 @@
       <c r="T39" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39" t="b">
+        <v>1</v>
+      </c>
+      <c r="V39" t="s">
+        <v>83</v>
+      </c>
+      <c r="W39" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>331</v>
       </c>
@@ -18467,8 +18833,17 @@
       <c r="T40" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40" t="b">
+        <v>1</v>
+      </c>
+      <c r="V40" t="s">
+        <v>83</v>
+      </c>
+      <c r="W40" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>331</v>
       </c>
@@ -18529,8 +18904,17 @@
       <c r="T41" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41" t="b">
+        <v>1</v>
+      </c>
+      <c r="V41" t="s">
+        <v>83</v>
+      </c>
+      <c r="W41" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>331</v>
       </c>
@@ -18591,8 +18975,17 @@
       <c r="T42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U42" t="b">
+        <v>1</v>
+      </c>
+      <c r="V42" t="s">
+        <v>83</v>
+      </c>
+      <c r="W42" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>331</v>
       </c>
@@ -18653,9 +19046,24 @@
       <c r="T43" t="s">
         <v>83</v>
       </c>
+      <c r="U43" t="b">
+        <v>1</v>
+      </c>
+      <c r="V43" t="s">
+        <v>83</v>
+      </c>
+      <c r="W43" t="s">
+        <v>417</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T33" xr:uid="{EA20F786-EA28-4D79-ADE3-15AA3BC6D671}"/>
+  <autoFilter ref="A1:W43" xr:uid="{2B361F7C-4DA8-42B4-A59B-DBC61D363173}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="GADNR_Fish_2005"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19227,6 +19635,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100557C7523FAC84E43A0DA62C173857381" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4b9ddb1302998b61081aed2913076a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" xmlns:ns4="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3079d22dc9190cbddbf9f4c007b8016d" ns3:_="" ns4:_="">
     <xsd:import namespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
@@ -19449,15 +19866,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
@@ -19476,6 +19884,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19304C29-C31A-47A1-B855-8D09E823E92C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19492,12 +19908,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784F4F46-5764-4504-8D81-3EAC03A1CFD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A489285D-B790-4657-ADF6-B3C74C197DF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">index.scoring!$A$1:$W$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$AF$286</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$AJ$286</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -574,7 +574,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3718" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="424">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -1758,9 +1758,6 @@
     <t>x_Evenness100_ni99gt</t>
   </si>
   <si>
-    <t>Cat_135_DepMet</t>
-  </si>
-  <si>
     <t>ScoringRegimes</t>
   </si>
   <si>
@@ -1785,24 +1782,12 @@
     <t>Categorical on a gradient.  3 categories, uses a function for a line to define categories.  An asymptote is allowed where the scores plateau.</t>
   </si>
   <si>
-    <t>Same as Cat_135 but which metric is used is dependant upon the score of another metric.  The independent metric must be scored prior to the dependant metric.</t>
-  </si>
-  <si>
     <t>Scoring based on a single value (above or below that value).</t>
   </si>
   <si>
     <t>Scoring is based on a normal distribution.  The center is scored as a 5.  The next band on either side of center is scored as 3.  The outer bands are scored as 1.</t>
   </si>
   <si>
-    <t>DepMet_Master_Name</t>
-  </si>
-  <si>
-    <t>DepMet_Master_Score</t>
-  </si>
-  <si>
-    <t>DepMet_Master_Condition</t>
-  </si>
-  <si>
     <t>equal</t>
   </si>
   <si>
@@ -1828,6 +1813,39 @@
   </si>
   <si>
     <t>No Fish</t>
+  </si>
+  <si>
+    <t>SelMet_Master_Name</t>
+  </si>
+  <si>
+    <t>SelMet_Master_Score</t>
+  </si>
+  <si>
+    <t>SelMet_Master_Condition</t>
+  </si>
+  <si>
+    <t>Cat_135_SelMet</t>
+  </si>
+  <si>
+    <t>ScMet_Master_Name</t>
+  </si>
+  <si>
+    <t>ScMet_Master_Condition</t>
+  </si>
+  <si>
+    <t>ScMet_Score</t>
+  </si>
+  <si>
+    <t>Cat_135_ScMet</t>
+  </si>
+  <si>
+    <t>Same as Cat_135 but metric score can be a different value based up on the score of another metric.  The "master" metric must be scored prior to the dependant metric.</t>
+  </si>
+  <si>
+    <t>Same as Cat_135 but which metric is used is dependant upon the score of another metric.  The "master" metric must be scored prior to the dependant metric.</t>
+  </si>
+  <si>
+    <t>ScMet_Master_Value</t>
   </si>
 </sst>
 </file>
@@ -2086,107 +2104,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="115">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="108">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2319,6 +2237,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -2359,11 +2307,11 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3255,7 +3203,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="114">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="107">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3734,10 +3682,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>394</v>
+      </c>
+      <c r="B20" t="s">
         <v>395</v>
-      </c>
-      <c r="B20" t="s">
-        <v>396</v>
       </c>
       <c r="C20" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3888,14 +3836,14 @@
   <sheetPr codeName="Sheet1" filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AF286"/>
+  <dimension ref="A1:AJ286"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="C203" sqref="C203"/>
+      <selection pane="bottomRight" activeCell="AA210" sqref="AA210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3925,15 +3873,19 @@
     <col min="23" max="23" width="22" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="22" customWidth="1"/>
     <col min="25" max="25" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="20.5703125" customWidth="1"/>
-    <col min="31" max="31" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.140625" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="20.5703125" customWidth="1"/>
+    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
@@ -4001,37 +3953,49 @@
         <v>371</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="Z1" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="AD1" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AF1" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AG1" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AH1" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AI1" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4063,7 +4027,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4095,7 +4059,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4127,7 +4091,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -4159,7 +4123,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -4191,7 +4155,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4223,7 +4187,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -4255,7 +4219,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4287,7 +4251,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4319,7 +4283,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4351,7 +4315,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4383,7 +4347,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="13" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4415,7 +4379,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4447,7 +4411,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="15" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4479,7 +4443,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -9397,7 +9361,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="177" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>326</v>
       </c>
@@ -9445,8 +9409,12 @@
       <c r="W177" s="16"/>
       <c r="X177" s="16"/>
       <c r="Y177" s="16"/>
-    </row>
-    <row r="178" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z177" s="16"/>
+      <c r="AA177" s="16"/>
+      <c r="AB177" s="16"/>
+      <c r="AC177" s="16"/>
+    </row>
+    <row r="178" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>326</v>
       </c>
@@ -9481,7 +9449,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="179" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>326</v>
       </c>
@@ -9516,7 +9484,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="180" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>326</v>
       </c>
@@ -9551,7 +9519,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="181" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>326</v>
       </c>
@@ -9586,7 +9554,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="182" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>326</v>
       </c>
@@ -9634,8 +9602,12 @@
       <c r="W182" s="16"/>
       <c r="X182" s="16"/>
       <c r="Y182" s="16"/>
-    </row>
-    <row r="183" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z182" s="16"/>
+      <c r="AA182" s="16"/>
+      <c r="AB182" s="16"/>
+      <c r="AC182" s="16"/>
+    </row>
+    <row r="183" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>326</v>
       </c>
@@ -9670,7 +9642,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="184" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>326</v>
       </c>
@@ -9705,7 +9677,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="185" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>326</v>
       </c>
@@ -9740,7 +9712,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="186" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>294</v>
       </c>
@@ -9776,7 +9748,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="187" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>294</v>
       </c>
@@ -9812,7 +9784,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="188" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>294</v>
       </c>
@@ -9848,7 +9820,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="189" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>294</v>
       </c>
@@ -9884,7 +9856,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="190" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>294</v>
       </c>
@@ -9920,7 +9892,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="191" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>294</v>
       </c>
@@ -9956,7 +9928,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="192" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>294</v>
       </c>
@@ -10352,7 +10324,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>331</v>
       </c>
@@ -10360,7 +10332,7 @@
         <v>345</v>
       </c>
       <c r="C203" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D203" t="s">
         <v>15</v>
@@ -10745,7 +10717,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="209" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>331</v>
       </c>
@@ -10804,7 +10776,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="210" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>331</v>
       </c>
@@ -10827,7 +10799,7 @@
         <v>53</v>
       </c>
       <c r="H210" s="17" t="s">
-        <v>84</v>
+        <v>420</v>
       </c>
       <c r="I210" s="10">
         <v>8</v>
@@ -10868,8 +10840,20 @@
       <c r="V210" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="211" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z210" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+      <c r="AB210" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>331</v>
       </c>
@@ -10934,7 +10918,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="212" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>331</v>
       </c>
@@ -10999,7 +10983,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="213" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>331</v>
       </c>
@@ -11064,7 +11048,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="214" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>331</v>
       </c>
@@ -11129,7 +11113,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>331</v>
       </c>
@@ -11137,7 +11121,7 @@
         <v>346</v>
       </c>
       <c r="C215" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D215" t="s">
         <v>15</v>
@@ -11194,7 +11178,7 @@
         <v>11.86</v>
       </c>
     </row>
-    <row r="216" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>331</v>
       </c>
@@ -11262,7 +11246,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="217" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>331</v>
       </c>
@@ -11330,7 +11314,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="218" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>331</v>
       </c>
@@ -11395,7 +11379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>331</v>
       </c>
@@ -11460,7 +11444,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="220" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>331</v>
       </c>
@@ -11528,7 +11512,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="221" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>331</v>
       </c>
@@ -11593,7 +11577,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="222" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>331</v>
       </c>
@@ -11616,7 +11600,7 @@
         <v>53</v>
       </c>
       <c r="H222" s="17" t="s">
-        <v>84</v>
+        <v>420</v>
       </c>
       <c r="I222" s="10">
         <v>8</v>
@@ -11657,8 +11641,20 @@
       <c r="V222" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="223" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z222" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>331</v>
       </c>
@@ -11723,7 +11719,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="224" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>331</v>
       </c>
@@ -11788,7 +11784,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="225" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>331</v>
       </c>
@@ -11853,7 +11849,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="226" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>331</v>
       </c>
@@ -11918,7 +11914,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>331</v>
       </c>
@@ -11926,7 +11922,7 @@
         <v>360</v>
       </c>
       <c r="C227" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D227" t="s">
         <v>15</v>
@@ -11983,7 +11979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>331</v>
       </c>
@@ -12051,7 +12047,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="229" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>331</v>
       </c>
@@ -12116,7 +12112,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="230" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>331</v>
       </c>
@@ -12183,7 +12179,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>331</v>
       </c>
@@ -12251,7 +12247,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="232" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>331</v>
       </c>
@@ -12316,7 +12312,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="233" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>331</v>
       </c>
@@ -12381,7 +12377,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="234" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>331</v>
       </c>
@@ -12404,7 +12400,7 @@
         <v>46</v>
       </c>
       <c r="H234" s="17" t="s">
-        <v>84</v>
+        <v>420</v>
       </c>
       <c r="I234" s="10">
         <v>8</v>
@@ -12445,8 +12441,20 @@
       <c r="V234" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="235" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z234" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA234">
+        <v>0</v>
+      </c>
+      <c r="AB234" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>331</v>
       </c>
@@ -12511,7 +12519,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="236" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>331</v>
       </c>
@@ -12576,7 +12584,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="237" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>331</v>
       </c>
@@ -12641,7 +12649,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="238" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>331</v>
       </c>
@@ -12706,7 +12714,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="239" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>331</v>
       </c>
@@ -12714,7 +12722,7 @@
         <v>361</v>
       </c>
       <c r="C239" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D239" t="s">
         <v>15</v>
@@ -12771,7 +12779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>331</v>
       </c>
@@ -12839,7 +12847,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="241" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>331</v>
       </c>
@@ -12907,7 +12915,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="242" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>331</v>
       </c>
@@ -12974,7 +12982,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>331</v>
       </c>
@@ -13042,7 +13050,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="244" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>331</v>
       </c>
@@ -13107,7 +13115,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="245" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>331</v>
       </c>
@@ -13172,7 +13180,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="246" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>331</v>
       </c>
@@ -13195,7 +13203,7 @@
         <v>46</v>
       </c>
       <c r="H246" s="17" t="s">
-        <v>84</v>
+        <v>420</v>
       </c>
       <c r="I246" s="10">
         <v>8</v>
@@ -13236,8 +13244,20 @@
       <c r="V246" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="247" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z246" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA246">
+        <v>0</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>331</v>
       </c>
@@ -13302,7 +13322,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="248" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>331</v>
       </c>
@@ -13367,7 +13387,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="249" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>331</v>
       </c>
@@ -13432,7 +13452,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="250" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>331</v>
       </c>
@@ -13497,7 +13517,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>331</v>
       </c>
@@ -13505,7 +13525,7 @@
         <v>362</v>
       </c>
       <c r="C251" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D251" t="s">
         <v>15</v>
@@ -13562,7 +13582,7 @@
         <v>9.66</v>
       </c>
     </row>
-    <row r="252" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>331</v>
       </c>
@@ -13627,7 +13647,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="253" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>331</v>
       </c>
@@ -13692,7 +13712,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="254" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>331</v>
       </c>
@@ -13757,7 +13777,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>331</v>
       </c>
@@ -13822,7 +13842,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="256" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>331</v>
       </c>
@@ -13887,7 +13907,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="257" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>331</v>
       </c>
@@ -13952,7 +13972,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="258" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>331</v>
       </c>
@@ -13975,7 +13995,7 @@
         <v>45</v>
       </c>
       <c r="H258" s="17" t="s">
-        <v>84</v>
+        <v>420</v>
       </c>
       <c r="I258" s="10">
         <v>8</v>
@@ -14016,8 +14036,20 @@
       <c r="V258" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="259" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z258" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA258">
+        <v>0</v>
+      </c>
+      <c r="AB258" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>331</v>
       </c>
@@ -14082,7 +14114,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="260" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>331</v>
       </c>
@@ -14147,7 +14179,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="261" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>331</v>
       </c>
@@ -14212,7 +14244,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="262" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>331</v>
       </c>
@@ -14277,7 +14309,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>331</v>
       </c>
@@ -14285,7 +14317,7 @@
         <v>363</v>
       </c>
       <c r="C263" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D263" t="s">
         <v>15</v>
@@ -14342,7 +14374,7 @@
         <v>9.66</v>
       </c>
     </row>
-    <row r="264" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>331</v>
       </c>
@@ -14407,7 +14439,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="265" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>331</v>
       </c>
@@ -14472,7 +14504,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="266" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>331</v>
       </c>
@@ -14537,7 +14569,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>331</v>
       </c>
@@ -14602,7 +14634,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="268" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>331</v>
       </c>
@@ -14667,7 +14699,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="269" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>331</v>
       </c>
@@ -14732,7 +14764,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="270" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>331</v>
       </c>
@@ -14755,7 +14787,7 @@
         <v>45</v>
       </c>
       <c r="H270" s="17" t="s">
-        <v>84</v>
+        <v>420</v>
       </c>
       <c r="I270" s="10">
         <v>8</v>
@@ -14796,8 +14828,20 @@
       <c r="V270" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="271" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z270" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA270">
+        <v>0</v>
+      </c>
+      <c r="AB270" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>331</v>
       </c>
@@ -14862,7 +14906,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="272" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>331</v>
       </c>
@@ -15065,7 +15109,7 @@
         <v>345</v>
       </c>
       <c r="C275" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D275" t="s">
         <v>15</v>
@@ -15080,7 +15124,7 @@
         <v>670</v>
       </c>
       <c r="H275" s="17" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="I275" s="10">
         <v>12</v>
@@ -15131,7 +15175,7 @@
         <v>1</v>
       </c>
       <c r="Y275" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="276" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -15142,7 +15186,7 @@
         <v>346</v>
       </c>
       <c r="C276" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D276" t="s">
         <v>15</v>
@@ -15157,7 +15201,7 @@
         <v>670</v>
       </c>
       <c r="H276" s="17" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="I276" s="10">
         <v>12</v>
@@ -15208,7 +15252,7 @@
         <v>1</v>
       </c>
       <c r="Y276" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="277" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -15219,7 +15263,7 @@
         <v>360</v>
       </c>
       <c r="C277" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D277" t="s">
         <v>15</v>
@@ -15234,7 +15278,7 @@
         <v>450</v>
       </c>
       <c r="H277" s="17" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="I277" s="10">
         <v>12</v>
@@ -15285,7 +15329,7 @@
         <v>1</v>
       </c>
       <c r="Y277" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="278" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -15296,7 +15340,7 @@
         <v>361</v>
       </c>
       <c r="C278" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D278" t="s">
         <v>15</v>
@@ -15311,7 +15355,7 @@
         <v>450</v>
       </c>
       <c r="H278" s="17" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="I278" s="10">
         <v>12</v>
@@ -15362,7 +15406,7 @@
         <v>1</v>
       </c>
       <c r="Y278" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="279" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -15373,7 +15417,7 @@
         <v>362</v>
       </c>
       <c r="C279" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D279" t="s">
         <v>15</v>
@@ -15388,7 +15432,7 @@
         <v>640</v>
       </c>
       <c r="H279" s="17" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="I279" s="10">
         <v>12</v>
@@ -15439,7 +15483,7 @@
         <v>1</v>
       </c>
       <c r="Y279" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="280" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -15450,7 +15494,7 @@
         <v>363</v>
       </c>
       <c r="C280" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D280" t="s">
         <v>15</v>
@@ -15465,7 +15509,7 @@
         <v>640</v>
       </c>
       <c r="H280" s="17" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="I280" s="10">
         <v>12</v>
@@ -15516,7 +15560,7 @@
         <v>1</v>
       </c>
       <c r="Y280" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="281" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -15527,7 +15571,7 @@
         <v>345</v>
       </c>
       <c r="C281" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D281" t="s">
         <v>15</v>
@@ -15542,7 +15586,7 @@
         <v>670</v>
       </c>
       <c r="H281" s="17" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="I281" s="10">
         <v>12</v>
@@ -15593,7 +15637,7 @@
         <v>1</v>
       </c>
       <c r="Y281" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="282" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -15604,7 +15648,7 @@
         <v>346</v>
       </c>
       <c r="C282" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D282" t="s">
         <v>15</v>
@@ -15619,7 +15663,7 @@
         <v>670</v>
       </c>
       <c r="H282" s="17" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="I282" s="10">
         <v>12</v>
@@ -15670,7 +15714,7 @@
         <v>1</v>
       </c>
       <c r="Y282" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="283" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -15681,7 +15725,7 @@
         <v>360</v>
       </c>
       <c r="C283" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D283" t="s">
         <v>15</v>
@@ -15696,7 +15740,7 @@
         <v>450</v>
       </c>
       <c r="H283" s="17" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="I283" s="10">
         <v>12</v>
@@ -15747,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="Y283" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="284" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -15758,7 +15802,7 @@
         <v>361</v>
       </c>
       <c r="C284" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D284" t="s">
         <v>15</v>
@@ -15773,7 +15817,7 @@
         <v>450</v>
       </c>
       <c r="H284" s="17" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="I284" s="10">
         <v>12</v>
@@ -15824,7 +15868,7 @@
         <v>1</v>
       </c>
       <c r="Y284" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="285" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -15835,7 +15879,7 @@
         <v>362</v>
       </c>
       <c r="C285" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D285" t="s">
         <v>15</v>
@@ -15850,7 +15894,7 @@
         <v>640</v>
       </c>
       <c r="H285" s="17" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="I285" s="10">
         <v>12</v>
@@ -15901,7 +15945,7 @@
         <v>1</v>
       </c>
       <c r="Y285" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="286" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -15912,7 +15956,7 @@
         <v>363</v>
       </c>
       <c r="C286" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D286" t="s">
         <v>15</v>
@@ -15927,7 +15971,7 @@
         <v>640</v>
       </c>
       <c r="H286" s="17" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="I286" s="10">
         <v>12</v>
@@ -15978,11 +16022,11 @@
         <v>1</v>
       </c>
       <c r="Y286" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF286" xr:uid="{FED77011-9DA1-4ED4-AF67-599FA276C79A}">
+  <autoFilter ref="A1:AJ286" xr:uid="{FED77011-9DA1-4ED4-AF67-599FA276C79A}">
     <filterColumn colId="0">
       <filters>
         <filter val="GADNR_Fish_2005"/>
@@ -15990,466 +16034,440 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="nt_native"/>
-        <filter val="nt_nativenonhybrid"/>
+        <filter val="pi_lepomis"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="D2:D185 D210 D203:D207 H203 F205:F225">
-    <cfRule type="cellIs" dxfId="113" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="175" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="176" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D188:D202">
-    <cfRule type="cellIs" dxfId="111" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="173" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="174" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D186">
-    <cfRule type="cellIs" dxfId="109" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="171" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="172" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D187">
-    <cfRule type="cellIs" dxfId="107" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="169" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="170" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O186:O207">
-    <cfRule type="expression" dxfId="105" priority="154">
+    <cfRule type="expression" dxfId="98" priority="168">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E204:F204 E209:E213 F203">
-    <cfRule type="cellIs" dxfId="104" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="166" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="167" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H204:H207">
-    <cfRule type="cellIs" dxfId="102" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="154" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="155" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U186:Y202">
-    <cfRule type="expression" dxfId="100" priority="164">
+  <conditionalFormatting sqref="U186:Z202">
+    <cfRule type="expression" dxfId="93" priority="178">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q186:R207 V203:Y207">
-    <cfRule type="expression" dxfId="99" priority="166">
+  <conditionalFormatting sqref="Q186:R207 V203:Z207">
+    <cfRule type="expression" dxfId="92" priority="180">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P186:P207">
-    <cfRule type="expression" dxfId="98" priority="168">
+    <cfRule type="expression" dxfId="91" priority="182">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H208">
-    <cfRule type="cellIs" dxfId="97" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="152" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="153" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H215">
-    <cfRule type="cellIs" dxfId="95" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="150" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="151" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H216:H219">
-    <cfRule type="cellIs" dxfId="93" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="148" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="149" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H220">
-    <cfRule type="cellIs" dxfId="91" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="146" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="147" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H209:H213">
-    <cfRule type="cellIs" dxfId="89" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="144" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="145" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H221">
-    <cfRule type="cellIs" dxfId="87" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="142" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="143" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H222:H225">
-    <cfRule type="cellIs" dxfId="85" priority="126" operator="equal">
+  <conditionalFormatting sqref="H223:H225">
+    <cfRule type="cellIs" dxfId="78" priority="140" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="141" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L186:M204">
-    <cfRule type="expression" dxfId="83" priority="169">
+    <cfRule type="expression" dxfId="76" priority="183">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H214">
-    <cfRule type="cellIs" dxfId="82" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="136" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="137" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D212">
-    <cfRule type="cellIs" dxfId="80" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="134" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="135" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D222">
-    <cfRule type="cellIs" dxfId="78" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="132" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="133" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D224">
-    <cfRule type="cellIs" dxfId="76" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="130" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="131" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N186:N204">
-    <cfRule type="expression" dxfId="74" priority="171">
+    <cfRule type="expression" dxfId="67" priority="185">
       <formula>F186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J186:J202">
-    <cfRule type="expression" dxfId="73" priority="172">
+    <cfRule type="expression" dxfId="66" priority="186">
       <formula>D186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S203:S207 S186:T202 S208:T226">
-    <cfRule type="expression" dxfId="72" priority="174">
+  <conditionalFormatting sqref="S203:S207 S186:T202 S208:T226 AA203:AA207">
+    <cfRule type="expression" dxfId="65" priority="188">
       <formula>F186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O215:O219">
-    <cfRule type="expression" dxfId="71" priority="114">
+    <cfRule type="expression" dxfId="64" priority="128">
       <formula>E215="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O220">
-    <cfRule type="expression" dxfId="70" priority="113">
+    <cfRule type="expression" dxfId="63" priority="127">
       <formula>E220="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P208">
-    <cfRule type="expression" dxfId="69" priority="112">
+    <cfRule type="expression" dxfId="62" priority="126">
       <formula>E208="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P215:P219">
-    <cfRule type="expression" dxfId="68" priority="111">
+    <cfRule type="expression" dxfId="61" priority="125">
       <formula>E215="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P220">
-    <cfRule type="expression" dxfId="67" priority="109">
+    <cfRule type="expression" dxfId="60" priority="123">
       <formula>E220="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U203:U207">
-    <cfRule type="expression" dxfId="66" priority="104">
+    <cfRule type="expression" dxfId="59" priority="118">
       <formula>I203="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T203:T207">
-    <cfRule type="expression" dxfId="65" priority="102">
+    <cfRule type="expression" dxfId="58" priority="116">
       <formula>G203="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P228">
-    <cfRule type="expression" dxfId="64" priority="99">
+    <cfRule type="expression" dxfId="57" priority="113">
       <formula>E228="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P240">
-    <cfRule type="expression" dxfId="63" priority="98">
+    <cfRule type="expression" dxfId="56" priority="112">
       <formula>E240="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P241">
-    <cfRule type="expression" dxfId="62" priority="97">
+    <cfRule type="expression" dxfId="55" priority="111">
       <formula>E241="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P242:P243">
-    <cfRule type="expression" dxfId="61" priority="96">
+    <cfRule type="expression" dxfId="54" priority="110">
       <formula>E242="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P230:P231">
-    <cfRule type="expression" dxfId="60" priority="95">
+    <cfRule type="expression" dxfId="53" priority="109">
       <formula>E230="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O263:O268 O251:O256 O239:O244 O227:O232">
-    <cfRule type="expression" dxfId="59" priority="94">
+    <cfRule type="expression" dxfId="52" priority="108">
       <formula>E227="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F248">
-    <cfRule type="cellIs" dxfId="58" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="106" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="107" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H248">
-    <cfRule type="cellIs" dxfId="56" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="104" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="105" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F272">
-    <cfRule type="cellIs" dxfId="54" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="102" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="103" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H272">
-    <cfRule type="cellIs" dxfId="52" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="100" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="101" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F274 F262 F250 F238 F226">
-    <cfRule type="cellIs" dxfId="50" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="96" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="97" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H263:H268 H251:H256 H239:H244 H227:H232">
-    <cfRule type="cellIs" dxfId="48" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="94" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="95" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H273 H269:H271 H257:H261 H249 H245:H247 H233:H237">
-    <cfRule type="cellIs" dxfId="46" priority="78" operator="equal">
+  <conditionalFormatting sqref="H273 H269 H257 H249 H245 H233 H235:H237 H247 H259:H261 H271">
+    <cfRule type="cellIs" dxfId="39" priority="92" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="93" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L272 L248 L224">
-    <cfRule type="cellIs" dxfId="44" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="90" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="91" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E230:E231 E228 E220 E216:E217 E240:E243">
-    <cfRule type="cellIs" dxfId="42" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="88" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="89" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H274 H262 H250 H238 H226">
-    <cfRule type="cellIs" dxfId="40" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="86" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="87" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E274 E262 E250 E238 E226 E214">
-    <cfRule type="cellIs" dxfId="38" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="84" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="85" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O208">
-    <cfRule type="expression" dxfId="36" priority="69">
+    <cfRule type="expression" dxfId="29" priority="83">
       <formula>E208="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F276 E275:F275">
-    <cfRule type="cellIs" dxfId="35" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="71" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="72" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R275">
-    <cfRule type="expression" dxfId="33" priority="54">
+    <cfRule type="expression" dxfId="26" priority="68">
       <formula>E275="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S275">
-    <cfRule type="expression" dxfId="32" priority="53">
+    <cfRule type="expression" dxfId="25" priority="67">
       <formula>F275="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R276">
-    <cfRule type="expression" dxfId="31" priority="50">
+    <cfRule type="expression" dxfId="24" priority="64">
       <formula>E276="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S276">
-    <cfRule type="expression" dxfId="30" priority="49">
+    <cfRule type="expression" dxfId="23" priority="63">
       <formula>F276="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H281">
-    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
+  <conditionalFormatting sqref="F282 E281:F281">
+    <cfRule type="cellIs" dxfId="22" priority="53" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="38" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F282 E281:F281">
-    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="54" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R281">
-    <cfRule type="expression" dxfId="25" priority="36">
+    <cfRule type="expression" dxfId="20" priority="50">
       <formula>E281="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S281">
-    <cfRule type="expression" dxfId="24" priority="35">
+    <cfRule type="expression" dxfId="19" priority="49">
       <formula>F281="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H280">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="R282">
-    <cfRule type="expression" dxfId="21" priority="32">
+    <cfRule type="expression" dxfId="18" priority="46">
       <formula>E282="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S282">
-    <cfRule type="expression" dxfId="20" priority="31">
+    <cfRule type="expression" dxfId="17" priority="45">
       <formula>F282="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H279">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+  <conditionalFormatting sqref="H275">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H282">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+  <conditionalFormatting sqref="H276:H286">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H283">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+  <conditionalFormatting sqref="AB186:AC202">
+    <cfRule type="expression" dxfId="12" priority="190">
+      <formula>J186="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA186:AA202">
+    <cfRule type="expression" dxfId="11" priority="192">
+      <formula>J186="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB203:AC207">
+    <cfRule type="expression" dxfId="10" priority="195">
+      <formula>N203="Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H222">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H284">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H285">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H286">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H278">
+  <conditionalFormatting sqref="H234">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -16457,7 +16475,7 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H277">
+  <conditionalFormatting sqref="H246">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -16465,7 +16483,7 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H276">
+  <conditionalFormatting sqref="H258">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -16473,7 +16491,7 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H275">
+  <conditionalFormatting sqref="H270">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -16494,7 +16512,7 @@
   </sheetPr>
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="W39" sqref="W39:W43"/>
@@ -16581,13 +16599,13 @@
         <v>286</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -18698,7 +18716,7 @@
         <v>83</v>
       </c>
       <c r="W38" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -18769,7 +18787,7 @@
         <v>83</v>
       </c>
       <c r="W39" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -18840,7 +18858,7 @@
         <v>83</v>
       </c>
       <c r="W40" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -18911,7 +18929,7 @@
         <v>83</v>
       </c>
       <c r="W41" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
@@ -18982,7 +19000,7 @@
         <v>83</v>
       </c>
       <c r="W42" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -19053,7 +19071,7 @@
         <v>83</v>
       </c>
       <c r="W43" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -19070,17 +19088,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60BC3FC-0E35-4D85-A49D-166301D14FB0}">
-  <dimension ref="A5:B13"/>
+  <dimension ref="A5:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="152.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19089,7 +19107,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -19097,7 +19115,7 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -19105,7 +19123,7 @@
         <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -19113,7 +19131,7 @@
         <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -19121,7 +19139,7 @@
         <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -19129,31 +19147,39 @@
         <v>338</v>
       </c>
       <c r="B10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B12" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>347</v>
       </c>
-      <c r="B13" t="s">
-        <v>405</v>
+      <c r="B14" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -19635,15 +19661,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100557C7523FAC84E43A0DA62C173857381" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4b9ddb1302998b61081aed2913076a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" xmlns:ns4="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3079d22dc9190cbddbf9f4c007b8016d" ns3:_="" ns4:_="">
     <xsd:import namespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
@@ -19866,6 +19883,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
@@ -19884,14 +19910,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19304C29-C31A-47A1-B855-8D09E823E92C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19908,4 +19926,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A489285D-B790-4657-ADF6-B3C74C197DF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3906FBE-80E5-445C-9897-4F64404BEA3D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -3833,17 +3833,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A70181-B22C-4671-9C22-4B8DA5FE66AB}">
-  <sheetPr codeName="Sheet1" filterMode="1">
+  <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:AJ286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="AA210" sqref="AA210"/>
+      <selection pane="bottomRight" activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3995,7 +3995,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="13" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>325</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>325</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>325</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>325</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>325</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>325</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>325</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>325</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>325</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>325</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>325</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>325</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>100</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>100</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>100</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>100</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>100</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>100</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>100</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>100</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>322</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>322</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>322</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>322</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>322</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>322</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>322</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>322</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>322</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>322</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>322</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>322</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>322</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>322</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>322</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>322</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>322</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>322</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>322</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>322</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>322</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>322</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>322</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>322</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>322</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>325</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>325</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>325</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>325</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>325</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>325</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>325</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>325</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>325</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>325</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>325</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>325</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>325</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>325</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>325</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>325</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>325</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>325</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>325</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>325</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>325</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>325</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>325</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>325</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>325</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>325</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>325</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>325</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>325</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>325</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>325</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>325</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>325</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>325</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>325</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>325</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>325</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>325</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>325</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>325</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>325</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>325</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>324</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>324</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>324</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>324</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>324</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>324</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>324</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>324</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>324</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>324</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>324</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>324</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>324</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>324</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>324</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>324</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>324</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>324</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>325</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>325</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>325</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>325</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>325</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>325</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>326</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>326</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>326</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="177" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>326</v>
       </c>
@@ -9414,7 +9414,7 @@
       <c r="AB177" s="16"/>
       <c r="AC177" s="16"/>
     </row>
-    <row r="178" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>326</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="179" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>326</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="180" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>326</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="181" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>326</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="182" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>326</v>
       </c>
@@ -9607,7 +9607,7 @@
       <c r="AB182" s="16"/>
       <c r="AC182" s="16"/>
     </row>
-    <row r="183" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>326</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>326</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>326</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>294</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>294</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>294</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="189" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>294</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="190" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>294</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="191" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>294</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="192" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>294</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="193" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>294</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="194" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>294</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="195" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>294</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="196" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>294</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="197" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>294</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="198" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>294</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="199" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>294</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="200" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>294</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="201" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>294</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="202" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>294</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="203" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>331</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>11.86</v>
       </c>
     </row>
-    <row r="204" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>331</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="205" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>331</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="206" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>331</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>331</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="208" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>331</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>331</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>331</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>331</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>331</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="214" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>331</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="215" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>331</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>11.86</v>
       </c>
     </row>
-    <row r="216" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>331</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="217" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>331</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="218" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>331</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>331</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="220" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>331</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="221" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>331</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>331</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="224" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>331</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="225" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>331</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="226" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>331</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="227" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>331</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>331</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="229" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>331</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="230" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>331</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>331</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="232" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>331</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="233" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>331</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>331</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="236" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>331</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="237" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>331</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="238" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>331</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="239" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>331</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>331</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>331</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="242" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>331</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>331</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="244" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>331</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="245" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>331</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>331</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="248" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>331</v>
       </c>
@@ -13387,7 +13387,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>331</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>331</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>331</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>9.66</v>
       </c>
     </row>
-    <row r="252" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>331</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="253" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>331</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="254" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>331</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>331</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>331</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="257" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>331</v>
       </c>
@@ -14049,7 +14049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>331</v>
       </c>
@@ -14114,7 +14114,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="260" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>331</v>
       </c>
@@ -14179,7 +14179,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="261" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>331</v>
       </c>
@@ -14244,7 +14244,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="262" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>331</v>
       </c>
@@ -14309,7 +14309,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="263" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>331</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>9.66</v>
       </c>
     </row>
-    <row r="264" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>331</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="265" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>331</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="266" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>331</v>
       </c>
@@ -14569,7 +14569,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>331</v>
       </c>
@@ -14634,7 +14634,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="268" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>331</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="269" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>331</v>
       </c>
@@ -14841,7 +14841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>331</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="272" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>331</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="273" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>331</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="274" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>331</v>
       </c>
@@ -15101,7 +15101,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="275" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>331</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="276" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>331</v>
       </c>
@@ -15255,7 +15255,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="277" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>331</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="278" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>331</v>
       </c>
@@ -15409,7 +15409,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="279" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>331</v>
       </c>
@@ -15486,7 +15486,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="280" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>331</v>
       </c>
@@ -15563,7 +15563,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="281" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>331</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="282" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>331</v>
       </c>
@@ -15717,7 +15717,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="283" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>331</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="284" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>331</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="285" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>331</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="286" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>331</v>
       </c>
@@ -16026,18 +16026,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ286" xr:uid="{FED77011-9DA1-4ED4-AF67-599FA276C79A}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="GADNR_Fish_2005"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="pi_lepomis"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AJ286" xr:uid="{FED77011-9DA1-4ED4-AF67-599FA276C79A}"/>
   <conditionalFormatting sqref="D2:D185 D210 D203:D207 H203 F205:F225">
     <cfRule type="cellIs" dxfId="106" priority="175" operator="equal">
       <formula>""</formula>
@@ -16507,15 +16496,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544F088F-E018-4AF1-A817-C6B9859D0A47}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomLeft" activeCell="W39" sqref="W39:W43"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16608,7 +16597,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -16667,7 +16656,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -16726,7 +16715,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -16785,7 +16774,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -16844,7 +16833,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -16903,7 +16892,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -16962,7 +16951,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -17021,7 +17010,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -17080,7 +17069,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -17139,7 +17128,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -17192,7 +17181,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>322</v>
       </c>
@@ -17239,7 +17228,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>322</v>
       </c>
@@ -17286,7 +17275,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>322</v>
       </c>
@@ -17333,7 +17322,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>322</v>
       </c>
@@ -17380,7 +17369,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>323</v>
       </c>
@@ -17445,7 +17434,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>323</v>
       </c>
@@ -17510,7 +17499,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>323</v>
       </c>
@@ -17575,7 +17564,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>324</v>
       </c>
@@ -17640,7 +17629,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>324</v>
       </c>
@@ -17705,7 +17694,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>324</v>
       </c>
@@ -17770,7 +17759,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>325</v>
       </c>
@@ -17823,7 +17812,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>325</v>
       </c>
@@ -17876,7 +17865,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>325</v>
       </c>
@@ -17929,7 +17918,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>325</v>
       </c>
@@ -17982,7 +17971,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>325</v>
       </c>
@@ -18035,7 +18024,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>325</v>
       </c>
@@ -18088,7 +18077,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>325</v>
       </c>
@@ -18141,7 +18130,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -18194,7 +18183,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>325</v>
       </c>
@@ -18247,7 +18236,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>325</v>
       </c>
@@ -18294,7 +18283,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>326</v>
       </c>
@@ -18365,7 +18354,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>326</v>
       </c>
@@ -18436,7 +18425,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -18489,7 +18478,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>294</v>
       </c>
@@ -18542,7 +18531,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>294</v>
       </c>
@@ -18595,7 +18584,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>294</v>
       </c>
@@ -19075,13 +19064,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W43" xr:uid="{2B361F7C-4DA8-42B4-A59B-DBC61D363173}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="GADNR_Fish_2005"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:W43" xr:uid="{2B361F7C-4DA8-42B4-A59B-DBC61D363173}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19661,6 +19644,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100557C7523FAC84E43A0DA62C173857381" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4b9ddb1302998b61081aed2913076a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" xmlns:ns4="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3079d22dc9190cbddbf9f4c007b8016d" ns3:_="" ns4:_="">
     <xsd:import namespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
@@ -19883,15 +19875,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
@@ -19910,6 +19893,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19304C29-C31A-47A1-B855-8D09E823E92C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19926,12 +19917,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3906FBE-80E5-445C-9897-4F64404BEA3D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F3103F-ED43-40FA-9B55-666824AC5DE1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">index.scoring!$A$1:$W$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$AJ$286</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$AJ$298</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -574,7 +574,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3833" uniqueCount="438">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -1846,6 +1846,48 @@
   </si>
   <si>
     <t>ScMet_Master_Value</t>
+  </si>
+  <si>
+    <t>PA_WFRR</t>
+  </si>
+  <si>
+    <t>http://files.dep.state.pa.us/Water/Drinking%20Water%20and%20Facility%20Regulation/WaterQualityPortalFiles/Technical%20Documentation/freestoneIBImarch2012.pdf</t>
+  </si>
+  <si>
+    <t>PA Wadeable Freestone Riffle-Run Streams</t>
+  </si>
+  <si>
+    <t>PA_LGPG</t>
+  </si>
+  <si>
+    <t>PA_LS</t>
+  </si>
+  <si>
+    <t>PA limestone spring streams</t>
+  </si>
+  <si>
+    <t>PA lower gradient pool-glide streams</t>
+  </si>
+  <si>
+    <t>PADEP 2007</t>
+  </si>
+  <si>
+    <t>PADEP 2009a</t>
+  </si>
+  <si>
+    <t>PADEP_Freestone</t>
+  </si>
+  <si>
+    <t>nt_tv_intol4_EPT</t>
+  </si>
+  <si>
+    <t>x_Becks3</t>
+  </si>
+  <si>
+    <t>SMALL</t>
+  </si>
+  <si>
+    <t>LARGE</t>
   </si>
 </sst>
 </file>
@@ -3836,14 +3878,14 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AJ286"/>
+  <dimension ref="A1:AJ298"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D275" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="C222" sqref="C222"/>
+      <selection pane="bottomRight" activeCell="E299" sqref="E299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16025,8 +16067,320 @@
         <v>404</v>
       </c>
     </row>
+    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>433</v>
+      </c>
+      <c r="B287" t="s">
+        <v>437</v>
+      </c>
+      <c r="C287" t="s">
+        <v>14</v>
+      </c>
+      <c r="D287" t="s">
+        <v>15</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287" t="s">
+        <v>83</v>
+      </c>
+      <c r="G287">
+        <v>31</v>
+      </c>
+      <c r="H287" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>433</v>
+      </c>
+      <c r="B288" t="s">
+        <v>437</v>
+      </c>
+      <c r="C288" t="s">
+        <v>434</v>
+      </c>
+      <c r="D288" t="s">
+        <v>15</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288" t="s">
+        <v>83</v>
+      </c>
+      <c r="G288">
+        <v>16</v>
+      </c>
+      <c r="H288" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>433</v>
+      </c>
+      <c r="B289" t="s">
+        <v>437</v>
+      </c>
+      <c r="C289" t="s">
+        <v>435</v>
+      </c>
+      <c r="D289" t="s">
+        <v>15</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289" t="s">
+        <v>83</v>
+      </c>
+      <c r="G289">
+        <v>22</v>
+      </c>
+      <c r="H289" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>433</v>
+      </c>
+      <c r="B290" t="s">
+        <v>437</v>
+      </c>
+      <c r="C290" t="s">
+        <v>142</v>
+      </c>
+      <c r="D290" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E290">
+        <v>3.05</v>
+      </c>
+      <c r="F290" t="s">
+        <v>83</v>
+      </c>
+      <c r="G290">
+        <v>10</v>
+      </c>
+      <c r="H290" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>433</v>
+      </c>
+      <c r="B291" t="s">
+        <v>437</v>
+      </c>
+      <c r="C291" t="s">
+        <v>76</v>
+      </c>
+      <c r="D291" t="s">
+        <v>15</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291" t="s">
+        <v>83</v>
+      </c>
+      <c r="G291">
+        <v>2.86</v>
+      </c>
+      <c r="H291" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>433</v>
+      </c>
+      <c r="B292" t="s">
+        <v>437</v>
+      </c>
+      <c r="C292" t="s">
+        <v>253</v>
+      </c>
+      <c r="D292" t="s">
+        <v>15</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292" t="s">
+        <v>83</v>
+      </c>
+      <c r="G292">
+        <v>66.7</v>
+      </c>
+      <c r="H292" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>433</v>
+      </c>
+      <c r="B293" t="s">
+        <v>436</v>
+      </c>
+      <c r="C293" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" t="s">
+        <v>15</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293" t="s">
+        <v>83</v>
+      </c>
+      <c r="G293">
+        <v>33</v>
+      </c>
+      <c r="H293" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>433</v>
+      </c>
+      <c r="B294" t="s">
+        <v>436</v>
+      </c>
+      <c r="C294" t="s">
+        <v>434</v>
+      </c>
+      <c r="D294" t="s">
+        <v>15</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294" t="s">
+        <v>83</v>
+      </c>
+      <c r="G294">
+        <v>19</v>
+      </c>
+      <c r="H294" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>433</v>
+      </c>
+      <c r="B295" t="s">
+        <v>436</v>
+      </c>
+      <c r="C295" t="s">
+        <v>435</v>
+      </c>
+      <c r="D295" t="s">
+        <v>15</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295" t="s">
+        <v>83</v>
+      </c>
+      <c r="G295">
+        <v>38</v>
+      </c>
+      <c r="H295" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>433</v>
+      </c>
+      <c r="B296" t="s">
+        <v>436</v>
+      </c>
+      <c r="C296" t="s">
+        <v>142</v>
+      </c>
+      <c r="D296" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E296">
+        <v>1.89</v>
+      </c>
+      <c r="F296" t="s">
+        <v>83</v>
+      </c>
+      <c r="G296">
+        <v>10</v>
+      </c>
+      <c r="H296" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>433</v>
+      </c>
+      <c r="B297" t="s">
+        <v>436</v>
+      </c>
+      <c r="C297" t="s">
+        <v>76</v>
+      </c>
+      <c r="D297" t="s">
+        <v>15</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297" t="s">
+        <v>83</v>
+      </c>
+      <c r="G297">
+        <v>2.86</v>
+      </c>
+      <c r="H297" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>433</v>
+      </c>
+      <c r="B298" t="s">
+        <v>436</v>
+      </c>
+      <c r="C298" t="s">
+        <v>253</v>
+      </c>
+      <c r="D298" t="s">
+        <v>15</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298" t="s">
+        <v>83</v>
+      </c>
+      <c r="G298">
+        <v>84.5</v>
+      </c>
+      <c r="H298" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ286" xr:uid="{FED77011-9DA1-4ED4-AF67-599FA276C79A}"/>
+  <autoFilter ref="A1:AJ298" xr:uid="{FED77011-9DA1-4ED4-AF67-599FA276C79A}"/>
   <conditionalFormatting sqref="D2:D185 D210 D203:D207 H203 F205:F225">
     <cfRule type="cellIs" dxfId="106" priority="175" operator="equal">
       <formula>""</formula>
@@ -16499,12 +16853,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:B11"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19061,6 +19415,88 @@
       </c>
       <c r="W43" t="s">
         <v>412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>433</v>
+      </c>
+      <c r="B44" t="s">
+        <v>437</v>
+      </c>
+      <c r="C44" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" t="s">
+        <v>247</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>100</v>
+      </c>
+      <c r="O44" t="s">
+        <v>83</v>
+      </c>
+      <c r="U44" t="b">
+        <v>0</v>
+      </c>
+      <c r="V44" t="s">
+        <v>83</v>
+      </c>
+      <c r="W44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>433</v>
+      </c>
+      <c r="B45" t="s">
+        <v>436</v>
+      </c>
+      <c r="C45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" t="s">
+        <v>247</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>100</v>
+      </c>
+      <c r="O45" t="s">
+        <v>83</v>
+      </c>
+      <c r="U45" t="b">
+        <v>0</v>
+      </c>
+      <c r="V45" t="s">
+        <v>83</v>
+      </c>
+      <c r="W45" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -19173,69 +19609,69 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11763AB-DE5A-4277-BE65-88CD3BDAAE84}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>292</v>
       </c>
@@ -19243,7 +19679,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>294</v>
       </c>
@@ -19251,7 +19687,43 @@
         <v>295</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>424</v>
+      </c>
+      <c r="B15" t="s">
+        <v>426</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>427</v>
+      </c>
+      <c r="B16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C16" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>428</v>
+      </c>
+      <c r="B17" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1" display="http://files.dep.state.pa.us/Water/Drinking Water and Facility Regulation/WaterQualityPortalFiles/Technical Documentation/freestoneIBImarch2012.pdf" xr:uid="{8DDF3760-F620-49EC-AB3A-0D29539F888A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19638,21 +20110,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100557C7523FAC84E43A0DA62C173857381" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4b9ddb1302998b61081aed2913076a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" xmlns:ns4="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3079d22dc9190cbddbf9f4c007b8016d" ns3:_="" ns4:_="">
     <xsd:import namespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
@@ -19875,7 +20332,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19304C29-C31A-47A1-B855-8D09E823E92C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -19892,29 +20383,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19304C29-C31A-47A1-B855-8D09E823E92C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F3103F-ED43-40FA-9B55-666824AC5DE1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C3D134-0EB2-47AB-9EF5-A5E4D588127D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29535" yWindow="1335" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">index.scoring!$A$1:$W$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$AJ$298</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$AJ$360</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -574,7 +574,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3833" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4206" uniqueCount="462">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -1888,6 +1888,78 @@
   </si>
   <si>
     <t>LARGE</t>
+  </si>
+  <si>
+    <t>WV_GLIMPSS</t>
+  </si>
+  <si>
+    <t>MT_SP</t>
+  </si>
+  <si>
+    <t>nt_Trich</t>
+  </si>
+  <si>
+    <t>pi_Ortho</t>
+  </si>
+  <si>
+    <t>pi_Dom05</t>
+  </si>
+  <si>
+    <t>PL_SP</t>
+  </si>
+  <si>
+    <t>pi_ChiroAnne</t>
+  </si>
+  <si>
+    <t>pi_tv_toler6</t>
+  </si>
+  <si>
+    <t>MT_SU_gt60</t>
+  </si>
+  <si>
+    <t>MT_SU</t>
+  </si>
+  <si>
+    <t>MT_WIN</t>
+  </si>
+  <si>
+    <t>PL_SU</t>
+  </si>
+  <si>
+    <t>PL_WIN</t>
+  </si>
+  <si>
+    <t>GLIMPSS</t>
+  </si>
+  <si>
+    <t>Degraded</t>
+  </si>
+  <si>
+    <t>Severely Degraded</t>
+  </si>
+  <si>
+    <t>https://dep.wv.gov/WWE/watershed/bio_fish/Documents/20110829GLIMPSSFinalWVDEPDOI.pdf</t>
+  </si>
+  <si>
+    <t>Pond et al. 2011</t>
+  </si>
+  <si>
+    <t>nt_tv_intol4</t>
+  </si>
+  <si>
+    <t>pi_EPTNoCheu</t>
+  </si>
+  <si>
+    <t>Add PA Freestone IBI</t>
+  </si>
+  <si>
+    <t>Add WV GLIMPSS</t>
+  </si>
+  <si>
+    <t>did not add Midge Family index (CF)</t>
+  </si>
+  <si>
+    <t>Non-Degraded</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2097,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2056,6 +2128,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2100,7 +2196,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -2135,6 +2231,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -2146,7 +2246,107 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="118">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3245,7 +3445,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="107">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="117">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3594,10 +3794,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3625,7 +3825,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>43754</v>
+        <v>44011</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3848,6 +4048,22 @@
       </c>
       <c r="B36" t="s">
         <v>372</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>44007</v>
+      </c>
+      <c r="B37" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>44011</v>
+      </c>
+      <c r="B38" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -3878,14 +4094,14 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AJ298"/>
+  <dimension ref="A1:AJ360"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D275" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D342" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="E299" sqref="E299"/>
+      <selection pane="bottomRight" activeCell="C336" sqref="C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16379,77 +16595,1847 @@
         <v>85</v>
       </c>
     </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>438</v>
+      </c>
+      <c r="B299" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="C299" t="s">
+        <v>456</v>
+      </c>
+      <c r="D299" t="s">
+        <v>15</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299" t="s">
+        <v>83</v>
+      </c>
+      <c r="G299">
+        <v>19</v>
+      </c>
+      <c r="H299" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>438</v>
+      </c>
+      <c r="B300" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="C300" t="s">
+        <v>19</v>
+      </c>
+      <c r="D300" t="s">
+        <v>15</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300" t="s">
+        <v>83</v>
+      </c>
+      <c r="G300">
+        <v>10</v>
+      </c>
+      <c r="H300" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>438</v>
+      </c>
+      <c r="B301" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="C301" t="s">
+        <v>143</v>
+      </c>
+      <c r="D301" t="s">
+        <v>15</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301" t="s">
+        <v>83</v>
+      </c>
+      <c r="G301">
+        <v>8</v>
+      </c>
+      <c r="H301" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>438</v>
+      </c>
+      <c r="B302" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="C302" t="s">
+        <v>440</v>
+      </c>
+      <c r="D302" t="s">
+        <v>15</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
+      </c>
+      <c r="F302" t="s">
+        <v>83</v>
+      </c>
+      <c r="G302">
+        <v>7</v>
+      </c>
+      <c r="H302" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>438</v>
+      </c>
+      <c r="B303" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="C303" t="s">
+        <v>166</v>
+      </c>
+      <c r="D303" t="s">
+        <v>15</v>
+      </c>
+      <c r="E303">
+        <v>4</v>
+      </c>
+      <c r="F303" t="s">
+        <v>83</v>
+      </c>
+      <c r="G303">
+        <v>20</v>
+      </c>
+      <c r="H303" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>438</v>
+      </c>
+      <c r="B304" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="C304" t="s">
+        <v>142</v>
+      </c>
+      <c r="D304" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E304">
+        <v>2.23</v>
+      </c>
+      <c r="F304" t="s">
+        <v>83</v>
+      </c>
+      <c r="G304">
+        <v>6.18</v>
+      </c>
+      <c r="H304" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>438</v>
+      </c>
+      <c r="B305" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="s">
+        <v>15</v>
+      </c>
+      <c r="E305">
+        <v>0.5</v>
+      </c>
+      <c r="F305" t="s">
+        <v>83</v>
+      </c>
+      <c r="G305">
+        <v>59.7</v>
+      </c>
+      <c r="H305" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>438</v>
+      </c>
+      <c r="B306" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="C306" t="s">
+        <v>441</v>
+      </c>
+      <c r="D306" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E306">
+        <v>0.5</v>
+      </c>
+      <c r="F306" t="s">
+        <v>83</v>
+      </c>
+      <c r="G306">
+        <v>52.7</v>
+      </c>
+      <c r="H306" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>438</v>
+      </c>
+      <c r="B307" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="C307" t="s">
+        <v>442</v>
+      </c>
+      <c r="D307" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E307">
+        <v>48</v>
+      </c>
+      <c r="F307" t="s">
+        <v>83</v>
+      </c>
+      <c r="G307">
+        <v>92</v>
+      </c>
+      <c r="H307" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>438</v>
+      </c>
+      <c r="B308" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="C308" t="s">
+        <v>25</v>
+      </c>
+      <c r="D308" t="s">
+        <v>15</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308" t="s">
+        <v>83</v>
+      </c>
+      <c r="G308">
+        <v>8</v>
+      </c>
+      <c r="H308" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>438</v>
+      </c>
+      <c r="B309" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C309" t="str">
+        <f>C299</f>
+        <v>nt_tv_intol4</v>
+      </c>
+      <c r="D309" t="str">
+        <f t="shared" ref="D309:H309" si="7">D299</f>
+        <v>Decrease</v>
+      </c>
+      <c r="E309">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F309" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="G309">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="H309" t="str">
+        <f t="shared" si="7"/>
+        <v>Cont_0100</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>438</v>
+      </c>
+      <c r="B310" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C310" t="str">
+        <f t="shared" ref="C310:H310" si="8">C300</f>
+        <v>nt_Ephem</v>
+      </c>
+      <c r="D310" t="str">
+        <f t="shared" si="8"/>
+        <v>Decrease</v>
+      </c>
+      <c r="E310">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F310" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="G310">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="H310" t="str">
+        <f t="shared" si="8"/>
+        <v>Cont_0100</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>438</v>
+      </c>
+      <c r="B311" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C311" t="str">
+        <f t="shared" ref="C311:H311" si="9">C301</f>
+        <v>nt_Pleco</v>
+      </c>
+      <c r="D311" t="str">
+        <f t="shared" si="9"/>
+        <v>Decrease</v>
+      </c>
+      <c r="E311">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F311" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="G311">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="H311" t="str">
+        <f t="shared" si="9"/>
+        <v>Cont_0100</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>438</v>
+      </c>
+      <c r="B312" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C312" t="str">
+        <f t="shared" ref="C312:H312" si="10">C302</f>
+        <v>nt_Trich</v>
+      </c>
+      <c r="D312" t="str">
+        <f t="shared" si="10"/>
+        <v>Decrease</v>
+      </c>
+      <c r="E312">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F312" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+      <c r="G312">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="H312" t="str">
+        <f t="shared" si="10"/>
+        <v>Cont_0100</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>438</v>
+      </c>
+      <c r="B313" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C313" t="str">
+        <f t="shared" ref="C313:H313" si="11">C303</f>
+        <v>nt_habit_cling</v>
+      </c>
+      <c r="D313" t="str">
+        <f t="shared" si="11"/>
+        <v>Decrease</v>
+      </c>
+      <c r="E313">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="F313" t="str">
+        <f t="shared" si="11"/>
+        <v>NA</v>
+      </c>
+      <c r="G313">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="H313" t="str">
+        <f t="shared" si="11"/>
+        <v>Cont_0100</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>438</v>
+      </c>
+      <c r="B314" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C314" t="str">
+        <f t="shared" ref="C314:H314" si="12">C304</f>
+        <v>x_HBI</v>
+      </c>
+      <c r="D314" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E314">
+        <f t="shared" si="12"/>
+        <v>2.23</v>
+      </c>
+      <c r="F314" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="G314">
+        <f t="shared" si="12"/>
+        <v>6.18</v>
+      </c>
+      <c r="H314" t="str">
+        <f t="shared" si="12"/>
+        <v>Cont_0100</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>438</v>
+      </c>
+      <c r="B315" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C315" t="str">
+        <f t="shared" ref="C315:H315" si="13">C305</f>
+        <v>pi_Ephem</v>
+      </c>
+      <c r="D315" t="str">
+        <f t="shared" si="13"/>
+        <v>Decrease</v>
+      </c>
+      <c r="E315">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="F315" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="G315">
+        <f t="shared" si="13"/>
+        <v>59.7</v>
+      </c>
+      <c r="H315" t="str">
+        <f t="shared" si="13"/>
+        <v>Cont_0100</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>438</v>
+      </c>
+      <c r="B316" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C316" t="str">
+        <f t="shared" ref="C316:H316" si="14">C306</f>
+        <v>pi_Ortho</v>
+      </c>
+      <c r="D316" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E316">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="F316" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="G316">
+        <f t="shared" si="14"/>
+        <v>52.7</v>
+      </c>
+      <c r="H316" t="str">
+        <f t="shared" si="14"/>
+        <v>Cont_0100</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>438</v>
+      </c>
+      <c r="B317" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C317" t="str">
+        <f t="shared" ref="C317:H317" si="15">C307</f>
+        <v>pi_Dom05</v>
+      </c>
+      <c r="D317" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E317">
+        <f t="shared" si="15"/>
+        <v>48</v>
+      </c>
+      <c r="F317" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="G317">
+        <f t="shared" si="15"/>
+        <v>92</v>
+      </c>
+      <c r="H317" t="str">
+        <f t="shared" si="15"/>
+        <v>Cont_0100</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>438</v>
+      </c>
+      <c r="B318" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C318" t="str">
+        <f t="shared" ref="C318:H318" si="16">C308</f>
+        <v>nt_ffg_scrap</v>
+      </c>
+      <c r="D318" t="str">
+        <f t="shared" si="16"/>
+        <v>Decrease</v>
+      </c>
+      <c r="E318">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F318" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="G318">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="H318" t="str">
+        <f t="shared" si="16"/>
+        <v>Cont_0100</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>438</v>
+      </c>
+      <c r="B319" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="C319" t="s">
+        <v>14</v>
+      </c>
+      <c r="D319" t="s">
+        <v>15</v>
+      </c>
+      <c r="E319">
+        <v>14</v>
+      </c>
+      <c r="F319" t="s">
+        <v>83</v>
+      </c>
+      <c r="G319">
+        <v>38</v>
+      </c>
+      <c r="H319" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>438</v>
+      </c>
+      <c r="B320" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="C320" t="s">
+        <v>456</v>
+      </c>
+      <c r="D320" t="s">
+        <v>15</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320" t="s">
+        <v>83</v>
+      </c>
+      <c r="G320">
+        <v>15</v>
+      </c>
+      <c r="H320" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>438</v>
+      </c>
+      <c r="B321" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="C321" t="s">
+        <v>19</v>
+      </c>
+      <c r="D321" t="s">
+        <v>15</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321" t="s">
+        <v>83</v>
+      </c>
+      <c r="G321">
+        <v>9</v>
+      </c>
+      <c r="H321" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>438</v>
+      </c>
+      <c r="B322" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="C322" t="s">
+        <v>143</v>
+      </c>
+      <c r="D322" t="s">
+        <v>15</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322" t="s">
+        <v>83</v>
+      </c>
+      <c r="G322">
+        <v>7</v>
+      </c>
+      <c r="H322" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>438</v>
+      </c>
+      <c r="B323" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="C323" t="s">
+        <v>166</v>
+      </c>
+      <c r="D323" t="s">
+        <v>15</v>
+      </c>
+      <c r="E323">
+        <v>5</v>
+      </c>
+      <c r="F323" t="s">
+        <v>83</v>
+      </c>
+      <c r="G323">
+        <v>19</v>
+      </c>
+      <c r="H323" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>438</v>
+      </c>
+      <c r="B324" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="C324" t="s">
+        <v>77</v>
+      </c>
+      <c r="D324" t="s">
+        <v>15</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
+      <c r="F324" t="s">
+        <v>83</v>
+      </c>
+      <c r="G324">
+        <v>5</v>
+      </c>
+      <c r="H324" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>438</v>
+      </c>
+      <c r="B325" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="C325" t="s">
+        <v>142</v>
+      </c>
+      <c r="D325" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E325">
+        <v>2.79</v>
+      </c>
+      <c r="F325" t="s">
+        <v>83</v>
+      </c>
+      <c r="G325">
+        <v>6.2</v>
+      </c>
+      <c r="H325" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>438</v>
+      </c>
+      <c r="B326" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="C326" t="s">
+        <v>165</v>
+      </c>
+      <c r="D326" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E326">
+        <v>51</v>
+      </c>
+      <c r="F326" t="s">
+        <v>83</v>
+      </c>
+      <c r="G326">
+        <v>91.4</v>
+      </c>
+      <c r="H326" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>438</v>
+      </c>
+      <c r="B327" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="C327" t="s">
+        <v>457</v>
+      </c>
+      <c r="D327" t="s">
+        <v>15</v>
+      </c>
+      <c r="E327">
+        <v>5.2</v>
+      </c>
+      <c r="F327" t="s">
+        <v>83</v>
+      </c>
+      <c r="G327">
+        <v>86</v>
+      </c>
+      <c r="H327" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>438</v>
+      </c>
+      <c r="B328" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="C328" t="s">
+        <v>441</v>
+      </c>
+      <c r="D328" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328" t="s">
+        <v>83</v>
+      </c>
+      <c r="G328">
+        <v>37.1</v>
+      </c>
+      <c r="H328" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>438</v>
+      </c>
+      <c r="B329" t="s">
+        <v>446</v>
+      </c>
+      <c r="C329" t="s">
+        <v>456</v>
+      </c>
+      <c r="D329" t="s">
+        <v>15</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+      <c r="F329" t="s">
+        <v>83</v>
+      </c>
+      <c r="G329">
+        <v>11</v>
+      </c>
+      <c r="H329" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>438</v>
+      </c>
+      <c r="B330" t="s">
+        <v>446</v>
+      </c>
+      <c r="C330" t="s">
+        <v>17</v>
+      </c>
+      <c r="D330" t="s">
+        <v>15</v>
+      </c>
+      <c r="E330">
+        <v>5</v>
+      </c>
+      <c r="F330" t="s">
+        <v>83</v>
+      </c>
+      <c r="G330">
+        <v>18</v>
+      </c>
+      <c r="H330" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>438</v>
+      </c>
+      <c r="B331" t="s">
+        <v>446</v>
+      </c>
+      <c r="C331" t="s">
+        <v>166</v>
+      </c>
+      <c r="D331" t="s">
+        <v>15</v>
+      </c>
+      <c r="E331">
+        <v>8</v>
+      </c>
+      <c r="F331" t="s">
+        <v>83</v>
+      </c>
+      <c r="G331">
+        <v>19</v>
+      </c>
+      <c r="H331" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>438</v>
+      </c>
+      <c r="B332" t="s">
+        <v>446</v>
+      </c>
+      <c r="C332" t="s">
+        <v>142</v>
+      </c>
+      <c r="D332" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E332">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F332" t="s">
+        <v>83</v>
+      </c>
+      <c r="G332">
+        <v>5.87</v>
+      </c>
+      <c r="H332" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>438</v>
+      </c>
+      <c r="B333" t="s">
+        <v>446</v>
+      </c>
+      <c r="C333" t="s">
+        <v>457</v>
+      </c>
+      <c r="D333" t="s">
+        <v>15</v>
+      </c>
+      <c r="E333">
+        <v>13.8</v>
+      </c>
+      <c r="F333" t="s">
+        <v>83</v>
+      </c>
+      <c r="G333">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="H333" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>438</v>
+      </c>
+      <c r="B334" t="s">
+        <v>446</v>
+      </c>
+      <c r="C334" t="s">
+        <v>29</v>
+      </c>
+      <c r="D334" t="s">
+        <v>30</v>
+      </c>
+      <c r="E334">
+        <v>1.5</v>
+      </c>
+      <c r="F334" t="s">
+        <v>83</v>
+      </c>
+      <c r="G334">
+        <v>46.1</v>
+      </c>
+      <c r="H334" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>438</v>
+      </c>
+      <c r="B335" t="s">
+        <v>446</v>
+      </c>
+      <c r="C335" t="s">
+        <v>442</v>
+      </c>
+      <c r="D335" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E335">
+        <v>49</v>
+      </c>
+      <c r="F335" t="s">
+        <v>83</v>
+      </c>
+      <c r="G335">
+        <v>86.2</v>
+      </c>
+      <c r="H335" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>438</v>
+      </c>
+      <c r="B336" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="C336" t="s">
+        <v>456</v>
+      </c>
+      <c r="D336" t="s">
+        <v>15</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+      <c r="F336" t="s">
+        <v>83</v>
+      </c>
+      <c r="G336">
+        <v>15</v>
+      </c>
+      <c r="H336" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>438</v>
+      </c>
+      <c r="B337" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="C337" t="s">
+        <v>19</v>
+      </c>
+      <c r="D337" t="s">
+        <v>15</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+      <c r="F337" t="s">
+        <v>83</v>
+      </c>
+      <c r="G337">
+        <v>10</v>
+      </c>
+      <c r="H337" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>438</v>
+      </c>
+      <c r="B338" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="C338" t="s">
+        <v>143</v>
+      </c>
+      <c r="D338" t="s">
+        <v>15</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338" t="s">
+        <v>83</v>
+      </c>
+      <c r="G338">
+        <v>7</v>
+      </c>
+      <c r="H338" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>438</v>
+      </c>
+      <c r="B339" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="C339" t="s">
+        <v>166</v>
+      </c>
+      <c r="D339" t="s">
+        <v>15</v>
+      </c>
+      <c r="E339">
+        <v>3</v>
+      </c>
+      <c r="F339" t="s">
+        <v>83</v>
+      </c>
+      <c r="G339">
+        <v>17</v>
+      </c>
+      <c r="H339" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>438</v>
+      </c>
+      <c r="B340" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="C340" t="s">
+        <v>142</v>
+      </c>
+      <c r="D340" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E340">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F340" t="s">
+        <v>83</v>
+      </c>
+      <c r="G340">
+        <v>6.64</v>
+      </c>
+      <c r="H340" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>438</v>
+      </c>
+      <c r="B341" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="C341" t="s">
+        <v>457</v>
+      </c>
+      <c r="D341" t="s">
+        <v>15</v>
+      </c>
+      <c r="E341">
+        <v>2.5</v>
+      </c>
+      <c r="F341" t="s">
+        <v>83</v>
+      </c>
+      <c r="G341">
+        <v>90.8</v>
+      </c>
+      <c r="H341" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>438</v>
+      </c>
+      <c r="B342" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="C342" t="s">
+        <v>444</v>
+      </c>
+      <c r="D342" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E342">
+        <v>1.8</v>
+      </c>
+      <c r="F342" t="s">
+        <v>83</v>
+      </c>
+      <c r="G342">
+        <v>84.7</v>
+      </c>
+      <c r="H342" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>438</v>
+      </c>
+      <c r="B343" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="C343" t="s">
+        <v>445</v>
+      </c>
+      <c r="D343" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343" t="s">
+        <v>83</v>
+      </c>
+      <c r="G343">
+        <v>69.5</v>
+      </c>
+      <c r="H343" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A344" t="str">
+        <f>A336</f>
+        <v>WV_GLIMPSS</v>
+      </c>
+      <c r="B344" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="C344" t="str">
+        <f t="shared" ref="C344:H344" si="17">C336</f>
+        <v>nt_tv_intol4</v>
+      </c>
+      <c r="D344" t="str">
+        <f t="shared" si="17"/>
+        <v>Decrease</v>
+      </c>
+      <c r="E344">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="F344" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="G344">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="H344" t="str">
+        <f t="shared" si="17"/>
+        <v>Cont_0100</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A345" t="str">
+        <f t="shared" ref="A345:H345" si="18">A337</f>
+        <v>WV_GLIMPSS</v>
+      </c>
+      <c r="B345" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="C345" t="str">
+        <f t="shared" si="18"/>
+        <v>nt_Ephem</v>
+      </c>
+      <c r="D345" t="str">
+        <f t="shared" si="18"/>
+        <v>Decrease</v>
+      </c>
+      <c r="E345">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="F345" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="G345">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="H345" t="str">
+        <f t="shared" si="18"/>
+        <v>Cont_0100</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A346" t="str">
+        <f t="shared" ref="A346:H346" si="19">A338</f>
+        <v>WV_GLIMPSS</v>
+      </c>
+      <c r="B346" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="C346" t="str">
+        <f t="shared" si="19"/>
+        <v>nt_Pleco</v>
+      </c>
+      <c r="D346" t="str">
+        <f t="shared" si="19"/>
+        <v>Decrease</v>
+      </c>
+      <c r="E346">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F346" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="G346">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="H346" t="str">
+        <f t="shared" si="19"/>
+        <v>Cont_0100</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A347" t="str">
+        <f t="shared" ref="A347:H347" si="20">A339</f>
+        <v>WV_GLIMPSS</v>
+      </c>
+      <c r="B347" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="C347" t="str">
+        <f t="shared" si="20"/>
+        <v>nt_habit_cling</v>
+      </c>
+      <c r="D347" t="s">
+        <v>15</v>
+      </c>
+      <c r="E347">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="F347" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="G347">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="H347" t="str">
+        <f t="shared" si="20"/>
+        <v>Cont_0100</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A348" t="str">
+        <f t="shared" ref="A348:H348" si="21">A340</f>
+        <v>WV_GLIMPSS</v>
+      </c>
+      <c r="B348" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="C348" t="str">
+        <f t="shared" si="21"/>
+        <v>x_HBI</v>
+      </c>
+      <c r="D348" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E348">
+        <f t="shared" si="21"/>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F348" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="G348">
+        <f t="shared" si="21"/>
+        <v>6.64</v>
+      </c>
+      <c r="H348" t="str">
+        <f t="shared" si="21"/>
+        <v>Cont_0100</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A349" t="str">
+        <f t="shared" ref="A349:H349" si="22">A341</f>
+        <v>WV_GLIMPSS</v>
+      </c>
+      <c r="B349" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="C349" t="str">
+        <f t="shared" si="22"/>
+        <v>pi_EPTNoCheu</v>
+      </c>
+      <c r="D349" t="str">
+        <f t="shared" si="22"/>
+        <v>Decrease</v>
+      </c>
+      <c r="E349">
+        <f t="shared" si="22"/>
+        <v>2.5</v>
+      </c>
+      <c r="F349" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="G349">
+        <f t="shared" si="22"/>
+        <v>90.8</v>
+      </c>
+      <c r="H349" t="str">
+        <f t="shared" si="22"/>
+        <v>Cont_0100</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A350" t="str">
+        <f t="shared" ref="A350:H350" si="23">A342</f>
+        <v>WV_GLIMPSS</v>
+      </c>
+      <c r="B350" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="C350" t="str">
+        <f t="shared" si="23"/>
+        <v>pi_ChiroAnne</v>
+      </c>
+      <c r="D350" t="s">
+        <v>30</v>
+      </c>
+      <c r="E350">
+        <f t="shared" si="23"/>
+        <v>1.8</v>
+      </c>
+      <c r="F350" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="G350">
+        <f t="shared" si="23"/>
+        <v>84.7</v>
+      </c>
+      <c r="H350" t="str">
+        <f t="shared" si="23"/>
+        <v>Cont_0100</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A351" t="str">
+        <f t="shared" ref="A351:H351" si="24">A343</f>
+        <v>WV_GLIMPSS</v>
+      </c>
+      <c r="B351" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="C351" t="str">
+        <f t="shared" si="24"/>
+        <v>pi_tv_toler6</v>
+      </c>
+      <c r="D351" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E351">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F351" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="G351">
+        <f t="shared" si="24"/>
+        <v>69.5</v>
+      </c>
+      <c r="H351" t="str">
+        <f t="shared" si="24"/>
+        <v>Cont_0100</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>438</v>
+      </c>
+      <c r="B352" t="s">
+        <v>449</v>
+      </c>
+      <c r="C352" t="s">
+        <v>14</v>
+      </c>
+      <c r="D352" t="s">
+        <v>15</v>
+      </c>
+      <c r="E352">
+        <v>14</v>
+      </c>
+      <c r="F352" t="str">
+        <f t="shared" ref="F352" si="25">F344</f>
+        <v>NA</v>
+      </c>
+      <c r="G352">
+        <v>34</v>
+      </c>
+      <c r="H352" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>438</v>
+      </c>
+      <c r="B353" t="s">
+        <v>449</v>
+      </c>
+      <c r="C353" t="s">
+        <v>69</v>
+      </c>
+      <c r="D353" t="s">
+        <v>15</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353" t="str">
+        <f t="shared" ref="F353" si="26">F345</f>
+        <v>NA</v>
+      </c>
+      <c r="G353">
+        <v>7</v>
+      </c>
+      <c r="H353" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>438</v>
+      </c>
+      <c r="B354" t="s">
+        <v>449</v>
+      </c>
+      <c r="C354" t="s">
+        <v>19</v>
+      </c>
+      <c r="D354" t="s">
+        <v>15</v>
+      </c>
+      <c r="E354">
+        <v>0</v>
+      </c>
+      <c r="F354" t="str">
+        <f t="shared" ref="F354" si="27">F346</f>
+        <v>NA</v>
+      </c>
+      <c r="G354">
+        <v>7</v>
+      </c>
+      <c r="H354" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>438</v>
+      </c>
+      <c r="B355" t="s">
+        <v>449</v>
+      </c>
+      <c r="C355" t="s">
+        <v>166</v>
+      </c>
+      <c r="D355" t="s">
+        <v>15</v>
+      </c>
+      <c r="E355">
+        <v>4</v>
+      </c>
+      <c r="F355" t="str">
+        <f t="shared" ref="F355" si="28">F347</f>
+        <v>NA</v>
+      </c>
+      <c r="G355">
+        <v>15</v>
+      </c>
+      <c r="H355" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>438</v>
+      </c>
+      <c r="B356" t="s">
+        <v>449</v>
+      </c>
+      <c r="C356" t="s">
+        <v>25</v>
+      </c>
+      <c r="D356" t="s">
+        <v>15</v>
+      </c>
+      <c r="E356">
+        <v>1</v>
+      </c>
+      <c r="F356" t="str">
+        <f t="shared" ref="F356" si="29">F348</f>
+        <v>NA</v>
+      </c>
+      <c r="G356">
+        <v>7</v>
+      </c>
+      <c r="H356" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>438</v>
+      </c>
+      <c r="B357" t="s">
+        <v>449</v>
+      </c>
+      <c r="C357" t="s">
+        <v>142</v>
+      </c>
+      <c r="D357" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E357">
+        <v>6.32</v>
+      </c>
+      <c r="F357" t="str">
+        <f t="shared" ref="F357" si="30">F349</f>
+        <v>NA</v>
+      </c>
+      <c r="G357">
+        <v>3.82</v>
+      </c>
+      <c r="H357" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>438</v>
+      </c>
+      <c r="B358" t="s">
+        <v>449</v>
+      </c>
+      <c r="C358" t="s">
+        <v>442</v>
+      </c>
+      <c r="D358" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E358">
+        <v>52.8</v>
+      </c>
+      <c r="F358" t="str">
+        <f t="shared" ref="F358" si="31">F350</f>
+        <v>NA</v>
+      </c>
+      <c r="G358">
+        <v>91.5</v>
+      </c>
+      <c r="H358" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>438</v>
+      </c>
+      <c r="B359" t="s">
+        <v>449</v>
+      </c>
+      <c r="C359" t="s">
+        <v>457</v>
+      </c>
+      <c r="D359" t="s">
+        <v>15</v>
+      </c>
+      <c r="E359">
+        <v>1.3</v>
+      </c>
+      <c r="F359" t="str">
+        <f t="shared" ref="F359" si="32">F351</f>
+        <v>NA</v>
+      </c>
+      <c r="G359">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H359" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>438</v>
+      </c>
+      <c r="B360" t="s">
+        <v>449</v>
+      </c>
+      <c r="C360" t="s">
+        <v>29</v>
+      </c>
+      <c r="D360" t="s">
+        <v>30</v>
+      </c>
+      <c r="E360">
+        <v>3.3</v>
+      </c>
+      <c r="F360" t="str">
+        <f t="shared" ref="F360" si="33">F352</f>
+        <v>NA</v>
+      </c>
+      <c r="G360">
+        <v>68.8</v>
+      </c>
+      <c r="H360" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ298" xr:uid="{FED77011-9DA1-4ED4-AF67-599FA276C79A}"/>
+  <autoFilter ref="A1:AJ360" xr:uid="{FED77011-9DA1-4ED4-AF67-599FA276C79A}"/>
   <conditionalFormatting sqref="D2:D185 D210 D203:D207 H203 F205:F225">
-    <cfRule type="cellIs" dxfId="106" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="185" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="186" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D188:D202">
-    <cfRule type="cellIs" dxfId="104" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="183" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="184" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D186">
-    <cfRule type="cellIs" dxfId="102" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="181" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="182" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D187">
-    <cfRule type="cellIs" dxfId="100" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="179" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="180" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O186:O207">
-    <cfRule type="expression" dxfId="98" priority="168">
+    <cfRule type="expression" dxfId="108" priority="178">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E204:F204 E209:E213 F203">
-    <cfRule type="cellIs" dxfId="97" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="176" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="177" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H204:H207">
-    <cfRule type="cellIs" dxfId="95" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="164" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="165" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U186:Z202">
-    <cfRule type="expression" dxfId="93" priority="178">
+    <cfRule type="expression" dxfId="103" priority="188">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q186:R207 V203:Z207">
-    <cfRule type="expression" dxfId="92" priority="180">
+    <cfRule type="expression" dxfId="102" priority="190">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P186:P207">
-    <cfRule type="expression" dxfId="91" priority="182">
+    <cfRule type="expression" dxfId="101" priority="192">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H208">
+    <cfRule type="cellIs" dxfId="100" priority="162" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="163" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H215">
+    <cfRule type="cellIs" dxfId="98" priority="160" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="161" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H216:H219">
+    <cfRule type="cellIs" dxfId="96" priority="158" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="159" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H220">
+    <cfRule type="cellIs" dxfId="94" priority="156" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="157" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H209:H213">
+    <cfRule type="cellIs" dxfId="92" priority="154" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="155" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H221">
     <cfRule type="cellIs" dxfId="90" priority="152" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -16457,7 +18443,7 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H215">
+  <conditionalFormatting sqref="H223:H225">
     <cfRule type="cellIs" dxfId="88" priority="150" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -16465,196 +18451,196 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H216:H219">
-    <cfRule type="cellIs" dxfId="86" priority="148" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="149" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H220">
-    <cfRule type="cellIs" dxfId="84" priority="146" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="147" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H209:H213">
-    <cfRule type="cellIs" dxfId="82" priority="144" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="145" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H221">
-    <cfRule type="cellIs" dxfId="80" priority="142" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="143" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H223:H225">
-    <cfRule type="cellIs" dxfId="78" priority="140" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="141" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L186:M204">
-    <cfRule type="expression" dxfId="76" priority="183">
+    <cfRule type="expression" dxfId="86" priority="193">
       <formula>E186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H214">
-    <cfRule type="cellIs" dxfId="75" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="146" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="147" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D212">
-    <cfRule type="cellIs" dxfId="73" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="144" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="145" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D222">
-    <cfRule type="cellIs" dxfId="71" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="142" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="143" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D224">
-    <cfRule type="cellIs" dxfId="69" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="140" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="141" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N186:N204">
-    <cfRule type="expression" dxfId="67" priority="185">
+    <cfRule type="expression" dxfId="77" priority="195">
       <formula>F186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J186:J202">
-    <cfRule type="expression" dxfId="66" priority="186">
+    <cfRule type="expression" dxfId="76" priority="196">
       <formula>D186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S203:S207 S186:T202 S208:T226 AA203:AA207">
-    <cfRule type="expression" dxfId="65" priority="188">
+    <cfRule type="expression" dxfId="75" priority="198">
       <formula>F186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O215:O219">
-    <cfRule type="expression" dxfId="64" priority="128">
+    <cfRule type="expression" dxfId="74" priority="138">
       <formula>E215="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O220">
-    <cfRule type="expression" dxfId="63" priority="127">
+    <cfRule type="expression" dxfId="73" priority="137">
       <formula>E220="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P208">
-    <cfRule type="expression" dxfId="62" priority="126">
+    <cfRule type="expression" dxfId="72" priority="136">
       <formula>E208="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P215:P219">
-    <cfRule type="expression" dxfId="61" priority="125">
+    <cfRule type="expression" dxfId="71" priority="135">
       <formula>E215="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P220">
-    <cfRule type="expression" dxfId="60" priority="123">
+    <cfRule type="expression" dxfId="70" priority="133">
       <formula>E220="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U203:U207">
-    <cfRule type="expression" dxfId="59" priority="118">
+    <cfRule type="expression" dxfId="69" priority="128">
       <formula>I203="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T203:T207">
-    <cfRule type="expression" dxfId="58" priority="116">
+    <cfRule type="expression" dxfId="68" priority="126">
       <formula>G203="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P228">
-    <cfRule type="expression" dxfId="57" priority="113">
+    <cfRule type="expression" dxfId="67" priority="123">
       <formula>E228="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P240">
-    <cfRule type="expression" dxfId="56" priority="112">
+    <cfRule type="expression" dxfId="66" priority="122">
       <formula>E240="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P241">
-    <cfRule type="expression" dxfId="55" priority="111">
+    <cfRule type="expression" dxfId="65" priority="121">
       <formula>E241="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P242:P243">
-    <cfRule type="expression" dxfId="54" priority="110">
+    <cfRule type="expression" dxfId="64" priority="120">
       <formula>E242="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P230:P231">
-    <cfRule type="expression" dxfId="53" priority="109">
+    <cfRule type="expression" dxfId="63" priority="119">
       <formula>E230="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O263:O268 O251:O256 O239:O244 O227:O232">
-    <cfRule type="expression" dxfId="52" priority="108">
+    <cfRule type="expression" dxfId="62" priority="118">
       <formula>E227="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F248">
-    <cfRule type="cellIs" dxfId="51" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="116" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="117" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H248">
-    <cfRule type="cellIs" dxfId="49" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="114" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="115" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F272">
-    <cfRule type="cellIs" dxfId="47" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="112" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="113" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H272">
-    <cfRule type="cellIs" dxfId="45" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="110" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="111" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F274 F262 F250 F238 F226">
+    <cfRule type="cellIs" dxfId="53" priority="106" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="107" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H263:H268 H251:H256 H239:H244 H227:H232">
+    <cfRule type="cellIs" dxfId="51" priority="104" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="105" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H273 H269 H257 H249 H245 H233 H235:H237 H247 H259:H261 H271">
+    <cfRule type="cellIs" dxfId="49" priority="102" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="103" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L272 L248 L224">
+    <cfRule type="cellIs" dxfId="47" priority="100" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="101" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E230:E231 E228 E220 E216:E217 E240:E243">
+    <cfRule type="cellIs" dxfId="45" priority="98" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="99" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H274 H262 H250 H238 H226">
     <cfRule type="cellIs" dxfId="43" priority="96" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -16662,7 +18648,7 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H263:H268 H251:H256 H239:H244 H227:H232">
+  <conditionalFormatting sqref="E274 E262 E250 E238 E226 E214">
     <cfRule type="cellIs" dxfId="41" priority="94" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -16670,139 +18656,139 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H273 H269 H257 H249 H245 H233 H235:H237 H247 H259:H261 H271">
-    <cfRule type="cellIs" dxfId="39" priority="92" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="93" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L272 L248 L224">
-    <cfRule type="cellIs" dxfId="37" priority="90" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="91" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E230:E231 E228 E220 E216:E217 E240:E243">
-    <cfRule type="cellIs" dxfId="35" priority="88" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="89" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H274 H262 H250 H238 H226">
-    <cfRule type="cellIs" dxfId="33" priority="86" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="87" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E274 E262 E250 E238 E226 E214">
-    <cfRule type="cellIs" dxfId="31" priority="84" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="85" operator="equal">
-      <formula>"Increase"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O208">
-    <cfRule type="expression" dxfId="29" priority="83">
+    <cfRule type="expression" dxfId="39" priority="93">
       <formula>E208="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F276 E275:F275">
-    <cfRule type="cellIs" dxfId="28" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="81" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="82" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R275">
-    <cfRule type="expression" dxfId="26" priority="68">
+    <cfRule type="expression" dxfId="36" priority="78">
       <formula>E275="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S275">
-    <cfRule type="expression" dxfId="25" priority="67">
+    <cfRule type="expression" dxfId="35" priority="77">
       <formula>F275="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R276">
-    <cfRule type="expression" dxfId="24" priority="64">
+    <cfRule type="expression" dxfId="34" priority="74">
       <formula>E276="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S276">
-    <cfRule type="expression" dxfId="23" priority="63">
+    <cfRule type="expression" dxfId="33" priority="73">
       <formula>F276="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F282 E281:F281">
-    <cfRule type="cellIs" dxfId="22" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="63" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="64" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R281">
-    <cfRule type="expression" dxfId="20" priority="50">
+    <cfRule type="expression" dxfId="30" priority="60">
       <formula>E281="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S281">
-    <cfRule type="expression" dxfId="19" priority="49">
+    <cfRule type="expression" dxfId="29" priority="59">
       <formula>F281="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R282">
-    <cfRule type="expression" dxfId="18" priority="46">
+    <cfRule type="expression" dxfId="28" priority="56">
       <formula>E282="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S282">
-    <cfRule type="expression" dxfId="17" priority="45">
+    <cfRule type="expression" dxfId="27" priority="55">
       <formula>F282="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H275">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H276:H286">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB186:AC202">
-    <cfRule type="expression" dxfId="12" priority="190">
+    <cfRule type="expression" dxfId="22" priority="200">
       <formula>J186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA186:AA202">
-    <cfRule type="expression" dxfId="11" priority="192">
+    <cfRule type="expression" dxfId="21" priority="202">
       <formula>J186="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB203:AC207">
-    <cfRule type="expression" dxfId="10" priority="195">
+    <cfRule type="expression" dxfId="20" priority="205">
       <formula>N203="Increase"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H222">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H234">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H246">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H258">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H270">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"Increase"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D330">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -16810,7 +18796,7 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H234">
+  <conditionalFormatting sqref="D324">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -16818,7 +18804,7 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H246">
+  <conditionalFormatting sqref="D334">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -16826,7 +18812,7 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H258">
+  <conditionalFormatting sqref="D360">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -16834,7 +18820,7 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H270">
+  <conditionalFormatting sqref="D350">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -16853,12 +18839,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19496,6 +21482,419 @@
         <v>83</v>
       </c>
       <c r="W45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>438</v>
+      </c>
+      <c r="B46" t="s">
+        <v>439</v>
+      </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" t="s">
+        <v>451</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>26</v>
+      </c>
+      <c r="J46">
+        <v>53</v>
+      </c>
+      <c r="K46">
+        <v>66</v>
+      </c>
+      <c r="L46">
+        <v>100</v>
+      </c>
+      <c r="O46" t="s">
+        <v>453</v>
+      </c>
+      <c r="P46" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>461</v>
+      </c>
+      <c r="R46" t="s">
+        <v>287</v>
+      </c>
+      <c r="U46" t="b">
+        <v>0</v>
+      </c>
+      <c r="V46" t="s">
+        <v>83</v>
+      </c>
+      <c r="W46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>438</v>
+      </c>
+      <c r="B47" t="s">
+        <v>447</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" t="s">
+        <v>451</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>27</v>
+      </c>
+      <c r="J47">
+        <v>55</v>
+      </c>
+      <c r="K47">
+        <v>67</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="O47" t="s">
+        <v>453</v>
+      </c>
+      <c r="P47" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>461</v>
+      </c>
+      <c r="R47" t="s">
+        <v>287</v>
+      </c>
+      <c r="U47" t="b">
+        <v>0</v>
+      </c>
+      <c r="V47" t="s">
+        <v>83</v>
+      </c>
+      <c r="W47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>438</v>
+      </c>
+      <c r="B48" t="s">
+        <v>446</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" t="s">
+        <v>451</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>26</v>
+      </c>
+      <c r="J48">
+        <v>52</v>
+      </c>
+      <c r="K48">
+        <v>66</v>
+      </c>
+      <c r="L48">
+        <v>100</v>
+      </c>
+      <c r="O48" t="s">
+        <v>453</v>
+      </c>
+      <c r="P48" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>461</v>
+      </c>
+      <c r="R48" t="s">
+        <v>287</v>
+      </c>
+      <c r="U48" t="b">
+        <v>0</v>
+      </c>
+      <c r="V48" t="s">
+        <v>83</v>
+      </c>
+      <c r="W48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>438</v>
+      </c>
+      <c r="B49" t="s">
+        <v>448</v>
+      </c>
+      <c r="C49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" t="s">
+        <v>451</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>31</v>
+      </c>
+      <c r="J49">
+        <v>63</v>
+      </c>
+      <c r="K49">
+        <v>72</v>
+      </c>
+      <c r="L49">
+        <v>100</v>
+      </c>
+      <c r="O49" t="s">
+        <v>453</v>
+      </c>
+      <c r="P49" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>461</v>
+      </c>
+      <c r="R49" t="s">
+        <v>287</v>
+      </c>
+      <c r="U49" t="b">
+        <v>0</v>
+      </c>
+      <c r="V49" t="s">
+        <v>83</v>
+      </c>
+      <c r="W49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>438</v>
+      </c>
+      <c r="B50" t="s">
+        <v>443</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" t="s">
+        <v>451</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>30</v>
+      </c>
+      <c r="J50">
+        <v>61</v>
+      </c>
+      <c r="K50">
+        <v>66</v>
+      </c>
+      <c r="L50">
+        <v>100</v>
+      </c>
+      <c r="O50" t="s">
+        <v>453</v>
+      </c>
+      <c r="P50" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>461</v>
+      </c>
+      <c r="R50" t="s">
+        <v>287</v>
+      </c>
+      <c r="U50" t="b">
+        <v>0</v>
+      </c>
+      <c r="V50" t="s">
+        <v>83</v>
+      </c>
+      <c r="W50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>438</v>
+      </c>
+      <c r="B51" t="s">
+        <v>449</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" t="s">
+        <v>451</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>28</v>
+      </c>
+      <c r="J51">
+        <v>57</v>
+      </c>
+      <c r="K51">
+        <v>65</v>
+      </c>
+      <c r="L51">
+        <v>100</v>
+      </c>
+      <c r="O51" t="s">
+        <v>453</v>
+      </c>
+      <c r="P51" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>461</v>
+      </c>
+      <c r="R51" t="s">
+        <v>287</v>
+      </c>
+      <c r="U51" t="b">
+        <v>0</v>
+      </c>
+      <c r="V51" t="s">
+        <v>83</v>
+      </c>
+      <c r="W51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>438</v>
+      </c>
+      <c r="B52" t="s">
+        <v>450</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" t="s">
+        <v>451</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>32</v>
+      </c>
+      <c r="J52">
+        <v>65</v>
+      </c>
+      <c r="K52">
+        <v>74</v>
+      </c>
+      <c r="L52">
+        <v>100</v>
+      </c>
+      <c r="O52" t="s">
+        <v>453</v>
+      </c>
+      <c r="P52" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>461</v>
+      </c>
+      <c r="R52" t="s">
+        <v>287</v>
+      </c>
+      <c r="U52" t="b">
+        <v>0</v>
+      </c>
+      <c r="V52" t="s">
+        <v>83</v>
+      </c>
+      <c r="W52" t="s">
         <v>83</v>
       </c>
     </row>
@@ -19609,16 +22008,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11763AB-DE5A-4277-BE65-88CD3BDAAE84}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -19709,7 +22109,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>428</v>
       </c>
@@ -19718,11 +22118,28 @@
       </c>
       <c r="C17" t="s">
         <v>432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>438</v>
+      </c>
+      <c r="C20" t="s">
+        <v>455</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" display="http://files.dep.state.pa.us/Water/Drinking Water and Facility Regulation/WaterQualityPortalFiles/Technical Documentation/freestoneIBImarch2012.pdf" xr:uid="{8DDF3760-F620-49EC-AB3A-0D29539F888A}"/>
+    <hyperlink ref="D20" r:id="rId2" xr:uid="{6E6210BD-8D7B-474E-8D14-6517A2A58B4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20110,6 +22527,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100557C7523FAC84E43A0DA62C173857381" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4b9ddb1302998b61081aed2913076a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" xmlns:ns4="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3079d22dc9190cbddbf9f4c007b8016d" ns3:_="" ns4:_="">
     <xsd:import namespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
@@ -20332,12 +22755,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -20348,6 +22765,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19304C29-C31A-47A1-B855-8D09E823E92C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20366,23 +22800,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
   <ds:schemaRefs>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C3D134-0EB2-47AB-9EF5-A5E4D588127D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F348D1-6A47-4313-8AEB-6017ED0ED573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29535" yWindow="1335" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1935,9 +1935,6 @@
     <t>Degraded</t>
   </si>
   <si>
-    <t>Severely Degraded</t>
-  </si>
-  <si>
     <t>https://dep.wv.gov/WWE/watershed/bio_fish/Documents/20110829GLIMPSSFinalWVDEPDOI.pdf</t>
   </si>
   <si>
@@ -1959,7 +1956,10 @@
     <t>did not add Midge Family index (CF)</t>
   </si>
   <si>
-    <t>Non-Degraded</t>
+    <t>Severely degraded</t>
+  </si>
+  <si>
+    <t>Very good</t>
   </si>
 </sst>
 </file>
@@ -4055,7 +4055,7 @@
         <v>44007</v>
       </c>
       <c r="B37" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -4063,7 +4063,7 @@
         <v>44011</v>
       </c>
       <c r="B38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -16603,7 +16603,7 @@
         <v>439</v>
       </c>
       <c r="C299" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D299" t="s">
         <v>15</v>
@@ -17206,7 +17206,7 @@
         <v>447</v>
       </c>
       <c r="C320" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D320" t="s">
         <v>15</v>
@@ -17388,7 +17388,7 @@
         <v>447</v>
       </c>
       <c r="C327" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D327" t="s">
         <v>15</v>
@@ -17440,7 +17440,7 @@
         <v>446</v>
       </c>
       <c r="C329" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D329" t="s">
         <v>15</v>
@@ -17544,7 +17544,7 @@
         <v>446</v>
       </c>
       <c r="C333" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D333" t="s">
         <v>15</v>
@@ -17622,7 +17622,7 @@
         <v>443</v>
       </c>
       <c r="C336" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D336" t="s">
         <v>15</v>
@@ -17752,7 +17752,7 @@
         <v>443</v>
       </c>
       <c r="C341" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D341" t="s">
         <v>15</v>
@@ -18279,7 +18279,7 @@
         <v>449</v>
       </c>
       <c r="C359" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D359" t="s">
         <v>15</v>
@@ -18841,10 +18841,10 @@
   </sheetPr>
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46:B52"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21523,16 +21523,16 @@
         <v>100</v>
       </c>
       <c r="O46" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="P46" t="s">
         <v>452</v>
       </c>
       <c r="Q46" t="s">
+        <v>131</v>
+      </c>
+      <c r="R46" t="s">
         <v>461</v>
-      </c>
-      <c r="R46" t="s">
-        <v>287</v>
       </c>
       <c r="U46" t="b">
         <v>0</v>
@@ -21582,16 +21582,16 @@
         <v>100</v>
       </c>
       <c r="O47" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="P47" t="s">
         <v>452</v>
       </c>
       <c r="Q47" t="s">
+        <v>131</v>
+      </c>
+      <c r="R47" t="s">
         <v>461</v>
-      </c>
-      <c r="R47" t="s">
-        <v>287</v>
       </c>
       <c r="U47" t="b">
         <v>0</v>
@@ -21641,16 +21641,16 @@
         <v>100</v>
       </c>
       <c r="O48" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="P48" t="s">
         <v>452</v>
       </c>
       <c r="Q48" t="s">
+        <v>131</v>
+      </c>
+      <c r="R48" t="s">
         <v>461</v>
-      </c>
-      <c r="R48" t="s">
-        <v>287</v>
       </c>
       <c r="U48" t="b">
         <v>0</v>
@@ -21700,16 +21700,16 @@
         <v>100</v>
       </c>
       <c r="O49" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="P49" t="s">
         <v>452</v>
       </c>
       <c r="Q49" t="s">
+        <v>131</v>
+      </c>
+      <c r="R49" t="s">
         <v>461</v>
-      </c>
-      <c r="R49" t="s">
-        <v>287</v>
       </c>
       <c r="U49" t="b">
         <v>0</v>
@@ -21759,16 +21759,16 @@
         <v>100</v>
       </c>
       <c r="O50" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="P50" t="s">
         <v>452</v>
       </c>
       <c r="Q50" t="s">
+        <v>131</v>
+      </c>
+      <c r="R50" t="s">
         <v>461</v>
-      </c>
-      <c r="R50" t="s">
-        <v>287</v>
       </c>
       <c r="U50" t="b">
         <v>0</v>
@@ -21818,16 +21818,16 @@
         <v>100</v>
       </c>
       <c r="O51" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="P51" t="s">
         <v>452</v>
       </c>
       <c r="Q51" t="s">
+        <v>131</v>
+      </c>
+      <c r="R51" t="s">
         <v>461</v>
-      </c>
-      <c r="R51" t="s">
-        <v>287</v>
       </c>
       <c r="U51" t="b">
         <v>0</v>
@@ -21877,16 +21877,16 @@
         <v>100</v>
       </c>
       <c r="O52" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="P52" t="s">
         <v>452</v>
       </c>
       <c r="Q52" t="s">
+        <v>131</v>
+      </c>
+      <c r="R52" t="s">
         <v>461</v>
-      </c>
-      <c r="R52" t="s">
-        <v>287</v>
       </c>
       <c r="U52" t="b">
         <v>0</v>
@@ -22125,15 +22125,15 @@
         <v>438</v>
       </c>
       <c r="C20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -22527,9 +22527,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22756,27 +22759,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22801,9 +22792,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F348D1-6A47-4313-8AEB-6017ED0ED573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="13_ncr:1_{44F348D1-6A47-4313-8AEB-6017ED0ED573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{BBCC1EE9-B984-44A8-92BF-BABDADB39380}"/>
   <bookViews>
-    <workbookView xWindow="29535" yWindow="1335" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2460" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">index.scoring!$A$1:$W$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$AJ$360</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metric.scoring!$A$1:$AJ$401</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -574,7 +574,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4206" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4474" uniqueCount="481">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -1761,9 +1761,6 @@
     <t>ScoringRegimes</t>
   </si>
   <si>
-    <t>Scoring Remines described.</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -1960,13 +1957,73 @@
   </si>
   <si>
     <t>Very good</t>
+  </si>
+  <si>
+    <t>Scoring Regimes described.</t>
+  </si>
+  <si>
+    <t>MI_EGLE_2020</t>
+  </si>
+  <si>
+    <t>MidSizeDry</t>
+  </si>
+  <si>
+    <t>pt_nonIns</t>
+  </si>
+  <si>
+    <t>nt_CruMol</t>
+  </si>
+  <si>
+    <t>pi_CruMol</t>
+  </si>
+  <si>
+    <t>Narrow</t>
+  </si>
+  <si>
+    <t>pi_EPT</t>
+  </si>
+  <si>
+    <t>VeryNarrow</t>
+  </si>
+  <si>
+    <t>WetWide</t>
+  </si>
+  <si>
+    <t>nt_nonIns</t>
+  </si>
+  <si>
+    <t>pi_IsoSnlLch</t>
+  </si>
+  <si>
+    <t>pi_nonIns</t>
+  </si>
+  <si>
+    <t>WestFlat</t>
+  </si>
+  <si>
+    <t>pi_ffg_cllct</t>
+  </si>
+  <si>
+    <t>pi_hab_sprwl</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>WestSteep</t>
+  </si>
+  <si>
+    <t>pi_Cru</t>
+  </si>
+  <si>
+    <t>pi_habit_sprawl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2096,8 +2153,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2155,6 +2218,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2196,7 +2301,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -2235,6 +2340,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -3796,8 +3909,8 @@
   </sheetPr>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3834,7 +3947,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\[MetricScoring.xlsx]</v>
+        <v>C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\[MetricScoring.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3927,7 +4040,7 @@
         <v>394</v>
       </c>
       <c r="B20" t="s">
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="C20" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4055,7 +4168,7 @@
         <v>44007</v>
       </c>
       <c r="B37" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -4063,7 +4176,7 @@
         <v>44011</v>
       </c>
       <c r="B38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -4094,14 +4207,14 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AJ360"/>
+  <dimension ref="A1:AJ401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D342" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D372" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="C336" sqref="C336"/>
+      <selection pane="bottomRight" activeCell="B397" sqref="B397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4211,25 +4324,25 @@
         <v>371</v>
       </c>
       <c r="W1" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="X1" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="Y1" s="12" t="s">
-        <v>415</v>
-      </c>
       <c r="Z1" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="AB1" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="AA1" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AC1" s="12" t="s">
         <v>418</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>419</v>
       </c>
       <c r="AD1" s="19" t="s">
         <v>330</v>
@@ -10590,7 +10703,7 @@
         <v>345</v>
       </c>
       <c r="C203" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D203" t="s">
         <v>15</v>
@@ -11057,7 +11170,7 @@
         <v>53</v>
       </c>
       <c r="H210" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I210" s="10">
         <v>8</v>
@@ -11105,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="AB210" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AC210">
         <v>1</v>
@@ -11379,7 +11492,7 @@
         <v>346</v>
       </c>
       <c r="C215" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D215" t="s">
         <v>15</v>
@@ -11858,7 +11971,7 @@
         <v>53</v>
       </c>
       <c r="H222" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I222" s="10">
         <v>8</v>
@@ -11906,7 +12019,7 @@
         <v>0</v>
       </c>
       <c r="AB222" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AC222">
         <v>1</v>
@@ -12180,7 +12293,7 @@
         <v>360</v>
       </c>
       <c r="C227" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D227" t="s">
         <v>15</v>
@@ -12658,7 +12771,7 @@
         <v>46</v>
       </c>
       <c r="H234" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I234" s="10">
         <v>8</v>
@@ -12706,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="AB234" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AC234">
         <v>1</v>
@@ -12980,7 +13093,7 @@
         <v>361</v>
       </c>
       <c r="C239" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D239" t="s">
         <v>15</v>
@@ -13461,7 +13574,7 @@
         <v>46</v>
       </c>
       <c r="H246" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I246" s="10">
         <v>8</v>
@@ -13509,7 +13622,7 @@
         <v>0</v>
       </c>
       <c r="AB246" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AC246">
         <v>1</v>
@@ -13783,7 +13896,7 @@
         <v>362</v>
       </c>
       <c r="C251" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D251" t="s">
         <v>15</v>
@@ -14253,7 +14366,7 @@
         <v>45</v>
       </c>
       <c r="H258" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I258" s="10">
         <v>8</v>
@@ -14301,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="AB258" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AC258">
         <v>1</v>
@@ -14575,7 +14688,7 @@
         <v>363</v>
       </c>
       <c r="C263" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D263" t="s">
         <v>15</v>
@@ -15045,7 +15158,7 @@
         <v>45</v>
       </c>
       <c r="H270" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I270" s="10">
         <v>8</v>
@@ -15093,7 +15206,7 @@
         <v>0</v>
       </c>
       <c r="AB270" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AC270">
         <v>1</v>
@@ -15367,7 +15480,7 @@
         <v>345</v>
       </c>
       <c r="C275" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D275" t="s">
         <v>15</v>
@@ -15382,7 +15495,7 @@
         <v>670</v>
       </c>
       <c r="H275" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I275" s="10">
         <v>12</v>
@@ -15433,7 +15546,7 @@
         <v>1</v>
       </c>
       <c r="Y275" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="276" spans="1:25" x14ac:dyDescent="0.25">
@@ -15444,7 +15557,7 @@
         <v>346</v>
       </c>
       <c r="C276" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D276" t="s">
         <v>15</v>
@@ -15459,7 +15572,7 @@
         <v>670</v>
       </c>
       <c r="H276" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I276" s="10">
         <v>12</v>
@@ -15510,7 +15623,7 @@
         <v>1</v>
       </c>
       <c r="Y276" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="277" spans="1:25" x14ac:dyDescent="0.25">
@@ -15521,7 +15634,7 @@
         <v>360</v>
       </c>
       <c r="C277" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D277" t="s">
         <v>15</v>
@@ -15536,7 +15649,7 @@
         <v>450</v>
       </c>
       <c r="H277" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I277" s="10">
         <v>12</v>
@@ -15587,7 +15700,7 @@
         <v>1</v>
       </c>
       <c r="Y277" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="278" spans="1:25" x14ac:dyDescent="0.25">
@@ -15598,7 +15711,7 @@
         <v>361</v>
       </c>
       <c r="C278" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D278" t="s">
         <v>15</v>
@@ -15613,7 +15726,7 @@
         <v>450</v>
       </c>
       <c r="H278" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I278" s="10">
         <v>12</v>
@@ -15664,7 +15777,7 @@
         <v>1</v>
       </c>
       <c r="Y278" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="279" spans="1:25" x14ac:dyDescent="0.25">
@@ -15675,7 +15788,7 @@
         <v>362</v>
       </c>
       <c r="C279" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D279" t="s">
         <v>15</v>
@@ -15690,7 +15803,7 @@
         <v>640</v>
       </c>
       <c r="H279" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I279" s="10">
         <v>12</v>
@@ -15741,7 +15854,7 @@
         <v>1</v>
       </c>
       <c r="Y279" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="280" spans="1:25" x14ac:dyDescent="0.25">
@@ -15752,7 +15865,7 @@
         <v>363</v>
       </c>
       <c r="C280" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D280" t="s">
         <v>15</v>
@@ -15767,7 +15880,7 @@
         <v>640</v>
       </c>
       <c r="H280" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I280" s="10">
         <v>12</v>
@@ -15818,7 +15931,7 @@
         <v>1</v>
       </c>
       <c r="Y280" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="281" spans="1:25" x14ac:dyDescent="0.25">
@@ -15829,7 +15942,7 @@
         <v>345</v>
       </c>
       <c r="C281" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D281" t="s">
         <v>15</v>
@@ -15844,7 +15957,7 @@
         <v>670</v>
       </c>
       <c r="H281" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I281" s="10">
         <v>12</v>
@@ -15895,7 +16008,7 @@
         <v>1</v>
       </c>
       <c r="Y281" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="282" spans="1:25" x14ac:dyDescent="0.25">
@@ -15906,7 +16019,7 @@
         <v>346</v>
       </c>
       <c r="C282" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D282" t="s">
         <v>15</v>
@@ -15921,7 +16034,7 @@
         <v>670</v>
       </c>
       <c r="H282" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I282" s="10">
         <v>12</v>
@@ -15972,7 +16085,7 @@
         <v>1</v>
       </c>
       <c r="Y282" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="283" spans="1:25" x14ac:dyDescent="0.25">
@@ -15983,7 +16096,7 @@
         <v>360</v>
       </c>
       <c r="C283" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D283" t="s">
         <v>15</v>
@@ -15998,7 +16111,7 @@
         <v>450</v>
       </c>
       <c r="H283" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I283" s="10">
         <v>12</v>
@@ -16049,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="Y283" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="284" spans="1:25" x14ac:dyDescent="0.25">
@@ -16060,7 +16173,7 @@
         <v>361</v>
       </c>
       <c r="C284" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D284" t="s">
         <v>15</v>
@@ -16075,7 +16188,7 @@
         <v>450</v>
       </c>
       <c r="H284" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I284" s="10">
         <v>12</v>
@@ -16126,7 +16239,7 @@
         <v>1</v>
       </c>
       <c r="Y284" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="285" spans="1:25" x14ac:dyDescent="0.25">
@@ -16137,7 +16250,7 @@
         <v>362</v>
       </c>
       <c r="C285" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D285" t="s">
         <v>15</v>
@@ -16152,7 +16265,7 @@
         <v>640</v>
       </c>
       <c r="H285" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I285" s="10">
         <v>12</v>
@@ -16203,7 +16316,7 @@
         <v>1</v>
       </c>
       <c r="Y285" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="286" spans="1:25" x14ac:dyDescent="0.25">
@@ -16214,7 +16327,7 @@
         <v>363</v>
       </c>
       <c r="C286" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D286" t="s">
         <v>15</v>
@@ -16229,7 +16342,7 @@
         <v>640</v>
       </c>
       <c r="H286" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I286" s="10">
         <v>12</v>
@@ -16280,15 +16393,15 @@
         <v>1</v>
       </c>
       <c r="Y286" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B287" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C287" t="s">
         <v>14</v>
@@ -16311,13 +16424,13 @@
     </row>
     <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>432</v>
+      </c>
+      <c r="B288" t="s">
+        <v>436</v>
+      </c>
+      <c r="C288" t="s">
         <v>433</v>
-      </c>
-      <c r="B288" t="s">
-        <v>437</v>
-      </c>
-      <c r="C288" t="s">
-        <v>434</v>
       </c>
       <c r="D288" t="s">
         <v>15</v>
@@ -16337,13 +16450,13 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B289" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C289" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D289" t="s">
         <v>15</v>
@@ -16363,10 +16476,10 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B290" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C290" t="s">
         <v>142</v>
@@ -16389,10 +16502,10 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B291" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C291" t="s">
         <v>76</v>
@@ -16415,10 +16528,10 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B292" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C292" t="s">
         <v>253</v>
@@ -16441,10 +16554,10 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B293" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C293" t="s">
         <v>14</v>
@@ -16467,13 +16580,13 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>432</v>
+      </c>
+      <c r="B294" t="s">
+        <v>435</v>
+      </c>
+      <c r="C294" t="s">
         <v>433</v>
-      </c>
-      <c r="B294" t="s">
-        <v>436</v>
-      </c>
-      <c r="C294" t="s">
-        <v>434</v>
       </c>
       <c r="D294" t="s">
         <v>15</v>
@@ -16493,13 +16606,13 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B295" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C295" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D295" t="s">
         <v>15</v>
@@ -16519,10 +16632,10 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B296" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C296" t="s">
         <v>142</v>
@@ -16545,10 +16658,10 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B297" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C297" t="s">
         <v>76</v>
@@ -16571,10 +16684,10 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B298" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C298" t="s">
         <v>253</v>
@@ -16597,13 +16710,13 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>437</v>
+      </c>
+      <c r="B299" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="B299" s="25" t="s">
-        <v>439</v>
-      </c>
       <c r="C299" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D299" t="s">
         <v>15</v>
@@ -16623,10 +16736,10 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>437</v>
+      </c>
+      <c r="B300" s="25" t="s">
         <v>438</v>
-      </c>
-      <c r="B300" s="25" t="s">
-        <v>439</v>
       </c>
       <c r="C300" t="s">
         <v>19</v>
@@ -16649,10 +16762,10 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>437</v>
+      </c>
+      <c r="B301" s="25" t="s">
         <v>438</v>
-      </c>
-      <c r="B301" s="25" t="s">
-        <v>439</v>
       </c>
       <c r="C301" t="s">
         <v>143</v>
@@ -16675,13 +16788,13 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>437</v>
+      </c>
+      <c r="B302" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="B302" s="25" t="s">
+      <c r="C302" t="s">
         <v>439</v>
-      </c>
-      <c r="C302" t="s">
-        <v>440</v>
       </c>
       <c r="D302" t="s">
         <v>15</v>
@@ -16701,10 +16814,10 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>437</v>
+      </c>
+      <c r="B303" s="25" t="s">
         <v>438</v>
-      </c>
-      <c r="B303" s="25" t="s">
-        <v>439</v>
       </c>
       <c r="C303" t="s">
         <v>166</v>
@@ -16727,10 +16840,10 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>437</v>
+      </c>
+      <c r="B304" s="25" t="s">
         <v>438</v>
-      </c>
-      <c r="B304" s="25" t="s">
-        <v>439</v>
       </c>
       <c r="C304" t="s">
         <v>142</v>
@@ -16753,10 +16866,10 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>437</v>
+      </c>
+      <c r="B305" s="25" t="s">
         <v>438</v>
-      </c>
-      <c r="B305" s="25" t="s">
-        <v>439</v>
       </c>
       <c r="C305" t="s">
         <v>23</v>
@@ -16779,13 +16892,13 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>437</v>
+      </c>
+      <c r="B306" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="B306" s="25" t="s">
-        <v>439</v>
-      </c>
       <c r="C306" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D306" s="16" t="s">
         <v>30</v>
@@ -16805,13 +16918,13 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>437</v>
+      </c>
+      <c r="B307" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="B307" s="25" t="s">
-        <v>439</v>
-      </c>
       <c r="C307" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D307" s="16" t="s">
         <v>30</v>
@@ -16831,10 +16944,10 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>437</v>
+      </c>
+      <c r="B308" s="25" t="s">
         <v>438</v>
-      </c>
-      <c r="B308" s="25" t="s">
-        <v>439</v>
       </c>
       <c r="C308" t="s">
         <v>25</v>
@@ -16857,10 +16970,10 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B309" s="24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C309" t="str">
         <f>C299</f>
@@ -16889,10 +17002,10 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B310" s="24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C310" t="str">
         <f t="shared" ref="C310:H310" si="8">C300</f>
@@ -16921,10 +17034,10 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B311" s="24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C311" t="str">
         <f t="shared" ref="C311:H311" si="9">C301</f>
@@ -16953,10 +17066,10 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B312" s="24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C312" t="str">
         <f t="shared" ref="C312:H312" si="10">C302</f>
@@ -16985,10 +17098,10 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B313" s="24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C313" t="str">
         <f t="shared" ref="C313:H313" si="11">C303</f>
@@ -17017,10 +17130,10 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B314" s="24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C314" t="str">
         <f t="shared" ref="C314:H314" si="12">C304</f>
@@ -17048,10 +17161,10 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B315" s="24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C315" t="str">
         <f t="shared" ref="C315:H315" si="13">C305</f>
@@ -17080,10 +17193,10 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B316" s="24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C316" t="str">
         <f t="shared" ref="C316:H316" si="14">C306</f>
@@ -17111,10 +17224,10 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B317" s="24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C317" t="str">
         <f t="shared" ref="C317:H317" si="15">C307</f>
@@ -17142,10 +17255,10 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B318" s="24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C318" t="str">
         <f t="shared" ref="C318:H318" si="16">C308</f>
@@ -17174,10 +17287,10 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B319" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C319" t="s">
         <v>14</v>
@@ -17200,13 +17313,13 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B320" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C320" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D320" t="s">
         <v>15</v>
@@ -17226,10 +17339,10 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B321" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C321" t="s">
         <v>19</v>
@@ -17252,10 +17365,10 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B322" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C322" t="s">
         <v>143</v>
@@ -17278,10 +17391,10 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B323" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C323" t="s">
         <v>166</v>
@@ -17304,10 +17417,10 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B324" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C324" t="s">
         <v>77</v>
@@ -17330,10 +17443,10 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B325" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C325" t="s">
         <v>142</v>
@@ -17356,10 +17469,10 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B326" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C326" t="s">
         <v>165</v>
@@ -17382,13 +17495,13 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B327" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C327" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D327" t="s">
         <v>15</v>
@@ -17408,13 +17521,13 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B328" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C328" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D328" s="16" t="s">
         <v>30</v>
@@ -17434,13 +17547,13 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B329" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C329" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D329" t="s">
         <v>15</v>
@@ -17460,10 +17573,10 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B330" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C330" t="s">
         <v>17</v>
@@ -17486,10 +17599,10 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B331" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C331" t="s">
         <v>166</v>
@@ -17512,10 +17625,10 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B332" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C332" t="s">
         <v>142</v>
@@ -17538,13 +17651,13 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B333" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C333" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D333" t="s">
         <v>15</v>
@@ -17564,10 +17677,10 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B334" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C334" t="s">
         <v>29</v>
@@ -17590,13 +17703,13 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B335" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C335" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D335" s="16" t="s">
         <v>30</v>
@@ -17616,13 +17729,13 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B336" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C336" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D336" t="s">
         <v>15</v>
@@ -17642,10 +17755,10 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B337" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C337" t="s">
         <v>19</v>
@@ -17668,10 +17781,10 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B338" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C338" t="s">
         <v>143</v>
@@ -17694,10 +17807,10 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B339" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C339" t="s">
         <v>166</v>
@@ -17720,10 +17833,10 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B340" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C340" t="s">
         <v>142</v>
@@ -17746,13 +17859,13 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B341" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C341" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D341" t="s">
         <v>15</v>
@@ -17772,13 +17885,13 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B342" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="C342" t="s">
         <v>443</v>
-      </c>
-      <c r="C342" t="s">
-        <v>444</v>
       </c>
       <c r="D342" s="16" t="s">
         <v>30</v>
@@ -17798,13 +17911,13 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B343" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C343" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D343" s="16" t="s">
         <v>30</v>
@@ -17828,7 +17941,7 @@
         <v>WV_GLIMPSS</v>
       </c>
       <c r="B344" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C344" t="str">
         <f t="shared" ref="C344:H344" si="17">C336</f>
@@ -17861,7 +17974,7 @@
         <v>WV_GLIMPSS</v>
       </c>
       <c r="B345" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C345" t="str">
         <f t="shared" si="18"/>
@@ -17894,7 +18007,7 @@
         <v>WV_GLIMPSS</v>
       </c>
       <c r="B346" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C346" t="str">
         <f t="shared" si="19"/>
@@ -17927,7 +18040,7 @@
         <v>WV_GLIMPSS</v>
       </c>
       <c r="B347" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C347" t="str">
         <f t="shared" si="20"/>
@@ -17959,7 +18072,7 @@
         <v>WV_GLIMPSS</v>
       </c>
       <c r="B348" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C348" t="str">
         <f t="shared" si="21"/>
@@ -17991,7 +18104,7 @@
         <v>WV_GLIMPSS</v>
       </c>
       <c r="B349" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C349" t="str">
         <f t="shared" si="22"/>
@@ -18024,7 +18137,7 @@
         <v>WV_GLIMPSS</v>
       </c>
       <c r="B350" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C350" t="str">
         <f t="shared" si="23"/>
@@ -18056,7 +18169,7 @@
         <v>WV_GLIMPSS</v>
       </c>
       <c r="B351" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C351" t="str">
         <f t="shared" si="24"/>
@@ -18084,10 +18197,10 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B352" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C352" t="s">
         <v>14</v>
@@ -18111,10 +18224,10 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B353" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C353" t="s">
         <v>69</v>
@@ -18138,10 +18251,10 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B354" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C354" t="s">
         <v>19</v>
@@ -18165,10 +18278,10 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B355" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C355" t="s">
         <v>166</v>
@@ -18192,10 +18305,10 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B356" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C356" t="s">
         <v>25</v>
@@ -18219,10 +18332,10 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B357" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C357" t="s">
         <v>142</v>
@@ -18246,13 +18359,13 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B358" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C358" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D358" s="16" t="s">
         <v>30</v>
@@ -18273,13 +18386,13 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B359" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C359" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D359" t="s">
         <v>15</v>
@@ -18300,10 +18413,10 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B360" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C360" t="s">
         <v>29</v>
@@ -18315,7 +18428,7 @@
         <v>3.3</v>
       </c>
       <c r="F360" t="str">
-        <f t="shared" ref="F360" si="33">F352</f>
+        <f t="shared" ref="F360:F401" si="33">F352</f>
         <v>NA</v>
       </c>
       <c r="G360">
@@ -18325,8 +18438,1116 @@
         <v>85</v>
       </c>
     </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>462</v>
+      </c>
+      <c r="B361" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="C361" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="D361" t="s">
+        <v>30</v>
+      </c>
+      <c r="E361">
+        <v>10.71</v>
+      </c>
+      <c r="F361" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G361">
+        <v>33.33</v>
+      </c>
+      <c r="H361" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>462</v>
+      </c>
+      <c r="B362" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="C362" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="D362" t="s">
+        <v>30</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G362">
+        <v>8</v>
+      </c>
+      <c r="H362" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>462</v>
+      </c>
+      <c r="B363" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="C363" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D363" t="s">
+        <v>15</v>
+      </c>
+      <c r="E363">
+        <v>3.21</v>
+      </c>
+      <c r="F363" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G363">
+        <v>25.72</v>
+      </c>
+      <c r="H363" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>462</v>
+      </c>
+      <c r="B364" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="C364" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D364" t="s">
+        <v>30</v>
+      </c>
+      <c r="E364">
+        <v>1.36</v>
+      </c>
+      <c r="F364" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G364">
+        <v>42.23</v>
+      </c>
+      <c r="H364" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>462</v>
+      </c>
+      <c r="B365" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="C365" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D365" t="s">
+        <v>15</v>
+      </c>
+      <c r="E365">
+        <v>18.39</v>
+      </c>
+      <c r="F365" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G365">
+        <v>79.569999999999993</v>
+      </c>
+      <c r="H365" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>462</v>
+      </c>
+      <c r="B366" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="C366" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="D366" t="s">
+        <v>30</v>
+      </c>
+      <c r="E366">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F366" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G366">
+        <v>51.48</v>
+      </c>
+      <c r="H366" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>462</v>
+      </c>
+      <c r="B367" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="C367" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D367" t="s">
+        <v>30</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G367">
+        <v>5</v>
+      </c>
+      <c r="H367" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>462</v>
+      </c>
+      <c r="B368" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="C368" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="D368" t="s">
+        <v>30</v>
+      </c>
+      <c r="E368">
+        <v>8.14</v>
+      </c>
+      <c r="F368" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G368">
+        <v>34.39</v>
+      </c>
+      <c r="H368" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>462</v>
+      </c>
+      <c r="B369" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="C369" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D369" t="s">
+        <v>30</v>
+      </c>
+      <c r="E369">
+        <v>1.88</v>
+      </c>
+      <c r="F369" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G369">
+        <v>51.34</v>
+      </c>
+      <c r="H369" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>462</v>
+      </c>
+      <c r="B370" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="C370" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D370" t="s">
+        <v>30</v>
+      </c>
+      <c r="E370">
+        <v>0.38</v>
+      </c>
+      <c r="F370" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G370">
+        <v>18.45</v>
+      </c>
+      <c r="H370" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>462</v>
+      </c>
+      <c r="B371" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="C371" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="D371" t="s">
+        <v>15</v>
+      </c>
+      <c r="E371">
+        <v>14.93</v>
+      </c>
+      <c r="F371" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G371">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="H371" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>462</v>
+      </c>
+      <c r="B372" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="C372" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D372" t="s">
+        <v>30</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="F372" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G372">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="H372" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>462</v>
+      </c>
+      <c r="B373" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="C373" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D373" t="s">
+        <v>15</v>
+      </c>
+      <c r="E373">
+        <v>2.35</v>
+      </c>
+      <c r="F373" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G373">
+        <v>15</v>
+      </c>
+      <c r="H373" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>462</v>
+      </c>
+      <c r="B374" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="C374" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="D374" t="s">
+        <v>30</v>
+      </c>
+      <c r="E374">
+        <v>10.71</v>
+      </c>
+      <c r="F374" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G374">
+        <v>38.89</v>
+      </c>
+      <c r="H374" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>462</v>
+      </c>
+      <c r="B375" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="C375" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D375" t="s">
+        <v>30</v>
+      </c>
+      <c r="E375">
+        <v>1.33</v>
+      </c>
+      <c r="F375" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G375">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="H375" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>462</v>
+      </c>
+      <c r="B376" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="C376" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D376" t="s">
+        <v>15</v>
+      </c>
+      <c r="E376">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="F376" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G376">
+        <v>72.16</v>
+      </c>
+      <c r="H376" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>462</v>
+      </c>
+      <c r="B377" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="C377" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="D377" t="s">
+        <v>30</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G377">
+        <v>63.71</v>
+      </c>
+      <c r="H377" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>462</v>
+      </c>
+      <c r="B378" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="C378" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D378" t="s">
+        <v>15</v>
+      </c>
+      <c r="E378">
+        <v>7.51</v>
+      </c>
+      <c r="F378" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G378">
+        <v>45.24</v>
+      </c>
+      <c r="H378" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>462</v>
+      </c>
+      <c r="B379" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C379" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="D379" t="s">
+        <v>30</v>
+      </c>
+      <c r="E379">
+        <v>4</v>
+      </c>
+      <c r="F379" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G379">
+        <v>13</v>
+      </c>
+      <c r="H379" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>462</v>
+      </c>
+      <c r="B380" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C380" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D380" t="s">
+        <v>15</v>
+      </c>
+      <c r="E380">
+        <v>2.08</v>
+      </c>
+      <c r="F380" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G380">
+        <v>50.14</v>
+      </c>
+      <c r="H380" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>462</v>
+      </c>
+      <c r="B381" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C381" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="D381" t="s">
+        <v>30</v>
+      </c>
+      <c r="E381">
+        <v>0.39</v>
+      </c>
+      <c r="F381" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G381">
+        <v>38.46</v>
+      </c>
+      <c r="H381" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>462</v>
+      </c>
+      <c r="B382" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C382" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="D382" t="s">
+        <v>30</v>
+      </c>
+      <c r="E382">
+        <v>3.29</v>
+      </c>
+      <c r="F382" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G382">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="H382" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>462</v>
+      </c>
+      <c r="B383" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C383" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D383" t="s">
+        <v>15</v>
+      </c>
+      <c r="E383">
+        <v>0</v>
+      </c>
+      <c r="F383" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G383">
+        <v>6.62</v>
+      </c>
+      <c r="H383" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>462</v>
+      </c>
+      <c r="B384" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C384" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D384" t="s">
+        <v>30</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="F384" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G384">
+        <v>17.39</v>
+      </c>
+      <c r="H384" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>462</v>
+      </c>
+      <c r="B385" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="C385" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="D385" t="s">
+        <v>30</v>
+      </c>
+      <c r="E385">
+        <v>18.18</v>
+      </c>
+      <c r="F385" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G385">
+        <v>43.51</v>
+      </c>
+      <c r="H385" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>462</v>
+      </c>
+      <c r="B386" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="C386" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D386" t="s">
+        <v>30</v>
+      </c>
+      <c r="E386">
+        <v>9.67</v>
+      </c>
+      <c r="F386" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G386">
+        <v>72.31</v>
+      </c>
+      <c r="H386" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>462</v>
+      </c>
+      <c r="B387" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="C387" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D387" t="s">
+        <v>30</v>
+      </c>
+      <c r="E387">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F387" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G387">
+        <v>27.03</v>
+      </c>
+      <c r="H387" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>462</v>
+      </c>
+      <c r="B388" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="C388" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="D388" t="s">
+        <v>15</v>
+      </c>
+      <c r="E388">
+        <v>0.59</v>
+      </c>
+      <c r="F388" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G388">
+        <v>60.76</v>
+      </c>
+      <c r="H388" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>462</v>
+      </c>
+      <c r="B389" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="C389" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D389" t="s">
+        <v>15</v>
+      </c>
+      <c r="E389">
+        <v>0</v>
+      </c>
+      <c r="F389" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G389">
+        <v>31.06</v>
+      </c>
+      <c r="H389" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>462</v>
+      </c>
+      <c r="B390" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="C390" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D390" t="s">
+        <v>30</v>
+      </c>
+      <c r="E390">
+        <v>4.33</v>
+      </c>
+      <c r="F390" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G390">
+        <v>30.04</v>
+      </c>
+      <c r="H390" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>462</v>
+      </c>
+      <c r="B391" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C391" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="D391" t="s">
+        <v>15</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G391">
+        <v>7</v>
+      </c>
+      <c r="H391" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>462</v>
+      </c>
+      <c r="B392" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C392" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="D392" t="s">
+        <v>30</v>
+      </c>
+      <c r="E392">
+        <v>20</v>
+      </c>
+      <c r="F392" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G392">
+        <v>50</v>
+      </c>
+      <c r="H392" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>462</v>
+      </c>
+      <c r="B393" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C393" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D393" t="s">
+        <v>15</v>
+      </c>
+      <c r="E393">
+        <v>2</v>
+      </c>
+      <c r="F393" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G393">
+        <v>12.6</v>
+      </c>
+      <c r="H393" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>462</v>
+      </c>
+      <c r="B394" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C394" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="D394" t="s">
+        <v>30</v>
+      </c>
+      <c r="E394">
+        <v>0.74</v>
+      </c>
+      <c r="F394" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G394">
+        <v>48.6</v>
+      </c>
+      <c r="H394" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>462</v>
+      </c>
+      <c r="B395" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C395" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="D395" t="s">
+        <v>15</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
+      <c r="F395" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G395">
+        <v>42.08</v>
+      </c>
+      <c r="H395" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>462</v>
+      </c>
+      <c r="B396" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C396" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D396" t="s">
+        <v>30</v>
+      </c>
+      <c r="E396">
+        <v>5.32</v>
+      </c>
+      <c r="F396" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G396">
+        <v>31.93</v>
+      </c>
+      <c r="H396" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>462</v>
+      </c>
+      <c r="B397" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C397" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="D397" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E397" s="27">
+        <v>1111</v>
+      </c>
+      <c r="F397" s="27" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G397" s="27">
+        <v>9999</v>
+      </c>
+      <c r="H397" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>462</v>
+      </c>
+      <c r="B398" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C398" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="D398" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E398" s="27">
+        <v>1111</v>
+      </c>
+      <c r="F398" s="27" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G398" s="27">
+        <v>9999</v>
+      </c>
+      <c r="H398" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>462</v>
+      </c>
+      <c r="B399" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C399" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="D399" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E399" s="27">
+        <v>1111</v>
+      </c>
+      <c r="F399" s="27" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G399" s="27">
+        <v>9999</v>
+      </c>
+      <c r="H399" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>462</v>
+      </c>
+      <c r="B400" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C400" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D400" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E400" s="27">
+        <v>1111</v>
+      </c>
+      <c r="F400" s="27" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G400" s="27">
+        <v>9999</v>
+      </c>
+      <c r="H400" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>462</v>
+      </c>
+      <c r="B401" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C401" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D401" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E401" s="27">
+        <v>1111</v>
+      </c>
+      <c r="F401" s="27" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="G401" s="27">
+        <v>9999</v>
+      </c>
+      <c r="H401" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ360" xr:uid="{FED77011-9DA1-4ED4-AF67-599FA276C79A}"/>
+  <autoFilter ref="A1:AJ401" xr:uid="{FED77011-9DA1-4ED4-AF67-599FA276C79A}"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D2:D185 D210 D203:D207 H203 F205:F225">
     <cfRule type="cellIs" dxfId="116" priority="185" operator="equal">
       <formula>""</formula>
@@ -18812,19 +20033,19 @@
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D360">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="D350">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D350">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="D360:D367 D370:D410">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Increase"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18839,12 +20060,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18928,13 +20149,13 @@
         <v>286</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="V1" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="W1" s="13" t="s">
         <v>409</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -21045,7 +22266,7 @@
         <v>83</v>
       </c>
       <c r="W38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -21116,7 +22337,7 @@
         <v>83</v>
       </c>
       <c r="W39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -21187,7 +22408,7 @@
         <v>83</v>
       </c>
       <c r="W40" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -21258,7 +22479,7 @@
         <v>83</v>
       </c>
       <c r="W41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
@@ -21329,7 +22550,7 @@
         <v>83</v>
       </c>
       <c r="W42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -21400,15 +22621,15 @@
         <v>83</v>
       </c>
       <c r="W43" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C44" t="s">
         <v>107</v>
@@ -21446,10 +22667,10 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C45" t="s">
         <v>107</v>
@@ -21487,10 +22708,10 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>437</v>
+      </c>
+      <c r="B46" t="s">
         <v>438</v>
-      </c>
-      <c r="B46" t="s">
-        <v>439</v>
       </c>
       <c r="C46" t="s">
         <v>107</v>
@@ -21502,7 +22723,7 @@
         <v>113</v>
       </c>
       <c r="F46" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -21523,16 +22744,16 @@
         <v>100</v>
       </c>
       <c r="O46" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P46" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q46" t="s">
         <v>131</v>
       </c>
       <c r="R46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="U46" t="b">
         <v>0</v>
@@ -21546,10 +22767,10 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B47" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C47" t="s">
         <v>107</v>
@@ -21561,7 +22782,7 @@
         <v>113</v>
       </c>
       <c r="F47" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -21582,16 +22803,16 @@
         <v>100</v>
       </c>
       <c r="O47" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P47" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q47" t="s">
         <v>131</v>
       </c>
       <c r="R47" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="U47" t="b">
         <v>0</v>
@@ -21605,10 +22826,10 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B48" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C48" t="s">
         <v>107</v>
@@ -21620,7 +22841,7 @@
         <v>113</v>
       </c>
       <c r="F48" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -21641,16 +22862,16 @@
         <v>100</v>
       </c>
       <c r="O48" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P48" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q48" t="s">
         <v>131</v>
       </c>
       <c r="R48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="U48" t="b">
         <v>0</v>
@@ -21664,10 +22885,10 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B49" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C49" t="s">
         <v>107</v>
@@ -21679,7 +22900,7 @@
         <v>113</v>
       </c>
       <c r="F49" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -21700,16 +22921,16 @@
         <v>100</v>
       </c>
       <c r="O49" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q49" t="s">
         <v>131</v>
       </c>
       <c r="R49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="U49" t="b">
         <v>0</v>
@@ -21723,10 +22944,10 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B50" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C50" t="s">
         <v>107</v>
@@ -21738,7 +22959,7 @@
         <v>113</v>
       </c>
       <c r="F50" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G50">
         <v>4</v>
@@ -21759,16 +22980,16 @@
         <v>100</v>
       </c>
       <c r="O50" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P50" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q50" t="s">
         <v>131</v>
       </c>
       <c r="R50" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="U50" t="b">
         <v>0</v>
@@ -21782,10 +23003,10 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B51" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C51" t="s">
         <v>107</v>
@@ -21797,7 +23018,7 @@
         <v>113</v>
       </c>
       <c r="F51" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G51">
         <v>4</v>
@@ -21818,16 +23039,16 @@
         <v>100</v>
       </c>
       <c r="O51" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P51" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q51" t="s">
         <v>131</v>
       </c>
       <c r="R51" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="U51" t="b">
         <v>0</v>
@@ -21841,10 +23062,10 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C52" t="s">
         <v>107</v>
@@ -21856,7 +23077,7 @@
         <v>113</v>
       </c>
       <c r="F52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -21877,16 +23098,16 @@
         <v>100</v>
       </c>
       <c r="O52" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q52" t="s">
         <v>131</v>
       </c>
       <c r="R52" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="U52" t="b">
         <v>0</v>
@@ -21897,9 +23118,366 @@
       <c r="W52" t="s">
         <v>83</v>
       </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>462</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="C53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" t="s">
+        <v>462</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>25</v>
+      </c>
+      <c r="J53">
+        <v>50</v>
+      </c>
+      <c r="K53">
+        <v>75</v>
+      </c>
+      <c r="L53">
+        <v>100</v>
+      </c>
+      <c r="O53" t="s">
+        <v>459</v>
+      </c>
+      <c r="P53" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>131</v>
+      </c>
+      <c r="R53" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>462</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" t="s">
+        <v>462</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>25</v>
+      </c>
+      <c r="J54">
+        <v>50</v>
+      </c>
+      <c r="K54">
+        <v>75</v>
+      </c>
+      <c r="L54">
+        <v>100</v>
+      </c>
+      <c r="O54" t="s">
+        <v>459</v>
+      </c>
+      <c r="P54" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>131</v>
+      </c>
+      <c r="R54" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>462</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="C55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" t="s">
+        <v>462</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>25</v>
+      </c>
+      <c r="J55">
+        <v>50</v>
+      </c>
+      <c r="K55">
+        <v>75</v>
+      </c>
+      <c r="L55">
+        <v>100</v>
+      </c>
+      <c r="O55" t="s">
+        <v>459</v>
+      </c>
+      <c r="P55" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>131</v>
+      </c>
+      <c r="R55" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>462</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" t="s">
+        <v>462</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>25</v>
+      </c>
+      <c r="J56">
+        <v>50</v>
+      </c>
+      <c r="K56">
+        <v>75</v>
+      </c>
+      <c r="L56">
+        <v>100</v>
+      </c>
+      <c r="O56" t="s">
+        <v>459</v>
+      </c>
+      <c r="P56" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>131</v>
+      </c>
+      <c r="R56" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>462</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" t="s">
+        <v>462</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>25</v>
+      </c>
+      <c r="J57">
+        <v>50</v>
+      </c>
+      <c r="K57">
+        <v>75</v>
+      </c>
+      <c r="L57">
+        <v>100</v>
+      </c>
+      <c r="O57" t="s">
+        <v>459</v>
+      </c>
+      <c r="P57" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>131</v>
+      </c>
+      <c r="R57" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" t="s">
+        <v>462</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>25</v>
+      </c>
+      <c r="J58">
+        <v>50</v>
+      </c>
+      <c r="K58">
+        <v>75</v>
+      </c>
+      <c r="L58">
+        <v>100</v>
+      </c>
+      <c r="O58" t="s">
+        <v>459</v>
+      </c>
+      <c r="P58" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>131</v>
+      </c>
+      <c r="R58" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>462</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="29">
+        <v>5</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" t="s">
+        <v>462</v>
+      </c>
+      <c r="G59" s="29">
+        <v>4</v>
+      </c>
+      <c r="H59" s="29">
+        <v>0</v>
+      </c>
+      <c r="I59" s="29">
+        <v>25</v>
+      </c>
+      <c r="J59" s="29">
+        <v>50</v>
+      </c>
+      <c r="K59" s="29">
+        <v>75</v>
+      </c>
+      <c r="L59" s="29">
+        <v>100</v>
+      </c>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="P59" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q59" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="R59" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="29"/>
+      <c r="V59" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:W43" xr:uid="{2B361F7C-4DA8-42B4-A59B-DBC61D363173}"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21925,7 +23503,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -21933,7 +23511,7 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -21941,7 +23519,7 @@
         <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -21949,7 +23527,7 @@
         <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -21957,7 +23535,7 @@
         <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -21965,23 +23543,23 @@
         <v>338</v>
       </c>
       <c r="B10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" t="s">
         <v>420</v>
-      </c>
-      <c r="B12" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -21989,7 +23567,7 @@
         <v>364</v>
       </c>
       <c r="B13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -21997,7 +23575,7 @@
         <v>347</v>
       </c>
       <c r="B14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -22089,51 +23667,51 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="B15" t="s">
-        <v>426</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B16" t="s">
+        <v>429</v>
+      </c>
+      <c r="C16" t="s">
         <v>430</v>
-      </c>
-      <c r="C16" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>427</v>
+      </c>
+      <c r="B17" t="s">
         <v>428</v>
       </c>
-      <c r="B17" t="s">
-        <v>429</v>
-      </c>
       <c r="C17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -22151,7 +23729,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:B24"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22794,15 +24372,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="13_ncr:1_{44F348D1-6A47-4313-8AEB-6017ED0ED573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{BBCC1EE9-B984-44A8-92BF-BABDADB39380}"/>
+  <xr:revisionPtr revIDLastSave="349" documentId="13_ncr:1_{44F348D1-6A47-4313-8AEB-6017ED0ED573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5944C622-DC9C-4521-A92A-8A0C2DA3320B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2460" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4474" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="481">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -2001,12 +2001,6 @@
     <t>WestFlat</t>
   </si>
   <si>
-    <t>pi_ffg_cllct</t>
-  </si>
-  <si>
-    <t>pi_hab_sprwl</t>
-  </si>
-  <si>
     <t>East</t>
   </si>
   <si>
@@ -2017,6 +2011,12 @@
   </si>
   <si>
     <t>pi_habit_sprawl</t>
+  </si>
+  <si>
+    <t>MIEGLE_2020</t>
+  </si>
+  <si>
+    <t>Jessup et al. 2020</t>
   </si>
 </sst>
 </file>
@@ -4209,12 +4209,12 @@
   </sheetPr>
   <dimension ref="A1:AJ401"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D372" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D364" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="B397" sqref="B397"/>
+      <selection pane="bottomRight" activeCell="D390" sqref="D390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18440,7 +18440,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B361" s="33" t="s">
         <v>463</v>
@@ -18467,7 +18467,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B362" s="33" t="s">
         <v>463</v>
@@ -18494,7 +18494,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B363" s="33" t="s">
         <v>463</v>
@@ -18521,7 +18521,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B364" s="33" t="s">
         <v>463</v>
@@ -18548,7 +18548,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B365" s="33" t="s">
         <v>463</v>
@@ -18575,7 +18575,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B366" s="33" t="s">
         <v>463</v>
@@ -18602,7 +18602,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B367" s="33" t="s">
         <v>463</v>
@@ -18629,7 +18629,7 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B368" s="30" t="s">
         <v>467</v>
@@ -18656,7 +18656,7 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B369" s="30" t="s">
         <v>467</v>
@@ -18683,7 +18683,7 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B370" s="30" t="s">
         <v>467</v>
@@ -18710,7 +18710,7 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B371" s="30" t="s">
         <v>467</v>
@@ -18737,7 +18737,7 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B372" s="30" t="s">
         <v>467</v>
@@ -18764,7 +18764,7 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B373" s="31" t="s">
         <v>469</v>
@@ -18791,7 +18791,7 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B374" s="31" t="s">
         <v>469</v>
@@ -18818,7 +18818,7 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B375" s="31" t="s">
         <v>469</v>
@@ -18845,7 +18845,7 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B376" s="31" t="s">
         <v>469</v>
@@ -18872,13 +18872,13 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B377" s="31" t="s">
         <v>469</v>
       </c>
       <c r="C377" s="28" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D377" t="s">
         <v>30</v>
@@ -18899,7 +18899,7 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B378" s="31" t="s">
         <v>469</v>
@@ -18926,7 +18926,7 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B379" s="22" t="s">
         <v>470</v>
@@ -18953,7 +18953,7 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B380" s="22" t="s">
         <v>470</v>
@@ -18980,7 +18980,7 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B381" s="22" t="s">
         <v>470</v>
@@ -19007,7 +19007,7 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B382" s="22" t="s">
         <v>470</v>
@@ -19034,7 +19034,7 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B383" s="22" t="s">
         <v>470</v>
@@ -19061,7 +19061,7 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B384" s="22" t="s">
         <v>470</v>
@@ -19088,7 +19088,7 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B385" s="32" t="s">
         <v>474</v>
@@ -19115,7 +19115,7 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B386" s="32" t="s">
         <v>474</v>
@@ -19142,13 +19142,13 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B387" s="32" t="s">
         <v>474</v>
       </c>
       <c r="C387" s="28" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D387" t="s">
         <v>30</v>
@@ -19169,7 +19169,7 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B388" s="32" t="s">
         <v>474</v>
@@ -19196,7 +19196,7 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B389" s="32" t="s">
         <v>474</v>
@@ -19223,7 +19223,7 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B390" s="32" t="s">
         <v>474</v>
@@ -19250,10 +19250,10 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B391" s="30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C391" s="28" t="s">
         <v>439</v>
@@ -19277,10 +19277,10 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B392" s="30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C392" s="28" t="s">
         <v>464</v>
@@ -19304,10 +19304,10 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B393" s="30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C393" s="28" t="s">
         <v>166</v>
@@ -19331,10 +19331,10 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B394" s="30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C394" s="28" t="s">
         <v>472</v>
@@ -19358,10 +19358,10 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B395" s="30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C395" s="28" t="s">
         <v>253</v>
@@ -19385,10 +19385,10 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B396" s="30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C396" s="28" t="s">
         <v>79</v>
@@ -19412,26 +19412,25 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B397" s="25" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C397" s="27" t="s">
         <v>464</v>
       </c>
       <c r="D397" s="27" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E397" s="27">
-        <v>1111</v>
-      </c>
-      <c r="F397" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
+        <v>8.14</v>
+      </c>
+      <c r="F397" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="G397" s="27">
-        <v>9999</v>
+        <v>34.39</v>
       </c>
       <c r="H397" s="27" t="s">
         <v>85</v>
@@ -19439,26 +19438,25 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B398" s="25" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C398" s="27" t="s">
-        <v>475</v>
+        <v>252</v>
       </c>
       <c r="D398" s="27" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E398" s="27">
-        <v>1111</v>
-      </c>
-      <c r="F398" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
+        <v>1.88</v>
+      </c>
+      <c r="F398" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="G398" s="27">
-        <v>9999</v>
+        <v>51.34</v>
       </c>
       <c r="H398" s="27" t="s">
         <v>85</v>
@@ -19466,26 +19464,25 @@
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B399" s="25" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C399" s="27" t="s">
-        <v>476</v>
+        <v>90</v>
       </c>
       <c r="D399" s="27" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E399" s="27">
-        <v>1111</v>
-      </c>
-      <c r="F399" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
+        <v>0.38</v>
+      </c>
+      <c r="F399" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="G399" s="27">
-        <v>9999</v>
+        <v>18.45</v>
       </c>
       <c r="H399" s="27" t="s">
         <v>85</v>
@@ -19493,26 +19490,25 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B400" s="25" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C400" s="27" t="s">
-        <v>69</v>
+        <v>468</v>
       </c>
       <c r="D400" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E400" s="27">
-        <v>1111</v>
-      </c>
-      <c r="F400" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
+        <v>14.93</v>
+      </c>
+      <c r="F400" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="G400" s="27">
-        <v>9999</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="H400" s="27" t="s">
         <v>85</v>
@@ -19520,26 +19516,25 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B401" s="25" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C401" s="27" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D401" s="27" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E401" s="27">
-        <v>1111</v>
-      </c>
-      <c r="F401" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
+        <v>0</v>
+      </c>
+      <c r="F401" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="G401" s="27">
-        <v>9999</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="H401" s="27" t="s">
         <v>85</v>
@@ -20062,10 +20057,10 @@
   </sheetPr>
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23121,7 +23116,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B53" s="33" t="s">
         <v>463</v>
@@ -23168,10 +23163,19 @@
       <c r="R53" t="s">
         <v>460</v>
       </c>
+      <c r="U53" t="b">
+        <v>0</v>
+      </c>
+      <c r="V53" t="s">
+        <v>83</v>
+      </c>
+      <c r="W53" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B54" s="30" t="s">
         <v>467</v>
@@ -23218,10 +23222,19 @@
       <c r="R54" t="s">
         <v>460</v>
       </c>
+      <c r="U54" t="b">
+        <v>0</v>
+      </c>
+      <c r="V54" t="s">
+        <v>83</v>
+      </c>
+      <c r="W54" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B55" s="31" t="s">
         <v>469</v>
@@ -23268,10 +23281,19 @@
       <c r="R55" t="s">
         <v>460</v>
       </c>
+      <c r="U55" t="b">
+        <v>0</v>
+      </c>
+      <c r="V55" t="s">
+        <v>83</v>
+      </c>
+      <c r="W55" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B56" s="22" t="s">
         <v>470</v>
@@ -23318,10 +23340,19 @@
       <c r="R56" t="s">
         <v>460</v>
       </c>
+      <c r="U56" t="b">
+        <v>0</v>
+      </c>
+      <c r="V56" t="s">
+        <v>83</v>
+      </c>
+      <c r="W56" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B57" s="32" t="s">
         <v>474</v>
@@ -23368,13 +23399,22 @@
       <c r="R57" t="s">
         <v>460</v>
       </c>
+      <c r="U57" t="b">
+        <v>0</v>
+      </c>
+      <c r="V57" t="s">
+        <v>83</v>
+      </c>
+      <c r="W57" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C58" t="s">
         <v>107</v>
@@ -23418,13 +23458,22 @@
       <c r="R58" t="s">
         <v>460</v>
       </c>
+      <c r="U58" t="b">
+        <v>0</v>
+      </c>
+      <c r="V58" t="s">
+        <v>83</v>
+      </c>
+      <c r="W58" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C59" t="s">
         <v>107</v>
@@ -23472,13 +23521,21 @@
       </c>
       <c r="S59" s="29"/>
       <c r="T59" s="29"/>
-      <c r="U59" s="29"/>
-      <c r="V59" s="29"/>
+      <c r="U59" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="V59" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="W59" s="29" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W43" xr:uid="{2B361F7C-4DA8-42B4-A59B-DBC61D363173}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23586,10 +23643,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11763AB-DE5A-4277-BE65-88CD3BDAAE84}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23712,6 +23769,14 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>479</v>
+      </c>
+      <c r="B23" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -24372,14 +24437,14 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="349" documentId="13_ncr:1_{44F348D1-6A47-4313-8AEB-6017ED0ED573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5944C622-DC9C-4521-A92A-8A0C2DA3320B}"/>
+  <xr:revisionPtr revIDLastSave="359" documentId="13_ncr:1_{44F348D1-6A47-4313-8AEB-6017ED0ED573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{665E1B20-1E97-43D7-A3A3-D8ACC18A96DF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="480">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -1968,9 +1968,6 @@
     <t>MidSizeDry</t>
   </si>
   <si>
-    <t>pt_nonIns</t>
-  </si>
-  <si>
     <t>nt_CruMol</t>
   </si>
   <si>
@@ -1989,15 +1986,9 @@
     <t>WetWide</t>
   </si>
   <si>
-    <t>nt_nonIns</t>
-  </si>
-  <si>
     <t>pi_IsoSnlLch</t>
   </si>
   <si>
-    <t>pi_nonIns</t>
-  </si>
-  <si>
     <t>WestFlat</t>
   </si>
   <si>
@@ -2017,6 +2008,12 @@
   </si>
   <si>
     <t>Jessup et al. 2020</t>
+  </si>
+  <si>
+    <t>nt_NonIns</t>
+  </si>
+  <si>
+    <t>pi_NonIns</t>
   </si>
 </sst>
 </file>
@@ -4210,11 +4207,11 @@
   <dimension ref="A1:AJ401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D364" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I383" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="D390" sqref="D390"/>
+      <selection pane="bottomRight" activeCell="J395" sqref="J395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18428,7 +18425,7 @@
         <v>3.3</v>
       </c>
       <c r="F360" t="str">
-        <f t="shared" ref="F360:F401" si="33">F352</f>
+        <f t="shared" ref="F360:F396" si="33">F352</f>
         <v>NA</v>
       </c>
       <c r="G360">
@@ -18440,13 +18437,13 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B361" s="33" t="s">
         <v>463</v>
       </c>
       <c r="C361" s="28" t="s">
-        <v>464</v>
+        <v>196</v>
       </c>
       <c r="D361" t="s">
         <v>30</v>
@@ -18467,13 +18464,13 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B362" s="33" t="s">
         <v>463</v>
       </c>
       <c r="C362" s="28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D362" t="s">
         <v>30</v>
@@ -18494,7 +18491,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B363" s="33" t="s">
         <v>463</v>
@@ -18521,7 +18518,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B364" s="33" t="s">
         <v>463</v>
@@ -18548,7 +18545,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B365" s="33" t="s">
         <v>463</v>
@@ -18575,13 +18572,13 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B366" s="33" t="s">
         <v>463</v>
       </c>
       <c r="C366" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D366" t="s">
         <v>30</v>
@@ -18602,7 +18599,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B367" s="33" t="s">
         <v>463</v>
@@ -18629,13 +18626,13 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B368" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C368" s="28" t="s">
-        <v>464</v>
+        <v>196</v>
       </c>
       <c r="D368" t="s">
         <v>30</v>
@@ -18656,10 +18653,10 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B369" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C369" s="28" t="s">
         <v>252</v>
@@ -18683,10 +18680,10 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B370" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C370" s="28" t="s">
         <v>90</v>
@@ -18710,13 +18707,13 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B371" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="C371" s="28" t="s">
         <v>467</v>
-      </c>
-      <c r="C371" s="28" t="s">
-        <v>468</v>
       </c>
       <c r="D371" t="s">
         <v>15</v>
@@ -18737,10 +18734,10 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B372" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C372" s="28" t="s">
         <v>46</v>
@@ -18764,10 +18761,10 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B373" s="31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C373" s="28" t="s">
         <v>17</v>
@@ -18791,13 +18788,13 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B374" s="31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C374" s="28" t="s">
-        <v>464</v>
+        <v>196</v>
       </c>
       <c r="D374" t="s">
         <v>30</v>
@@ -18818,10 +18815,10 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B375" s="31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C375" s="28" t="s">
         <v>252</v>
@@ -18845,10 +18842,10 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B376" s="31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C376" s="28" t="s">
         <v>91</v>
@@ -18872,13 +18869,13 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B377" s="31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C377" s="28" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D377" t="s">
         <v>30</v>
@@ -18899,10 +18896,10 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B378" s="31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C378" s="28" t="s">
         <v>145</v>
@@ -18926,13 +18923,13 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B379" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C379" s="28" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="D379" t="s">
         <v>30</v>
@@ -18953,10 +18950,10 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B380" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C380" s="28" t="s">
         <v>36</v>
@@ -18980,13 +18977,13 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B381" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="C381" s="28" t="s">
         <v>470</v>
-      </c>
-      <c r="C381" s="28" t="s">
-        <v>472</v>
       </c>
       <c r="D381" t="s">
         <v>30</v>
@@ -19007,13 +19004,13 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
+        <v>476</v>
+      </c>
+      <c r="B382" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="C382" s="28" t="s">
         <v>479</v>
-      </c>
-      <c r="B382" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="C382" s="28" t="s">
-        <v>473</v>
       </c>
       <c r="D382" t="s">
         <v>30</v>
@@ -19034,10 +19031,10 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B383" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C383" s="28" t="s">
         <v>141</v>
@@ -19061,10 +19058,10 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B384" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C384" s="28" t="s">
         <v>79</v>
@@ -19088,13 +19085,13 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B385" s="32" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C385" s="28" t="s">
-        <v>464</v>
+        <v>196</v>
       </c>
       <c r="D385" t="s">
         <v>30</v>
@@ -19115,10 +19112,10 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B386" s="32" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C386" s="28" t="s">
         <v>193</v>
@@ -19142,13 +19139,13 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B387" s="32" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C387" s="28" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D387" t="s">
         <v>30</v>
@@ -19169,13 +19166,13 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B388" s="32" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C388" s="28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D388" t="s">
         <v>15</v>
@@ -19196,10 +19193,10 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B389" s="32" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C389" s="28" t="s">
         <v>145</v>
@@ -19223,10 +19220,10 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B390" s="32" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C390" s="28" t="s">
         <v>79</v>
@@ -19250,10 +19247,10 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B391" s="30" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C391" s="28" t="s">
         <v>439</v>
@@ -19277,13 +19274,13 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B392" s="30" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C392" s="28" t="s">
-        <v>464</v>
+        <v>196</v>
       </c>
       <c r="D392" t="s">
         <v>30</v>
@@ -19304,10 +19301,10 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B393" s="30" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C393" s="28" t="s">
         <v>166</v>
@@ -19331,13 +19328,13 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B394" s="30" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C394" s="28" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D394" t="s">
         <v>30</v>
@@ -19358,10 +19355,10 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B395" s="30" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C395" s="28" t="s">
         <v>253</v>
@@ -19385,10 +19382,10 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B396" s="30" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C396" s="28" t="s">
         <v>79</v>
@@ -19412,13 +19409,13 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B397" s="25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C397" s="27" t="s">
-        <v>464</v>
+        <v>196</v>
       </c>
       <c r="D397" s="27" t="s">
         <v>30</v>
@@ -19438,10 +19435,10 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B398" s="25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C398" s="27" t="s">
         <v>252</v>
@@ -19464,10 +19461,10 @@
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B399" s="25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C399" s="27" t="s">
         <v>90</v>
@@ -19490,13 +19487,13 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B400" s="25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C400" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D400" s="27" t="s">
         <v>15</v>
@@ -19516,10 +19513,10 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B401" s="25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C401" s="27" t="s">
         <v>46</v>
@@ -20057,8 +20054,8 @@
   </sheetPr>
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
     </sheetView>
@@ -23116,7 +23113,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B53" s="33" t="s">
         <v>463</v>
@@ -23175,10 +23172,10 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C54" t="s">
         <v>107</v>
@@ -23234,10 +23231,10 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C55" t="s">
         <v>107</v>
@@ -23293,10 +23290,10 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C56" t="s">
         <v>107</v>
@@ -23352,10 +23349,10 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C57" t="s">
         <v>107</v>
@@ -23411,10 +23408,10 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C58" t="s">
         <v>107</v>
@@ -23470,10 +23467,10 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C59" t="s">
         <v>107</v>
@@ -23773,10 +23770,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B23" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -24179,6 +24176,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100557C7523FAC84E43A0DA62C173857381" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4b9ddb1302998b61081aed2913076a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" xmlns:ns4="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3079d22dc9190cbddbf9f4c007b8016d" ns3:_="" ns4:_="">
     <xsd:import namespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
@@ -24401,12 +24404,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
   <ds:schemaRefs>
@@ -24416,6 +24413,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19304C29-C31A-47A1-B855-8D09E823E92C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24432,21 +24446,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -4207,11 +4207,11 @@
   <dimension ref="A1:AJ401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I383" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I362" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="J395" sqref="J395"/>
+      <selection pane="bottomRight" activeCell="C368" sqref="C368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24176,12 +24176,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100557C7523FAC84E43A0DA62C173857381" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4b9ddb1302998b61081aed2913076a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" xmlns:ns4="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3079d22dc9190cbddbf9f4c007b8016d" ns3:_="" ns4:_="">
     <xsd:import namespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
@@ -24404,6 +24398,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
   <ds:schemaRefs>
@@ -24413,23 +24413,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19304C29-C31A-47A1-B855-8D09E823E92C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24446,4 +24429,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -4206,12 +4206,12 @@
   </sheetPr>
   <dimension ref="A1:AJ401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I362" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I386" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="C368" sqref="C368"/>
+      <selection pane="bottomRight" activeCell="C395" sqref="C395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24167,12 +24167,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24399,15 +24396,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24432,18 +24441,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="359" documentId="13_ncr:1_{44F348D1-6A47-4313-8AEB-6017ED0ED573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{665E1B20-1E97-43D7-A3A3-D8ACC18A96DF}"/>
+  <xr:revisionPtr revIDLastSave="366" documentId="13_ncr:1_{44F348D1-6A47-4313-8AEB-6017ED0ED573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1E024308-F31C-4C78-8265-B9F64C7F8E80}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -1986,9 +1986,6 @@
     <t>WetWide</t>
   </si>
   <si>
-    <t>pi_IsoSnlLch</t>
-  </si>
-  <si>
     <t>WestFlat</t>
   </si>
   <si>
@@ -2014,6 +2011,9 @@
   </si>
   <si>
     <t>pi_NonIns</t>
+  </si>
+  <si>
+    <t>pi_IsoMolHir</t>
   </si>
 </sst>
 </file>
@@ -4207,11 +4207,11 @@
   <dimension ref="A1:AJ401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I386" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I380" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="C395" sqref="C395"/>
+      <selection pane="bottomRight" activeCell="I393" sqref="I393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18437,7 +18437,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B361" s="33" t="s">
         <v>463</v>
@@ -18464,7 +18464,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B362" s="33" t="s">
         <v>463</v>
@@ -18491,7 +18491,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B363" s="33" t="s">
         <v>463</v>
@@ -18518,7 +18518,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B364" s="33" t="s">
         <v>463</v>
@@ -18545,7 +18545,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B365" s="33" t="s">
         <v>463</v>
@@ -18572,7 +18572,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B366" s="33" t="s">
         <v>463</v>
@@ -18599,7 +18599,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B367" s="33" t="s">
         <v>463</v>
@@ -18626,7 +18626,7 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B368" s="30" t="s">
         <v>466</v>
@@ -18653,7 +18653,7 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B369" s="30" t="s">
         <v>466</v>
@@ -18680,7 +18680,7 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B370" s="30" t="s">
         <v>466</v>
@@ -18707,7 +18707,7 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B371" s="30" t="s">
         <v>466</v>
@@ -18734,7 +18734,7 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B372" s="30" t="s">
         <v>466</v>
@@ -18761,7 +18761,7 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B373" s="31" t="s">
         <v>468</v>
@@ -18788,7 +18788,7 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B374" s="31" t="s">
         <v>468</v>
@@ -18815,7 +18815,7 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B375" s="31" t="s">
         <v>468</v>
@@ -18842,7 +18842,7 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B376" s="31" t="s">
         <v>468</v>
@@ -18869,13 +18869,13 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B377" s="31" t="s">
         <v>468</v>
       </c>
       <c r="C377" s="28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D377" t="s">
         <v>30</v>
@@ -18896,7 +18896,7 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B378" s="31" t="s">
         <v>468</v>
@@ -18923,13 +18923,13 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B379" s="22" t="s">
         <v>469</v>
       </c>
       <c r="C379" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D379" t="s">
         <v>30</v>
@@ -18950,7 +18950,7 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B380" s="22" t="s">
         <v>469</v>
@@ -18977,13 +18977,13 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B381" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="C381" s="28" t="s">
-        <v>470</v>
+      <c r="C381" s="26" t="s">
+        <v>479</v>
       </c>
       <c r="D381" t="s">
         <v>30</v>
@@ -19004,13 +19004,13 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B382" s="22" t="s">
         <v>469</v>
       </c>
       <c r="C382" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D382" t="s">
         <v>30</v>
@@ -19031,7 +19031,7 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B383" s="22" t="s">
         <v>469</v>
@@ -19058,7 +19058,7 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B384" s="22" t="s">
         <v>469</v>
@@ -19085,10 +19085,10 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B385" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C385" s="28" t="s">
         <v>196</v>
@@ -19112,10 +19112,10 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B386" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C386" s="28" t="s">
         <v>193</v>
@@ -19139,13 +19139,13 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B387" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C387" s="28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D387" t="s">
         <v>30</v>
@@ -19166,10 +19166,10 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B388" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C388" s="28" t="s">
         <v>467</v>
@@ -19193,10 +19193,10 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B389" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C389" s="28" t="s">
         <v>145</v>
@@ -19220,10 +19220,10 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B390" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C390" s="28" t="s">
         <v>79</v>
@@ -19247,10 +19247,10 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B391" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C391" s="28" t="s">
         <v>439</v>
@@ -19274,10 +19274,10 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B392" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C392" s="28" t="s">
         <v>196</v>
@@ -19301,10 +19301,10 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B393" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C393" s="28" t="s">
         <v>166</v>
@@ -19328,13 +19328,13 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B394" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="C394" s="28" t="s">
-        <v>470</v>
+        <v>471</v>
+      </c>
+      <c r="C394" s="26" t="s">
+        <v>479</v>
       </c>
       <c r="D394" t="s">
         <v>30</v>
@@ -19355,10 +19355,10 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B395" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C395" s="28" t="s">
         <v>253</v>
@@ -19382,10 +19382,10 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B396" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C396" s="28" t="s">
         <v>79</v>
@@ -19409,10 +19409,10 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B397" s="25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C397" s="27" t="s">
         <v>196</v>
@@ -19435,10 +19435,10 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B398" s="25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C398" s="27" t="s">
         <v>252</v>
@@ -19461,10 +19461,10 @@
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B399" s="25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C399" s="27" t="s">
         <v>90</v>
@@ -19487,10 +19487,10 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B400" s="25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C400" s="27" t="s">
         <v>467</v>
@@ -19513,10 +19513,10 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B401" s="25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C401" s="27" t="s">
         <v>46</v>
@@ -20055,9 +20055,9 @@
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23113,7 +23113,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B53" s="33" t="s">
         <v>463</v>
@@ -23172,7 +23172,7 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B54" s="30" t="s">
         <v>466</v>
@@ -23231,7 +23231,7 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B55" s="31" t="s">
         <v>468</v>
@@ -23290,7 +23290,7 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B56" s="22" t="s">
         <v>469</v>
@@ -23349,10 +23349,10 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C57" t="s">
         <v>107</v>
@@ -23408,10 +23408,10 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C58" t="s">
         <v>107</v>
@@ -23467,10 +23467,10 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C59" t="s">
         <v>107</v>
@@ -23770,10 +23770,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>475</v>
+      </c>
+      <c r="B23" t="s">
         <v>476</v>
-      </c>
-      <c r="B23" t="s">
-        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -24173,6 +24173,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100557C7523FAC84E43A0DA62C173857381" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4b9ddb1302998b61081aed2913076a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" xmlns:ns4="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3079d22dc9190cbddbf9f4c007b8016d" ns3:_="" ns4:_="">
     <xsd:import namespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
@@ -24395,26 +24404,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
@@ -24422,6 +24422,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19304C29-C31A-47A1-B855-8D09E823E92C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24438,12 +24446,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="13_ncr:1_{44F348D1-6A47-4313-8AEB-6017ED0ED573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1E024308-F31C-4C78-8265-B9F64C7F8E80}"/>
+  <xr:revisionPtr revIDLastSave="405" documentId="13_ncr:1_{44F348D1-6A47-4313-8AEB-6017ED0ED573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A54E215E-2EFF-41C4-B7E7-5472A185B2AF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2157,7 +2157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2212,12 +2212,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2298,7 +2292,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -2337,14 +2331,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -4206,12 +4199,12 @@
   </sheetPr>
   <dimension ref="A1:AJ401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I380" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D386" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="I393" sqref="I393"/>
+      <selection pane="bottomRight" activeCell="E400" sqref="E400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18439,7 +18432,7 @@
       <c r="A361" t="s">
         <v>475</v>
       </c>
-      <c r="B361" s="33" t="s">
+      <c r="B361" s="32" t="s">
         <v>463</v>
       </c>
       <c r="C361" s="28" t="s">
@@ -18466,7 +18459,7 @@
       <c r="A362" t="s">
         <v>475</v>
       </c>
-      <c r="B362" s="33" t="s">
+      <c r="B362" s="32" t="s">
         <v>463</v>
       </c>
       <c r="C362" s="28" t="s">
@@ -18493,7 +18486,7 @@
       <c r="A363" t="s">
         <v>475</v>
       </c>
-      <c r="B363" s="33" t="s">
+      <c r="B363" s="32" t="s">
         <v>463</v>
       </c>
       <c r="C363" s="28" t="s">
@@ -18520,7 +18513,7 @@
       <c r="A364" t="s">
         <v>475</v>
       </c>
-      <c r="B364" s="33" t="s">
+      <c r="B364" s="32" t="s">
         <v>463</v>
       </c>
       <c r="C364" s="28" t="s">
@@ -18547,7 +18540,7 @@
       <c r="A365" t="s">
         <v>475</v>
       </c>
-      <c r="B365" s="33" t="s">
+      <c r="B365" s="32" t="s">
         <v>463</v>
       </c>
       <c r="C365" s="26" t="s">
@@ -18574,7 +18567,7 @@
       <c r="A366" t="s">
         <v>475</v>
       </c>
-      <c r="B366" s="33" t="s">
+      <c r="B366" s="32" t="s">
         <v>463</v>
       </c>
       <c r="C366" s="28" t="s">
@@ -18601,7 +18594,7 @@
       <c r="A367" t="s">
         <v>475</v>
       </c>
-      <c r="B367" s="33" t="s">
+      <c r="B367" s="32" t="s">
         <v>463</v>
       </c>
       <c r="C367" s="28" t="s">
@@ -18628,7 +18621,7 @@
       <c r="A368" t="s">
         <v>475</v>
       </c>
-      <c r="B368" s="30" t="s">
+      <c r="B368" s="29" t="s">
         <v>466</v>
       </c>
       <c r="C368" s="28" t="s">
@@ -18655,7 +18648,7 @@
       <c r="A369" t="s">
         <v>475</v>
       </c>
-      <c r="B369" s="30" t="s">
+      <c r="B369" s="29" t="s">
         <v>466</v>
       </c>
       <c r="C369" s="28" t="s">
@@ -18682,7 +18675,7 @@
       <c r="A370" t="s">
         <v>475</v>
       </c>
-      <c r="B370" s="30" t="s">
+      <c r="B370" s="29" t="s">
         <v>466</v>
       </c>
       <c r="C370" s="28" t="s">
@@ -18709,7 +18702,7 @@
       <c r="A371" t="s">
         <v>475</v>
       </c>
-      <c r="B371" s="30" t="s">
+      <c r="B371" s="29" t="s">
         <v>466</v>
       </c>
       <c r="C371" s="28" t="s">
@@ -18736,7 +18729,7 @@
       <c r="A372" t="s">
         <v>475</v>
       </c>
-      <c r="B372" s="30" t="s">
+      <c r="B372" s="29" t="s">
         <v>466</v>
       </c>
       <c r="C372" s="28" t="s">
@@ -18763,7 +18756,7 @@
       <c r="A373" t="s">
         <v>475</v>
       </c>
-      <c r="B373" s="31" t="s">
+      <c r="B373" s="30" t="s">
         <v>468</v>
       </c>
       <c r="C373" s="28" t="s">
@@ -18790,7 +18783,7 @@
       <c r="A374" t="s">
         <v>475</v>
       </c>
-      <c r="B374" s="31" t="s">
+      <c r="B374" s="30" t="s">
         <v>468</v>
       </c>
       <c r="C374" s="28" t="s">
@@ -18817,7 +18810,7 @@
       <c r="A375" t="s">
         <v>475</v>
       </c>
-      <c r="B375" s="31" t="s">
+      <c r="B375" s="30" t="s">
         <v>468</v>
       </c>
       <c r="C375" s="28" t="s">
@@ -18844,7 +18837,7 @@
       <c r="A376" t="s">
         <v>475</v>
       </c>
-      <c r="B376" s="31" t="s">
+      <c r="B376" s="30" t="s">
         <v>468</v>
       </c>
       <c r="C376" s="28" t="s">
@@ -18871,7 +18864,7 @@
       <c r="A377" t="s">
         <v>475</v>
       </c>
-      <c r="B377" s="31" t="s">
+      <c r="B377" s="30" t="s">
         <v>468</v>
       </c>
       <c r="C377" s="28" t="s">
@@ -18898,7 +18891,7 @@
       <c r="A378" t="s">
         <v>475</v>
       </c>
-      <c r="B378" s="31" t="s">
+      <c r="B378" s="30" t="s">
         <v>468</v>
       </c>
       <c r="C378" s="28" t="s">
@@ -18982,7 +18975,7 @@
       <c r="B381" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="C381" s="26" t="s">
+      <c r="C381" s="28" t="s">
         <v>479</v>
       </c>
       <c r="D381" t="s">
@@ -19087,7 +19080,7 @@
       <c r="A385" t="s">
         <v>475</v>
       </c>
-      <c r="B385" s="32" t="s">
+      <c r="B385" s="31" t="s">
         <v>470</v>
       </c>
       <c r="C385" s="28" t="s">
@@ -19114,7 +19107,7 @@
       <c r="A386" t="s">
         <v>475</v>
       </c>
-      <c r="B386" s="32" t="s">
+      <c r="B386" s="31" t="s">
         <v>470</v>
       </c>
       <c r="C386" s="28" t="s">
@@ -19141,7 +19134,7 @@
       <c r="A387" t="s">
         <v>475</v>
       </c>
-      <c r="B387" s="32" t="s">
+      <c r="B387" s="31" t="s">
         <v>470</v>
       </c>
       <c r="C387" s="28" t="s">
@@ -19168,7 +19161,7 @@
       <c r="A388" t="s">
         <v>475</v>
       </c>
-      <c r="B388" s="32" t="s">
+      <c r="B388" s="31" t="s">
         <v>470</v>
       </c>
       <c r="C388" s="28" t="s">
@@ -19195,7 +19188,7 @@
       <c r="A389" t="s">
         <v>475</v>
       </c>
-      <c r="B389" s="32" t="s">
+      <c r="B389" s="31" t="s">
         <v>470</v>
       </c>
       <c r="C389" s="28" t="s">
@@ -19222,7 +19215,7 @@
       <c r="A390" t="s">
         <v>475</v>
       </c>
-      <c r="B390" s="32" t="s">
+      <c r="B390" s="31" t="s">
         <v>470</v>
       </c>
       <c r="C390" s="28" t="s">
@@ -19249,7 +19242,7 @@
       <c r="A391" t="s">
         <v>475</v>
       </c>
-      <c r="B391" s="30" t="s">
+      <c r="B391" s="29" t="s">
         <v>471</v>
       </c>
       <c r="C391" s="28" t="s">
@@ -19276,7 +19269,7 @@
       <c r="A392" t="s">
         <v>475</v>
       </c>
-      <c r="B392" s="30" t="s">
+      <c r="B392" s="29" t="s">
         <v>471</v>
       </c>
       <c r="C392" s="28" t="s">
@@ -19303,7 +19296,7 @@
       <c r="A393" t="s">
         <v>475</v>
       </c>
-      <c r="B393" s="30" t="s">
+      <c r="B393" s="29" t="s">
         <v>471</v>
       </c>
       <c r="C393" s="28" t="s">
@@ -19330,10 +19323,10 @@
       <c r="A394" t="s">
         <v>475</v>
       </c>
-      <c r="B394" s="30" t="s">
+      <c r="B394" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="C394" s="26" t="s">
+      <c r="C394" s="28" t="s">
         <v>479</v>
       </c>
       <c r="D394" t="s">
@@ -19357,7 +19350,7 @@
       <c r="A395" t="s">
         <v>475</v>
       </c>
-      <c r="B395" s="30" t="s">
+      <c r="B395" s="29" t="s">
         <v>471</v>
       </c>
       <c r="C395" s="28" t="s">
@@ -19384,7 +19377,7 @@
       <c r="A396" t="s">
         <v>475</v>
       </c>
-      <c r="B396" s="30" t="s">
+      <c r="B396" s="29" t="s">
         <v>471</v>
       </c>
       <c r="C396" s="28" t="s">
@@ -19414,22 +19407,22 @@
       <c r="B397" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="C397" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="D397" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E397" s="27">
-        <v>8.14</v>
-      </c>
-      <c r="F397" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G397" s="27">
-        <v>34.39</v>
-      </c>
-      <c r="H397" s="27" t="s">
+      <c r="C397" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="D397" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E397" s="17">
+        <v>0</v>
+      </c>
+      <c r="F397" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G397" s="17">
+        <v>7</v>
+      </c>
+      <c r="H397" s="17" t="s">
         <v>85</v>
       </c>
     </row>
@@ -19441,21 +19434,21 @@
         <v>472</v>
       </c>
       <c r="C398" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="D398" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E398" s="27">
-        <v>1.88</v>
-      </c>
-      <c r="F398" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G398" s="27">
-        <v>51.34</v>
-      </c>
-      <c r="H398" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="D398" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E398" s="17">
+        <v>0</v>
+      </c>
+      <c r="F398" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G398" s="17">
+        <v>32.58</v>
+      </c>
+      <c r="H398" s="17" t="s">
         <v>85</v>
       </c>
     </row>
@@ -19466,22 +19459,22 @@
       <c r="B399" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="C399" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D399" s="27" t="s">
+      <c r="C399" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D399" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E399" s="27">
-        <v>0.38</v>
-      </c>
-      <c r="F399" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G399" s="27">
-        <v>18.45</v>
-      </c>
-      <c r="H399" s="27" t="s">
+      <c r="E399" s="17">
+        <v>5.31</v>
+      </c>
+      <c r="F399" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G399" s="17">
+        <v>77.52</v>
+      </c>
+      <c r="H399" s="17" t="s">
         <v>85</v>
       </c>
     </row>
@@ -19492,22 +19485,22 @@
       <c r="B400" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="C400" s="27" t="s">
-        <v>467</v>
-      </c>
-      <c r="D400" s="27" t="s">
+      <c r="C400" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D400" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E400" s="27">
-        <v>14.93</v>
-      </c>
-      <c r="F400" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G400" s="27">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="H400" s="27" t="s">
+      <c r="E400" s="17">
+        <v>1.29</v>
+      </c>
+      <c r="F400" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G400" s="17">
+        <v>71.02</v>
+      </c>
+      <c r="H400" s="17" t="s">
         <v>85</v>
       </c>
     </row>
@@ -19518,22 +19511,22 @@
       <c r="B401" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="C401" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D401" s="27" t="s">
+      <c r="C401" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D401" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E401" s="27">
-        <v>0</v>
-      </c>
-      <c r="F401" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G401" s="27">
-        <v>18.260000000000002</v>
-      </c>
-      <c r="H401" s="27" t="s">
+      <c r="E401" s="17">
+        <v>0</v>
+      </c>
+      <c r="F401" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G401" s="17">
+        <v>30.9</v>
+      </c>
+      <c r="H401" s="17" t="s">
         <v>85</v>
       </c>
     </row>
@@ -20055,9 +20048,9 @@
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23115,7 +23108,7 @@
       <c r="A53" t="s">
         <v>475</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="32" t="s">
         <v>463</v>
       </c>
       <c r="C53" t="s">
@@ -23174,7 +23167,7 @@
       <c r="A54" t="s">
         <v>475</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>466</v>
       </c>
       <c r="C54" t="s">
@@ -23233,7 +23226,7 @@
       <c r="A55" t="s">
         <v>475</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="30" t="s">
         <v>468</v>
       </c>
       <c r="C55" t="s">
@@ -23351,7 +23344,7 @@
       <c r="A57" t="s">
         <v>475</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="31" t="s">
         <v>470</v>
       </c>
       <c r="C57" t="s">
@@ -23410,7 +23403,7 @@
       <c r="A58" t="s">
         <v>475</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="29" t="s">
         <v>471</v>
       </c>
       <c r="C58" t="s">
@@ -23475,56 +23468,56 @@
       <c r="C59" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="29">
+      <c r="D59" s="17">
         <v>5</v>
       </c>
-      <c r="E59" s="29" t="s">
+      <c r="E59" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="G59" s="29">
+      <c r="G59" s="17">
         <v>4</v>
       </c>
-      <c r="H59" s="29">
-        <v>0</v>
-      </c>
-      <c r="I59" s="29">
+      <c r="H59" s="17">
+        <v>0</v>
+      </c>
+      <c r="I59" s="17">
         <v>25</v>
       </c>
-      <c r="J59" s="29">
+      <c r="J59" s="17">
         <v>50</v>
       </c>
-      <c r="K59" s="29">
+      <c r="K59" s="17">
         <v>75</v>
       </c>
-      <c r="L59" s="29">
+      <c r="L59" s="17">
         <v>100</v>
       </c>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29" t="s">
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="P59" s="29" t="s">
+      <c r="P59" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="Q59" s="29" t="s">
+      <c r="Q59" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="R59" s="29" t="s">
+      <c r="R59" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="V59" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="W59" s="29" t="s">
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="V59" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="W59" s="17" t="s">
         <v>83</v>
       </c>
     </row>
@@ -24167,21 +24160,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100557C7523FAC84E43A0DA62C173857381" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4b9ddb1302998b61081aed2913076a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bb5d252-d316-43f0-83d0-ec4a335d3ce7" xmlns:ns4="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3079d22dc9190cbddbf9f4c007b8016d" ns3:_="" ns4:_="">
     <xsd:import namespace="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
@@ -24404,32 +24382,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19304C29-C31A-47A1-B855-8D09E823E92C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24446,4 +24414,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="405" documentId="13_ncr:1_{44F348D1-6A47-4313-8AEB-6017ED0ED573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A54E215E-2EFF-41C4-B7E7-5472A185B2AF}"/>
+  <xr:revisionPtr revIDLastSave="408" documentId="13_ncr:1_{44F348D1-6A47-4313-8AEB-6017ED0ED573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{47927A1C-6A26-449D-8169-09168F9ACAD3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,7 +574,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="481">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -2014,6 +2014,9 @@
   </si>
   <si>
     <t>pi_IsoMolHir</t>
+  </si>
+  <si>
+    <t>pi_EPTnoBH</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2212,12 +2215,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2292,7 +2289,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -2332,12 +2329,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -4200,11 +4195,11 @@
   <dimension ref="A1:AJ401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D386" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D371" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="E400" sqref="E400"/>
+      <selection pane="bottomRight" activeCell="C367" sqref="C367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18432,10 +18427,10 @@
       <c r="A361" t="s">
         <v>475</v>
       </c>
-      <c r="B361" s="32" t="s">
+      <c r="B361" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="C361" s="28" t="s">
+      <c r="C361" s="26" t="s">
         <v>196</v>
       </c>
       <c r="D361" t="s">
@@ -18459,10 +18454,10 @@
       <c r="A362" t="s">
         <v>475</v>
       </c>
-      <c r="B362" s="32" t="s">
+      <c r="B362" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="C362" s="28" t="s">
+      <c r="C362" s="26" t="s">
         <v>464</v>
       </c>
       <c r="D362" t="s">
@@ -18486,10 +18481,10 @@
       <c r="A363" t="s">
         <v>475</v>
       </c>
-      <c r="B363" s="32" t="s">
+      <c r="B363" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="C363" s="28" t="s">
+      <c r="C363" s="26" t="s">
         <v>140</v>
       </c>
       <c r="D363" t="s">
@@ -18513,10 +18508,10 @@
       <c r="A364" t="s">
         <v>475</v>
       </c>
-      <c r="B364" s="32" t="s">
+      <c r="B364" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="C364" s="28" t="s">
+      <c r="C364" s="26" t="s">
         <v>252</v>
       </c>
       <c r="D364" t="s">
@@ -18540,7 +18535,7 @@
       <c r="A365" t="s">
         <v>475</v>
       </c>
-      <c r="B365" s="32" t="s">
+      <c r="B365" s="30" t="s">
         <v>463</v>
       </c>
       <c r="C365" s="26" t="s">
@@ -18567,10 +18562,10 @@
       <c r="A366" t="s">
         <v>475</v>
       </c>
-      <c r="B366" s="32" t="s">
+      <c r="B366" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="C366" s="28" t="s">
+      <c r="C366" s="26" t="s">
         <v>465</v>
       </c>
       <c r="D366" t="s">
@@ -18594,10 +18589,10 @@
       <c r="A367" t="s">
         <v>475</v>
       </c>
-      <c r="B367" s="32" t="s">
+      <c r="B367" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="C367" s="28" t="s">
+      <c r="C367" s="26" t="s">
         <v>184</v>
       </c>
       <c r="D367" t="s">
@@ -18621,10 +18616,10 @@
       <c r="A368" t="s">
         <v>475</v>
       </c>
-      <c r="B368" s="29" t="s">
+      <c r="B368" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="C368" s="28" t="s">
+      <c r="C368" s="26" t="s">
         <v>196</v>
       </c>
       <c r="D368" t="s">
@@ -18648,10 +18643,10 @@
       <c r="A369" t="s">
         <v>475</v>
       </c>
-      <c r="B369" s="29" t="s">
+      <c r="B369" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="C369" s="28" t="s">
+      <c r="C369" s="26" t="s">
         <v>252</v>
       </c>
       <c r="D369" t="s">
@@ -18675,10 +18670,10 @@
       <c r="A370" t="s">
         <v>475</v>
       </c>
-      <c r="B370" s="29" t="s">
+      <c r="B370" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="C370" s="28" t="s">
+      <c r="C370" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D370" t="s">
@@ -18702,10 +18697,10 @@
       <c r="A371" t="s">
         <v>475</v>
       </c>
-      <c r="B371" s="29" t="s">
+      <c r="B371" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="C371" s="28" t="s">
+      <c r="C371" s="26" t="s">
         <v>467</v>
       </c>
       <c r="D371" t="s">
@@ -18729,10 +18724,10 @@
       <c r="A372" t="s">
         <v>475</v>
       </c>
-      <c r="B372" s="29" t="s">
+      <c r="B372" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="C372" s="28" t="s">
+      <c r="C372" s="26" t="s">
         <v>46</v>
       </c>
       <c r="D372" t="s">
@@ -18756,10 +18751,10 @@
       <c r="A373" t="s">
         <v>475</v>
       </c>
-      <c r="B373" s="30" t="s">
+      <c r="B373" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="C373" s="28" t="s">
+      <c r="C373" s="26" t="s">
         <v>17</v>
       </c>
       <c r="D373" t="s">
@@ -18783,10 +18778,10 @@
       <c r="A374" t="s">
         <v>475</v>
       </c>
-      <c r="B374" s="30" t="s">
+      <c r="B374" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="C374" s="28" t="s">
+      <c r="C374" s="26" t="s">
         <v>196</v>
       </c>
       <c r="D374" t="s">
@@ -18810,10 +18805,10 @@
       <c r="A375" t="s">
         <v>475</v>
       </c>
-      <c r="B375" s="30" t="s">
+      <c r="B375" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="C375" s="28" t="s">
+      <c r="C375" s="26" t="s">
         <v>252</v>
       </c>
       <c r="D375" t="s">
@@ -18837,10 +18832,10 @@
       <c r="A376" t="s">
         <v>475</v>
       </c>
-      <c r="B376" s="30" t="s">
+      <c r="B376" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="C376" s="28" t="s">
+      <c r="C376" s="26" t="s">
         <v>91</v>
       </c>
       <c r="D376" t="s">
@@ -18864,10 +18859,10 @@
       <c r="A377" t="s">
         <v>475</v>
       </c>
-      <c r="B377" s="30" t="s">
+      <c r="B377" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="C377" s="28" t="s">
+      <c r="C377" s="26" t="s">
         <v>473</v>
       </c>
       <c r="D377" t="s">
@@ -18891,10 +18886,10 @@
       <c r="A378" t="s">
         <v>475</v>
       </c>
-      <c r="B378" s="30" t="s">
+      <c r="B378" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="C378" s="28" t="s">
+      <c r="C378" s="26" t="s">
         <v>145</v>
       </c>
       <c r="D378" t="s">
@@ -18921,7 +18916,7 @@
       <c r="B379" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="C379" s="28" t="s">
+      <c r="C379" s="26" t="s">
         <v>477</v>
       </c>
       <c r="D379" t="s">
@@ -18948,7 +18943,7 @@
       <c r="B380" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="C380" s="28" t="s">
+      <c r="C380" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D380" t="s">
@@ -18975,7 +18970,7 @@
       <c r="B381" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="C381" s="28" t="s">
+      <c r="C381" s="26" t="s">
         <v>479</v>
       </c>
       <c r="D381" t="s">
@@ -19002,7 +18997,7 @@
       <c r="B382" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="C382" s="28" t="s">
+      <c r="C382" s="26" t="s">
         <v>478</v>
       </c>
       <c r="D382" t="s">
@@ -19029,7 +19024,7 @@
       <c r="B383" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="C383" s="28" t="s">
+      <c r="C383" s="26" t="s">
         <v>141</v>
       </c>
       <c r="D383" t="s">
@@ -19056,7 +19051,7 @@
       <c r="B384" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="C384" s="28" t="s">
+      <c r="C384" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D384" t="s">
@@ -19080,10 +19075,10 @@
       <c r="A385" t="s">
         <v>475</v>
       </c>
-      <c r="B385" s="31" t="s">
+      <c r="B385" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="C385" s="28" t="s">
+      <c r="C385" s="26" t="s">
         <v>196</v>
       </c>
       <c r="D385" t="s">
@@ -19107,10 +19102,10 @@
       <c r="A386" t="s">
         <v>475</v>
       </c>
-      <c r="B386" s="31" t="s">
+      <c r="B386" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="C386" s="28" t="s">
+      <c r="C386" s="26" t="s">
         <v>193</v>
       </c>
       <c r="D386" t="s">
@@ -19134,10 +19129,10 @@
       <c r="A387" t="s">
         <v>475</v>
       </c>
-      <c r="B387" s="31" t="s">
+      <c r="B387" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="C387" s="28" t="s">
+      <c r="C387" s="26" t="s">
         <v>474</v>
       </c>
       <c r="D387" t="s">
@@ -19161,10 +19156,10 @@
       <c r="A388" t="s">
         <v>475</v>
       </c>
-      <c r="B388" s="31" t="s">
+      <c r="B388" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="C388" s="28" t="s">
+      <c r="C388" s="26" t="s">
         <v>467</v>
       </c>
       <c r="D388" t="s">
@@ -19188,10 +19183,10 @@
       <c r="A389" t="s">
         <v>475</v>
       </c>
-      <c r="B389" s="31" t="s">
+      <c r="B389" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="C389" s="28" t="s">
+      <c r="C389" s="26" t="s">
         <v>145</v>
       </c>
       <c r="D389" t="s">
@@ -19215,10 +19210,10 @@
       <c r="A390" t="s">
         <v>475</v>
       </c>
-      <c r="B390" s="31" t="s">
+      <c r="B390" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="C390" s="28" t="s">
+      <c r="C390" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D390" t="s">
@@ -19242,10 +19237,10 @@
       <c r="A391" t="s">
         <v>475</v>
       </c>
-      <c r="B391" s="29" t="s">
+      <c r="B391" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="C391" s="28" t="s">
+      <c r="C391" s="26" t="s">
         <v>439</v>
       </c>
       <c r="D391" t="s">
@@ -19269,10 +19264,10 @@
       <c r="A392" t="s">
         <v>475</v>
       </c>
-      <c r="B392" s="29" t="s">
+      <c r="B392" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="C392" s="28" t="s">
+      <c r="C392" s="26" t="s">
         <v>196</v>
       </c>
       <c r="D392" t="s">
@@ -19296,10 +19291,10 @@
       <c r="A393" t="s">
         <v>475</v>
       </c>
-      <c r="B393" s="29" t="s">
+      <c r="B393" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="C393" s="28" t="s">
+      <c r="C393" s="26" t="s">
         <v>166</v>
       </c>
       <c r="D393" t="s">
@@ -19323,10 +19318,10 @@
       <c r="A394" t="s">
         <v>475</v>
       </c>
-      <c r="B394" s="29" t="s">
+      <c r="B394" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="C394" s="28" t="s">
+      <c r="C394" s="26" t="s">
         <v>479</v>
       </c>
       <c r="D394" t="s">
@@ -19350,10 +19345,10 @@
       <c r="A395" t="s">
         <v>475</v>
       </c>
-      <c r="B395" s="29" t="s">
+      <c r="B395" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="C395" s="28" t="s">
+      <c r="C395" s="26" t="s">
         <v>253</v>
       </c>
       <c r="D395" t="s">
@@ -19377,10 +19372,10 @@
       <c r="A396" t="s">
         <v>475</v>
       </c>
-      <c r="B396" s="29" t="s">
+      <c r="B396" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="C396" s="28" t="s">
+      <c r="C396" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D396" t="s">
@@ -19407,7 +19402,7 @@
       <c r="B397" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="C397" s="28" t="s">
+      <c r="C397" s="26" t="s">
         <v>439</v>
       </c>
       <c r="D397" s="17" t="s">
@@ -19433,8 +19428,8 @@
       <c r="B398" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="C398" s="27" t="s">
-        <v>467</v>
+      <c r="C398" s="26" t="s">
+        <v>480</v>
       </c>
       <c r="D398" s="17" t="s">
         <v>15</v>
@@ -19459,7 +19454,7 @@
       <c r="B399" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="C399" s="28" t="s">
+      <c r="C399" s="26" t="s">
         <v>193</v>
       </c>
       <c r="D399" s="17" t="s">
@@ -19485,7 +19480,7 @@
       <c r="B400" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="C400" s="28" t="s">
+      <c r="C400" s="26" t="s">
         <v>91</v>
       </c>
       <c r="D400" s="17" t="s">
@@ -19511,7 +19506,7 @@
       <c r="B401" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="C401" s="28" t="s">
+      <c r="C401" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D401" s="17" t="s">
@@ -23108,7 +23103,7 @@
       <c r="A53" t="s">
         <v>475</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="30" t="s">
         <v>463</v>
       </c>
       <c r="C53" t="s">
@@ -23167,7 +23162,7 @@
       <c r="A54" t="s">
         <v>475</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="27" t="s">
         <v>466</v>
       </c>
       <c r="C54" t="s">
@@ -23226,7 +23221,7 @@
       <c r="A55" t="s">
         <v>475</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="28" t="s">
         <v>468</v>
       </c>
       <c r="C55" t="s">
@@ -23344,7 +23339,7 @@
       <c r="A57" t="s">
         <v>475</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="29" t="s">
         <v>470</v>
       </c>
       <c r="C57" t="s">
@@ -23403,7 +23398,7 @@
       <c r="A58" t="s">
         <v>475</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="27" t="s">
         <v>471</v>
       </c>
       <c r="C58" t="s">
@@ -24383,18 +24378,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24417,16 +24412,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -24434,9 +24422,16 @@
     <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="408" documentId="13_ncr:1_{44F348D1-6A47-4313-8AEB-6017ED0ED573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{47927A1C-6A26-449D-8169-09168F9ACAD3}"/>
+  <xr:revisionPtr revIDLastSave="409" documentId="13_ncr:1_{44F348D1-6A47-4313-8AEB-6017ED0ED573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{0E8B2190-58CC-4601-8DF6-ADF5301D970A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2016,7 +2016,7 @@
     <t>pi_IsoMolHir</t>
   </si>
   <si>
-    <t>pi_EPTnoBH</t>
+    <t>pi_EPTNoBH</t>
   </si>
 </sst>
 </file>
@@ -4199,7 +4199,7 @@
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="C367" sqref="C367"/>
+      <selection pane="bottomRight" activeCell="C399" sqref="C399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24378,18 +24378,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24412,26 +24412,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F348D1-6A47-4313-8AEB-6017ED0ED573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277E39C6-53B3-495A-A951-C9FC674BC0B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29535" yWindow="1335" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -22527,12 +22527,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22759,15 +22756,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22792,18 +22801,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B5CE17-8132-4C57-839B-3B611ABBC531}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C7B5CE17-8132-4C57-839B-3B611ABBC531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A5B5A5B7-CAAD-4980-8557-AFC82256F465}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -574,7 +576,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4719" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4719" uniqueCount="491">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -2044,6 +2046,9 @@
   </si>
   <si>
     <t>2.49</t>
+  </si>
+  <si>
+    <t>Undecided</t>
   </si>
 </sst>
 </file>
@@ -3938,7 +3943,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\[MetricScoring.xlsx]</v>
+        <v>C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\[MetricScoring.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4208,12 +4213,12 @@
   </sheetPr>
   <dimension ref="A1:AJ401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D378" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomRight" activeCell="A402" sqref="A402"/>
+      <selection pane="bottomRight" activeCell="C403" sqref="C403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20372,10 +20377,10 @@
   </sheetPr>
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomLeft" activeCell="X38" sqref="X38:X43"/>
+      <selection pane="bottomLeft" activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23623,16 +23628,16 @@
         <v>100</v>
       </c>
       <c r="O53" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="P53" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="Q53" t="s">
-        <v>130</v>
+        <v>490</v>
       </c>
       <c r="R53" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="U53" t="b">
         <v>0</v>
@@ -23685,16 +23690,16 @@
         <v>100</v>
       </c>
       <c r="O54" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="P54" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="Q54" t="s">
-        <v>130</v>
+        <v>490</v>
       </c>
       <c r="R54" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="U54" t="b">
         <v>0</v>
@@ -23747,16 +23752,16 @@
         <v>100</v>
       </c>
       <c r="O55" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="P55" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="Q55" t="s">
-        <v>130</v>
+        <v>490</v>
       </c>
       <c r="R55" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="U55" t="b">
         <v>0</v>
@@ -23809,16 +23814,16 @@
         <v>100</v>
       </c>
       <c r="O56" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="P56" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="Q56" t="s">
-        <v>130</v>
+        <v>490</v>
       </c>
       <c r="R56" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="U56" t="b">
         <v>0</v>
@@ -23871,16 +23876,16 @@
         <v>100</v>
       </c>
       <c r="O57" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="P57" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="Q57" t="s">
-        <v>130</v>
+        <v>490</v>
       </c>
       <c r="R57" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="U57" t="b">
         <v>0</v>
@@ -23906,7 +23911,7 @@
         <v>106</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E58" t="s">
         <v>112</v>
@@ -23933,16 +23938,16 @@
         <v>100</v>
       </c>
       <c r="O58" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="P58" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="Q58" t="s">
-        <v>130</v>
+        <v>490</v>
       </c>
       <c r="R58" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="U58" t="b">
         <v>0</v>
@@ -23995,16 +24000,16 @@
         <v>100</v>
       </c>
       <c r="O59" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="P59" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="Q59" t="s">
-        <v>130</v>
+        <v>490</v>
       </c>
       <c r="R59" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="U59" t="b">
         <v>0</v>

--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C7B5CE17-8132-4C57-839B-3B611ABBC531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A5B5A5B7-CAAD-4980-8557-AFC82256F465}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{C7B5CE17-8132-4C57-839B-3B611ABBC531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6509AFBE-F423-4E5B-B45B-712FB0739294}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,7 +576,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4719" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4719" uniqueCount="494">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -2048,14 +2048,23 @@
     <t>2.49</t>
   </si>
   <si>
-    <t>Undecided</t>
+    <t>Low 0-25</t>
+  </si>
+  <si>
+    <t>Low Moderate 25-50</t>
+  </si>
+  <si>
+    <t>High Moderate 50-75</t>
+  </si>
+  <si>
+    <t>High 75-100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2184,6 +2193,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -20380,7 +20395,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
-      <selection pane="bottomLeft" activeCell="Q62" sqref="Q62"/>
+      <selection pane="bottomLeft" activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20394,8 +20409,10 @@
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" customWidth="1"/>
     <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -23631,13 +23648,13 @@
         <v>490</v>
       </c>
       <c r="P53" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q53" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="R53" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="U53" t="b">
         <v>0</v>
@@ -23693,13 +23710,13 @@
         <v>490</v>
       </c>
       <c r="P54" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q54" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="R54" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="U54" t="b">
         <v>0</v>
@@ -23755,13 +23772,13 @@
         <v>490</v>
       </c>
       <c r="P55" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q55" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="R55" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="U55" t="b">
         <v>0</v>
@@ -23817,13 +23834,13 @@
         <v>490</v>
       </c>
       <c r="P56" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q56" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="R56" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="U56" t="b">
         <v>0</v>
@@ -23879,13 +23896,13 @@
         <v>490</v>
       </c>
       <c r="P57" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q57" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="R57" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="U57" t="b">
         <v>0</v>
@@ -23941,13 +23958,13 @@
         <v>490</v>
       </c>
       <c r="P58" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q58" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="R58" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="U58" t="b">
         <v>0</v>
@@ -24003,13 +24020,13 @@
         <v>490</v>
       </c>
       <c r="P59" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q59" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="R59" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="U59" t="b">
         <v>0</v>
@@ -24026,6 +24043,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:X59" xr:uid="{FA5A1C1B-D6D5-48E2-ABCB-FB7BCD11781F}"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24653,12 +24671,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24885,15 +24900,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24918,18 +24945,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD8027B-57D9-4B92-B1B3-871595BA197C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499CACD6-B6F0-4CF9-927E-84E37D5EF230}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c0f75fa0-0a50-44a1-84b6-f6a4c66e6868"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9bb5d252-d316-43f0-83d0-ec4a335d3ce7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/extdata/MetricScoring.xlsx
+++ b/inst/extdata/MetricScoring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{C7B5CE17-8132-4C57-839B-3B611ABBC531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6509AFBE-F423-4E5B-B45B-712FB0739294}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F186C7A-49E7-4EB9-973E-2C60C91CEE22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4719" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4721" uniqueCount="496">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -2058,6 +2058,12 @@
   </si>
   <si>
     <t>High 75-100</t>
+  </si>
+  <si>
+    <t>MI index; Narratives to generic terms and fixed East index for number of metrics.</t>
+  </si>
+  <si>
+    <t>Changes</t>
   </si>
 </sst>
 </file>
@@ -2201,7 +2207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2259,6 +2265,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2300,7 +2312,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -2339,6 +2351,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -3918,10 +3932,11 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <pane ySplit="5" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3949,7 +3964,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>44036</v>
+        <v>44054</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3958,7 +3973,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\[MetricScoring.xlsx]</v>
+        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\[MetricScoring.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4082,120 +4097,136 @@
         <v>References</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>43481</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>43592</v>
-      </c>
-      <c r="B25" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>43609</v>
+        <v>43592</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>43616</v>
+        <v>43609</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
+        <v>43616</v>
+      </c>
+      <c r="B28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>43643</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>43648</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>43753</v>
-      </c>
-      <c r="B33" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>43754</v>
+        <v>43753</v>
       </c>
       <c r="B34" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>43755</v>
+        <v>43754</v>
       </c>
       <c r="B35" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>43817</v>
+        <v>43755</v>
       </c>
       <c r="B36" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>44007</v>
+        <v>43817</v>
       </c>
       <c r="B37" t="s">
-        <v>443</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>44011</v>
+        <v>44007</v>
       </c>
       <c r="B38" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
+        <v>44011</v>
+      </c>
+      <c r="B39" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>44036</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>44054</v>
+      </c>
+      <c r="B41" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -4228,12 +4259,12 @@
   </sheetPr>
   <dimension ref="A1:AJ401"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D378" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D379" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
